--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13E21E-28DA-476D-A5B2-CECEF2861BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5013F632-CD95-4E24-9EB9-181096B5D701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="320">
   <si>
     <t>id</t>
   </si>
@@ -942,9 +942,6 @@
   </si>
   <si>
     <t>Mónica Zalaquett Said</t>
-  </si>
-  <si>
-    <t>Sin info</t>
   </si>
   <si>
     <t>Antonio Walker Prieto</t>
@@ -1385,7 +1382,7 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1461,7 @@
         <v>18233</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G31" ca="1" si="0">(YEAR(TODAY())-YEAR(F2))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
         <v>71</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -1473,9 +1470,7 @@
       <c r="I2" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J2" t="s">
-        <v>302</v>
-      </c>
+      <c r="J2"/>
       <c r="K2" s="9"/>
       <c r="M2"/>
     </row>
@@ -1499,7 +1494,7 @@
         <v>15516</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
         <v>78</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -1508,9 +1503,7 @@
       <c r="I3" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J3" t="s">
-        <v>302</v>
-      </c>
+      <c r="J3"/>
       <c r="K3" s="9"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1535,7 +1528,7 @@
         <v>13941</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
         <v>82</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -1544,9 +1537,7 @@
       <c r="I4" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J4" t="s">
-        <v>302</v>
-      </c>
+      <c r="J4"/>
       <c r="K4" s="9"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1571,7 +1562,7 @@
         <v>18900</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
         <v>69</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1580,9 +1571,7 @@
       <c r="I5" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J5" t="s">
-        <v>302</v>
-      </c>
+      <c r="J5"/>
       <c r="K5" s="9"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1607,7 +1596,7 @@
         <v>26645</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
         <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -1616,9 +1605,7 @@
       <c r="I6" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="J6" t="s">
-        <v>302</v>
-      </c>
+      <c r="J6"/>
       <c r="K6" s="9"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1643,7 +1630,7 @@
         <v>20120</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
         <v>65</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1652,9 +1639,7 @@
       <c r="I7" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="J7" t="s">
-        <v>302</v>
-      </c>
+      <c r="J7"/>
       <c r="K7" s="9"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1679,7 +1664,7 @@
         <v>28232</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
         <v>43</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -1688,9 +1673,7 @@
       <c r="I8" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J8" t="s">
-        <v>302</v>
-      </c>
+      <c r="J8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1715,7 +1698,7 @@
         <v>27653</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
         <v>45</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1724,9 +1707,7 @@
       <c r="I9" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J9" t="s">
-        <v>302</v>
-      </c>
+      <c r="J9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1745,13 +1726,13 @@
         <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F10" s="9">
         <v>22460</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
         <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1760,9 +1741,7 @@
       <c r="I10" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J10" t="s">
-        <v>302</v>
-      </c>
+      <c r="J10"/>
       <c r="K10" s="9"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1787,7 +1766,7 @@
         <v>27681</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
         <v>45</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -1796,9 +1775,7 @@
       <c r="I11" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J11" t="s">
-        <v>302</v>
-      </c>
+      <c r="J11"/>
       <c r="K11" s="9"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1823,7 +1800,7 @@
         <v>17815</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
         <v>72</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -1832,9 +1809,7 @@
       <c r="I12" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J12" t="s">
-        <v>302</v>
-      </c>
+      <c r="J12"/>
       <c r="K12" s="9"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1853,13 +1828,13 @@
         <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F13" s="9">
         <v>27474</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
         <v>45</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -1868,9 +1843,7 @@
       <c r="I13" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J13" t="s">
-        <v>302</v>
-      </c>
+      <c r="J13"/>
       <c r="K13" s="9"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1889,13 +1862,13 @@
         <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F14" s="9">
         <v>20671</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
         <v>64</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -1904,9 +1877,7 @@
       <c r="I14" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J14" t="s">
-        <v>302</v>
-      </c>
+      <c r="J14"/>
       <c r="K14" s="9"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1925,13 +1896,13 @@
         <v>274</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F15" s="9">
         <v>17779</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
         <v>72</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -1940,9 +1911,7 @@
       <c r="I15" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J15" t="s">
-        <v>302</v>
-      </c>
+      <c r="J15"/>
       <c r="K15" s="9"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1961,13 +1930,13 @@
         <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F16" s="9">
         <v>24724</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
         <v>53</v>
       </c>
       <c r="H16" s="11" t="s">
@@ -1976,9 +1945,7 @@
       <c r="I16" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J16" t="s">
-        <v>302</v>
-      </c>
+      <c r="J16"/>
       <c r="K16" s="9"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1997,13 +1964,13 @@
         <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F17" s="9">
         <v>25134</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
         <v>52</v>
       </c>
       <c r="H17" s="11" t="s">
@@ -2012,9 +1979,7 @@
       <c r="I17" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J17" t="s">
-        <v>302</v>
-      </c>
+      <c r="J17"/>
       <c r="K17" s="9"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2039,7 +2004,7 @@
         <v>25126</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
         <v>52</v>
       </c>
       <c r="H18" t="s">
@@ -2048,9 +2013,7 @@
       <c r="I18" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J18" t="s">
-        <v>302</v>
-      </c>
+      <c r="J18"/>
       <c r="K18" s="9"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2075,7 +2038,7 @@
         <v>24970</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
         <v>52</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -2084,9 +2047,7 @@
       <c r="I19" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J19" t="s">
-        <v>302</v>
-      </c>
+      <c r="J19"/>
       <c r="K19" s="9"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2111,7 +2072,7 @@
         <v>20492</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
         <v>64</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -2120,9 +2081,7 @@
       <c r="I20" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J20" t="s">
-        <v>302</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" s="9"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2147,7 +2106,7 @@
         <v>21368</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
         <v>62</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -2156,9 +2115,7 @@
       <c r="I21" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J21" t="s">
-        <v>302</v>
-      </c>
+      <c r="J21"/>
       <c r="K21" s="9"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2177,13 +2134,13 @@
         <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F22" s="9">
         <v>27295</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
         <v>46</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -2192,9 +2149,7 @@
       <c r="I22" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J22" t="s">
-        <v>302</v>
-      </c>
+      <c r="J22"/>
       <c r="K22" s="9"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2213,13 +2168,13 @@
         <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F23" s="9">
         <v>27105</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
         <v>46</v>
       </c>
       <c r="H23" s="11" t="s">
@@ -2228,9 +2183,7 @@
       <c r="I23" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J23" t="s">
-        <v>302</v>
-      </c>
+      <c r="J23"/>
       <c r="K23" s="9"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2255,7 +2208,7 @@
         <v>29554</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
         <v>40</v>
       </c>
       <c r="H24" t="s">
@@ -2264,9 +2217,7 @@
       <c r="I24" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J24" t="s">
-        <v>302</v>
-      </c>
+      <c r="J24"/>
       <c r="K24" s="9"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2291,7 +2242,7 @@
         <v>20015</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
         <v>66</v>
       </c>
       <c r="H25" s="11" t="s">
@@ -2300,9 +2251,7 @@
       <c r="I25" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J25" t="s">
-        <v>302</v>
-      </c>
+      <c r="J25"/>
       <c r="K25" s="9"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2321,13 +2270,13 @@
         <v>274</v>
       </c>
       <c r="E26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="9">
         <v>26556</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
         <v>48</v>
       </c>
       <c r="H26" s="11" t="s">
@@ -2336,9 +2285,7 @@
       <c r="I26" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J26" t="s">
-        <v>302</v>
-      </c>
+      <c r="J26"/>
       <c r="K26" s="9"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2363,7 +2310,7 @@
         <v>32557</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
         <v>31</v>
       </c>
       <c r="H27" s="11" t="s">
@@ -2372,9 +2319,7 @@
       <c r="I27" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J27" t="s">
-        <v>302</v>
-      </c>
+      <c r="J27"/>
       <c r="K27" s="9"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2399,7 +2344,7 @@
         <v>22770</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
         <v>58</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -2408,9 +2353,7 @@
       <c r="I28" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J28" t="s">
-        <v>302</v>
-      </c>
+      <c r="J28"/>
       <c r="K28" s="9"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2435,7 +2378,7 @@
         <v>17431</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
         <v>73</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -2444,9 +2387,7 @@
       <c r="I29" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J29" t="s">
-        <v>302</v>
-      </c>
+      <c r="J29"/>
       <c r="K29" s="9"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2471,7 +2412,7 @@
         <v>30994</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
         <v>36</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -2480,9 +2421,7 @@
       <c r="I30" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="J30" t="s">
-        <v>302</v>
-      </c>
+      <c r="J30"/>
       <c r="K30" s="9"/>
       <c r="M30"/>
     </row>
@@ -2506,7 +2445,7 @@
         <v>25454</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
         <v>51</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -2515,9 +2454,7 @@
       <c r="I31" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="J31" t="s">
-        <v>302</v>
-      </c>
+      <c r="J31"/>
       <c r="K31" s="9"/>
       <c r="M31"/>
     </row>
@@ -2545,9 +2482,7 @@
       <c r="I32" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J32" t="s">
-        <v>302</v>
-      </c>
+      <c r="J32"/>
       <c r="K32" s="9"/>
       <c r="M32"/>
     </row>
@@ -2575,9 +2510,7 @@
       <c r="I33" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J33" t="s">
-        <v>302</v>
-      </c>
+      <c r="J33"/>
       <c r="K33" s="9"/>
       <c r="M33"/>
     </row>
@@ -2610,9 +2543,7 @@
       <c r="I34" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J34" t="s">
-        <v>302</v>
-      </c>
+      <c r="J34"/>
       <c r="K34" s="9"/>
       <c r="M34"/>
     </row>
@@ -2640,9 +2571,7 @@
       <c r="I35" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J35" t="s">
-        <v>302</v>
-      </c>
+      <c r="J35"/>
       <c r="K35" s="9"/>
       <c r="M35"/>
     </row>
@@ -2675,9 +2604,7 @@
       <c r="I36" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J36" t="s">
-        <v>302</v>
-      </c>
+      <c r="J36"/>
       <c r="K36" s="9"/>
       <c r="M36"/>
     </row>
@@ -2710,9 +2637,7 @@
       <c r="I37" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J37" t="s">
-        <v>302</v>
-      </c>
+      <c r="J37"/>
       <c r="K37" s="9"/>
       <c r="M37"/>
     </row>
@@ -2745,9 +2670,7 @@
       <c r="I38" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J38" t="s">
-        <v>302</v>
-      </c>
+      <c r="J38"/>
       <c r="K38" s="9"/>
       <c r="M38"/>
     </row>
@@ -2775,9 +2698,7 @@
       <c r="I39" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J39" t="s">
-        <v>302</v>
-      </c>
+      <c r="J39"/>
       <c r="K39" s="9"/>
       <c r="M39"/>
     </row>
@@ -2801,7 +2722,7 @@
         <v>18048</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40:G49" ca="1" si="1">(YEAR(TODAY())-YEAR(F40))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
         <v>71</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -2810,9 +2731,7 @@
       <c r="I40" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J40" t="s">
-        <v>302</v>
-      </c>
+      <c r="J40"/>
       <c r="K40" s="9"/>
       <c r="M40"/>
     </row>
@@ -2836,7 +2755,7 @@
         <v>25492</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
         <v>51</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -2845,9 +2764,7 @@
       <c r="I41" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J41" t="s">
-        <v>302</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" s="9"/>
       <c r="M41"/>
     </row>
@@ -2871,7 +2788,7 @@
         <v>27655</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
         <v>45</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -2880,9 +2797,7 @@
       <c r="I42" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J42" t="s">
-        <v>302</v>
-      </c>
+      <c r="J42"/>
       <c r="K42" s="9"/>
       <c r="M42"/>
     </row>
@@ -2906,7 +2821,7 @@
         <v>22881</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
         <v>58</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -2915,9 +2830,7 @@
       <c r="I43" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J43" t="s">
-        <v>302</v>
-      </c>
+      <c r="J43"/>
       <c r="K43" s="9"/>
       <c r="M43"/>
     </row>
@@ -2941,7 +2854,7 @@
         <v>29105</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
         <v>41</v>
       </c>
       <c r="H44" s="11" t="s">
@@ -2950,9 +2863,7 @@
       <c r="I44" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J44" t="s">
-        <v>302</v>
-      </c>
+      <c r="J44"/>
       <c r="K44" s="9"/>
       <c r="M44"/>
     </row>
@@ -2976,7 +2887,7 @@
         <v>20806</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
         <v>64</v>
       </c>
       <c r="H45" s="11" t="s">
@@ -2985,9 +2896,7 @@
       <c r="I45" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J45" t="s">
-        <v>302</v>
-      </c>
+      <c r="J45"/>
       <c r="K45" s="9"/>
       <c r="M45"/>
     </row>
@@ -3011,7 +2920,7 @@
         <v>26763</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
         <v>47</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -3020,9 +2929,7 @@
       <c r="I46" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J46" t="s">
-        <v>302</v>
-      </c>
+      <c r="J46"/>
       <c r="K46" s="9"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3047,7 +2954,7 @@
         <v>26090</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
         <v>49</v>
       </c>
       <c r="H47" s="11" t="s">
@@ -3056,9 +2963,7 @@
       <c r="I47" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J47" t="s">
-        <v>302</v>
-      </c>
+      <c r="J47"/>
       <c r="K47" s="9"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3083,7 +2988,7 @@
         <v>31131</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
         <v>35</v>
       </c>
       <c r="H48" s="11" t="s">
@@ -3092,9 +2997,7 @@
       <c r="I48" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J48" t="s">
-        <v>302</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" s="9"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3119,7 +3022,7 @@
         <v>25265</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
         <v>51</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -3128,9 +3031,7 @@
       <c r="I49" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J49" t="s">
-        <v>302</v>
-      </c>
+      <c r="J49"/>
       <c r="K49" s="9"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3159,9 +3060,7 @@
       <c r="I50" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J50" t="s">
-        <v>302</v>
-      </c>
+      <c r="J50"/>
       <c r="K50" s="9"/>
       <c r="M50"/>
     </row>
@@ -3194,9 +3093,7 @@
       <c r="I51" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J51" t="s">
-        <v>302</v>
-      </c>
+      <c r="J51"/>
       <c r="K51" s="9"/>
       <c r="M51"/>
     </row>
@@ -3224,9 +3121,7 @@
       <c r="I52" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J52" t="s">
-        <v>302</v>
-      </c>
+      <c r="J52"/>
       <c r="K52" s="9"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3260,9 +3155,7 @@
       <c r="I53" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J53" t="s">
-        <v>302</v>
-      </c>
+      <c r="J53"/>
       <c r="K53" s="9"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3296,9 +3189,7 @@
       <c r="I54" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="J54" t="s">
-        <v>302</v>
-      </c>
+      <c r="J54"/>
       <c r="K54" s="9"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3332,9 +3223,7 @@
       <c r="I55" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="J55" t="s">
-        <v>302</v>
-      </c>
+      <c r="J55"/>
       <c r="K55" s="9"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3363,9 +3252,7 @@
       <c r="I56" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J56" t="s">
-        <v>302</v>
-      </c>
+      <c r="J56"/>
       <c r="K56" s="9"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3394,9 +3281,7 @@
       <c r="I57" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J57" t="s">
-        <v>302</v>
-      </c>
+      <c r="J57"/>
       <c r="K57" s="9"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3425,9 +3310,7 @@
       <c r="I58" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J58" t="s">
-        <v>302</v>
-      </c>
+      <c r="J58"/>
       <c r="K58" s="9"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -3461,9 +3344,7 @@
       <c r="I59" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J59" t="s">
-        <v>302</v>
-      </c>
+      <c r="J59"/>
       <c r="K59" s="9"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -3497,9 +3378,7 @@
       <c r="I60" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J60" t="s">
-        <v>302</v>
-      </c>
+      <c r="J60"/>
       <c r="K60" s="9"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -3533,9 +3412,7 @@
       <c r="I61" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J61" t="s">
-        <v>302</v>
-      </c>
+      <c r="J61"/>
       <c r="K61" s="9"/>
       <c r="M61"/>
     </row>
@@ -3563,9 +3440,7 @@
       <c r="I62" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J62" t="s">
-        <v>302</v>
-      </c>
+      <c r="J62"/>
       <c r="K62" s="9"/>
       <c r="M62"/>
     </row>
@@ -3589,7 +3464,7 @@
         <v>19005</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" ref="G63:G126" ca="1" si="2">(YEAR(TODAY())-YEAR(F63))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
         <v>68</v>
       </c>
       <c r="H63" s="11" t="s">
@@ -3598,9 +3473,7 @@
       <c r="I63" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J63" t="s">
-        <v>302</v>
-      </c>
+      <c r="J63"/>
       <c r="K63" s="9"/>
       <c r="M63"/>
     </row>
@@ -3624,7 +3497,7 @@
         <v>27845</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
         <v>44</v>
       </c>
       <c r="H64" s="11" t="s">
@@ -3633,9 +3506,7 @@
       <c r="I64" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J64" t="s">
-        <v>302</v>
-      </c>
+      <c r="J64"/>
       <c r="K64" s="9"/>
       <c r="M64"/>
     </row>
@@ -3659,7 +3530,7 @@
         <v>14442</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
         <v>81</v>
       </c>
       <c r="H65" s="11" t="s">
@@ -3668,9 +3539,7 @@
       <c r="I65" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J65" t="s">
-        <v>302</v>
-      </c>
+      <c r="J65"/>
       <c r="K65" s="9"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -3695,7 +3564,7 @@
         <v>19655</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
         <v>67</v>
       </c>
       <c r="H66" s="11" t="s">
@@ -3704,9 +3573,7 @@
       <c r="I66" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J66" t="s">
-        <v>302</v>
-      </c>
+      <c r="J66"/>
       <c r="K66" s="9"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -3731,7 +3598,7 @@
         <v>28285</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
         <v>43</v>
       </c>
       <c r="H67" t="s">
@@ -3740,9 +3607,7 @@
       <c r="I67" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="J67" t="s">
-        <v>302</v>
-      </c>
+      <c r="J67"/>
       <c r="K67" s="9"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -3767,7 +3632,7 @@
         <v>24478</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
         <v>53</v>
       </c>
       <c r="H68" t="s">
@@ -3776,9 +3641,7 @@
       <c r="I68" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J68" t="s">
-        <v>302</v>
-      </c>
+      <c r="J68"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="2"/>
@@ -3803,7 +3666,7 @@
         <v>21855</v>
       </c>
       <c r="G69" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
         <v>61</v>
       </c>
       <c r="H69" t="s">
@@ -3812,9 +3675,7 @@
       <c r="I69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J69" t="s">
-        <v>302</v>
-      </c>
+      <c r="J69"/>
       <c r="K69" s="9"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -3839,7 +3700,7 @@
         <v>21845</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
         <v>61</v>
       </c>
       <c r="H70" t="s">
@@ -3848,9 +3709,7 @@
       <c r="I70" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J70" t="s">
-        <v>302</v>
-      </c>
+      <c r="J70"/>
       <c r="K70" s="9"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -3875,7 +3734,7 @@
         <v>22224</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
         <v>60</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -3884,9 +3743,7 @@
       <c r="I71" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J71" t="s">
-        <v>302</v>
-      </c>
+      <c r="J71"/>
       <c r="K71" s="9"/>
       <c r="L71" s="2"/>
       <c r="M71"/>
@@ -3911,7 +3768,7 @@
         <v>19423</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
         <v>67</v>
       </c>
       <c r="H72" s="11" t="s">
@@ -3920,9 +3777,7 @@
       <c r="I72" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J72" t="s">
-        <v>302</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" s="9"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -3947,7 +3802,7 @@
         <v>27196</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
         <v>46</v>
       </c>
       <c r="H73" s="11" t="s">
@@ -3956,9 +3811,7 @@
       <c r="I73" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J73" t="s">
-        <v>302</v>
-      </c>
+      <c r="J73"/>
       <c r="K73" s="9"/>
       <c r="L73" s="2"/>
       <c r="M73"/>
@@ -3983,18 +3836,16 @@
         <v>21509</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
         <v>62</v>
       </c>
       <c r="H74" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I74" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I74" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="J74" t="s">
-        <v>302</v>
-      </c>
+      <c r="J74"/>
       <c r="K74" s="9"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4019,7 +3870,7 @@
         <v>16153</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
         <v>76</v>
       </c>
       <c r="H75" t="s">
@@ -4028,9 +3879,7 @@
       <c r="I75" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J75" t="s">
-        <v>302</v>
-      </c>
+      <c r="J75"/>
       <c r="K75" s="9"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4055,7 +3904,7 @@
         <v>25553</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
         <v>51</v>
       </c>
       <c r="H76" t="s">
@@ -4064,9 +3913,7 @@
       <c r="I76" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J76" t="s">
-        <v>302</v>
-      </c>
+      <c r="J76"/>
       <c r="K76" s="9"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4091,7 +3938,7 @@
         <v>25024</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
         <v>52</v>
       </c>
       <c r="H77" t="s">
@@ -4100,9 +3947,7 @@
       <c r="I77" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J77" t="s">
-        <v>302</v>
-      </c>
+      <c r="J77"/>
       <c r="K77" s="9"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -4127,7 +3972,7 @@
         <v>26653</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
         <v>48</v>
       </c>
       <c r="H78" s="11" t="s">
@@ -4136,9 +3981,7 @@
       <c r="I78" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J78" t="s">
-        <v>302</v>
-      </c>
+      <c r="J78"/>
       <c r="K78" s="9"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -4163,7 +4006,7 @@
         <v>19105</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
         <v>68</v>
       </c>
       <c r="H79" s="11" t="s">
@@ -4172,9 +4015,7 @@
       <c r="I79" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J79" t="s">
-        <v>302</v>
-      </c>
+      <c r="J79"/>
       <c r="K79" s="9"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -4199,7 +4040,7 @@
         <v>22698</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
         <v>58</v>
       </c>
       <c r="H80" t="s">
@@ -4208,9 +4049,7 @@
       <c r="I80" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J80" t="s">
-        <v>302</v>
-      </c>
+      <c r="J80"/>
       <c r="K80" s="9"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -4235,7 +4074,7 @@
         <v>26732</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
         <v>47</v>
       </c>
       <c r="H81" t="s">
@@ -4244,9 +4083,7 @@
       <c r="I81" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J81" t="s">
-        <v>302</v>
-      </c>
+      <c r="J81"/>
       <c r="K81" s="9"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -4271,7 +4108,7 @@
         <v>24767</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
         <v>53</v>
       </c>
       <c r="H82" t="s">
@@ -4280,9 +4117,7 @@
       <c r="I82" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J82" t="s">
-        <v>302</v>
-      </c>
+      <c r="J82"/>
       <c r="K82" s="9"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -4307,7 +4142,7 @@
         <v>13455</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
         <v>84</v>
       </c>
       <c r="H83" t="s">
@@ -4316,9 +4151,7 @@
       <c r="I83" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J83" t="s">
-        <v>302</v>
-      </c>
+      <c r="J83"/>
       <c r="K83" s="9"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -4343,7 +4176,7 @@
         <v>22305</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
         <v>59</v>
       </c>
       <c r="H84" s="11" t="s">
@@ -4352,9 +4185,7 @@
       <c r="I84" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J84" t="s">
-        <v>302</v>
-      </c>
+      <c r="J84"/>
       <c r="K84" s="9"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -4379,7 +4210,7 @@
         <v>26500</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
         <v>48</v>
       </c>
       <c r="H85" s="11" t="s">
@@ -4388,9 +4219,7 @@
       <c r="I85" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J85" t="s">
-        <v>302</v>
-      </c>
+      <c r="J85"/>
       <c r="K85" s="9"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -4415,7 +4244,7 @@
         <v>17801</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
         <v>72</v>
       </c>
       <c r="H86" s="11" t="s">
@@ -4424,9 +4253,7 @@
       <c r="I86" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J86" t="s">
-        <v>302</v>
-      </c>
+      <c r="J86"/>
       <c r="K86" s="9"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -4451,7 +4278,7 @@
         <v>25491</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
         <v>51</v>
       </c>
       <c r="H87" t="s">
@@ -4460,9 +4287,7 @@
       <c r="I87" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J87" t="s">
-        <v>302</v>
-      </c>
+      <c r="J87"/>
       <c r="K87" s="9"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4487,7 +4312,7 @@
         <v>15859</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
         <v>77</v>
       </c>
       <c r="H88" t="s">
@@ -4496,9 +4321,7 @@
       <c r="I88" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J88" t="s">
-        <v>302</v>
-      </c>
+      <c r="J88"/>
       <c r="K88" s="9"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4523,7 +4346,7 @@
         <v>16455</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
         <v>75</v>
       </c>
       <c r="H89" t="s">
@@ -4532,9 +4355,7 @@
       <c r="I89" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J89" t="s">
-        <v>302</v>
-      </c>
+      <c r="J89"/>
       <c r="K89" s="9"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4559,7 +4380,7 @@
         <v>24173</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
         <v>54</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -4568,9 +4389,7 @@
       <c r="I90" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J90" t="s">
-        <v>302</v>
-      </c>
+      <c r="J90"/>
       <c r="K90" s="9"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -4595,7 +4414,7 @@
         <v>22288</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
         <v>59</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -4604,9 +4423,7 @@
       <c r="I91" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J91" t="s">
-        <v>302</v>
-      </c>
+      <c r="J91"/>
       <c r="K91" s="9"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -4631,7 +4448,7 @@
         <v>16933</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
         <v>74</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -4640,9 +4457,7 @@
       <c r="I92" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J92" t="s">
-        <v>302</v>
-      </c>
+      <c r="J92"/>
       <c r="K92" s="9"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4667,7 +4482,7 @@
         <v>16010</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
         <v>77</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -4676,9 +4491,7 @@
       <c r="I93" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J93" t="s">
-        <v>302</v>
-      </c>
+      <c r="J93"/>
       <c r="K93" s="9"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -4703,7 +4516,7 @@
         <v>29680</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
         <v>39</v>
       </c>
       <c r="H94" t="s">
@@ -4712,9 +4525,7 @@
       <c r="I94" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J94" t="s">
-        <v>302</v>
-      </c>
+      <c r="J94"/>
       <c r="K94" s="9"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -4739,7 +4550,7 @@
         <v>26073</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
         <v>49</v>
       </c>
       <c r="H95" t="s">
@@ -4748,9 +4559,7 @@
       <c r="I95" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J95" t="s">
-        <v>302</v>
-      </c>
+      <c r="J95"/>
       <c r="K95" s="9"/>
       <c r="L95" s="8"/>
       <c r="M95" s="2"/>
@@ -4775,7 +4584,7 @@
         <v>24414</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
         <v>54</v>
       </c>
       <c r="H96" t="s">
@@ -4784,9 +4593,7 @@
       <c r="I96" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J96" t="s">
-        <v>302</v>
-      </c>
+      <c r="J96"/>
       <c r="K96" s="9"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -4811,7 +4618,7 @@
         <v>20231</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
         <v>65</v>
       </c>
       <c r="H97" t="s">
@@ -4820,9 +4627,7 @@
       <c r="I97" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J97" t="s">
-        <v>302</v>
-      </c>
+      <c r="J97"/>
       <c r="K97" s="9"/>
       <c r="L97" s="8"/>
       <c r="M97" s="2"/>
@@ -4847,7 +4652,7 @@
         <v>20252</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
         <v>65</v>
       </c>
       <c r="H98" t="s">
@@ -4856,9 +4661,7 @@
       <c r="I98" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J98" t="s">
-        <v>302</v>
-      </c>
+      <c r="J98"/>
       <c r="K98" s="9"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -4883,7 +4686,7 @@
         <v>22882</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
         <v>58</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -4892,9 +4695,7 @@
       <c r="I99" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J99" t="s">
-        <v>302</v>
-      </c>
+      <c r="J99"/>
       <c r="K99" s="9"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -4919,7 +4720,7 @@
         <v>28573</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
         <v>42</v>
       </c>
       <c r="H100" t="s">
@@ -4928,9 +4729,7 @@
       <c r="I100" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J100" t="s">
-        <v>302</v>
-      </c>
+      <c r="J100"/>
       <c r="K100" s="9"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4955,7 +4754,7 @@
         <v>22094</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
         <v>60</v>
       </c>
       <c r="H101" t="s">
@@ -4964,9 +4763,7 @@
       <c r="I101" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J101" t="s">
-        <v>302</v>
-      </c>
+      <c r="J101"/>
       <c r="K101" s="9"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -4991,7 +4788,7 @@
         <v>23444</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
         <v>56</v>
       </c>
       <c r="H102" t="s">
@@ -5000,9 +4797,7 @@
       <c r="I102" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J102" t="s">
-        <v>302</v>
-      </c>
+      <c r="J102"/>
       <c r="K102" s="9"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -5027,7 +4822,7 @@
         <v>19287</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
         <v>68</v>
       </c>
       <c r="H103" t="s">
@@ -5036,9 +4831,7 @@
       <c r="I103" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J103" t="s">
-        <v>302</v>
-      </c>
+      <c r="J103"/>
       <c r="K103" s="9"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -5063,7 +4856,7 @@
         <v>20651</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
         <v>64</v>
       </c>
       <c r="H104" t="s">
@@ -5072,9 +4865,7 @@
       <c r="I104" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J104" t="s">
-        <v>302</v>
-      </c>
+      <c r="J104"/>
       <c r="K104" s="9"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -5099,7 +4890,7 @@
         <v>20797</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
         <v>64</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -5108,9 +4899,7 @@
       <c r="I105" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J105" t="s">
-        <v>302</v>
-      </c>
+      <c r="J105"/>
       <c r="K105" s="9"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -5135,7 +4924,7 @@
         <v>27361</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
         <v>46</v>
       </c>
       <c r="H106" s="11" t="s">
@@ -5144,9 +4933,7 @@
       <c r="I106" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J106" t="s">
-        <v>302</v>
-      </c>
+      <c r="J106"/>
       <c r="K106" s="9"/>
       <c r="L106" s="8"/>
       <c r="M106" s="2"/>
@@ -5171,7 +4958,7 @@
         <v>19103</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
         <v>68</v>
       </c>
       <c r="H107" s="11" t="s">
@@ -5180,9 +4967,7 @@
       <c r="I107" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J107" t="s">
-        <v>302</v>
-      </c>
+      <c r="J107"/>
       <c r="K107" s="9"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -5207,7 +4992,7 @@
         <v>23776</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
         <v>55</v>
       </c>
       <c r="H108" s="11" t="s">
@@ -5216,9 +5001,7 @@
       <c r="I108" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J108" t="s">
-        <v>302</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" s="9"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -5243,7 +5026,7 @@
         <v>21953</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
         <v>60</v>
       </c>
       <c r="H109" s="11" t="s">
@@ -5252,15 +5035,13 @@
       <c r="I109" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J109" t="s">
-        <v>302</v>
-      </c>
+      <c r="J109"/>
       <c r="K109" s="9"/>
       <c r="M109"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -5272,31 +5053,37 @@
         <v>278</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F110" s="12">
-        <v>32533</v>
+        <v>27492</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
+        <v>45</v>
       </c>
       <c r="H110" t="s">
-        <v>229</v>
-      </c>
-      <c r="I110" t="s">
-        <v>283</v>
+        <v>200</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="J110" t="s">
-        <v>302</v>
-      </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K110" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -5307,32 +5094,38 @@
       <c r="D111" t="s">
         <v>278</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>18</v>
+      <c r="E111" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F111" s="12">
-        <v>31454</v>
+        <v>29572</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
+        <v>40</v>
       </c>
       <c r="H111" t="s">
-        <v>229</v>
-      </c>
-      <c r="I111" t="s">
-        <v>283</v>
+        <v>200</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="J111" t="s">
-        <v>302</v>
-      </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K111" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -5344,31 +5137,37 @@
         <v>278</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="F112" s="12">
-        <v>31783</v>
+        <v>24666</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
+        <v>53</v>
       </c>
       <c r="H112" t="s">
-        <v>229</v>
-      </c>
-      <c r="I112" t="s">
-        <v>283</v>
+        <v>200</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="J112" t="s">
-        <v>302</v>
-      </c>
-      <c r="K112" s="9"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K112" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -5379,32 +5178,38 @@
       <c r="D113" t="s">
         <v>278</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>61</v>
+      <c r="E113" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F113" s="12">
-        <v>26709</v>
+        <v>27763</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
+        <v>44</v>
       </c>
       <c r="H113" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J113" t="s">
-        <v>302</v>
-      </c>
-      <c r="K113" s="9"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K113" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -5415,32 +5220,38 @@
       <c r="D114" t="s">
         <v>278</v>
       </c>
-      <c r="E114" s="11" t="s">
-        <v>145</v>
+      <c r="E114" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F114" s="12">
-        <v>26900</v>
+        <v>24834</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
+        <v>53</v>
       </c>
       <c r="H114" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J114" t="s">
-        <v>302</v>
-      </c>
-      <c r="K114" s="9"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K114" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -5452,31 +5263,37 @@
         <v>278</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F115" s="12">
-        <v>25885</v>
+        <v>27004</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J115" t="s">
-        <v>302</v>
-      </c>
-      <c r="K115" s="9"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K115" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -5487,32 +5304,38 @@
       <c r="D116" t="s">
         <v>278</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>32</v>
+      <c r="E116" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F116" s="12">
-        <v>25750</v>
+        <v>30097</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
+        <v>38</v>
       </c>
       <c r="H116" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J116" t="s">
-        <v>302</v>
-      </c>
-      <c r="K116" s="9"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K116" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -5523,32 +5346,38 @@
       <c r="D117" t="s">
         <v>278</v>
       </c>
-      <c r="E117" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F117" s="12">
-        <v>23332</v>
+      <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" s="9">
+        <v>32980</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="H117" t="s">
-        <v>206</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
+        <v>30</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J117" t="s">
-        <v>302</v>
-      </c>
-      <c r="K117" s="9"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="K117" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -5560,31 +5389,37 @@
         <v>278</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="F118" s="12">
-        <v>24014</v>
+        <v>26133</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
+        <v>49</v>
       </c>
       <c r="H118" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J118" t="s">
-        <v>302</v>
-      </c>
-      <c r="K118" s="9"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="K118" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -5595,32 +5430,38 @@
       <c r="D119" t="s">
         <v>278</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>81</v>
+      <c r="E119" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F119" s="12">
-        <v>23226</v>
+        <v>22263</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
+        <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="J119" t="s">
-        <v>302</v>
-      </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="K119" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -5631,32 +5472,38 @@
       <c r="D120" t="s">
         <v>278</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>117</v>
+      <c r="E120" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="F120" s="12">
-        <v>24059</v>
+        <v>31120</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
+        <v>35</v>
       </c>
       <c r="H120" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="J120" t="s">
-        <v>302</v>
-      </c>
-      <c r="K120" s="9"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="K120" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -5667,32 +5514,38 @@
       <c r="D121" t="s">
         <v>278</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F121" s="12">
-        <v>23594</v>
+      <c r="E121" t="s">
+        <v>227</v>
+      </c>
+      <c r="F121" s="9">
+        <v>31116</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="H121" t="s">
-        <v>201</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
+        <v>35</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="J121" t="s">
-        <v>302</v>
-      </c>
-      <c r="K121" s="9"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="K121" s="9">
+        <v>44135</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -5704,31 +5557,29 @@
         <v>278</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F122" s="12">
-        <v>23006</v>
+        <v>32533</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
+        <v>31</v>
       </c>
       <c r="H122" t="s">
-        <v>213</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J122" t="s">
-        <v>302</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I122" t="s">
+        <v>283</v>
+      </c>
+      <c r="J122"/>
       <c r="K122" s="9"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -5739,32 +5590,30 @@
       <c r="D123" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="11" t="s">
-        <v>139</v>
+      <c r="E123" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F123" s="12">
-        <v>30347</v>
+        <v>31454</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
+        <v>34</v>
       </c>
       <c r="H123" t="s">
-        <v>201</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J123" t="s">
-        <v>302</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I123" t="s">
+        <v>283</v>
+      </c>
+      <c r="J123"/>
       <c r="K123" s="9"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -5775,32 +5624,30 @@
       <c r="D124" t="s">
         <v>278</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>153</v>
+      <c r="E124" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F124" s="12">
-        <v>20371</v>
+        <v>31783</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
+        <v>33</v>
       </c>
       <c r="H124" t="s">
-        <v>201</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J124" t="s">
-        <v>302</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="I124" t="s">
+        <v>283</v>
+      </c>
+      <c r="J124"/>
       <c r="K124" s="9"/>
       <c r="L124" s="2"/>
-      <c r="M124"/>
+      <c r="M124" s="2"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -5811,32 +5658,30 @@
       <c r="D125" t="s">
         <v>278</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>130</v>
+      <c r="E125" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F125" s="12">
-        <v>32261</v>
+        <v>26709</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J125" t="s">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J125"/>
       <c r="K125" s="9"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -5847,32 +5692,30 @@
       <c r="D126" t="s">
         <v>278</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>21</v>
+      <c r="E126" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="F126" s="12">
-        <v>31868</v>
+        <v>26900</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
+        <v>47</v>
       </c>
       <c r="H126" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J126" t="s">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J126"/>
       <c r="K126" s="9"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -5884,31 +5727,29 @@
         <v>278</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F127" s="12">
-        <v>25691</v>
+        <v>25885</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" ref="G127:G190" ca="1" si="3">(YEAR(TODAY())-YEAR(F127))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
         <v>50</v>
       </c>
       <c r="H127" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J127" t="s">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J127"/>
       <c r="K127" s="9"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -5920,31 +5761,29 @@
         <v>278</v>
       </c>
       <c r="E128" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="12">
+        <v>25750</v>
+      </c>
+      <c r="G128" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
         <v>50</v>
       </c>
-      <c r="F128" s="12">
-        <v>22559</v>
-      </c>
-      <c r="G128" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
       <c r="H128" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J128" t="s">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J128"/>
       <c r="K128" s="9"/>
-      <c r="L128" s="2"/>
+      <c r="L128" s="8"/>
       <c r="M128" s="2"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -5956,31 +5795,29 @@
         <v>278</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F129" s="12">
-        <v>16607</v>
+        <v>23332</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
+        <v>57</v>
       </c>
       <c r="H129" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J129" t="s">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J129"/>
       <c r="K129" s="9"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -5992,31 +5829,29 @@
         <v>278</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F130" s="12">
-        <v>18196</v>
+        <v>24014</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
+        <v>55</v>
       </c>
       <c r="H130" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J130" t="s">
-        <v>302</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J130"/>
       <c r="K130" s="9"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -6027,32 +5862,30 @@
       <c r="D131" t="s">
         <v>278</v>
       </c>
-      <c r="E131" s="11" t="s">
-        <v>86</v>
+      <c r="E131" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F131" s="12">
-        <v>25940</v>
+        <v>23226</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
+        <v>57</v>
       </c>
       <c r="H131" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J131" t="s">
-        <v>302</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J131"/>
       <c r="K131" s="9"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6063,32 +5896,30 @@
       <c r="D132" t="s">
         <v>278</v>
       </c>
-      <c r="E132" s="11" t="s">
-        <v>122</v>
+      <c r="E132" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F132" s="12">
-        <v>16008</v>
+        <v>24059</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
+        <v>55</v>
       </c>
       <c r="H132" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J132" t="s">
-        <v>302</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J132"/>
       <c r="K132" s="9"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -6100,31 +5931,29 @@
         <v>278</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="F133" s="12">
-        <v>19657</v>
+        <v>23594</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
+        <v>56</v>
       </c>
       <c r="H133" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J133" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J133"/>
       <c r="K133" s="9"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -6136,31 +5965,29 @@
         <v>278</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F134" s="12">
-        <v>31247</v>
+        <v>23006</v>
       </c>
       <c r="G134" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
+        <v>58</v>
       </c>
       <c r="H134" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J134" t="s">
-        <v>302</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J134"/>
       <c r="K134" s="9"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -6171,32 +5998,30 @@
       <c r="D135" t="s">
         <v>278</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>41</v>
+      <c r="E135" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F135" s="12">
-        <v>20255</v>
+        <v>30347</v>
       </c>
       <c r="G135" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
+        <v>37</v>
       </c>
       <c r="H135" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J135" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J135"/>
       <c r="K135" s="9"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -6208,31 +6033,29 @@
         <v>278</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="F136" s="12">
-        <v>17116</v>
+        <v>20371</v>
       </c>
       <c r="G136" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
+        <v>65</v>
       </c>
       <c r="H136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J136" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J136"/>
       <c r="K136" s="9"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
+      <c r="M136"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -6244,31 +6067,29 @@
         <v>278</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F137" s="12">
-        <v>15302</v>
+        <v>32261</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J137" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J137"/>
       <c r="K137" s="9"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -6279,32 +6100,30 @@
       <c r="D138" t="s">
         <v>278</v>
       </c>
-      <c r="E138" s="11" t="s">
-        <v>96</v>
+      <c r="E138" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F138" s="12">
-        <v>27851</v>
+        <v>31868</v>
       </c>
       <c r="G138" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
+        <v>33</v>
       </c>
       <c r="H138" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J138" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J138"/>
       <c r="K138" s="9"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B139">
         <v>7</v>
@@ -6315,32 +6134,30 @@
       <c r="D139" t="s">
         <v>278</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>119</v>
+      <c r="E139" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F139" s="12">
-        <v>28018</v>
+        <v>25691</v>
       </c>
       <c r="G139" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
+        <v>50</v>
       </c>
       <c r="H139" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J139" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J139"/>
       <c r="K139" s="9"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -6351,32 +6168,30 @@
       <c r="D140" t="s">
         <v>278</v>
       </c>
-      <c r="E140" s="11" t="s">
-        <v>121</v>
+      <c r="E140" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F140" s="12">
-        <v>32101</v>
+        <v>22559</v>
       </c>
       <c r="G140" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
+        <v>59</v>
       </c>
       <c r="H140" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J140" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J140"/>
       <c r="K140" s="9"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -6387,32 +6202,30 @@
       <c r="D141" t="s">
         <v>278</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>124</v>
+      <c r="E141" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="F141" s="12">
-        <v>27678</v>
+        <v>16607</v>
       </c>
       <c r="G141" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
+        <v>75</v>
       </c>
       <c r="H141" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J141" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J141"/>
       <c r="K141" s="9"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -6423,32 +6236,30 @@
       <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>133</v>
+      <c r="E142" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F142" s="12">
-        <v>21157</v>
+        <v>18196</v>
       </c>
       <c r="G142" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
+        <v>71</v>
       </c>
       <c r="H142" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J142" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J142"/>
       <c r="K142" s="9"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -6460,31 +6271,29 @@
         <v>278</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F143" s="12">
-        <v>19343</v>
+        <v>25940</v>
       </c>
       <c r="G143" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
+        <v>49</v>
       </c>
       <c r="H143" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J143" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J143"/>
       <c r="K143" s="9"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -6495,32 +6304,30 @@
       <c r="D144" t="s">
         <v>278</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>149</v>
+      <c r="E144" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F144" s="12">
-        <v>18196</v>
+        <v>16008</v>
       </c>
       <c r="G144" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
+        <v>77</v>
       </c>
       <c r="H144" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J144" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J144"/>
       <c r="K144" s="9"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -6532,14 +6339,14 @@
         <v>278</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="F145" s="12">
-        <v>23371</v>
+        <v>19657</v>
       </c>
       <c r="G145" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
+        <v>67</v>
       </c>
       <c r="H145" t="s">
         <v>204</v>
@@ -6547,16 +6354,14 @@
       <c r="I145" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J145" t="s">
-        <v>302</v>
-      </c>
+      <c r="J145"/>
       <c r="K145" s="9"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -6567,15 +6372,15 @@
       <c r="D146" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>157</v>
+      <c r="E146" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F146" s="12">
-        <v>26864</v>
+        <v>31247</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
+        <v>35</v>
       </c>
       <c r="H146" t="s">
         <v>204</v>
@@ -6583,16 +6388,14 @@
       <c r="I146" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J146" t="s">
-        <v>302</v>
-      </c>
+      <c r="J146"/>
       <c r="K146" s="9"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -6603,32 +6406,30 @@
       <c r="D147" t="s">
         <v>278</v>
       </c>
-      <c r="E147" s="11" t="s">
-        <v>48</v>
+      <c r="E147" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F147" s="12">
-        <v>26445</v>
+        <v>20255</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
+        <v>65</v>
       </c>
       <c r="H147" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J147" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J147"/>
       <c r="K147" s="9"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -6639,32 +6440,30 @@
       <c r="D148" t="s">
         <v>278</v>
       </c>
-      <c r="E148" s="11" t="s">
-        <v>5</v>
+      <c r="E148" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F148" s="12">
-        <v>16725</v>
+        <v>17116</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
+        <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="J148" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J148"/>
       <c r="K148" s="9"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -6675,32 +6474,30 @@
       <c r="D149" t="s">
         <v>278</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>54</v>
+      <c r="E149" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F149" s="12">
-        <v>20655</v>
+        <v>15302</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
+        <v>79</v>
       </c>
       <c r="H149" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J149" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J149"/>
       <c r="K149" s="9"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -6712,31 +6509,29 @@
         <v>278</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F150" s="12">
-        <v>22250</v>
+        <v>27851</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
+        <v>44</v>
       </c>
       <c r="H150" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="J150" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J150"/>
       <c r="K150" s="9"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6747,32 +6542,30 @@
       <c r="D151" t="s">
         <v>278</v>
       </c>
-      <c r="E151" s="11" t="s">
-        <v>105</v>
+      <c r="E151" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F151" s="12">
-        <v>33308</v>
+        <v>28018</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
+        <v>44</v>
       </c>
       <c r="H151" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J151" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J151"/>
       <c r="K151" s="9"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -6784,31 +6577,29 @@
         <v>278</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F152" s="12">
-        <v>28888</v>
+        <v>32101</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
+        <v>33</v>
       </c>
       <c r="H152" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="J152" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J152"/>
       <c r="K152" s="9"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -6820,31 +6611,29 @@
         <v>278</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F153" s="12">
-        <v>31920</v>
+        <v>27678</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
+        <v>45</v>
       </c>
       <c r="H153" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="J153" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J153"/>
       <c r="K153" s="9"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -6855,32 +6644,30 @@
       <c r="D154" t="s">
         <v>278</v>
       </c>
-      <c r="E154" s="11" t="s">
-        <v>77</v>
+      <c r="E154" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F154" s="12">
-        <v>25397</v>
+        <v>21157</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
+        <v>63</v>
       </c>
       <c r="H154" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J154" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J154"/>
       <c r="K154" s="9"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -6891,32 +6678,30 @@
       <c r="D155" t="s">
         <v>278</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>6</v>
+      <c r="E155" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F155" s="12">
-        <v>21338</v>
+        <v>19343</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
+        <v>68</v>
       </c>
       <c r="H155" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J155" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J155"/>
       <c r="K155" s="9"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -6928,31 +6713,29 @@
         <v>278</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="F156" s="12">
-        <v>26802</v>
+        <v>18196</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
+        <v>71</v>
       </c>
       <c r="H156" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J156" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J156"/>
       <c r="K156" s="9"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -6963,68 +6746,64 @@
       <c r="D157" t="s">
         <v>278</v>
       </c>
-      <c r="E157" s="11" t="s">
-        <v>28</v>
+      <c r="E157" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F157" s="12">
-        <v>20281</v>
+        <v>23371</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
+        <v>57</v>
       </c>
       <c r="H157" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J157" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J157"/>
       <c r="K157" s="9"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
+        <v>145</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D158" t="s">
+        <v>278</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B158">
-        <v>7</v>
-      </c>
-      <c r="C158" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D158" t="s">
-        <v>278</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F158" s="12">
-        <v>15245</v>
+        <v>26864</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
+        <v>47</v>
       </c>
       <c r="H158" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J158" t="s">
-        <v>302</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="J158"/>
       <c r="K158" s="9"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7035,32 +6814,30 @@
       <c r="D159" t="s">
         <v>278</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>60</v>
+      <c r="E159" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="F159" s="12">
-        <v>22890</v>
+        <v>26445</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
+        <v>48</v>
       </c>
       <c r="H159" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J159" t="s">
-        <v>302</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="J159"/>
       <c r="K159" s="9"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7072,31 +6849,29 @@
         <v>278</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F160" s="12">
-        <v>23367</v>
+        <v>16725</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
+        <v>75</v>
       </c>
       <c r="H160" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J160" t="s">
-        <v>302</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="J160"/>
       <c r="K160" s="9"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7108,31 +6883,29 @@
         <v>278</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F161" s="12">
-        <v>24717</v>
+        <v>20655</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
+        <v>64</v>
       </c>
       <c r="H161" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J161" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J161"/>
       <c r="K161" s="9"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7144,31 +6917,29 @@
         <v>278</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="F162" s="12">
-        <v>22655</v>
+        <v>22250</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
+        <v>60</v>
       </c>
       <c r="H162" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="J162" t="s">
-        <v>302</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="J162"/>
       <c r="K162" s="9"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7180,31 +6951,29 @@
         <v>278</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F163" s="12">
-        <v>27508</v>
+        <v>33308</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
+        <v>29</v>
       </c>
       <c r="H163" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J163" t="s">
-        <v>302</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="J163"/>
       <c r="K163" s="9"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7216,31 +6985,29 @@
         <v>278</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F164" s="12">
-        <v>20885</v>
+        <v>28888</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
+        <v>41</v>
       </c>
       <c r="H164" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J164" t="s">
-        <v>302</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="J164"/>
       <c r="K164" s="9"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7252,31 +7019,29 @@
         <v>278</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F165" s="12">
-        <v>21958</v>
+        <v>31920</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
+        <v>33</v>
       </c>
       <c r="H165" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J165" t="s">
-        <v>302</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="J165"/>
       <c r="K165" s="9"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7288,31 +7053,29 @@
         <v>278</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F166" s="12">
-        <v>21970</v>
+        <v>25397</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
+        <v>51</v>
       </c>
       <c r="H166" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J166" t="s">
-        <v>302</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="J166"/>
       <c r="K166" s="9"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -7324,14 +7087,14 @@
         <v>278</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="F167" s="12">
-        <v>16997</v>
+        <v>21338</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
+        <v>62</v>
       </c>
       <c r="H167" t="s">
         <v>201</v>
@@ -7339,16 +7102,14 @@
       <c r="I167" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J167" t="s">
-        <v>302</v>
-      </c>
+      <c r="J167"/>
       <c r="K167" s="9"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -7360,31 +7121,29 @@
         <v>278</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F168" s="12">
-        <v>14974</v>
+        <v>26802</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
+        <v>47</v>
       </c>
       <c r="H168" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J168" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J168"/>
       <c r="K168" s="9"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7396,31 +7155,29 @@
         <v>278</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="F169" s="12">
-        <v>25566</v>
+        <v>20281</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
+        <v>65</v>
       </c>
       <c r="H169" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J169" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J169"/>
       <c r="K169" s="9"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -7432,31 +7189,29 @@
         <v>278</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="F170" s="12">
-        <v>16390</v>
+        <v>15245</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
+        <v>79</v>
       </c>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J170" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J170"/>
       <c r="K170" s="9"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -7468,31 +7223,29 @@
         <v>278</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F171" s="12">
-        <v>25970</v>
+        <v>22890</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
+        <v>58</v>
       </c>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J171" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J171"/>
       <c r="K171" s="9"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -7504,31 +7257,29 @@
         <v>278</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F172" s="12">
-        <v>27118</v>
+        <v>23367</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
+        <v>57</v>
       </c>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J172" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J172"/>
       <c r="K172" s="9"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -7539,32 +7290,30 @@
       <c r="D173" t="s">
         <v>278</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>26</v>
+      <c r="E173" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="F173" s="12">
-        <v>22024</v>
+        <v>24717</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
+        <v>53</v>
       </c>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J173" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J173"/>
       <c r="K173" s="9"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -7575,32 +7324,30 @@
       <c r="D174" t="s">
         <v>278</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>29</v>
+      <c r="E174" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F174" s="12">
-        <v>32142</v>
+        <v>22655</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
+        <v>58</v>
       </c>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J174" t="s">
-        <v>302</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="J174"/>
       <c r="K174" s="9"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -7611,32 +7358,30 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>39</v>
+      <c r="E175" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="F175" s="12">
-        <v>25592</v>
+        <v>27508</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
+        <v>45</v>
       </c>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J175" t="s">
-        <v>302</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="J175"/>
       <c r="K175" s="9"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -7648,31 +7393,29 @@
         <v>278</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F176" s="12">
-        <v>25846</v>
+        <v>20885</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
+        <v>63</v>
       </c>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J176" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J176"/>
       <c r="K176" s="9"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -7683,32 +7426,30 @@
       <c r="D177" t="s">
         <v>278</v>
       </c>
-      <c r="E177" s="11" t="s">
-        <v>66</v>
+      <c r="E177" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F177" s="12">
-        <v>27112</v>
+        <v>21958</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
+        <v>60</v>
       </c>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J177" t="s">
-        <v>302</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J177"/>
       <c r="K177" s="9"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -7719,32 +7460,30 @@
       <c r="D178" t="s">
         <v>278</v>
       </c>
-      <c r="E178" s="6" t="s">
-        <v>79</v>
+      <c r="E178" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F178" s="12">
-        <v>23902</v>
+        <v>21970</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
+        <v>60</v>
       </c>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J178" t="s">
-        <v>302</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J178"/>
       <c r="K178" s="9"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -7756,31 +7495,29 @@
         <v>278</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F179" s="12">
-        <v>18640</v>
+        <v>16997</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
+        <v>74</v>
       </c>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J179" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J179"/>
       <c r="K179" s="9"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -7791,32 +7528,30 @@
       <c r="D180" t="s">
         <v>278</v>
       </c>
-      <c r="E180" s="11" t="s">
-        <v>87</v>
+      <c r="E180" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F180" s="12">
-        <v>25067</v>
+        <v>14974</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
+        <v>80</v>
       </c>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J180" t="s">
-        <v>302</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J180"/>
       <c r="K180" s="9"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -7827,32 +7562,30 @@
       <c r="D181" t="s">
         <v>278</v>
       </c>
-      <c r="E181" s="6" t="s">
-        <v>104</v>
+      <c r="E181" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F181" s="12">
-        <v>21445</v>
+        <v>25566</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
+        <v>51</v>
       </c>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J181" t="s">
-        <v>302</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="J181"/>
       <c r="K181" s="9"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -7863,15 +7596,15 @@
       <c r="D182" t="s">
         <v>278</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>106</v>
+      <c r="E182" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="F182" s="12">
-        <v>24964</v>
+        <v>16390</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
+        <v>76</v>
       </c>
       <c r="H182" t="s">
         <v>201</v>
@@ -7879,16 +7612,14 @@
       <c r="I182" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J182" t="s">
-        <v>302</v>
-      </c>
+      <c r="J182"/>
       <c r="K182" s="9"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -7899,32 +7630,30 @@
       <c r="D183" t="s">
         <v>278</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>107</v>
+      <c r="E183" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F183" s="12">
-        <v>20415</v>
+        <v>25970</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
+        <v>49</v>
       </c>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="J183" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J183"/>
       <c r="K183" s="9"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -7935,15 +7664,15 @@
       <c r="D184" t="s">
         <v>278</v>
       </c>
-      <c r="E184" s="6" t="s">
-        <v>109</v>
+      <c r="E184" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F184" s="12">
-        <v>18781</v>
+        <v>27118</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
+        <v>46</v>
       </c>
       <c r="H184" t="s">
         <v>202</v>
@@ -7951,16 +7680,14 @@
       <c r="I184" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J184" t="s">
-        <v>302</v>
-      </c>
+      <c r="J184"/>
       <c r="K184" s="9"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -7971,15 +7698,15 @@
       <c r="D185" t="s">
         <v>278</v>
       </c>
-      <c r="E185" s="11" t="s">
-        <v>112</v>
+      <c r="E185" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F185" s="12">
-        <v>32771</v>
+        <v>22024</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
+        <v>60</v>
       </c>
       <c r="H185" t="s">
         <v>202</v>
@@ -7987,16 +7714,14 @@
       <c r="I185" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J185" t="s">
-        <v>302</v>
-      </c>
+      <c r="J185"/>
       <c r="K185" s="9"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8007,15 +7732,15 @@
       <c r="D186" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>116</v>
+      <c r="E186" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F186" s="12">
-        <v>18036</v>
+        <v>32142</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
+        <v>33</v>
       </c>
       <c r="H186" t="s">
         <v>202</v>
@@ -8023,16 +7748,14 @@
       <c r="I186" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J186" t="s">
-        <v>302</v>
-      </c>
+      <c r="J186"/>
       <c r="K186" s="9"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8044,14 +7767,14 @@
         <v>278</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="F187" s="12">
-        <v>24242</v>
+        <v>25592</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
+        <v>50</v>
       </c>
       <c r="H187" t="s">
         <v>202</v>
@@ -8059,16 +7782,14 @@
       <c r="I187" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J187" t="s">
-        <v>302</v>
-      </c>
+      <c r="J187"/>
       <c r="K187" s="9"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -8079,15 +7800,15 @@
       <c r="D188" t="s">
         <v>278</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>141</v>
+      <c r="E188" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F188" s="12">
-        <v>26203</v>
+        <v>25846</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
+        <v>50</v>
       </c>
       <c r="H188" t="s">
         <v>202</v>
@@ -8095,16 +7816,14 @@
       <c r="I188" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J188" t="s">
-        <v>302</v>
-      </c>
+      <c r="J188"/>
       <c r="K188" s="9"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -8116,14 +7835,14 @@
         <v>278</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="F189" s="12">
-        <v>14047</v>
+        <v>27112</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
+        <v>46</v>
       </c>
       <c r="H189" t="s">
         <v>202</v>
@@ -8131,16 +7850,14 @@
       <c r="I189" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J189" t="s">
-        <v>302</v>
-      </c>
+      <c r="J189"/>
       <c r="K189" s="9"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -8151,32 +7868,30 @@
       <c r="D190" t="s">
         <v>278</v>
       </c>
-      <c r="E190" s="11" t="s">
-        <v>82</v>
+      <c r="E190" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F190" s="12">
-        <v>29287</v>
+        <v>23902</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
+        <v>55</v>
       </c>
       <c r="H190" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J190" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J190"/>
       <c r="K190" s="9"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -8188,31 +7903,29 @@
         <v>278</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F191" s="12">
-        <v>17079</v>
+        <v>18640</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" ref="G191:G254" ca="1" si="4">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>74</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
+        <v>69</v>
       </c>
       <c r="H191" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J191" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J191"/>
       <c r="K191" s="9"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -8224,31 +7937,29 @@
         <v>278</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F192" s="12">
-        <v>27246</v>
+        <v>25067</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
+        <v>52</v>
       </c>
       <c r="H192" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J192" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J192"/>
       <c r="K192" s="9"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -8259,38 +7970,30 @@
       <c r="D193" t="s">
         <v>278</v>
       </c>
-      <c r="E193" s="11" t="s">
-        <v>27</v>
+      <c r="E193" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F193" s="12">
-        <v>27492</v>
+        <v>21445</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
+        <v>62</v>
       </c>
       <c r="H193" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J193" t="s">
-        <v>320</v>
-      </c>
-      <c r="K193" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L193" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M193" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J193"/>
+      <c r="K193" s="9"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -8302,31 +8005,29 @@
         <v>278</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F194" s="12">
-        <v>26205</v>
+        <v>24964</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
+        <v>52</v>
       </c>
       <c r="H194" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J194" t="s">
-        <v>302</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J194"/>
       <c r="K194" s="9"/>
-      <c r="L194" s="8"/>
+      <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B195">
         <v>7</v>
@@ -8338,31 +8039,29 @@
         <v>278</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="F195" s="12">
-        <v>25149</v>
+        <v>20415</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
+        <v>65</v>
       </c>
       <c r="H195" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J195" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J195"/>
       <c r="K195" s="9"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -8373,32 +8072,30 @@
       <c r="D196" t="s">
         <v>278</v>
       </c>
-      <c r="E196" s="11" t="s">
-        <v>36</v>
+      <c r="E196" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="F196" s="12">
-        <v>26299</v>
+        <v>18781</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
+        <v>69</v>
       </c>
       <c r="H196" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J196" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J196"/>
       <c r="K196" s="9"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B197">
         <v>7</v>
@@ -8410,37 +8107,29 @@
         <v>278</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="F197" s="12">
-        <v>29572</v>
+        <v>32771</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
+        <v>31</v>
       </c>
       <c r="H197" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J197" t="s">
-        <v>320</v>
-      </c>
-      <c r="K197" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L197" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M197" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J197"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -8452,37 +8141,29 @@
         <v>278</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="F198" s="12">
-        <v>24666</v>
+        <v>18036</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
+        <v>71</v>
       </c>
       <c r="H198" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J198" t="s">
-        <v>320</v>
-      </c>
-      <c r="K198" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L198" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M198" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J198"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -8493,32 +8174,30 @@
       <c r="D199" t="s">
         <v>278</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>40</v>
+      <c r="E199" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F199" s="12">
-        <v>31817</v>
+        <v>24242</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
+        <v>54</v>
       </c>
       <c r="H199" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J199" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J199"/>
       <c r="K199" s="9"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -8530,31 +8209,29 @@
         <v>278</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F200" s="12">
-        <v>26833</v>
+        <v>26203</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
+        <v>49</v>
       </c>
       <c r="H200" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J200" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J200"/>
       <c r="K200" s="9"/>
       <c r="L200" s="2"/>
-      <c r="M200"/>
+      <c r="M200" s="2"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -8566,31 +8243,29 @@
         <v>278</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F201" s="12">
-        <v>19566</v>
+        <v>14047</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
+        <v>82</v>
       </c>
       <c r="H201" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J201" t="s">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="J201"/>
       <c r="K201" s="9"/>
       <c r="L201" s="2"/>
-      <c r="M201"/>
+      <c r="M201" s="2"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -8601,15 +8276,15 @@
       <c r="D202" t="s">
         <v>278</v>
       </c>
-      <c r="E202" s="6" t="s">
-        <v>46</v>
+      <c r="E202" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="F202" s="12">
-        <v>18407</v>
+        <v>29287</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
+        <v>40</v>
       </c>
       <c r="H202" t="s">
         <v>200</v>
@@ -8617,15 +8292,14 @@
       <c r="I202" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J202" t="s">
-        <v>302</v>
-      </c>
+      <c r="J202"/>
       <c r="K202" s="9"/>
-      <c r="M202"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -8637,14 +8311,14 @@
         <v>278</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F203" s="12">
-        <v>19434</v>
+        <v>17079</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
+        <v>74</v>
       </c>
       <c r="H203" t="s">
         <v>200</v>
@@ -8652,16 +8326,14 @@
       <c r="I203" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J203" t="s">
-        <v>302</v>
-      </c>
+      <c r="J203"/>
       <c r="K203" s="9"/>
       <c r="L203" s="2"/>
-      <c r="M203"/>
+      <c r="M203" s="2"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -8673,14 +8345,14 @@
         <v>278</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F204" s="12">
-        <v>29549</v>
+        <v>27246</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
+        <v>46</v>
       </c>
       <c r="H204" t="s">
         <v>200</v>
@@ -8688,16 +8360,14 @@
       <c r="I204" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J204" t="s">
-        <v>302</v>
-      </c>
+      <c r="J204"/>
       <c r="K204" s="9"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -8709,13 +8379,13 @@
         <v>278</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F205" s="12">
-        <v>26133</v>
+        <v>26205</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
         <v>49</v>
       </c>
       <c r="H205" t="s">
@@ -8724,22 +8394,14 @@
       <c r="I205" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J205" t="s">
-        <v>317</v>
-      </c>
-      <c r="K205" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L205" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M205" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J205"/>
+      <c r="K205" s="9"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="2"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -8751,14 +8413,14 @@
         <v>278</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F206" s="12">
-        <v>21548</v>
+        <v>25149</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
+        <v>52</v>
       </c>
       <c r="H206" t="s">
         <v>200</v>
@@ -8766,16 +8428,14 @@
       <c r="I206" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J206" t="s">
-        <v>302</v>
-      </c>
+      <c r="J206"/>
       <c r="K206" s="9"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -8787,37 +8447,29 @@
         <v>278</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F207" s="12">
-        <v>27763</v>
+        <v>26299</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
+        <v>48</v>
       </c>
       <c r="H207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J207" t="s">
-        <v>320</v>
-      </c>
-      <c r="K207" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L207" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M207" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="J207"/>
+      <c r="K207" s="9"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -8829,14 +8481,14 @@
         <v>278</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="F208" s="12">
-        <v>22263</v>
+        <v>31817</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
+        <v>33</v>
       </c>
       <c r="H208" t="s">
         <v>200</v>
@@ -8844,22 +8496,14 @@
       <c r="I208" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J208" t="s">
-        <v>317</v>
-      </c>
-      <c r="K208" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L208" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M208" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J208"/>
+      <c r="K208" s="9"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -8871,14 +8515,14 @@
         <v>278</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="F209" s="12">
-        <v>31990</v>
+        <v>26833</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
+        <v>47</v>
       </c>
       <c r="H209" t="s">
         <v>200</v>
@@ -8886,16 +8530,14 @@
       <c r="I209" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J209" t="s">
-        <v>302</v>
-      </c>
+      <c r="J209"/>
       <c r="K209" s="9"/>
       <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
+      <c r="M209"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -8907,14 +8549,14 @@
         <v>278</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F210" s="12">
-        <v>30315</v>
+        <v>19566</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
+        <v>67</v>
       </c>
       <c r="H210" t="s">
         <v>200</v>
@@ -8922,16 +8564,14 @@
       <c r="I210" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J210" t="s">
-        <v>302</v>
-      </c>
+      <c r="J210"/>
       <c r="K210" s="9"/>
       <c r="L210" s="2"/>
       <c r="M210"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -8942,15 +8582,15 @@
       <c r="D211" t="s">
         <v>278</v>
       </c>
-      <c r="E211" s="11" t="s">
-        <v>98</v>
+      <c r="E211" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="F211" s="12">
-        <v>20907</v>
+        <v>18407</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
+        <v>70</v>
       </c>
       <c r="H211" t="s">
         <v>200</v>
@@ -8958,15 +8598,13 @@
       <c r="I211" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J211" t="s">
-        <v>302</v>
-      </c>
+      <c r="J211"/>
       <c r="K211" s="9"/>
       <c r="M211"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -8978,30 +8616,29 @@
         <v>278</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F212" s="12">
-        <v>21674</v>
+        <v>19434</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
+        <v>67</v>
       </c>
       <c r="H212" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J212" t="s">
-        <v>302</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="J212"/>
       <c r="K212" s="9"/>
+      <c r="L212" s="2"/>
       <c r="M212"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -9012,15 +8649,15 @@
       <c r="D213" t="s">
         <v>278</v>
       </c>
-      <c r="E213" s="6" t="s">
-        <v>101</v>
+      <c r="E213" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F213" s="12">
-        <v>24834</v>
+        <v>29549</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
+        <v>40</v>
       </c>
       <c r="H213" t="s">
         <v>200</v>
@@ -9028,22 +8665,14 @@
       <c r="I213" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J213" t="s">
-        <v>320</v>
-      </c>
-      <c r="K213" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L213" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M213" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J213"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -9055,14 +8684,14 @@
         <v>278</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F214" s="12">
-        <v>27004</v>
+        <v>21548</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
+        <v>62</v>
       </c>
       <c r="H214" t="s">
         <v>200</v>
@@ -9070,22 +8699,14 @@
       <c r="I214" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J214" t="s">
-        <v>320</v>
-      </c>
-      <c r="K214" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L214" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J214"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -9096,15 +8717,15 @@
       <c r="D215" t="s">
         <v>278</v>
       </c>
-      <c r="E215" s="11" t="s">
-        <v>270</v>
+      <c r="E215" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F215" s="12">
-        <v>20377</v>
+        <v>31990</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
+        <v>33</v>
       </c>
       <c r="H215" t="s">
         <v>200</v>
@@ -9112,16 +8733,14 @@
       <c r="I215" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J215" t="s">
-        <v>302</v>
-      </c>
+      <c r="J215"/>
       <c r="K215" s="9"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -9132,15 +8751,15 @@
       <c r="D216" t="s">
         <v>278</v>
       </c>
-      <c r="E216" s="6" t="s">
-        <v>111</v>
+      <c r="E216" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F216" s="12">
-        <v>23941</v>
+        <v>30315</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
+        <v>38</v>
       </c>
       <c r="H216" t="s">
         <v>200</v>
@@ -9148,15 +8767,14 @@
       <c r="I216" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J216" t="s">
-        <v>302</v>
-      </c>
+      <c r="J216"/>
       <c r="K216" s="9"/>
+      <c r="L216" s="2"/>
       <c r="M216"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B217">
         <v>7</v>
@@ -9167,15 +8785,15 @@
       <c r="D217" t="s">
         <v>278</v>
       </c>
-      <c r="E217" s="6" t="s">
-        <v>114</v>
+      <c r="E217" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F217" s="12">
-        <v>26624</v>
+        <v>20907</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
+        <v>63</v>
       </c>
       <c r="H217" t="s">
         <v>200</v>
@@ -9183,15 +8801,13 @@
       <c r="I217" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J217" t="s">
-        <v>302</v>
-      </c>
+      <c r="J217"/>
       <c r="K217" s="9"/>
       <c r="M217"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B218">
         <v>7</v>
@@ -9202,38 +8818,29 @@
       <c r="D218" t="s">
         <v>278</v>
       </c>
-      <c r="E218" s="11" t="s">
-        <v>115</v>
+      <c r="E218" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F218" s="12">
-        <v>31120</v>
+        <v>21674</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
+        <v>61</v>
       </c>
       <c r="H218" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J218" t="s">
-        <v>317</v>
-      </c>
-      <c r="K218" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L218" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M218" s="2" t="s">
-        <v>319</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J218"/>
+      <c r="K218" s="9"/>
+      <c r="M218"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B219">
         <v>7</v>
@@ -9245,14 +8852,14 @@
         <v>278</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="F219" s="12">
-        <v>29623</v>
+        <v>20377</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
+        <v>65</v>
       </c>
       <c r="H219" t="s">
         <v>200</v>
@@ -9260,16 +8867,14 @@
       <c r="I219" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J219" t="s">
-        <v>302</v>
-      </c>
+      <c r="J219"/>
       <c r="K219" s="9"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B220">
         <v>7</v>
@@ -9280,15 +8885,15 @@
       <c r="D220" t="s">
         <v>278</v>
       </c>
-      <c r="E220" s="11" t="s">
-        <v>129</v>
+      <c r="E220" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F220" s="12">
-        <v>27719</v>
+        <v>23941</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
+        <v>55</v>
       </c>
       <c r="H220" t="s">
         <v>200</v>
@@ -9296,16 +8901,13 @@
       <c r="I220" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J220" t="s">
-        <v>302</v>
-      </c>
+      <c r="J220"/>
       <c r="K220" s="9"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
+      <c r="M220"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B221">
         <v>7</v>
@@ -9317,14 +8919,14 @@
         <v>278</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F221" s="12">
-        <v>25084</v>
+        <v>26624</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
+        <v>48</v>
       </c>
       <c r="H221" t="s">
         <v>200</v>
@@ -9332,16 +8934,13 @@
       <c r="I221" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J221" t="s">
-        <v>302</v>
-      </c>
+      <c r="J221"/>
       <c r="K221" s="9"/>
-      <c r="L221" s="2"/>
       <c r="M221"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B222">
         <v>7</v>
@@ -9353,14 +8952,14 @@
         <v>278</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F222" s="12">
-        <v>30097</v>
+        <v>29623</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
+        <v>39</v>
       </c>
       <c r="H222" t="s">
         <v>200</v>
@@ -9368,22 +8967,14 @@
       <c r="I222" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J222" t="s">
-        <v>320</v>
-      </c>
-      <c r="K222" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L222" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M222" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J222"/>
+      <c r="K222" s="9"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B223">
         <v>7</v>
@@ -9395,14 +8986,14 @@
         <v>278</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="F223" s="12">
-        <v>23358</v>
+        <v>27719</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
+        <v>45</v>
       </c>
       <c r="H223" t="s">
         <v>200</v>
@@ -9410,16 +9001,14 @@
       <c r="I223" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J223" t="s">
-        <v>302</v>
-      </c>
+      <c r="J223"/>
       <c r="K223" s="9"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B224">
         <v>7</v>
@@ -9430,38 +9019,30 @@
       <c r="D224" t="s">
         <v>278</v>
       </c>
-      <c r="E224" t="s">
-        <v>226</v>
-      </c>
-      <c r="F224" s="9">
-        <v>32980</v>
+      <c r="E224" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F224" s="12">
+        <v>25084</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="H224" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
+        <v>52</v>
+      </c>
+      <c r="H224" t="s">
         <v>200</v>
       </c>
       <c r="I224" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J224" t="s">
-        <v>320</v>
-      </c>
-      <c r="K224" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L224" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M224" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J224"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="2"/>
+      <c r="M224"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B225">
         <v>7</v>
@@ -9472,34 +9053,26 @@
       <c r="D225" t="s">
         <v>278</v>
       </c>
-      <c r="E225" t="s">
-        <v>227</v>
-      </c>
-      <c r="F225" s="9">
-        <v>31116</v>
+      <c r="E225" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F225" s="12">
+        <v>23358</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="H225" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
+        <v>57</v>
+      </c>
+      <c r="H225" t="s">
         <v>200</v>
       </c>
       <c r="I225" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J225" t="s">
-        <v>317</v>
-      </c>
-      <c r="K225" s="9">
-        <v>44135</v>
-      </c>
-      <c r="L225" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="M225" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="J225"/>
+      <c r="K225" s="9"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -9521,7 +9094,7 @@
         <v>30164</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
         <v>38</v>
       </c>
       <c r="H226" t="s">
@@ -9530,9 +9103,7 @@
       <c r="I226" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J226" t="s">
-        <v>302</v>
-      </c>
+      <c r="J226"/>
       <c r="K226" s="9"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
@@ -9557,7 +9128,7 @@
         <v>31562</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
         <v>34</v>
       </c>
       <c r="H227" t="s">
@@ -9566,9 +9137,7 @@
       <c r="I227" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J227" t="s">
-        <v>302</v>
-      </c>
+      <c r="J227"/>
       <c r="K227" s="9"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
@@ -9593,7 +9162,7 @@
         <v>33225</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
         <v>30</v>
       </c>
       <c r="H228" t="s">
@@ -9602,9 +9171,7 @@
       <c r="I228" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J228" t="s">
-        <v>302</v>
-      </c>
+      <c r="J228"/>
       <c r="K228" s="9"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
@@ -9629,7 +9196,7 @@
         <v>30491</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
         <v>37</v>
       </c>
       <c r="H229" t="s">
@@ -9638,9 +9205,7 @@
       <c r="I229" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J229" t="s">
-        <v>302</v>
-      </c>
+      <c r="J229"/>
       <c r="K229" s="9"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
@@ -9665,7 +9230,7 @@
         <v>32481</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
         <v>32</v>
       </c>
       <c r="H230" t="s">
@@ -9674,9 +9239,7 @@
       <c r="I230" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="J230" t="s">
-        <v>302</v>
-      </c>
+      <c r="J230"/>
       <c r="K230" s="9"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
@@ -9701,7 +9264,7 @@
         <v>32885</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
         <v>30</v>
       </c>
       <c r="H231" t="s">
@@ -9710,9 +9273,7 @@
       <c r="I231" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J231" t="s">
-        <v>302</v>
-      </c>
+      <c r="J231"/>
       <c r="K231" s="9"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
@@ -9737,7 +9298,7 @@
         <v>31146</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
         <v>35</v>
       </c>
       <c r="H232" t="s">
@@ -9746,9 +9307,7 @@
       <c r="I232" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J232" t="s">
-        <v>302</v>
-      </c>
+      <c r="J232"/>
       <c r="K232" s="9"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
@@ -9773,7 +9332,7 @@
         <v>31814</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
         <v>33</v>
       </c>
       <c r="H233" t="s">
@@ -9782,9 +9341,7 @@
       <c r="I233" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J233" t="s">
-        <v>302</v>
-      </c>
+      <c r="J233"/>
       <c r="K233" s="9"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
@@ -9809,7 +9366,7 @@
         <v>32196</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
         <v>32</v>
       </c>
       <c r="H234" t="s">
@@ -9818,9 +9375,7 @@
       <c r="I234" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J234" t="s">
-        <v>302</v>
-      </c>
+      <c r="J234"/>
       <c r="K234" s="9"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
@@ -9845,7 +9400,7 @@
         <v>20417</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
         <v>65</v>
       </c>
       <c r="H235" t="s">
@@ -9854,9 +9409,7 @@
       <c r="I235" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J235" t="s">
-        <v>302</v>
-      </c>
+      <c r="J235"/>
       <c r="K235" s="9"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
@@ -9881,7 +9434,7 @@
         <v>19630</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
         <v>67</v>
       </c>
       <c r="H236" t="s">
@@ -9890,9 +9443,7 @@
       <c r="I236" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J236" t="s">
-        <v>302</v>
-      </c>
+      <c r="J236"/>
       <c r="K236" s="9"/>
       <c r="L236" s="2"/>
       <c r="M236"/>
@@ -9917,7 +9468,7 @@
         <v>21249</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
         <v>62</v>
       </c>
       <c r="H237" t="s">
@@ -9926,9 +9477,7 @@
       <c r="I237" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J237" t="s">
-        <v>302</v>
-      </c>
+      <c r="J237"/>
       <c r="K237" s="9"/>
       <c r="M237"/>
     </row>
@@ -9952,7 +9501,7 @@
         <v>21269</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
         <v>62</v>
       </c>
       <c r="H238" t="s">
@@ -9961,9 +9510,7 @@
       <c r="I238" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J238" t="s">
-        <v>302</v>
-      </c>
+      <c r="J238"/>
       <c r="K238" s="9"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
@@ -9988,7 +9535,7 @@
         <v>29503</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
         <v>40</v>
       </c>
       <c r="H239" t="s">
@@ -9997,9 +9544,7 @@
       <c r="I239" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J239" t="s">
-        <v>302</v>
-      </c>
+      <c r="J239"/>
       <c r="K239" s="9"/>
       <c r="L239" s="2"/>
       <c r="M239"/>
@@ -10024,7 +9569,7 @@
         <v>26846</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
         <v>47</v>
       </c>
       <c r="H240" t="s">
@@ -10033,9 +9578,7 @@
       <c r="I240" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J240" t="s">
-        <v>302</v>
-      </c>
+      <c r="J240"/>
       <c r="K240" s="9"/>
       <c r="L240" s="2"/>
       <c r="M240"/>
@@ -10060,7 +9603,7 @@
         <v>24000</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
         <v>55</v>
       </c>
       <c r="H241" t="s">
@@ -10069,9 +9612,7 @@
       <c r="I241" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J241" t="s">
-        <v>302</v>
-      </c>
+      <c r="J241"/>
       <c r="K241" s="9"/>
       <c r="L241" s="2"/>
       <c r="M241"/>
@@ -10096,7 +9637,7 @@
         <v>19943</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
         <v>66</v>
       </c>
       <c r="H242" t="s">
@@ -10105,9 +9646,7 @@
       <c r="I242" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J242" t="s">
-        <v>302</v>
-      </c>
+      <c r="J242"/>
       <c r="K242" s="9"/>
       <c r="M242"/>
     </row>
@@ -10131,7 +9670,7 @@
         <v>28122</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
         <v>44</v>
       </c>
       <c r="H243" t="s">
@@ -10140,9 +9679,7 @@
       <c r="I243" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J243" t="s">
-        <v>302</v>
-      </c>
+      <c r="J243"/>
       <c r="K243" s="9"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
@@ -10167,7 +9704,7 @@
         <v>29350</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
         <v>40</v>
       </c>
       <c r="H244" t="s">
@@ -10176,9 +9713,7 @@
       <c r="I244" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J244" t="s">
-        <v>302</v>
-      </c>
+      <c r="J244"/>
       <c r="K244" s="9"/>
       <c r="L244" s="2"/>
       <c r="M244"/>
@@ -10203,7 +9738,7 @@
         <v>29000</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
         <v>41</v>
       </c>
       <c r="H245" t="s">
@@ -10212,9 +9747,7 @@
       <c r="I245" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J245" t="s">
-        <v>302</v>
-      </c>
+      <c r="J245"/>
       <c r="K245" s="9"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
@@ -10239,7 +9772,7 @@
         <v>28805</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
         <v>42</v>
       </c>
       <c r="H246" t="s">
@@ -10248,9 +9781,7 @@
       <c r="I246" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J246" t="s">
-        <v>302</v>
-      </c>
+      <c r="J246"/>
       <c r="K246" s="9"/>
       <c r="L246" s="2"/>
       <c r="M246"/>
@@ -10275,7 +9806,7 @@
         <v>20625</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
         <v>64</v>
       </c>
       <c r="H247" t="s">
@@ -10284,9 +9815,7 @@
       <c r="I247" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J247" t="s">
-        <v>302</v>
-      </c>
+      <c r="J247"/>
       <c r="K247" s="9"/>
       <c r="M247"/>
     </row>
@@ -10310,7 +9839,7 @@
         <v>21011</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
         <v>63</v>
       </c>
       <c r="H248" t="s">
@@ -10319,9 +9848,7 @@
       <c r="I248" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J248" t="s">
-        <v>302</v>
-      </c>
+      <c r="J248"/>
       <c r="K248" s="9"/>
       <c r="M248"/>
     </row>
@@ -10345,7 +9872,7 @@
         <v>29713</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
         <v>39</v>
       </c>
       <c r="H249" t="s">
@@ -10354,9 +9881,7 @@
       <c r="I249" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J249" t="s">
-        <v>302</v>
-      </c>
+      <c r="J249"/>
       <c r="K249" s="9"/>
       <c r="M249"/>
     </row>
@@ -10380,7 +9905,7 @@
         <v>21432</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
         <v>62</v>
       </c>
       <c r="H250" t="s">
@@ -10389,9 +9914,7 @@
       <c r="I250" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J250" t="s">
-        <v>302</v>
-      </c>
+      <c r="J250"/>
       <c r="K250" s="9"/>
       <c r="M250"/>
     </row>
@@ -10415,7 +9938,7 @@
         <v>28961</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
         <v>41</v>
       </c>
       <c r="H251" t="s">
@@ -10424,9 +9947,7 @@
       <c r="I251" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J251" t="s">
-        <v>302</v>
-      </c>
+      <c r="J251"/>
       <c r="K251" s="9"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
@@ -10451,7 +9972,7 @@
         <v>25069</v>
       </c>
       <c r="G252" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
         <v>52</v>
       </c>
       <c r="H252" t="s">
@@ -10460,9 +9981,7 @@
       <c r="I252" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J252" t="s">
-        <v>302</v>
-      </c>
+      <c r="J252"/>
       <c r="K252" s="9"/>
       <c r="M252"/>
     </row>
@@ -10486,7 +10005,7 @@
         <v>24451</v>
       </c>
       <c r="G253" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
         <v>54</v>
       </c>
       <c r="H253" t="s">
@@ -10495,9 +10014,7 @@
       <c r="I253" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J253" t="s">
-        <v>302</v>
-      </c>
+      <c r="J253"/>
       <c r="K253" s="9"/>
       <c r="L253" s="2"/>
       <c r="M253"/>
@@ -10522,7 +10039,7 @@
         <v>27834</v>
       </c>
       <c r="G254" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
         <v>44</v>
       </c>
       <c r="H254" t="s">
@@ -10531,9 +10048,7 @@
       <c r="I254" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J254" t="s">
-        <v>302</v>
-      </c>
+      <c r="J254"/>
       <c r="K254" s="9"/>
       <c r="M254"/>
     </row>
@@ -10557,7 +10072,7 @@
         <v>18677</v>
       </c>
       <c r="G255" s="10">
-        <f t="shared" ref="G255:G264" ca="1" si="5">(YEAR(TODAY())-YEAR(F255))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
         <v>69</v>
       </c>
       <c r="H255" t="s">
@@ -10566,9 +10081,7 @@
       <c r="I255" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J255" t="s">
-        <v>302</v>
-      </c>
+      <c r="J255"/>
       <c r="K255" s="9"/>
       <c r="M255"/>
     </row>
@@ -10592,7 +10105,7 @@
         <v>18960</v>
       </c>
       <c r="G256" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
         <v>69</v>
       </c>
       <c r="H256" t="s">
@@ -10601,9 +10114,7 @@
       <c r="I256" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J256" t="s">
-        <v>302</v>
-      </c>
+      <c r="J256"/>
       <c r="K256" s="9"/>
       <c r="L256" s="2"/>
       <c r="M256"/>
@@ -10628,7 +10139,7 @@
         <v>20084</v>
       </c>
       <c r="G257" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
         <v>66</v>
       </c>
       <c r="H257" t="s">
@@ -10637,9 +10148,7 @@
       <c r="I257" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J257" t="s">
-        <v>302</v>
-      </c>
+      <c r="J257"/>
       <c r="K257" s="9"/>
       <c r="M257"/>
     </row>
@@ -10663,7 +10172,7 @@
         <v>29014</v>
       </c>
       <c r="G258" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
         <v>41</v>
       </c>
       <c r="H258" t="s">
@@ -10672,9 +10181,7 @@
       <c r="I258" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J258" t="s">
-        <v>302</v>
-      </c>
+      <c r="J258"/>
       <c r="K258" s="9"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
@@ -10699,7 +10206,7 @@
         <v>27808</v>
       </c>
       <c r="G259" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
         <v>44</v>
       </c>
       <c r="H259" t="s">
@@ -10708,9 +10215,7 @@
       <c r="I259" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J259" t="s">
-        <v>302</v>
-      </c>
+      <c r="J259"/>
       <c r="K259" s="9"/>
       <c r="M259"/>
     </row>
@@ -10734,7 +10239,7 @@
         <v>29294</v>
       </c>
       <c r="G260" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
         <v>40</v>
       </c>
       <c r="H260" t="s">
@@ -10743,9 +10248,7 @@
       <c r="I260" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J260" t="s">
-        <v>302</v>
-      </c>
+      <c r="J260"/>
       <c r="K260" s="9"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
@@ -10770,7 +10273,7 @@
         <v>22529</v>
       </c>
       <c r="G261" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
         <v>59</v>
       </c>
       <c r="H261" t="s">
@@ -10779,9 +10282,7 @@
       <c r="I261" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J261" t="s">
-        <v>302</v>
-      </c>
+      <c r="J261"/>
       <c r="K261" s="9"/>
       <c r="L261" s="2"/>
       <c r="M261"/>
@@ -10806,18 +10307,16 @@
         <v>21079</v>
       </c>
       <c r="G262" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
         <v>63</v>
       </c>
       <c r="H262" t="s">
+        <v>314</v>
+      </c>
+      <c r="I262" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="I262" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="J262" t="s">
-        <v>302</v>
-      </c>
+      <c r="J262"/>
       <c r="K262" s="9"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
@@ -10842,7 +10341,7 @@
         <v>28020</v>
       </c>
       <c r="G263" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
         <v>44</v>
       </c>
       <c r="H263" t="s">
@@ -10851,9 +10350,7 @@
       <c r="I263" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J263" t="s">
-        <v>302</v>
-      </c>
+      <c r="J263"/>
       <c r="K263" s="9"/>
       <c r="L263" s="2"/>
       <c r="M263"/>
@@ -10878,7 +10375,7 @@
         <v>21554</v>
       </c>
       <c r="G264" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
         <v>61</v>
       </c>
       <c r="H264" s="11" t="s">
@@ -10887,14 +10384,16 @@
       <c r="I264" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J264" t="s">
-        <v>302</v>
-      </c>
+      <c r="J264"/>
       <c r="K264" s="9"/>
       <c r="M264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{CA21F026-2D6F-E04E-A7CB-C8C35E5BFFBC}"/>
+  <autoFilter ref="A1:M1" xr:uid="{CA21F026-2D6F-E04E-A7CB-C8C35E5BFFBC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M264">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5013F632-CD95-4E24-9EB9-181096B5D701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA214A0-B182-4C41-8725-5071921CBA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="322">
   <si>
     <t>id</t>
   </si>
@@ -996,6 +996,12 @@
   </si>
   <si>
     <t>Desbordes</t>
+  </si>
+  <si>
+    <t>Kast</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/noticias/sin-editar/2019/04/26/un-nuevo-diputado-para-kast/</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1388,7 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,10 +8298,18 @@
       <c r="I202" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J202"/>
-      <c r="K202" s="9"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
+      <c r="J202" t="s">
+        <v>320</v>
+      </c>
+      <c r="K202" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -8462,10 +8476,18 @@
       <c r="I207" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J207"/>
-      <c r="K207" s="9"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
+      <c r="J207" t="s">
+        <v>320</v>
+      </c>
+      <c r="K207" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -8496,10 +8518,18 @@
       <c r="I208" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J208"/>
-      <c r="K208" s="9"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
+      <c r="J208" t="s">
+        <v>320</v>
+      </c>
+      <c r="K208" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -8631,10 +8661,18 @@
       <c r="I212" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J212"/>
-      <c r="K212" s="9"/>
-      <c r="L212" s="2"/>
-      <c r="M212"/>
+      <c r="J212" t="s">
+        <v>320</v>
+      </c>
+      <c r="K212" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L212" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -8665,10 +8703,18 @@
       <c r="I213" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J213"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
+      <c r="J213" t="s">
+        <v>320</v>
+      </c>
+      <c r="K213" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -8699,10 +8745,18 @@
       <c r="I214" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J214"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
+      <c r="J214" t="s">
+        <v>320</v>
+      </c>
+      <c r="K214" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L214" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -8834,9 +8888,18 @@
       <c r="I218" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J218"/>
-      <c r="K218" s="9"/>
-      <c r="M218"/>
+      <c r="J218" t="s">
+        <v>320</v>
+      </c>
+      <c r="K218" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L218" t="s">
+        <v>321</v>
+      </c>
+      <c r="M218" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -9001,10 +9064,18 @@
       <c r="I223" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J223"/>
-      <c r="K223" s="9"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
+      <c r="J223" t="s">
+        <v>320</v>
+      </c>
+      <c r="K223" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -9035,10 +9106,18 @@
       <c r="I224" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J224"/>
-      <c r="K224" s="9"/>
-      <c r="L224" s="2"/>
-      <c r="M224"/>
+      <c r="J224" t="s">
+        <v>320</v>
+      </c>
+      <c r="K224" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -10316,10 +10395,18 @@
       <c r="I262" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="J262"/>
-      <c r="K262" s="9"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
+      <c r="J262" t="s">
+        <v>320</v>
+      </c>
+      <c r="K262" s="9">
+        <v>43581</v>
+      </c>
+      <c r="L262" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA214A0-B182-4C41-8725-5071921CBA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F381B99C-66D9-4A54-A28B-FA34C792DA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="325">
   <si>
     <t>id</t>
   </si>
@@ -1002,6 +1002,15 @@
   </si>
   <si>
     <t>https://www.elmostrador.cl/noticias/sin-editar/2019/04/26/un-nuevo-diputado-para-kast/</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/la-tercera-pm/noticia/rincon-huenchumilla-undurraga-flores-deces-definen-sus-preferencias-presidenciales/XP4UNNOLIRAPDGTI5LKSECKGTM/</t>
+  </si>
+  <si>
+    <t>Huenchumilla</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1397,7 @@
   <dimension ref="A1:M264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1476,7 @@
         <v>18233</v>
       </c>
       <c r="G2" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
+        <f t="shared" ref="G2:G31" ca="1" si="0">(YEAR(TODAY())-YEAR(F2))</f>
         <v>71</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -1500,7 +1509,7 @@
         <v>15516</v>
       </c>
       <c r="G3" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -1534,7 +1543,7 @@
         <v>13941</v>
       </c>
       <c r="G4" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -1568,7 +1577,7 @@
         <v>18900</v>
       </c>
       <c r="G5" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -1602,7 +1611,7 @@
         <v>26645</v>
       </c>
       <c r="G6" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -1636,7 +1645,7 @@
         <v>20120</v>
       </c>
       <c r="G7" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1670,7 +1679,7 @@
         <v>28232</v>
       </c>
       <c r="G8" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -1704,7 +1713,7 @@
         <v>27653</v>
       </c>
       <c r="G9" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1738,7 +1747,7 @@
         <v>22460</v>
       </c>
       <c r="G10" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1772,7 +1781,7 @@
         <v>27681</v>
       </c>
       <c r="G11" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -1806,7 +1815,7 @@
         <v>17815</v>
       </c>
       <c r="G12" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -1840,7 +1849,7 @@
         <v>27474</v>
       </c>
       <c r="G13" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -1874,7 +1883,7 @@
         <v>20671</v>
       </c>
       <c r="G14" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -1908,7 +1917,7 @@
         <v>17779</v>
       </c>
       <c r="G15" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="H15" s="11" t="s">
@@ -1942,7 +1951,7 @@
         <v>24724</v>
       </c>
       <c r="G16" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="H16" s="11" t="s">
@@ -1976,7 +1985,7 @@
         <v>25134</v>
       </c>
       <c r="G17" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H17" s="11" t="s">
@@ -2010,7 +2019,7 @@
         <v>25126</v>
       </c>
       <c r="G18" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H18" t="s">
@@ -2044,7 +2053,7 @@
         <v>24970</v>
       </c>
       <c r="G19" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -2078,7 +2087,7 @@
         <v>20492</v>
       </c>
       <c r="G20" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -2112,7 +2121,7 @@
         <v>21368</v>
       </c>
       <c r="G21" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -2146,7 +2155,7 @@
         <v>27295</v>
       </c>
       <c r="G22" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -2180,7 +2189,7 @@
         <v>27105</v>
       </c>
       <c r="G23" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="H23" s="11" t="s">
@@ -2214,7 +2223,7 @@
         <v>29554</v>
       </c>
       <c r="G24" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H24" t="s">
@@ -2248,7 +2257,7 @@
         <v>20015</v>
       </c>
       <c r="G25" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="H25" s="11" t="s">
@@ -2282,7 +2291,7 @@
         <v>26556</v>
       </c>
       <c r="G26" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H26" s="11" t="s">
@@ -2316,7 +2325,7 @@
         <v>32557</v>
       </c>
       <c r="G27" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="H27" s="11" t="s">
@@ -2350,7 +2359,7 @@
         <v>22770</v>
       </c>
       <c r="G28" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -2384,7 +2393,7 @@
         <v>17431</v>
       </c>
       <c r="G29" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -2418,7 +2427,7 @@
         <v>30994</v>
       </c>
       <c r="G30" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -2451,7 +2460,7 @@
         <v>25454</v>
       </c>
       <c r="G31" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -2728,7 +2737,7 @@
         <v>18048</v>
       </c>
       <c r="G40" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
+        <f t="shared" ref="G40:G49" ca="1" si="1">(YEAR(TODAY())-YEAR(F40))</f>
         <v>71</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -2761,7 +2770,7 @@
         <v>25492</v>
       </c>
       <c r="G41" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -2794,7 +2803,7 @@
         <v>27655</v>
       </c>
       <c r="G42" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -2827,7 +2836,7 @@
         <v>22881</v>
       </c>
       <c r="G43" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -2860,7 +2869,7 @@
         <v>29105</v>
       </c>
       <c r="G44" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="H44" s="11" t="s">
@@ -2893,7 +2902,7 @@
         <v>20806</v>
       </c>
       <c r="G45" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="H45" s="11" t="s">
@@ -2926,7 +2935,7 @@
         <v>26763</v>
       </c>
       <c r="G46" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -2960,7 +2969,7 @@
         <v>26090</v>
       </c>
       <c r="G47" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="H47" s="11" t="s">
@@ -2994,7 +3003,7 @@
         <v>31131</v>
       </c>
       <c r="G48" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="H48" s="11" t="s">
@@ -3028,7 +3037,7 @@
         <v>25265</v>
       </c>
       <c r="G49" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -3470,7 +3479,7 @@
         <v>19005</v>
       </c>
       <c r="G63" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
+        <f t="shared" ref="G63:G126" ca="1" si="2">(YEAR(TODAY())-YEAR(F63))</f>
         <v>68</v>
       </c>
       <c r="H63" s="11" t="s">
@@ -3503,7 +3512,7 @@
         <v>27845</v>
       </c>
       <c r="G64" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="H64" s="11" t="s">
@@ -3536,7 +3545,7 @@
         <v>14442</v>
       </c>
       <c r="G65" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
       <c r="H65" s="11" t="s">
@@ -3570,7 +3579,7 @@
         <v>19655</v>
       </c>
       <c r="G66" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="H66" s="11" t="s">
@@ -3604,7 +3613,7 @@
         <v>28285</v>
       </c>
       <c r="G67" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="H67" t="s">
@@ -3638,7 +3647,7 @@
         <v>24478</v>
       </c>
       <c r="G68" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H68" t="s">
@@ -3672,7 +3681,7 @@
         <v>21855</v>
       </c>
       <c r="G69" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="H69" t="s">
@@ -3706,7 +3715,7 @@
         <v>21845</v>
       </c>
       <c r="G70" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="H70" t="s">
@@ -3740,7 +3749,7 @@
         <v>22224</v>
       </c>
       <c r="G71" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -3774,7 +3783,7 @@
         <v>19423</v>
       </c>
       <c r="G72" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="H72" s="11" t="s">
@@ -3808,7 +3817,7 @@
         <v>27196</v>
       </c>
       <c r="G73" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="H73" s="11" t="s">
@@ -3842,7 +3851,7 @@
         <v>21509</v>
       </c>
       <c r="G74" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="H74" s="11" t="s">
@@ -3876,7 +3885,7 @@
         <v>16153</v>
       </c>
       <c r="G75" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="H75" t="s">
@@ -3910,7 +3919,7 @@
         <v>25553</v>
       </c>
       <c r="G76" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H76" t="s">
@@ -3919,10 +3928,18 @@
       <c r="I76" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J76"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="J76" t="s">
+        <v>324</v>
+      </c>
+      <c r="K76" s="9">
+        <v>44144</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -3944,7 +3961,7 @@
         <v>25024</v>
       </c>
       <c r="G77" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="H77" t="s">
@@ -3978,7 +3995,7 @@
         <v>26653</v>
       </c>
       <c r="G78" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="H78" s="11" t="s">
@@ -4012,7 +4029,7 @@
         <v>19105</v>
       </c>
       <c r="G79" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H79" s="11" t="s">
@@ -4046,7 +4063,7 @@
         <v>22698</v>
       </c>
       <c r="G80" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H80" t="s">
@@ -4080,7 +4097,7 @@
         <v>26732</v>
       </c>
       <c r="G81" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H81" t="s">
@@ -4114,7 +4131,7 @@
         <v>24767</v>
       </c>
       <c r="G82" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H82" t="s">
@@ -4148,7 +4165,7 @@
         <v>13455</v>
       </c>
       <c r="G83" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
       </c>
       <c r="H83" t="s">
@@ -4182,7 +4199,7 @@
         <v>22305</v>
       </c>
       <c r="G84" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="H84" s="11" t="s">
@@ -4216,7 +4233,7 @@
         <v>26500</v>
       </c>
       <c r="G85" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="H85" s="11" t="s">
@@ -4250,7 +4267,7 @@
         <v>17801</v>
       </c>
       <c r="G86" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>72</v>
       </c>
       <c r="H86" s="11" t="s">
@@ -4284,7 +4301,7 @@
         <v>25491</v>
       </c>
       <c r="G87" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H87" t="s">
@@ -4318,7 +4335,7 @@
         <v>15859</v>
       </c>
       <c r="G88" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="H88" t="s">
@@ -4352,7 +4369,7 @@
         <v>16455</v>
       </c>
       <c r="G89" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="H89" t="s">
@@ -4386,7 +4403,7 @@
         <v>24173</v>
       </c>
       <c r="G90" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -4420,7 +4437,7 @@
         <v>22288</v>
       </c>
       <c r="G91" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -4454,7 +4471,7 @@
         <v>16933</v>
       </c>
       <c r="G92" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -4488,7 +4505,7 @@
         <v>16010</v>
       </c>
       <c r="G93" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -4522,7 +4539,7 @@
         <v>29680</v>
       </c>
       <c r="G94" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="H94" t="s">
@@ -4556,7 +4573,7 @@
         <v>26073</v>
       </c>
       <c r="G95" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="H95" t="s">
@@ -4590,7 +4607,7 @@
         <v>24414</v>
       </c>
       <c r="G96" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="H96" t="s">
@@ -4624,7 +4641,7 @@
         <v>20231</v>
       </c>
       <c r="G97" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H97" t="s">
@@ -4658,7 +4675,7 @@
         <v>20252</v>
       </c>
       <c r="G98" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H98" t="s">
@@ -4692,7 +4709,7 @@
         <v>22882</v>
       </c>
       <c r="G99" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -4726,7 +4743,7 @@
         <v>28573</v>
       </c>
       <c r="G100" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
       <c r="H100" t="s">
@@ -4760,7 +4777,7 @@
         <v>22094</v>
       </c>
       <c r="G101" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H101" t="s">
@@ -4794,7 +4811,7 @@
         <v>23444</v>
       </c>
       <c r="G102" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="H102" t="s">
@@ -4828,7 +4845,7 @@
         <v>19287</v>
       </c>
       <c r="G103" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H103" t="s">
@@ -4862,7 +4879,7 @@
         <v>20651</v>
       </c>
       <c r="G104" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H104" t="s">
@@ -4896,7 +4913,7 @@
         <v>20797</v>
       </c>
       <c r="G105" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -4930,7 +4947,7 @@
         <v>27361</v>
       </c>
       <c r="G106" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="H106" s="11" t="s">
@@ -4964,7 +4981,7 @@
         <v>19103</v>
       </c>
       <c r="G107" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H107" s="11" t="s">
@@ -4998,7 +5015,7 @@
         <v>23776</v>
       </c>
       <c r="G108" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H108" s="11" t="s">
@@ -5032,7 +5049,7 @@
         <v>21953</v>
       </c>
       <c r="G109" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H109" s="11" t="s">
@@ -5065,7 +5082,7 @@
         <v>27492</v>
       </c>
       <c r="G110" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
       <c r="H110" t="s">
@@ -5107,7 +5124,7 @@
         <v>29572</v>
       </c>
       <c r="G111" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
       <c r="H111" t="s">
@@ -5149,7 +5166,7 @@
         <v>24666</v>
       </c>
       <c r="G112" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H112" t="s">
@@ -5191,7 +5208,7 @@
         <v>27763</v>
       </c>
       <c r="G113" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="H113" t="s">
@@ -5233,7 +5250,7 @@
         <v>24834</v>
       </c>
       <c r="G114" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H114" t="s">
@@ -5275,7 +5292,7 @@
         <v>27004</v>
       </c>
       <c r="G115" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H115" t="s">
@@ -5317,7 +5334,7 @@
         <v>30097</v>
       </c>
       <c r="G116" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="H116" t="s">
@@ -5359,7 +5376,7 @@
         <v>32980</v>
       </c>
       <c r="G117" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
       <c r="H117" s="11" t="s">
@@ -5401,7 +5418,7 @@
         <v>26133</v>
       </c>
       <c r="G118" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="H118" t="s">
@@ -5443,7 +5460,7 @@
         <v>22263</v>
       </c>
       <c r="G119" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H119" t="s">
@@ -5485,7 +5502,7 @@
         <v>31120</v>
       </c>
       <c r="G120" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="H120" t="s">
@@ -5527,7 +5544,7 @@
         <v>31116</v>
       </c>
       <c r="G121" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="H121" s="11" t="s">
@@ -5569,7 +5586,7 @@
         <v>32533</v>
       </c>
       <c r="G122" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="H122" t="s">
@@ -5603,7 +5620,7 @@
         <v>31454</v>
       </c>
       <c r="G123" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="H123" t="s">
@@ -5637,7 +5654,7 @@
         <v>31783</v>
       </c>
       <c r="G124" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="H124" t="s">
@@ -5671,7 +5688,7 @@
         <v>26709</v>
       </c>
       <c r="G125" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H125" t="s">
@@ -5705,7 +5722,7 @@
         <v>26900</v>
       </c>
       <c r="G126" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H126" t="s">
@@ -5739,7 +5756,7 @@
         <v>25885</v>
       </c>
       <c r="G127" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
+        <f t="shared" ref="G127:G190" ca="1" si="3">(YEAR(TODAY())-YEAR(F127))</f>
         <v>50</v>
       </c>
       <c r="H127" t="s">
@@ -5773,7 +5790,7 @@
         <v>25750</v>
       </c>
       <c r="G128" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H128" t="s">
@@ -5807,7 +5824,7 @@
         <v>23332</v>
       </c>
       <c r="G129" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H129" t="s">
@@ -5841,7 +5858,7 @@
         <v>24014</v>
       </c>
       <c r="G130" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="H130" t="s">
@@ -5875,7 +5892,7 @@
         <v>23226</v>
       </c>
       <c r="G131" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H131" t="s">
@@ -5909,7 +5926,7 @@
         <v>24059</v>
       </c>
       <c r="G132" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="H132" t="s">
@@ -5943,7 +5960,7 @@
         <v>23594</v>
       </c>
       <c r="G133" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>56</v>
       </c>
       <c r="H133" t="s">
@@ -5977,7 +5994,7 @@
         <v>23006</v>
       </c>
       <c r="G134" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H134" t="s">
@@ -6011,7 +6028,7 @@
         <v>30347</v>
       </c>
       <c r="G135" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>37</v>
       </c>
       <c r="H135" t="s">
@@ -6045,7 +6062,7 @@
         <v>20371</v>
       </c>
       <c r="G136" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H136" t="s">
@@ -6079,7 +6096,7 @@
         <v>32261</v>
       </c>
       <c r="G137" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
       <c r="H137" t="s">
@@ -6113,7 +6130,7 @@
         <v>31868</v>
       </c>
       <c r="G138" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H138" t="s">
@@ -6147,7 +6164,7 @@
         <v>25691</v>
       </c>
       <c r="G139" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H139" t="s">
@@ -6181,7 +6198,7 @@
         <v>22559</v>
       </c>
       <c r="G140" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="H140" t="s">
@@ -6215,7 +6232,7 @@
         <v>16607</v>
       </c>
       <c r="G141" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="H141" t="s">
@@ -6249,7 +6266,7 @@
         <v>18196</v>
       </c>
       <c r="G142" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="H142" t="s">
@@ -6283,7 +6300,7 @@
         <v>25940</v>
       </c>
       <c r="G143" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H143" t="s">
@@ -6317,7 +6334,7 @@
         <v>16008</v>
       </c>
       <c r="G144" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="H144" t="s">
@@ -6351,7 +6368,7 @@
         <v>19657</v>
       </c>
       <c r="G145" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="H145" t="s">
@@ -6385,7 +6402,7 @@
         <v>31247</v>
       </c>
       <c r="G146" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="H146" t="s">
@@ -6394,10 +6411,18 @@
       <c r="I146" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J146"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
+      <c r="J146" t="s">
+        <v>322</v>
+      </c>
+      <c r="K146" s="9">
+        <v>44144</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -6419,7 +6444,7 @@
         <v>20255</v>
       </c>
       <c r="G147" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H147" t="s">
@@ -6453,7 +6478,7 @@
         <v>17116</v>
       </c>
       <c r="G148" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="H148" t="s">
@@ -6487,7 +6512,7 @@
         <v>15302</v>
       </c>
       <c r="G149" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="H149" t="s">
@@ -6521,7 +6546,7 @@
         <v>27851</v>
       </c>
       <c r="G150" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H150" t="s">
@@ -6555,7 +6580,7 @@
         <v>28018</v>
       </c>
       <c r="G151" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H151" t="s">
@@ -6564,10 +6589,18 @@
       <c r="I151" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J151"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
+      <c r="J151" t="s">
+        <v>322</v>
+      </c>
+      <c r="K151" s="9">
+        <v>44144</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -6589,7 +6622,7 @@
         <v>32101</v>
       </c>
       <c r="G152" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H152" t="s">
@@ -6623,7 +6656,7 @@
         <v>27678</v>
       </c>
       <c r="G153" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="H153" t="s">
@@ -6657,7 +6690,7 @@
         <v>21157</v>
       </c>
       <c r="G154" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="H154" t="s">
@@ -6666,10 +6699,18 @@
       <c r="I154" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J154"/>
-      <c r="K154" s="9"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
+      <c r="J154" t="s">
+        <v>324</v>
+      </c>
+      <c r="K154" s="9">
+        <v>44144</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -6691,7 +6732,7 @@
         <v>19343</v>
       </c>
       <c r="G155" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="H155" t="s">
@@ -6700,10 +6741,18 @@
       <c r="I155" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="J155"/>
-      <c r="K155" s="9"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
+      <c r="J155" t="s">
+        <v>322</v>
+      </c>
+      <c r="K155" s="9">
+        <v>44144</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -6725,7 +6774,7 @@
         <v>18196</v>
       </c>
       <c r="G156" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="H156" t="s">
@@ -6759,7 +6808,7 @@
         <v>23371</v>
       </c>
       <c r="G157" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H157" t="s">
@@ -6793,7 +6842,7 @@
         <v>26864</v>
       </c>
       <c r="G158" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H158" t="s">
@@ -6827,7 +6876,7 @@
         <v>26445</v>
       </c>
       <c r="G159" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="H159" t="s">
@@ -6861,7 +6910,7 @@
         <v>16725</v>
       </c>
       <c r="G160" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="H160" t="s">
@@ -6895,7 +6944,7 @@
         <v>20655</v>
       </c>
       <c r="G161" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
       <c r="H161" t="s">
@@ -6929,7 +6978,7 @@
         <v>22250</v>
       </c>
       <c r="G162" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H162" t="s">
@@ -6963,7 +7012,7 @@
         <v>33308</v>
       </c>
       <c r="G163" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>29</v>
       </c>
       <c r="H163" t="s">
@@ -6997,7 +7046,7 @@
         <v>28888</v>
       </c>
       <c r="G164" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="H164" t="s">
@@ -7031,7 +7080,7 @@
         <v>31920</v>
       </c>
       <c r="G165" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H165" t="s">
@@ -7065,7 +7114,7 @@
         <v>25397</v>
       </c>
       <c r="G166" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="H166" t="s">
@@ -7099,7 +7148,7 @@
         <v>21338</v>
       </c>
       <c r="G167" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="H167" t="s">
@@ -7133,7 +7182,7 @@
         <v>26802</v>
       </c>
       <c r="G168" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H168" t="s">
@@ -7167,7 +7216,7 @@
         <v>20281</v>
       </c>
       <c r="G169" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H169" t="s">
@@ -7201,7 +7250,7 @@
         <v>15245</v>
       </c>
       <c r="G170" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>79</v>
       </c>
       <c r="H170" t="s">
@@ -7235,7 +7284,7 @@
         <v>22890</v>
       </c>
       <c r="G171" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H171" t="s">
@@ -7269,7 +7318,7 @@
         <v>23367</v>
       </c>
       <c r="G172" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H172" t="s">
@@ -7303,7 +7352,7 @@
         <v>24717</v>
       </c>
       <c r="G173" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="H173" t="s">
@@ -7337,7 +7386,7 @@
         <v>22655</v>
       </c>
       <c r="G174" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H174" t="s">
@@ -7371,7 +7420,7 @@
         <v>27508</v>
       </c>
       <c r="G175" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="H175" t="s">
@@ -7405,7 +7454,7 @@
         <v>20885</v>
       </c>
       <c r="G176" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="H176" t="s">
@@ -7439,7 +7488,7 @@
         <v>21958</v>
       </c>
       <c r="G177" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H177" t="s">
@@ -7473,7 +7522,7 @@
         <v>21970</v>
       </c>
       <c r="G178" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H178" t="s">
@@ -7507,7 +7556,7 @@
         <v>16997</v>
       </c>
       <c r="G179" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="H179" t="s">
@@ -7541,7 +7590,7 @@
         <v>14974</v>
       </c>
       <c r="G180" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>80</v>
       </c>
       <c r="H180" t="s">
@@ -7575,7 +7624,7 @@
         <v>25566</v>
       </c>
       <c r="G181" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="H181" t="s">
@@ -7609,7 +7658,7 @@
         <v>16390</v>
       </c>
       <c r="G182" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>76</v>
       </c>
       <c r="H182" t="s">
@@ -7643,7 +7692,7 @@
         <v>25970</v>
       </c>
       <c r="G183" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H183" t="s">
@@ -7677,7 +7726,7 @@
         <v>27118</v>
       </c>
       <c r="G184" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H184" t="s">
@@ -7711,7 +7760,7 @@
         <v>22024</v>
       </c>
       <c r="G185" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H185" t="s">
@@ -7745,7 +7794,7 @@
         <v>32142</v>
       </c>
       <c r="G186" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H186" t="s">
@@ -7779,7 +7828,7 @@
         <v>25592</v>
       </c>
       <c r="G187" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H187" t="s">
@@ -7813,7 +7862,7 @@
         <v>25846</v>
       </c>
       <c r="G188" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H188" t="s">
@@ -7847,7 +7896,7 @@
         <v>27112</v>
       </c>
       <c r="G189" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H189" t="s">
@@ -7881,7 +7930,7 @@
         <v>23902</v>
       </c>
       <c r="G190" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="H190" t="s">
@@ -7915,7 +7964,7 @@
         <v>18640</v>
       </c>
       <c r="G191" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
+        <f t="shared" ref="G191:G254" ca="1" si="4">(YEAR(TODAY())-YEAR(F191))</f>
         <v>69</v>
       </c>
       <c r="H191" t="s">
@@ -7949,7 +7998,7 @@
         <v>25067</v>
       </c>
       <c r="G192" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H192" t="s">
@@ -7983,7 +8032,7 @@
         <v>21445</v>
       </c>
       <c r="G193" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H193" t="s">
@@ -8017,7 +8066,7 @@
         <v>24964</v>
       </c>
       <c r="G194" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H194" t="s">
@@ -8051,7 +8100,7 @@
         <v>20415</v>
       </c>
       <c r="G195" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H195" t="s">
@@ -8085,7 +8134,7 @@
         <v>18781</v>
       </c>
       <c r="G196" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>69</v>
       </c>
       <c r="H196" t="s">
@@ -8119,7 +8168,7 @@
         <v>32771</v>
       </c>
       <c r="G197" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
       <c r="H197" t="s">
@@ -8153,7 +8202,7 @@
         <v>18036</v>
       </c>
       <c r="G198" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>71</v>
       </c>
       <c r="H198" t="s">
@@ -8187,7 +8236,7 @@
         <v>24242</v>
       </c>
       <c r="G199" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="H199" t="s">
@@ -8221,7 +8270,7 @@
         <v>26203</v>
       </c>
       <c r="G200" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="H200" t="s">
@@ -8255,7 +8304,7 @@
         <v>14047</v>
       </c>
       <c r="G201" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>82</v>
       </c>
       <c r="H201" t="s">
@@ -8289,7 +8338,7 @@
         <v>29287</v>
       </c>
       <c r="G202" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H202" t="s">
@@ -8331,7 +8380,7 @@
         <v>17079</v>
       </c>
       <c r="G203" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>74</v>
       </c>
       <c r="H203" t="s">
@@ -8365,7 +8414,7 @@
         <v>27246</v>
       </c>
       <c r="G204" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
       <c r="H204" t="s">
@@ -8399,7 +8448,7 @@
         <v>26205</v>
       </c>
       <c r="G205" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>49</v>
       </c>
       <c r="H205" t="s">
@@ -8433,7 +8482,7 @@
         <v>25149</v>
       </c>
       <c r="G206" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H206" t="s">
@@ -8467,7 +8516,7 @@
         <v>26299</v>
       </c>
       <c r="G207" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="H207" t="s">
@@ -8509,7 +8558,7 @@
         <v>31817</v>
       </c>
       <c r="G208" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H208" t="s">
@@ -8551,7 +8600,7 @@
         <v>26833</v>
       </c>
       <c r="G209" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H209" t="s">
@@ -8585,7 +8634,7 @@
         <v>19566</v>
       </c>
       <c r="G210" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="H210" t="s">
@@ -8619,7 +8668,7 @@
         <v>18407</v>
       </c>
       <c r="G211" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>70</v>
       </c>
       <c r="H211" t="s">
@@ -8652,7 +8701,7 @@
         <v>19434</v>
       </c>
       <c r="G212" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="H212" t="s">
@@ -8694,7 +8743,7 @@
         <v>29549</v>
       </c>
       <c r="G213" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H213" t="s">
@@ -8736,7 +8785,7 @@
         <v>21548</v>
       </c>
       <c r="G214" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H214" t="s">
@@ -8778,7 +8827,7 @@
         <v>31990</v>
       </c>
       <c r="G215" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H215" t="s">
@@ -8812,7 +8861,7 @@
         <v>30315</v>
       </c>
       <c r="G216" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="H216" t="s">
@@ -8846,7 +8895,7 @@
         <v>20907</v>
       </c>
       <c r="G217" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="H217" t="s">
@@ -8879,7 +8928,7 @@
         <v>21674</v>
       </c>
       <c r="G218" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>61</v>
       </c>
       <c r="H218" t="s">
@@ -8921,7 +8970,7 @@
         <v>20377</v>
       </c>
       <c r="G219" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H219" t="s">
@@ -8955,7 +9004,7 @@
         <v>23941</v>
       </c>
       <c r="G220" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H220" t="s">
@@ -8988,7 +9037,7 @@
         <v>26624</v>
       </c>
       <c r="G221" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>48</v>
       </c>
       <c r="H221" t="s">
@@ -9021,7 +9070,7 @@
         <v>29623</v>
       </c>
       <c r="G222" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="H222" t="s">
@@ -9055,7 +9104,7 @@
         <v>27719</v>
       </c>
       <c r="G223" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>45</v>
       </c>
       <c r="H223" t="s">
@@ -9097,7 +9146,7 @@
         <v>25084</v>
       </c>
       <c r="G224" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H224" t="s">
@@ -9139,7 +9188,7 @@
         <v>23358</v>
       </c>
       <c r="G225" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="H225" t="s">
@@ -9173,7 +9222,7 @@
         <v>30164</v>
       </c>
       <c r="G226" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="H226" t="s">
@@ -9207,7 +9256,7 @@
         <v>31562</v>
       </c>
       <c r="G227" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="H227" t="s">
@@ -9241,7 +9290,7 @@
         <v>33225</v>
       </c>
       <c r="G228" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="H228" t="s">
@@ -9275,7 +9324,7 @@
         <v>30491</v>
       </c>
       <c r="G229" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="H229" t="s">
@@ -9309,7 +9358,7 @@
         <v>32481</v>
       </c>
       <c r="G230" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="H230" t="s">
@@ -9343,7 +9392,7 @@
         <v>32885</v>
       </c>
       <c r="G231" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
       <c r="H231" t="s">
@@ -9377,7 +9426,7 @@
         <v>31146</v>
       </c>
       <c r="G232" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="H232" t="s">
@@ -9411,7 +9460,7 @@
         <v>31814</v>
       </c>
       <c r="G233" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H233" t="s">
@@ -9445,7 +9494,7 @@
         <v>32196</v>
       </c>
       <c r="G234" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="H234" t="s">
@@ -9479,7 +9528,7 @@
         <v>20417</v>
       </c>
       <c r="G235" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H235" t="s">
@@ -9513,7 +9562,7 @@
         <v>19630</v>
       </c>
       <c r="G236" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>67</v>
       </c>
       <c r="H236" t="s">
@@ -9547,7 +9596,7 @@
         <v>21249</v>
       </c>
       <c r="G237" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H237" t="s">
@@ -9580,7 +9629,7 @@
         <v>21269</v>
       </c>
       <c r="G238" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H238" t="s">
@@ -9614,7 +9663,7 @@
         <v>29503</v>
       </c>
       <c r="G239" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H239" t="s">
@@ -9648,7 +9697,7 @@
         <v>26846</v>
       </c>
       <c r="G240" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H240" t="s">
@@ -9682,7 +9731,7 @@
         <v>24000</v>
       </c>
       <c r="G241" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H241" t="s">
@@ -9716,7 +9765,7 @@
         <v>19943</v>
       </c>
       <c r="G242" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>66</v>
       </c>
       <c r="H242" t="s">
@@ -9749,7 +9798,7 @@
         <v>28122</v>
       </c>
       <c r="G243" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="H243" t="s">
@@ -9783,7 +9832,7 @@
         <v>29350</v>
       </c>
       <c r="G244" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="H244" t="s">
@@ -9817,7 +9866,7 @@
         <v>29000</v>
       </c>
       <c r="G245" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="H245" t="s">
@@ -9851,7 +9900,7 @@
         <v>28805</v>
       </c>
       <c r="G246" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
       <c r="H246" t="s">
@@ -9885,7 +9934,7 @@
         <v>20625</v>
       </c>
       <c r="G247" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="H247" t="s">
@@ -9918,7 +9967,7 @@
         <v>21011</v>
       </c>
       <c r="G248" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>63</v>
       </c>
       <c r="H248" t="s">
@@ -9951,7 +10000,7 @@
         <v>29713</v>
       </c>
       <c r="G249" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="H249" t="s">
@@ -9984,7 +10033,7 @@
         <v>21432</v>
       </c>
       <c r="G250" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H250" t="s">
@@ -10017,7 +10066,7 @@
         <v>28961</v>
       </c>
       <c r="G251" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>41</v>
       </c>
       <c r="H251" t="s">
@@ -10051,7 +10100,7 @@
         <v>25069</v>
       </c>
       <c r="G252" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H252" t="s">
@@ -10084,7 +10133,7 @@
         <v>24451</v>
       </c>
       <c r="G253" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>54</v>
       </c>
       <c r="H253" t="s">
@@ -10118,7 +10167,7 @@
         <v>27834</v>
       </c>
       <c r="G254" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="H254" t="s">
@@ -10151,7 +10200,7 @@
         <v>18677</v>
       </c>
       <c r="G255" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
+        <f t="shared" ref="G255:G318" ca="1" si="5">(YEAR(TODAY())-YEAR(F255))</f>
         <v>69</v>
       </c>
       <c r="H255" t="s">
@@ -10184,7 +10233,7 @@
         <v>18960</v>
       </c>
       <c r="G256" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="H256" t="s">
@@ -10218,7 +10267,7 @@
         <v>20084</v>
       </c>
       <c r="G257" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>66</v>
       </c>
       <c r="H257" t="s">
@@ -10251,7 +10300,7 @@
         <v>29014</v>
       </c>
       <c r="G258" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>41</v>
       </c>
       <c r="H258" t="s">
@@ -10285,7 +10334,7 @@
         <v>27808</v>
       </c>
       <c r="G259" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="H259" t="s">
@@ -10318,7 +10367,7 @@
         <v>29294</v>
       </c>
       <c r="G260" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>40</v>
       </c>
       <c r="H260" t="s">
@@ -10352,7 +10401,7 @@
         <v>22529</v>
       </c>
       <c r="G261" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>59</v>
       </c>
       <c r="H261" t="s">
@@ -10386,7 +10435,7 @@
         <v>21079</v>
       </c>
       <c r="G262" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>63</v>
       </c>
       <c r="H262" t="s">
@@ -10428,7 +10477,7 @@
         <v>28020</v>
       </c>
       <c r="G263" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="H263" t="s">
@@ -10462,7 +10511,7 @@
         <v>21554</v>
       </c>
       <c r="G264" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
       <c r="H264" s="11" t="s">
@@ -10482,7 +10531,14 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L155" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
+    <hyperlink ref="L151" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
+    <hyperlink ref="L146" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
+    <hyperlink ref="L154" r:id="rId4" xr:uid="{4634D10E-9CA3-436E-B233-50CC94520292}"/>
+    <hyperlink ref="L76" r:id="rId5" xr:uid="{A049E81B-F121-49D7-93A2-FDF6958D3886}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAC413-94A8-4B05-AFC8-ACDF41B272BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB110E-1B9C-490E-8C21-EF5BDA8E2CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -1014,9 +1014,6 @@
   </si>
   <si>
     <t>registro</t>
-  </si>
-  <si>
-    <t>0+D8</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1400,7 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1482,7 @@
         <v>27492</v>
       </c>
       <c r="G2" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
+        <f t="shared" ref="G2:G33" ca="1" si="0">(YEAR(TODAY())-YEAR(F2))</f>
         <v>45</v>
       </c>
       <c r="H2" t="s">
@@ -1530,7 +1527,7 @@
         <v>29572</v>
       </c>
       <c r="G3" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H3" t="s">
@@ -1575,7 +1572,7 @@
         <v>24666</v>
       </c>
       <c r="G4" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="H4" t="s">
@@ -1620,7 +1617,7 @@
         <v>27763</v>
       </c>
       <c r="G5" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="H5" t="s">
@@ -1665,7 +1662,7 @@
         <v>24834</v>
       </c>
       <c r="G6" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="H6" t="s">
@@ -1710,7 +1707,7 @@
         <v>27004</v>
       </c>
       <c r="G7" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="H7" t="s">
@@ -1746,7 +1743,7 @@
         <v>44132</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>146</v>
@@ -1755,7 +1752,7 @@
         <v>30097</v>
       </c>
       <c r="G8" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="H8" t="s">
@@ -1800,7 +1797,7 @@
         <v>32980</v>
       </c>
       <c r="G9" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1845,7 +1842,7 @@
         <v>25553</v>
       </c>
       <c r="G10" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="H10" t="s">
@@ -1890,7 +1887,7 @@
         <v>21157</v>
       </c>
       <c r="G11" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="H11" t="s">
@@ -1935,7 +1932,7 @@
         <v>29287</v>
       </c>
       <c r="G12" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H12" t="s">
@@ -1980,7 +1977,7 @@
         <v>26299</v>
       </c>
       <c r="G13" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H13" t="s">
@@ -2025,7 +2022,7 @@
         <v>31817</v>
       </c>
       <c r="G14" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="H14" t="s">
@@ -2070,7 +2067,7 @@
         <v>19434</v>
       </c>
       <c r="G15" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>67</v>
       </c>
       <c r="H15" t="s">
@@ -2115,7 +2112,7 @@
         <v>29549</v>
       </c>
       <c r="G16" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H16" t="s">
@@ -2160,7 +2157,7 @@
         <v>21548</v>
       </c>
       <c r="G17" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="H17" t="s">
@@ -2205,7 +2202,7 @@
         <v>21674</v>
       </c>
       <c r="G18" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
       <c r="H18" t="s">
@@ -2250,7 +2247,7 @@
         <v>27719</v>
       </c>
       <c r="G19" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H19" t="s">
@@ -2295,7 +2292,7 @@
         <v>25084</v>
       </c>
       <c r="G20" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H20" t="s">
@@ -2340,7 +2337,7 @@
         <v>21079</v>
       </c>
       <c r="G21" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="H21" t="s">
@@ -2385,7 +2382,7 @@
         <v>31247</v>
       </c>
       <c r="G22" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H22" t="s">
@@ -2430,7 +2427,7 @@
         <v>28018</v>
       </c>
       <c r="G23" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="H23" t="s">
@@ -2475,7 +2472,7 @@
         <v>19343</v>
       </c>
       <c r="G24" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
       <c r="H24" t="s">
@@ -2520,7 +2517,7 @@
         <v>26133</v>
       </c>
       <c r="G25" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
       <c r="H25" t="s">
@@ -2565,7 +2562,7 @@
         <v>22263</v>
       </c>
       <c r="G26" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
       <c r="H26" t="s">
@@ -2610,7 +2607,7 @@
         <v>31120</v>
       </c>
       <c r="G27" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H27" t="s">
@@ -2655,7 +2652,7 @@
         <v>31116</v>
       </c>
       <c r="G28" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -2700,7 +2697,7 @@
         <v>18233</v>
       </c>
       <c r="G29" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -2736,7 +2733,7 @@
         <v>15516</v>
       </c>
       <c r="G30" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -2773,7 +2770,7 @@
         <v>13941</v>
       </c>
       <c r="G31" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
       <c r="H31" s="11" t="s">
@@ -2810,7 +2807,7 @@
         <v>18900</v>
       </c>
       <c r="G32" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
       <c r="H32" s="11" t="s">
@@ -2847,7 +2844,7 @@
         <v>26645</v>
       </c>
       <c r="G33" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H33" s="11" t="s">
@@ -2884,7 +2881,7 @@
         <v>20120</v>
       </c>
       <c r="G34" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
+        <f t="shared" ref="G34:G65" ca="1" si="1">(YEAR(TODAY())-YEAR(F34))</f>
         <v>65</v>
       </c>
       <c r="H34" s="11" t="s">
@@ -2921,7 +2918,7 @@
         <v>28232</v>
       </c>
       <c r="G35" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
       <c r="H35" s="11" t="s">
@@ -2958,7 +2955,7 @@
         <v>27653</v>
       </c>
       <c r="G36" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="H36" s="11" t="s">
@@ -2995,7 +2992,7 @@
         <v>22460</v>
       </c>
       <c r="G37" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
       <c r="H37" s="11" t="s">
@@ -3032,7 +3029,7 @@
         <v>27681</v>
       </c>
       <c r="G38" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="H38" s="11" t="s">
@@ -3069,7 +3066,7 @@
         <v>17815</v>
       </c>
       <c r="G39" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
       <c r="H39" s="11" t="s">
@@ -3106,7 +3103,7 @@
         <v>27474</v>
       </c>
       <c r="G40" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -3143,7 +3140,7 @@
         <v>20671</v>
       </c>
       <c r="G41" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -3180,7 +3177,7 @@
         <v>17779</v>
       </c>
       <c r="G42" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -3217,7 +3214,7 @@
         <v>24724</v>
       </c>
       <c r="G43" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -3254,7 +3251,7 @@
         <v>25134</v>
       </c>
       <c r="G44" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="H44" s="11" t="s">
@@ -3291,7 +3288,7 @@
         <v>25126</v>
       </c>
       <c r="G45" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="H45" t="s">
@@ -3328,7 +3325,7 @@
         <v>24970</v>
       </c>
       <c r="G46" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -3365,7 +3362,7 @@
         <v>20492</v>
       </c>
       <c r="G47" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
       <c r="H47" s="11" t="s">
@@ -3402,7 +3399,7 @@
         <v>21368</v>
       </c>
       <c r="G48" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="H48" s="11" t="s">
@@ -3439,7 +3436,7 @@
         <v>27295</v>
       </c>
       <c r="G49" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -3476,7 +3473,7 @@
         <v>27105</v>
       </c>
       <c r="G50" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
       <c r="H50" s="11" t="s">
@@ -3513,7 +3510,7 @@
         <v>29554</v>
       </c>
       <c r="G51" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="H51" t="s">
@@ -3550,7 +3547,7 @@
         <v>20015</v>
       </c>
       <c r="G52" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
       <c r="H52" s="11" t="s">
@@ -3587,7 +3584,7 @@
         <v>26556</v>
       </c>
       <c r="G53" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
       <c r="H53" s="11" t="s">
@@ -3624,7 +3621,7 @@
         <v>32557</v>
       </c>
       <c r="G54" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
       <c r="H54" s="11" t="s">
@@ -3661,7 +3658,7 @@
         <v>22770</v>
       </c>
       <c r="G55" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
       <c r="H55" s="11" t="s">
@@ -3698,7 +3695,7 @@
         <v>17431</v>
       </c>
       <c r="G56" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
       <c r="H56" s="11" t="s">
@@ -3735,7 +3732,7 @@
         <v>30994</v>
       </c>
       <c r="G57" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
       <c r="H57" s="11" t="s">
@@ -3771,7 +3768,7 @@
         <v>25454</v>
       </c>
       <c r="G58" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="H58" s="11" t="s">
@@ -4075,7 +4072,7 @@
         <v>18048</v>
       </c>
       <c r="G67" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
+        <f t="shared" ref="G67:G76" ca="1" si="2">(YEAR(TODAY())-YEAR(F67))</f>
         <v>71</v>
       </c>
       <c r="H67" s="11" t="s">
@@ -4111,7 +4108,7 @@
         <v>25492</v>
       </c>
       <c r="G68" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H68" s="11" t="s">
@@ -4147,7 +4144,7 @@
         <v>27655</v>
       </c>
       <c r="G69" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
       <c r="H69" s="11" t="s">
@@ -4183,7 +4180,7 @@
         <v>22881</v>
       </c>
       <c r="G70" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H70" s="11" t="s">
@@ -4219,7 +4216,7 @@
         <v>29105</v>
       </c>
       <c r="G71" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -4255,7 +4252,7 @@
         <v>20806</v>
       </c>
       <c r="G72" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H72" s="11" t="s">
@@ -4291,7 +4288,7 @@
         <v>26763</v>
       </c>
       <c r="G73" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H73" s="11" t="s">
@@ -4328,7 +4325,7 @@
         <v>26090</v>
       </c>
       <c r="G74" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="H74" s="11" t="s">
@@ -4365,7 +4362,7 @@
         <v>31131</v>
       </c>
       <c r="G75" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="H75" s="11" t="s">
@@ -4402,7 +4399,7 @@
         <v>25265</v>
       </c>
       <c r="G76" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -4886,7 +4883,7 @@
         <v>19005</v>
       </c>
       <c r="G90" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
+        <f t="shared" ref="G90:G121" ca="1" si="3">(YEAR(TODAY())-YEAR(F90))</f>
         <v>68</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -4922,7 +4919,7 @@
         <v>27845</v>
       </c>
       <c r="G91" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -4958,7 +4955,7 @@
         <v>14442</v>
       </c>
       <c r="G92" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>81</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -4995,7 +4992,7 @@
         <v>19655</v>
       </c>
       <c r="G93" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -5032,7 +5029,7 @@
         <v>28285</v>
       </c>
       <c r="G94" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>43</v>
       </c>
       <c r="H94" t="s">
@@ -5069,7 +5066,7 @@
         <v>24478</v>
       </c>
       <c r="G95" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="H95" t="s">
@@ -5106,7 +5103,7 @@
         <v>21855</v>
       </c>
       <c r="G96" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>61</v>
       </c>
       <c r="H96" t="s">
@@ -5143,7 +5140,7 @@
         <v>21845</v>
       </c>
       <c r="G97" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>61</v>
       </c>
       <c r="H97" t="s">
@@ -5180,7 +5177,7 @@
         <v>22224</v>
       </c>
       <c r="G98" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H98" s="11" t="s">
@@ -5217,7 +5214,7 @@
         <v>19423</v>
       </c>
       <c r="G99" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -5254,7 +5251,7 @@
         <v>27196</v>
       </c>
       <c r="G100" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H100" s="11" t="s">
@@ -5291,7 +5288,7 @@
         <v>21509</v>
       </c>
       <c r="G101" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="H101" s="11" t="s">
@@ -5328,7 +5325,7 @@
         <v>16153</v>
       </c>
       <c r="G102" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>76</v>
       </c>
       <c r="H102" t="s">
@@ -5365,7 +5362,7 @@
         <v>25024</v>
       </c>
       <c r="G103" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="H103" t="s">
@@ -5402,7 +5399,7 @@
         <v>26653</v>
       </c>
       <c r="G104" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="H104" s="11" t="s">
@@ -5439,7 +5436,7 @@
         <v>19105</v>
       </c>
       <c r="G105" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>68</v>
       </c>
       <c r="H105" s="11" t="s">
@@ -5476,7 +5473,7 @@
         <v>22698</v>
       </c>
       <c r="G106" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H106" t="s">
@@ -5513,7 +5510,7 @@
         <v>26732</v>
       </c>
       <c r="G107" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H107" t="s">
@@ -5550,7 +5547,7 @@
         <v>24767</v>
       </c>
       <c r="G108" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="H108" t="s">
@@ -5587,7 +5584,7 @@
         <v>13455</v>
       </c>
       <c r="G109" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>84</v>
       </c>
       <c r="H109" t="s">
@@ -5624,7 +5621,7 @@
         <v>22305</v>
       </c>
       <c r="G110" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="H110" s="11" t="s">
@@ -5661,7 +5658,7 @@
         <v>26500</v>
       </c>
       <c r="G111" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="H111" s="11" t="s">
@@ -5698,7 +5695,7 @@
         <v>17801</v>
       </c>
       <c r="G112" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>72</v>
       </c>
       <c r="H112" s="11" t="s">
@@ -5735,7 +5732,7 @@
         <v>25491</v>
       </c>
       <c r="G113" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="H113" t="s">
@@ -5772,7 +5769,7 @@
         <v>15859</v>
       </c>
       <c r="G114" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="H114" t="s">
@@ -5809,7 +5806,7 @@
         <v>16455</v>
       </c>
       <c r="G115" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>75</v>
       </c>
       <c r="H115" t="s">
@@ -5846,7 +5843,7 @@
         <v>24173</v>
       </c>
       <c r="G116" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="H116" s="11" t="s">
@@ -5883,7 +5880,7 @@
         <v>22288</v>
       </c>
       <c r="G117" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="H117" s="11" t="s">
@@ -5920,7 +5917,7 @@
         <v>16933</v>
       </c>
       <c r="G118" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="H118" s="11" t="s">
@@ -5957,7 +5954,7 @@
         <v>16010</v>
       </c>
       <c r="G119" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>77</v>
       </c>
       <c r="H119" s="11" t="s">
@@ -5994,7 +5991,7 @@
         <v>29680</v>
       </c>
       <c r="G120" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
       <c r="H120" t="s">
@@ -6031,7 +6028,7 @@
         <v>26073</v>
       </c>
       <c r="G121" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H121" t="s">
@@ -6068,7 +6065,7 @@
         <v>24414</v>
       </c>
       <c r="G122" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
+        <f t="shared" ref="G122:G153" ca="1" si="4">(YEAR(TODAY())-YEAR(F122))</f>
         <v>54</v>
       </c>
       <c r="H122" t="s">
@@ -6105,7 +6102,7 @@
         <v>20231</v>
       </c>
       <c r="G123" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H123" t="s">
@@ -6142,7 +6139,7 @@
         <v>20252</v>
       </c>
       <c r="G124" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H124" t="s">
@@ -6179,7 +6176,7 @@
         <v>22882</v>
       </c>
       <c r="G125" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
       <c r="H125" s="11" t="s">
@@ -6216,7 +6213,7 @@
         <v>28573</v>
       </c>
       <c r="G126" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>42</v>
       </c>
       <c r="H126" t="s">
@@ -6253,7 +6250,7 @@
         <v>22094</v>
       </c>
       <c r="G127" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="H127" t="s">
@@ -6290,7 +6287,7 @@
         <v>23444</v>
       </c>
       <c r="G128" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>56</v>
       </c>
       <c r="H128" t="s">
@@ -6327,7 +6324,7 @@
         <v>19287</v>
       </c>
       <c r="G129" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>68</v>
       </c>
       <c r="H129" t="s">
@@ -6364,7 +6361,7 @@
         <v>20651</v>
       </c>
       <c r="G130" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="H130" t="s">
@@ -6401,7 +6398,7 @@
         <v>20797</v>
       </c>
       <c r="G131" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>64</v>
       </c>
       <c r="H131" s="11" t="s">
@@ -6438,7 +6435,7 @@
         <v>27361</v>
       </c>
       <c r="G132" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>46</v>
       </c>
       <c r="H132" s="11" t="s">
@@ -6475,7 +6472,7 @@
         <v>19103</v>
       </c>
       <c r="G133" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>68</v>
       </c>
       <c r="H133" s="11" t="s">
@@ -6512,7 +6509,7 @@
         <v>23776</v>
       </c>
       <c r="G134" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H134" s="11" t="s">
@@ -6549,7 +6546,7 @@
         <v>21953</v>
       </c>
       <c r="G135" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
       <c r="H135" s="11" t="s">
@@ -6585,7 +6582,7 @@
         <v>32533</v>
       </c>
       <c r="G136" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
       <c r="H136" t="s">
@@ -6622,7 +6619,7 @@
         <v>31454</v>
       </c>
       <c r="G137" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="H137" t="s">
@@ -6659,7 +6656,7 @@
         <v>31783</v>
       </c>
       <c r="G138" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H138" t="s">
@@ -6696,7 +6693,7 @@
         <v>26709</v>
       </c>
       <c r="G139" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H139" t="s">
@@ -6733,7 +6730,7 @@
         <v>26900</v>
       </c>
       <c r="G140" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>47</v>
       </c>
       <c r="H140" t="s">
@@ -6770,7 +6767,7 @@
         <v>25885</v>
       </c>
       <c r="G141" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50</v>
       </c>
       <c r="H141" t="s">
@@ -6807,7 +6804,7 @@
         <v>25750</v>
       </c>
       <c r="G142" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50</v>
       </c>
       <c r="H142" t="s">
@@ -6844,7 +6841,7 @@
         <v>23332</v>
       </c>
       <c r="G143" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="H143" t="s">
@@ -6881,7 +6878,7 @@
         <v>24014</v>
       </c>
       <c r="G144" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H144" t="s">
@@ -6918,7 +6915,7 @@
         <v>23226</v>
       </c>
       <c r="G145" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="H145" t="s">
@@ -6955,7 +6952,7 @@
         <v>24059</v>
       </c>
       <c r="G146" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H146" t="s">
@@ -6992,7 +6989,7 @@
         <v>23594</v>
       </c>
       <c r="G147" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>56</v>
       </c>
       <c r="H147" t="s">
@@ -7029,7 +7026,7 @@
         <v>23006</v>
       </c>
       <c r="G148" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>58</v>
       </c>
       <c r="H148" t="s">
@@ -7066,7 +7063,7 @@
         <v>30347</v>
       </c>
       <c r="G149" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="H149" t="s">
@@ -7103,7 +7100,7 @@
         <v>20371</v>
       </c>
       <c r="G150" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>65</v>
       </c>
       <c r="H150" t="s">
@@ -7140,7 +7137,7 @@
         <v>32261</v>
       </c>
       <c r="G151" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="H151" t="s">
@@ -7177,7 +7174,7 @@
         <v>31868</v>
       </c>
       <c r="G152" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="H152" t="s">
@@ -7214,7 +7211,7 @@
         <v>25691</v>
       </c>
       <c r="G153" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50</v>
       </c>
       <c r="H153" t="s">
@@ -7251,7 +7248,7 @@
         <v>22559</v>
       </c>
       <c r="G154" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
+        <f t="shared" ref="G154:G185" ca="1" si="5">(YEAR(TODAY())-YEAR(F154))</f>
         <v>59</v>
       </c>
       <c r="H154" t="s">
@@ -7288,7 +7285,7 @@
         <v>16607</v>
       </c>
       <c r="G155" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="H155" t="s">
@@ -7325,7 +7322,7 @@
         <v>18196</v>
       </c>
       <c r="G156" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>71</v>
       </c>
       <c r="H156" t="s">
@@ -7362,7 +7359,7 @@
         <v>25940</v>
       </c>
       <c r="G157" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>49</v>
       </c>
       <c r="H157" t="s">
@@ -7399,7 +7396,7 @@
         <v>16008</v>
       </c>
       <c r="G158" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>77</v>
       </c>
       <c r="H158" t="s">
@@ -7436,7 +7433,7 @@
         <v>19657</v>
       </c>
       <c r="G159" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>67</v>
       </c>
       <c r="H159" t="s">
@@ -7473,7 +7470,7 @@
         <v>20255</v>
       </c>
       <c r="G160" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>65</v>
       </c>
       <c r="H160" t="s">
@@ -7510,7 +7507,7 @@
         <v>17116</v>
       </c>
       <c r="G161" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>74</v>
       </c>
       <c r="H161" t="s">
@@ -7547,7 +7544,7 @@
         <v>15302</v>
       </c>
       <c r="G162" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>79</v>
       </c>
       <c r="H162" t="s">
@@ -7584,7 +7581,7 @@
         <v>27851</v>
       </c>
       <c r="G163" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>44</v>
       </c>
       <c r="H163" t="s">
@@ -7621,7 +7618,7 @@
         <v>32101</v>
       </c>
       <c r="G164" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>33</v>
       </c>
       <c r="H164" t="s">
@@ -7658,7 +7655,7 @@
         <v>27678</v>
       </c>
       <c r="G165" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>45</v>
       </c>
       <c r="H165" t="s">
@@ -7695,7 +7692,7 @@
         <v>18196</v>
       </c>
       <c r="G166" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>71</v>
       </c>
       <c r="H166" t="s">
@@ -7732,7 +7729,7 @@
         <v>23371</v>
       </c>
       <c r="G167" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>57</v>
       </c>
       <c r="H167" t="s">
@@ -7769,7 +7766,7 @@
         <v>26864</v>
       </c>
       <c r="G168" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>47</v>
       </c>
       <c r="H168" t="s">
@@ -7806,7 +7803,7 @@
         <v>26445</v>
       </c>
       <c r="G169" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>48</v>
       </c>
       <c r="H169" t="s">
@@ -7843,7 +7840,7 @@
         <v>16725</v>
       </c>
       <c r="G170" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
       <c r="H170" t="s">
@@ -7880,7 +7877,7 @@
         <v>20655</v>
       </c>
       <c r="G171" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>64</v>
       </c>
       <c r="H171" t="s">
@@ -7917,7 +7914,7 @@
         <v>22250</v>
       </c>
       <c r="G172" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>60</v>
       </c>
       <c r="H172" t="s">
@@ -7954,7 +7951,7 @@
         <v>33308</v>
       </c>
       <c r="G173" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>29</v>
       </c>
       <c r="H173" t="s">
@@ -7991,7 +7988,7 @@
         <v>28888</v>
       </c>
       <c r="G174" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>41</v>
       </c>
       <c r="H174" t="s">
@@ -8028,7 +8025,7 @@
         <v>31920</v>
       </c>
       <c r="G175" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>33</v>
       </c>
       <c r="H175" t="s">
@@ -8065,7 +8062,7 @@
         <v>25397</v>
       </c>
       <c r="G176" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>51</v>
       </c>
       <c r="H176" t="s">
@@ -8102,7 +8099,7 @@
         <v>21338</v>
       </c>
       <c r="G177" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>62</v>
       </c>
       <c r="H177" t="s">
@@ -8139,7 +8136,7 @@
         <v>26802</v>
       </c>
       <c r="G178" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>47</v>
       </c>
       <c r="H178" t="s">
@@ -8176,7 +8173,7 @@
         <v>20281</v>
       </c>
       <c r="G179" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>65</v>
       </c>
       <c r="H179" t="s">
@@ -8213,7 +8210,7 @@
         <v>15245</v>
       </c>
       <c r="G180" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>79</v>
       </c>
       <c r="H180" t="s">
@@ -8250,7 +8247,7 @@
         <v>22890</v>
       </c>
       <c r="G181" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>58</v>
       </c>
       <c r="H181" t="s">
@@ -8287,7 +8284,7 @@
         <v>23367</v>
       </c>
       <c r="G182" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>57</v>
       </c>
       <c r="H182" t="s">
@@ -8324,7 +8321,7 @@
         <v>24717</v>
       </c>
       <c r="G183" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>53</v>
       </c>
       <c r="H183" t="s">
@@ -8361,7 +8358,7 @@
         <v>22655</v>
       </c>
       <c r="G184" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>58</v>
       </c>
       <c r="H184" t="s">
@@ -8398,7 +8395,7 @@
         <v>27508</v>
       </c>
       <c r="G185" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>45</v>
       </c>
       <c r="H185" t="s">
@@ -8435,7 +8432,7 @@
         <v>20885</v>
       </c>
       <c r="G186" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
+        <f t="shared" ref="G186:G217" ca="1" si="6">(YEAR(TODAY())-YEAR(F186))</f>
         <v>63</v>
       </c>
       <c r="H186" t="s">
@@ -8472,7 +8469,7 @@
         <v>21958</v>
       </c>
       <c r="G187" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
       <c r="H187" t="s">
@@ -8509,7 +8506,7 @@
         <v>21970</v>
       </c>
       <c r="G188" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
       <c r="H188" t="s">
@@ -8546,7 +8543,7 @@
         <v>16997</v>
       </c>
       <c r="G189" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="H189" t="s">
@@ -8583,7 +8580,7 @@
         <v>14974</v>
       </c>
       <c r="G190" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>80</v>
       </c>
       <c r="H190" t="s">
@@ -8620,7 +8617,7 @@
         <v>25566</v>
       </c>
       <c r="G191" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>51</v>
       </c>
       <c r="H191" t="s">
@@ -8657,7 +8654,7 @@
         <v>16390</v>
       </c>
       <c r="G192" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="H192" t="s">
@@ -8694,7 +8691,7 @@
         <v>25970</v>
       </c>
       <c r="G193" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>49</v>
       </c>
       <c r="H193" t="s">
@@ -8731,7 +8728,7 @@
         <v>27118</v>
       </c>
       <c r="G194" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>46</v>
       </c>
       <c r="H194" t="s">
@@ -8768,7 +8765,7 @@
         <v>22024</v>
       </c>
       <c r="G195" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
       <c r="H195" t="s">
@@ -8805,7 +8802,7 @@
         <v>32142</v>
       </c>
       <c r="G196" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>33</v>
       </c>
       <c r="H196" t="s">
@@ -8842,7 +8839,7 @@
         <v>25592</v>
       </c>
       <c r="G197" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>50</v>
       </c>
       <c r="H197" t="s">
@@ -8879,7 +8876,7 @@
         <v>25846</v>
       </c>
       <c r="G198" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>50</v>
       </c>
       <c r="H198" t="s">
@@ -8916,7 +8913,7 @@
         <v>27112</v>
       </c>
       <c r="G199" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>46</v>
       </c>
       <c r="H199" t="s">
@@ -8953,7 +8950,7 @@
         <v>23902</v>
       </c>
       <c r="G200" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>55</v>
       </c>
       <c r="H200" t="s">
@@ -8990,7 +8987,7 @@
         <v>18640</v>
       </c>
       <c r="G201" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="H201" t="s">
@@ -9027,7 +9024,7 @@
         <v>25067</v>
       </c>
       <c r="G202" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
       <c r="H202" t="s">
@@ -9064,7 +9061,7 @@
         <v>21445</v>
       </c>
       <c r="G203" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
       <c r="H203" t="s">
@@ -9101,7 +9098,7 @@
         <v>24964</v>
       </c>
       <c r="G204" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
       <c r="H204" t="s">
@@ -9138,7 +9135,7 @@
         <v>20415</v>
       </c>
       <c r="G205" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>65</v>
       </c>
       <c r="H205" t="s">
@@ -9175,7 +9172,7 @@
         <v>18781</v>
       </c>
       <c r="G206" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>69</v>
       </c>
       <c r="H206" t="s">
@@ -9212,7 +9209,7 @@
         <v>32771</v>
       </c>
       <c r="G207" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>31</v>
       </c>
       <c r="H207" t="s">
@@ -9249,7 +9246,7 @@
         <v>18036</v>
       </c>
       <c r="G208" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>71</v>
       </c>
       <c r="H208" t="s">
@@ -9286,7 +9283,7 @@
         <v>24242</v>
       </c>
       <c r="G209" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>54</v>
       </c>
       <c r="H209" t="s">
@@ -9323,7 +9320,7 @@
         <v>26203</v>
       </c>
       <c r="G210" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>49</v>
       </c>
       <c r="H210" t="s">
@@ -9360,7 +9357,7 @@
         <v>14047</v>
       </c>
       <c r="G211" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>82</v>
       </c>
       <c r="H211" t="s">
@@ -9397,7 +9394,7 @@
         <v>17079</v>
       </c>
       <c r="G212" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>74</v>
       </c>
       <c r="H212" t="s">
@@ -9434,7 +9431,7 @@
         <v>27246</v>
       </c>
       <c r="G213" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>46</v>
       </c>
       <c r="H213" t="s">
@@ -9471,7 +9468,7 @@
         <v>26205</v>
       </c>
       <c r="G214" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>49</v>
       </c>
       <c r="H214" t="s">
@@ -9508,7 +9505,7 @@
         <v>25149</v>
       </c>
       <c r="G215" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
       <c r="H215" t="s">
@@ -9545,7 +9542,7 @@
         <v>26833</v>
       </c>
       <c r="G216" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>47</v>
       </c>
       <c r="H216" t="s">
@@ -9582,7 +9579,7 @@
         <v>19566</v>
       </c>
       <c r="G217" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
       <c r="H217" t="s">
@@ -9619,7 +9616,7 @@
         <v>18407</v>
       </c>
       <c r="G218" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
+        <f t="shared" ref="G218:G249" ca="1" si="7">(YEAR(TODAY())-YEAR(F218))</f>
         <v>70</v>
       </c>
       <c r="H218" t="s">
@@ -9655,7 +9652,7 @@
         <v>31990</v>
       </c>
       <c r="G219" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>33</v>
       </c>
       <c r="H219" t="s">
@@ -9692,7 +9689,7 @@
         <v>30315</v>
       </c>
       <c r="G220" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>38</v>
       </c>
       <c r="H220" t="s">
@@ -9729,7 +9726,7 @@
         <v>20907</v>
       </c>
       <c r="G221" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>63</v>
       </c>
       <c r="H221" t="s">
@@ -9765,7 +9762,7 @@
         <v>20377</v>
       </c>
       <c r="G222" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>65</v>
       </c>
       <c r="H222" t="s">
@@ -9802,7 +9799,7 @@
         <v>23941</v>
       </c>
       <c r="G223" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>55</v>
       </c>
       <c r="H223" t="s">
@@ -9838,7 +9835,7 @@
         <v>26624</v>
       </c>
       <c r="G224" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>48</v>
       </c>
       <c r="H224" t="s">
@@ -9874,7 +9871,7 @@
         <v>29623</v>
       </c>
       <c r="G225" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>39</v>
       </c>
       <c r="H225" t="s">
@@ -9911,7 +9908,7 @@
         <v>23358</v>
       </c>
       <c r="G226" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>57</v>
       </c>
       <c r="H226" t="s">
@@ -9948,7 +9945,7 @@
         <v>30164</v>
       </c>
       <c r="G227" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>38</v>
       </c>
       <c r="H227" t="s">
@@ -9985,7 +9982,7 @@
         <v>31562</v>
       </c>
       <c r="G228" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>34</v>
       </c>
       <c r="H228" t="s">
@@ -10022,7 +10019,7 @@
         <v>33225</v>
       </c>
       <c r="G229" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>30</v>
       </c>
       <c r="H229" t="s">
@@ -10059,7 +10056,7 @@
         <v>30491</v>
       </c>
       <c r="G230" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>37</v>
       </c>
       <c r="H230" t="s">
@@ -10096,7 +10093,7 @@
         <v>32481</v>
       </c>
       <c r="G231" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>32</v>
       </c>
       <c r="H231" t="s">
@@ -10133,7 +10130,7 @@
         <v>32885</v>
       </c>
       <c r="G232" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>30</v>
       </c>
       <c r="H232" t="s">
@@ -10170,7 +10167,7 @@
         <v>31146</v>
       </c>
       <c r="G233" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>35</v>
       </c>
       <c r="H233" t="s">
@@ -10207,7 +10204,7 @@
         <v>31814</v>
       </c>
       <c r="G234" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>33</v>
       </c>
       <c r="H234" t="s">
@@ -10244,7 +10241,7 @@
         <v>32196</v>
       </c>
       <c r="G235" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>32</v>
       </c>
       <c r="H235" t="s">
@@ -10281,7 +10278,7 @@
         <v>20417</v>
       </c>
       <c r="G236" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>65</v>
       </c>
       <c r="H236" t="s">
@@ -10318,7 +10315,7 @@
         <v>19630</v>
       </c>
       <c r="G237" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>67</v>
       </c>
       <c r="H237" t="s">
@@ -10355,7 +10352,7 @@
         <v>21249</v>
       </c>
       <c r="G238" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
       <c r="H238" t="s">
@@ -10391,7 +10388,7 @@
         <v>21269</v>
       </c>
       <c r="G239" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>62</v>
       </c>
       <c r="H239" t="s">
@@ -10428,7 +10425,7 @@
         <v>29503</v>
       </c>
       <c r="G240" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>40</v>
       </c>
       <c r="H240" t="s">
@@ -10465,7 +10462,7 @@
         <v>26846</v>
       </c>
       <c r="G241" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>47</v>
       </c>
       <c r="H241" t="s">
@@ -10502,7 +10499,7 @@
         <v>24000</v>
       </c>
       <c r="G242" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>55</v>
       </c>
       <c r="H242" t="s">
@@ -10539,7 +10536,7 @@
         <v>19943</v>
       </c>
       <c r="G243" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>66</v>
       </c>
       <c r="H243" t="s">
@@ -10575,7 +10572,7 @@
         <v>28122</v>
       </c>
       <c r="G244" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>44</v>
       </c>
       <c r="H244" t="s">
@@ -10612,7 +10609,7 @@
         <v>29350</v>
       </c>
       <c r="G245" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>40</v>
       </c>
       <c r="H245" t="s">
@@ -10649,7 +10646,7 @@
         <v>29000</v>
       </c>
       <c r="G246" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>41</v>
       </c>
       <c r="H246" t="s">
@@ -10686,7 +10683,7 @@
         <v>28805</v>
       </c>
       <c r="G247" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>42</v>
       </c>
       <c r="H247" t="s">
@@ -10723,7 +10720,7 @@
         <v>20625</v>
       </c>
       <c r="G248" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>64</v>
       </c>
       <c r="H248" t="s">
@@ -10759,7 +10756,7 @@
         <v>21011</v>
       </c>
       <c r="G249" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>63</v>
       </c>
       <c r="H249" t="s">
@@ -10795,7 +10792,7 @@
         <v>29713</v>
       </c>
       <c r="G250" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
+        <f t="shared" ref="G250:G281" ca="1" si="8">(YEAR(TODAY())-YEAR(F250))</f>
         <v>39</v>
       </c>
       <c r="H250" t="s">
@@ -10831,7 +10828,7 @@
         <v>21432</v>
       </c>
       <c r="G251" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>62</v>
       </c>
       <c r="H251" t="s">
@@ -10867,7 +10864,7 @@
         <v>28961</v>
       </c>
       <c r="G252" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>41</v>
       </c>
       <c r="H252" t="s">
@@ -10904,7 +10901,7 @@
         <v>25069</v>
       </c>
       <c r="G253" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>52</v>
       </c>
       <c r="H253" t="s">
@@ -10940,7 +10937,7 @@
         <v>24451</v>
       </c>
       <c r="G254" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>54</v>
       </c>
       <c r="H254" t="s">
@@ -10977,7 +10974,7 @@
         <v>27834</v>
       </c>
       <c r="G255" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>44</v>
       </c>
       <c r="H255" t="s">
@@ -11013,7 +11010,7 @@
         <v>18677</v>
       </c>
       <c r="G256" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
       <c r="H256" t="s">
@@ -11049,7 +11046,7 @@
         <v>18960</v>
       </c>
       <c r="G257" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
       <c r="H257" t="s">
@@ -11086,7 +11083,7 @@
         <v>20084</v>
       </c>
       <c r="G258" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
       <c r="H258" t="s">
@@ -11122,7 +11119,7 @@
         <v>29014</v>
       </c>
       <c r="G259" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>41</v>
       </c>
       <c r="H259" t="s">
@@ -11159,7 +11156,7 @@
         <v>27808</v>
       </c>
       <c r="G260" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>44</v>
       </c>
       <c r="H260" t="s">
@@ -11195,7 +11192,7 @@
         <v>29294</v>
       </c>
       <c r="G261" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>40</v>
       </c>
       <c r="H261" t="s">
@@ -11232,7 +11229,7 @@
         <v>22529</v>
       </c>
       <c r="G262" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>59</v>
       </c>
       <c r="H262" t="s">
@@ -11269,7 +11266,7 @@
         <v>28020</v>
       </c>
       <c r="G263" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>44</v>
       </c>
       <c r="H263" t="s">
@@ -11306,7 +11303,7 @@
         <v>21554</v>
       </c>
       <c r="G264" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>61</v>
       </c>
       <c r="H264" s="11" t="s">

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB110E-1B9C-490E-8C21-EF5BDA8E2CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D1979-F524-4EAA-91B8-0C41BA63664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -983,37 +983,46 @@
     <t>PREP</t>
   </si>
   <si>
-    <t>Sichel</t>
-  </si>
-  <si>
     <t>https://www.ex-ante.cl/la-apuesta-de-sichel-en-rn/</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>Desbordes</t>
-  </si>
-  <si>
-    <t>Kast</t>
-  </si>
-  <si>
     <t>https://www.elmostrador.cl/noticias/sin-editar/2019/04/26/un-nuevo-diputado-para-kast/</t>
   </si>
   <si>
-    <t>Rincón</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/la-tercera-pm/noticia/rincon-huenchumilla-undurraga-flores-deces-definen-sus-preferencias-presidenciales/XP4UNNOLIRAPDGTI5LKSECKGTM/</t>
   </si>
   <si>
-    <t>Huenchumilla</t>
-  </si>
-  <si>
     <t>Candidato</t>
   </si>
   <si>
     <t>registro</t>
+  </si>
+  <si>
+    <t>M. Desbordes</t>
+  </si>
+  <si>
+    <t>F. Huenchumilla</t>
+  </si>
+  <si>
+    <t>JA. Kast</t>
+  </si>
+  <si>
+    <t>H. Muñoz</t>
+  </si>
+  <si>
+    <t>X. Rincón</t>
+  </si>
+  <si>
+    <t>S. Sichel</t>
+  </si>
+  <si>
+    <t>F. Vidal</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/la-tercera-pm/noticia/vidal-remueve-las-aguas-del-ppd-munoz-se-reactiva-girardi-el-gran-elector-y-las-apuestas-de-parlamentarios/HZ2KOBTJZNH5PHDYEB7CYBP52Q/</t>
   </si>
 </sst>
 </file>
@@ -1399,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,10 +1456,10 @@
         <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>269</v>
@@ -1482,7 +1491,7 @@
         <v>27492</v>
       </c>
       <c r="G2" s="10">
-        <f t="shared" ref="G2:G33" ca="1" si="0">(YEAR(TODAY())-YEAR(F2))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
         <v>45</v>
       </c>
       <c r="H2" t="s">
@@ -1495,16 +1504,16 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L2" s="9">
         <v>44135</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1527,7 +1536,7 @@
         <v>29572</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
         <v>40</v>
       </c>
       <c r="H3" t="s">
@@ -1540,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L3" s="9">
         <v>44135</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1572,7 +1581,7 @@
         <v>24666</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
         <v>53</v>
       </c>
       <c r="H4" t="s">
@@ -1585,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L4" s="9">
         <v>44135</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1617,7 +1626,7 @@
         <v>27763</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
         <v>44</v>
       </c>
       <c r="H5" t="s">
@@ -1630,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L5" s="9">
         <v>44135</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1662,7 +1671,7 @@
         <v>24834</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
         <v>53</v>
       </c>
       <c r="H6" t="s">
@@ -1675,16 +1684,16 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L6" s="9">
         <v>44135</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1707,7 +1716,7 @@
         <v>27004</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
         <v>47</v>
       </c>
       <c r="H7" t="s">
@@ -1720,16 +1729,16 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L7" s="9">
         <v>44135</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1752,7 +1761,7 @@
         <v>30097</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
         <v>38</v>
       </c>
       <c r="H8" t="s">
@@ -1765,16 +1774,16 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L8" s="9">
         <v>44135</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1797,7 +1806,7 @@
         <v>32980</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
         <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1810,16 +1819,16 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L9" s="9">
         <v>44135</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1842,7 +1851,7 @@
         <v>25553</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
         <v>51</v>
       </c>
       <c r="H10" t="s">
@@ -1855,16 +1864,16 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L10" s="9">
         <v>44144</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1887,7 +1896,7 @@
         <v>21157</v>
       </c>
       <c r="G11" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
         <v>63</v>
       </c>
       <c r="H11" t="s">
@@ -1900,16 +1909,16 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L11" s="9">
         <v>44144</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1932,7 +1941,7 @@
         <v>29287</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
         <v>40</v>
       </c>
       <c r="H12" t="s">
@@ -1945,16 +1954,16 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L12" s="9">
         <v>43581</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1977,7 +1986,7 @@
         <v>26299</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
         <v>48</v>
       </c>
       <c r="H13" t="s">
@@ -1990,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L13" s="9">
         <v>43581</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2022,7 +2031,7 @@
         <v>31817</v>
       </c>
       <c r="G14" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
         <v>33</v>
       </c>
       <c r="H14" t="s">
@@ -2035,16 +2044,16 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L14" s="9">
         <v>43581</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,7 +2076,7 @@
         <v>19434</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
         <v>67</v>
       </c>
       <c r="H15" t="s">
@@ -2080,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L15" s="9">
         <v>43581</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2112,7 +2121,7 @@
         <v>29549</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
         <v>40</v>
       </c>
       <c r="H16" t="s">
@@ -2125,16 +2134,16 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L16" s="9">
         <v>43581</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2157,7 +2166,7 @@
         <v>21548</v>
       </c>
       <c r="G17" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
         <v>62</v>
       </c>
       <c r="H17" t="s">
@@ -2170,16 +2179,16 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L17" s="9">
         <v>43581</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2202,7 +2211,7 @@
         <v>21674</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
         <v>61</v>
       </c>
       <c r="H18" t="s">
@@ -2215,16 +2224,16 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L18" s="9">
         <v>43581</v>
       </c>
       <c r="M18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2247,7 +2256,7 @@
         <v>27719</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
         <v>45</v>
       </c>
       <c r="H19" t="s">
@@ -2260,16 +2269,16 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L19" s="9">
         <v>43581</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2292,7 +2301,7 @@
         <v>25084</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
         <v>52</v>
       </c>
       <c r="H20" t="s">
@@ -2305,16 +2314,16 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L20" s="9">
         <v>43581</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2337,7 +2346,7 @@
         <v>21079</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
         <v>63</v>
       </c>
       <c r="H21" t="s">
@@ -2350,156 +2359,156 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L21" s="9">
         <v>43581</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="12">
         <v>44132</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>20</v>
+        <v>277</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
       </c>
       <c r="F22" s="12">
-        <v>31247</v>
+        <v>26732</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J22" s="11">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L22" s="9">
-        <v>44144</v>
+        <v>44124</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="12">
         <v>44132</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="F23" s="12">
-        <v>28018</v>
+        <v>24767</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L23" s="9">
-        <v>44144</v>
+        <v>44124</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="12">
         <v>44132</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>134</v>
+        <v>277</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
       </c>
       <c r="F24" s="12">
-        <v>19343</v>
+        <v>17801</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="H24" t="s">
-        <v>204</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
+        <v>72</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J24" s="11">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L24" s="9">
-        <v>44144</v>
+        <v>44124</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2511,40 +2520,40 @@
         <v>278</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="F25" s="12">
-        <v>26133</v>
+        <v>32101</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L25" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2556,40 +2565,40 @@
         <v>278</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F26" s="12">
-        <v>22263</v>
+        <v>20281</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J26" s="11">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L26" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2600,41 +2609,41 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>115</v>
+      <c r="E27" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F27" s="12">
-        <v>31120</v>
+        <v>22890</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J27" s="11">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="L27" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2645,318 +2654,375 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="9">
-        <v>31116</v>
+      <c r="E28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12">
+        <v>31247</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
         <v>35</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>200</v>
+      <c r="H28" t="s">
+        <v>204</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J28" s="11">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="L28" s="9">
-        <v>44135</v>
+        <v>44144</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="12">
+        <v>28018</v>
+      </c>
+      <c r="G29" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J29" s="11">
         <v>1</v>
       </c>
-      <c r="C29" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D29" t="s">
-        <v>272</v>
-      </c>
-      <c r="E29" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="9">
-        <v>18233</v>
-      </c>
-      <c r="G29" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29"/>
-      <c r="L29" s="9"/>
-      <c r="N29"/>
+      <c r="K29" t="s">
+        <v>325</v>
+      </c>
+      <c r="L29" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C30" s="12">
         <v>44132</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="9">
-        <v>15516</v>
+        <v>278</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="12">
+        <v>19343</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
         <v>204</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>287</v>
       </c>
       <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>325</v>
+      </c>
+      <c r="L30" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C31" s="12">
         <v>44132</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F31" s="9">
-        <v>13941</v>
+        <v>278</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="12">
+        <v>26133</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>203</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
+        <v>49</v>
+      </c>
+      <c r="H31" t="s">
+        <v>200</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>326</v>
+      </c>
+      <c r="L31" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C32" s="12">
         <v>44132</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="9">
-        <v>18900</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="12">
+        <v>22263</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>202</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>326</v>
+      </c>
+      <c r="L32" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" s="12">
         <v>44132</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="9">
-        <v>26645</v>
+        <v>278</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="12">
+        <v>31120</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>206</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
+        <v>200</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>326</v>
+      </c>
+      <c r="L33" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" s="12">
         <v>44132</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E34" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="F34" s="9">
-        <v>20120</v>
+        <v>31116</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G34:G65" ca="1" si="1">(YEAR(TODAY())-YEAR(F34))</f>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
+        <v>35</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>326</v>
+      </c>
+      <c r="L34" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" s="12">
         <v>44132</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="9">
-        <v>28232</v>
+        <v>278</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="12">
+        <v>15245</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>201</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
+        <v>79</v>
+      </c>
+      <c r="H35" t="s">
+        <v>203</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" s="9">
+        <v>44124</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="12">
         <v>44132</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F36" s="9">
-        <v>27653</v>
+        <v>18233</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
+        <v>71</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>201</v>
@@ -2969,37 +3035,36 @@
       </c>
       <c r="K36"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="12">
         <v>44132</v>
       </c>
       <c r="D37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="F37" s="9">
-        <v>22460</v>
+        <v>15516</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
+        <v>78</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J37" s="11">
         <v>0</v>
@@ -3011,32 +3076,32 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="F38" s="9">
-        <v>27681</v>
+        <v>13941</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
+        <v>82</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J38" s="11">
         <v>0</v>
@@ -3048,32 +3113,32 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="12">
         <v>44132</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F39" s="9">
-        <v>17815</v>
+        <v>18900</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
+        <v>69</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J39" s="11">
         <v>0</v>
@@ -3085,7 +3150,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3097,20 +3162,20 @@
         <v>274</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="F40" s="9">
-        <v>27474</v>
+        <v>26645</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
+        <v>48</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J40" s="11">
         <v>0</v>
@@ -3122,7 +3187,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3134,20 +3199,20 @@
         <v>274</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F41" s="9">
-        <v>20671</v>
+        <v>20120</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
+        <v>65</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J41" s="11">
         <v>0</v>
@@ -3159,7 +3224,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3171,14 +3236,14 @@
         <v>274</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="F42" s="9">
-        <v>17779</v>
+        <v>28232</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
+        <v>43</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>201</v>
@@ -3196,7 +3261,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3208,14 +3273,14 @@
         <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="F43" s="9">
-        <v>24724</v>
+        <v>27653</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
+        <v>45</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>201</v>
@@ -3233,7 +3298,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3245,14 +3310,14 @@
         <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F44" s="9">
-        <v>25134</v>
+        <v>22460</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
+        <v>59</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>201</v>
@@ -3270,7 +3335,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -3281,21 +3346,21 @@
       <c r="D45" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="12">
-        <v>25126</v>
+      <c r="E45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="9">
+        <v>27681</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H45" t="s">
-        <v>200</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
+        <v>45</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J45" s="11">
         <v>0</v>
@@ -3307,7 +3372,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3319,20 +3384,20 @@
         <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F46" s="9">
-        <v>24970</v>
+        <v>17815</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
+        <v>72</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
@@ -3344,7 +3409,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3356,20 +3421,20 @@
         <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="F47" s="9">
-        <v>20492</v>
+        <v>27474</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
+        <v>45</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J47" s="11">
         <v>0</v>
@@ -3381,7 +3446,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3393,20 +3458,20 @@
         <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F48" s="9">
-        <v>21368</v>
+        <v>20671</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
+        <v>64</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J48" s="11">
         <v>0</v>
@@ -3418,7 +3483,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3430,20 +3495,20 @@
         <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F49" s="9">
-        <v>27295</v>
+        <v>17779</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
+        <v>72</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J49" s="11">
         <v>0</v>
@@ -3455,7 +3520,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3467,20 +3532,20 @@
         <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F50" s="9">
-        <v>27105</v>
+        <v>24724</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
+        <v>53</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J50" s="11">
         <v>0</v>
@@ -3492,7 +3557,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3503,21 +3568,21 @@
       <c r="D51" t="s">
         <v>274</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="12">
-        <v>29554</v>
+      <c r="E51" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51" s="9">
+        <v>25134</v>
       </c>
       <c r="G51" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="H51" t="s">
-        <v>205</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
+        <v>52</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J51" s="11">
         <v>0</v>
@@ -3529,7 +3594,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3540,21 +3605,21 @@
       <c r="D52" t="s">
         <v>274</v>
       </c>
-      <c r="E52" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="9">
-        <v>20015</v>
+      <c r="E52" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="12">
+        <v>25126</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>205</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
+        <v>52</v>
+      </c>
+      <c r="H52" t="s">
+        <v>200</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J52" s="11">
         <v>0</v>
@@ -3566,7 +3631,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3578,20 +3643,20 @@
         <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="F53" s="9">
-        <v>26556</v>
+        <v>24970</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
+        <v>52</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
@@ -3603,7 +3668,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3615,20 +3680,20 @@
         <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F54" s="9">
-        <v>32557</v>
+        <v>20492</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
+        <v>64</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
@@ -3640,7 +3705,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3652,20 +3717,20 @@
         <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F55" s="9">
-        <v>22770</v>
+        <v>21368</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
+        <v>62</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
@@ -3677,7 +3742,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3689,20 +3754,20 @@
         <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="F56" s="9">
-        <v>17431</v>
+        <v>27295</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
+        <v>46</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -3714,244 +3779,266 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="F57" s="9">
-        <v>30994</v>
+        <v>27105</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
+        <v>46</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J57" s="11">
         <v>0</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="9"/>
-      <c r="N57"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D58" t="s">
-        <v>275</v>
-      </c>
-      <c r="E58" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58" s="9">
-        <v>25454</v>
+      <c r="F58" s="12">
+        <v>29554</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>206</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="9"/>
-      <c r="N58"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>257</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10"/>
+        <v>214</v>
+      </c>
+      <c r="F59" s="9">
+        <v>20015</v>
+      </c>
+      <c r="G59" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
+        <v>66</v>
+      </c>
       <c r="H59" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="9"/>
-      <c r="N59"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="12">
         <v>44132</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>254</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
+        <v>309</v>
+      </c>
+      <c r="F60" s="9">
+        <v>26556</v>
+      </c>
+      <c r="G60" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
+        <v>48</v>
+      </c>
       <c r="H60" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
       </c>
       <c r="K60"/>
       <c r="L60" s="9"/>
-      <c r="N60"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="12">
         <v>44132</v>
       </c>
       <c r="D61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F61" s="9">
-        <v>19642</v>
+        <v>32557</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J61" s="11">
         <v>0</v>
       </c>
       <c r="K61"/>
       <c r="L61" s="9"/>
-      <c r="N61"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="12">
         <v>44132</v>
       </c>
       <c r="D62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>263</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
+        <v>300</v>
+      </c>
+      <c r="F62" s="9">
+        <v>22770</v>
+      </c>
+      <c r="G62" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
+        <v>58</v>
+      </c>
       <c r="H62" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
       </c>
       <c r="K62"/>
       <c r="L62" s="9"/>
-      <c r="N62"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="12">
         <v>44132</v>
       </c>
       <c r="D63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="F63" s="9">
-        <v>29935</v>
+        <v>17431</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
       </c>
       <c r="K63"/>
       <c r="L63" s="9"/>
-      <c r="N63"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -3963,20 +4050,20 @@
         <v>275</v>
       </c>
       <c r="E64" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F64" s="9">
-        <v>26622</v>
+        <v>30994</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -3987,7 +4074,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -3999,20 +4086,20 @@
         <v>275</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F65" s="9">
-        <v>24689</v>
+        <v>25454</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
@@ -4023,7 +4110,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -4035,15 +4122,15 @@
         <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
@@ -4054,7 +4141,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -4066,20 +4153,15 @@
         <v>275</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="9">
-        <v>18048</v>
-      </c>
-      <c r="G67" s="10">
-        <f t="shared" ref="G67:G76" ca="1" si="2">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>71</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4090,7 +4172,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -4102,20 +4184,20 @@
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F68" s="9">
-        <v>25492</v>
+        <v>19642</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
+        <v>67</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
@@ -4126,7 +4208,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -4138,20 +4220,15 @@
         <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>267</v>
-      </c>
-      <c r="F69" s="9">
-        <v>27655</v>
-      </c>
-      <c r="G69" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4162,7 +4239,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4174,20 +4251,20 @@
         <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F70" s="9">
-        <v>22881</v>
+        <v>29935</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
+        <v>39</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4198,7 +4275,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -4210,20 +4287,20 @@
         <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F71" s="9">
-        <v>29105</v>
+        <v>26622</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
+        <v>48</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4234,7 +4311,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4246,20 +4323,20 @@
         <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F72" s="9">
-        <v>20806</v>
+        <v>24689</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
+        <v>53</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4270,175 +4347,171 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="12">
         <v>44132</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
-      </c>
-      <c r="F73" s="9">
-        <v>26763</v>
-      </c>
-      <c r="G73" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
       </c>
       <c r="K73"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="12">
         <v>44132</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="F74" s="9">
-        <v>26090</v>
+        <v>18048</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
+        <v>71</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="12">
         <v>44132</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="F75" s="9">
-        <v>31131</v>
+        <v>25492</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
+        <v>51</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="12">
         <v>44132</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F76" s="9">
-        <v>25265</v>
+        <v>27655</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
+        <v>45</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="12">
         <v>44132</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
+        <v>259</v>
+      </c>
+      <c r="F77" s="9">
+        <v>22881</v>
+      </c>
+      <c r="G77" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
+        <v>58</v>
+      </c>
       <c r="H77" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J77" s="11">
         <v>0</v>
@@ -4449,32 +4522,32 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="12">
         <v>44132</v>
       </c>
       <c r="D78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F78" s="9">
-        <v>20899</v>
+        <v>29105</v>
       </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J78" s="11">
         <v>0</v>
@@ -4485,39 +4558,43 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="12">
         <v>44132</v>
       </c>
       <c r="D79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
+        <v>268</v>
+      </c>
+      <c r="F79" s="9">
+        <v>20806</v>
+      </c>
+      <c r="G79" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
+        <v>64</v>
+      </c>
       <c r="H79" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J79" s="11">
         <v>0</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4529,20 +4606,20 @@
         <v>276</v>
       </c>
       <c r="E80" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F80" s="9">
-        <v>28422</v>
+        <v>26763</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
@@ -4554,7 +4631,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4566,20 +4643,20 @@
         <v>276</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F81" s="9">
-        <v>28694</v>
+        <v>26090</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
@@ -4591,7 +4668,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4603,20 +4680,20 @@
         <v>276</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F82" s="9">
-        <v>34561</v>
+        <v>31131</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
@@ -4628,7 +4705,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4640,15 +4717,20 @@
         <v>276</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="10"/>
+        <v>246</v>
+      </c>
+      <c r="F83" s="9">
+        <v>25265</v>
+      </c>
+      <c r="G83" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
+        <v>51</v>
+      </c>
       <c r="H83" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
@@ -4660,7 +4742,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4672,27 +4754,26 @@
         <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="9"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4704,27 +4785,31 @@
         <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>251</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="10"/>
+        <v>249</v>
+      </c>
+      <c r="F85" s="9">
+        <v>20899</v>
+      </c>
+      <c r="G85" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
+        <v>63</v>
+      </c>
       <c r="H85" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J85" s="11">
         <v>0</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="9"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4736,20 +4821,15 @@
         <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
-      </c>
-      <c r="F86" s="9">
-        <v>27116</v>
-      </c>
-      <c r="G86" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>46</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
@@ -4761,7 +4841,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4773,20 +4853,20 @@
         <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F87" s="9">
-        <v>27429</v>
+        <v>28422</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
@@ -4798,7 +4878,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4810,31 +4890,32 @@
         <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F88" s="9">
-        <v>22196</v>
+        <v>28694</v>
       </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="9"/>
-      <c r="N88"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4846,26 +4927,32 @@
         <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>245</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="F89" s="9">
+        <v>34561</v>
+      </c>
+      <c r="G89" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
+        <v>26</v>
+      </c>
       <c r="H89" s="11" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="9"/>
-      <c r="N89"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4877,31 +4964,27 @@
         <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
-      </c>
-      <c r="F90" s="9">
-        <v>19005</v>
-      </c>
-      <c r="G90" s="10">
-        <f t="shared" ref="G90:G121" ca="1" si="3">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>68</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="N90"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4913,31 +4996,27 @@
         <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
-      </c>
-      <c r="F91" s="9">
-        <v>27845</v>
-      </c>
-      <c r="G91" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="9"/>
-      <c r="N91"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4949,20 +5028,15 @@
         <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>236</v>
-      </c>
-      <c r="F92" s="9">
-        <v>14442</v>
-      </c>
-      <c r="G92" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
@@ -4974,7 +5048,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4986,20 +5060,20 @@
         <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F93" s="9">
-        <v>19655</v>
+        <v>27116</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
+        <v>46</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5011,102 +5085,96 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="12">
         <v>44132</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F94" s="12">
-        <v>28285</v>
+        <v>276</v>
+      </c>
+      <c r="E94" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="9">
+        <v>27429</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="H94" t="s">
-        <v>206</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
+        <v>45</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="9"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" s="12">
         <v>44132</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95" s="12">
-        <v>24478</v>
+        <v>240</v>
+      </c>
+      <c r="F95" s="9">
+        <v>22196</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="H95" t="s">
-        <v>201</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
+        <v>60</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="9"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="2"/>
+      <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="12">
         <v>44132</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
-      </c>
-      <c r="F96" s="12">
-        <v>21855</v>
-      </c>
-      <c r="G96" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="H96" t="s">
+        <v>245</v>
+      </c>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I96" s="11" t="s">
@@ -5117,111 +5185,108 @@
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="12">
         <v>44132</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
-      </c>
-      <c r="F97" s="12">
-        <v>21845</v>
+        <v>247</v>
+      </c>
+      <c r="F97" s="9">
+        <v>19005</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="H97" t="s">
-        <v>201</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
+        <v>68</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="12">
         <v>44132</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" s="12">
-        <v>22224</v>
+        <v>250</v>
+      </c>
+      <c r="F98" s="9">
+        <v>27845</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
+        <v>44</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="2"/>
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="12">
         <v>44132</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
-      </c>
-      <c r="F99" s="12">
-        <v>19423</v>
+        <v>236</v>
+      </c>
+      <c r="F99" s="9">
+        <v>14442</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
+        <v>81</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
@@ -5233,32 +5298,32 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="12">
         <v>44132</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
-      </c>
-      <c r="F100" s="12">
-        <v>27196</v>
+        <v>239</v>
+      </c>
+      <c r="F100" s="9">
+        <v>19655</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
+        <v>67</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
@@ -5266,11 +5331,11 @@
       <c r="K100"/>
       <c r="L100" s="9"/>
       <c r="M100" s="2"/>
-      <c r="N100"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -5281,33 +5346,33 @@
       <c r="D101" t="s">
         <v>277</v>
       </c>
-      <c r="E101" t="s">
-        <v>192</v>
+      <c r="E101" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F101" s="12">
-        <v>21509</v>
+        <v>28285</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>310</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
+        <v>43</v>
+      </c>
+      <c r="H101" t="s">
+        <v>206</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -5318,33 +5383,33 @@
       <c r="D102" t="s">
         <v>277</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>166</v>
+      <c r="E102" t="s">
+        <v>158</v>
       </c>
       <c r="F102" s="12">
-        <v>16153</v>
+        <v>24478</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
+        <v>53</v>
       </c>
       <c r="H102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="2"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -5355,21 +5420,21 @@
       <c r="D103" t="s">
         <v>277</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>179</v>
+      <c r="E103" t="s">
+        <v>159</v>
       </c>
       <c r="F103" s="12">
-        <v>25024</v>
+        <v>21855</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
+        <v>61</v>
       </c>
       <c r="H103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
@@ -5381,7 +5446,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5393,20 +5458,20 @@
         <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F104" s="12">
-        <v>26653</v>
+        <v>21845</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>204</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
+        <v>61</v>
+      </c>
+      <c r="H104" t="s">
+        <v>201</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5418,7 +5483,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -5430,20 +5495,20 @@
         <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F105" s="12">
-        <v>19105</v>
+        <v>22224</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
+        <v>60</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
@@ -5451,11 +5516,11 @@
       <c r="K105"/>
       <c r="L105" s="9"/>
       <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5467,20 +5532,20 @@
         <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F106" s="12">
-        <v>22698</v>
+        <v>19423</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="H106" t="s">
-        <v>203</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
+        <v>67</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
@@ -5492,7 +5557,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5504,16 +5569,16 @@
         <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F107" s="12">
-        <v>26732</v>
+        <v>27196</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="H107" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
+        <v>46</v>
+      </c>
+      <c r="H107" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I107" s="11" t="s">
@@ -5525,11 +5590,11 @@
       <c r="K107"/>
       <c r="L107" s="9"/>
       <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -5540,21 +5605,21 @@
       <c r="D108" t="s">
         <v>277</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>174</v>
+      <c r="E108" t="s">
+        <v>192</v>
       </c>
       <c r="F108" s="12">
-        <v>24767</v>
+        <v>21509</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="H108" t="s">
-        <v>203</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
+        <v>62</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5566,7 +5631,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5578,20 +5643,20 @@
         <v>277</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F109" s="12">
-        <v>13455</v>
+        <v>16153</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
+        <v>76</v>
       </c>
       <c r="H109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5603,7 +5668,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5614,21 +5679,21 @@
       <c r="D110" t="s">
         <v>277</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>184</v>
+      <c r="E110" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F110" s="12">
-        <v>22305</v>
+        <v>25024</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>203</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
+        <v>52</v>
+      </c>
+      <c r="H110" t="s">
+        <v>204</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -5640,7 +5705,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -5652,20 +5717,20 @@
         <v>277</v>
       </c>
       <c r="E111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F111" s="12">
-        <v>26500</v>
+        <v>26653</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
         <v>48</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
@@ -5677,7 +5742,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -5689,20 +5754,20 @@
         <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F112" s="12">
-        <v>17801</v>
+        <v>19105</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
+        <v>68</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J112" s="11">
         <v>0</v>
@@ -5714,7 +5779,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5726,20 +5791,20 @@
         <v>277</v>
       </c>
       <c r="E113" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F113" s="12">
-        <v>25491</v>
+        <v>22698</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
+        <v>58</v>
       </c>
       <c r="H113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
@@ -5751,7 +5816,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -5762,21 +5827,21 @@
       <c r="D114" t="s">
         <v>277</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>167</v>
+      <c r="E114" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F114" s="12">
-        <v>15859</v>
+        <v>13455</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
+        <v>84</v>
       </c>
       <c r="H114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
@@ -5788,7 +5853,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -5799,21 +5864,21 @@
       <c r="D115" t="s">
         <v>277</v>
       </c>
-      <c r="E115" t="s">
-        <v>176</v>
+      <c r="E115" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="F115" s="12">
-        <v>16455</v>
+        <v>22305</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="H115" t="s">
-        <v>202</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
+        <v>59</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
@@ -5825,7 +5890,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B116">
         <v>6</v>
@@ -5837,20 +5902,20 @@
         <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F116" s="12">
-        <v>24173</v>
+        <v>26500</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
+        <v>48</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -5862,7 +5927,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -5874,16 +5939,16 @@
         <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F117" s="12">
-        <v>22288</v>
+        <v>25491</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="H117" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
+        <v>51</v>
+      </c>
+      <c r="H117" t="s">
         <v>202</v>
       </c>
       <c r="I117" s="11" t="s">
@@ -5899,7 +5964,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -5910,17 +5975,17 @@
       <c r="D118" t="s">
         <v>277</v>
       </c>
-      <c r="E118" t="s">
-        <v>189</v>
+      <c r="E118" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F118" s="12">
-        <v>16933</v>
+        <v>15859</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="H118" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
+        <v>77</v>
+      </c>
+      <c r="H118" t="s">
         <v>202</v>
       </c>
       <c r="I118" s="11" t="s">
@@ -5936,7 +6001,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -5948,16 +6013,16 @@
         <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F119" s="12">
-        <v>16010</v>
+        <v>16455</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="H119" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
         <v>202</v>
       </c>
       <c r="I119" s="11" t="s">
@@ -5973,7 +6038,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -5984,21 +6049,21 @@
       <c r="D120" t="s">
         <v>277</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>108</v>
+      <c r="E120" t="s">
+        <v>183</v>
       </c>
       <c r="F120" s="12">
-        <v>29680</v>
+        <v>24173</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="H120" t="s">
-        <v>200</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
+        <v>54</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6010,7 +6075,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6021,33 +6086,33 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>160</v>
+      <c r="E121" t="s">
+        <v>188</v>
       </c>
       <c r="F121" s="12">
-        <v>26073</v>
+        <v>22288</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="H121" t="s">
-        <v>200</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
+        <v>59</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="8"/>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6059,20 +6124,20 @@
         <v>277</v>
       </c>
       <c r="E122" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="F122" s="12">
-        <v>24414</v>
+        <v>16933</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" ref="G122:G153" ca="1" si="4">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>54</v>
-      </c>
-      <c r="H122" t="s">
-        <v>200</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
+        <v>74</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
@@ -6084,7 +6149,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6096,32 +6161,32 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="F123" s="12">
-        <v>20231</v>
+        <v>16010</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="H123" t="s">
-        <v>200</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
+        <v>77</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="8"/>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6132,15 +6197,15 @@
       <c r="D124" t="s">
         <v>277</v>
       </c>
-      <c r="E124" t="s">
-        <v>171</v>
+      <c r="E124" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F124" s="12">
-        <v>20252</v>
+        <v>29680</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
+        <v>39</v>
       </c>
       <c r="H124" t="s">
         <v>200</v>
@@ -6158,7 +6223,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6169,17 +6234,17 @@
       <c r="D125" t="s">
         <v>277</v>
       </c>
-      <c r="E125" t="s">
-        <v>193</v>
+      <c r="E125" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F125" s="12">
-        <v>22882</v>
+        <v>26073</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
-      </c>
-      <c r="H125" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
+        <v>49</v>
+      </c>
+      <c r="H125" t="s">
         <v>200</v>
       </c>
       <c r="I125" s="11" t="s">
@@ -6190,12 +6255,12 @@
       </c>
       <c r="K125"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="2"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6207,20 +6272,20 @@
         <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F126" s="12">
-        <v>28573</v>
+        <v>24414</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
+        <v>54</v>
       </c>
       <c r="H126" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J126" s="11">
         <v>0</v>
@@ -6232,7 +6297,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6243,33 +6308,33 @@
       <c r="D127" t="s">
         <v>277</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>161</v>
+      <c r="E127" t="s">
+        <v>165</v>
       </c>
       <c r="F127" s="12">
-        <v>22094</v>
+        <v>20231</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
+        <v>65</v>
       </c>
       <c r="H127" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J127" s="11">
         <v>0</v>
       </c>
       <c r="K127"/>
       <c r="L127" s="9"/>
-      <c r="M127" s="2"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6280,21 +6345,21 @@
       <c r="D128" t="s">
         <v>277</v>
       </c>
-      <c r="E128" s="5" t="s">
-        <v>162</v>
+      <c r="E128" t="s">
+        <v>171</v>
       </c>
       <c r="F128" s="12">
-        <v>23444</v>
+        <v>20252</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
+        <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6306,7 +6371,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6318,20 +6383,20 @@
         <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F129" s="12">
-        <v>19287</v>
+        <v>22882</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="H129" t="s">
-        <v>205</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
+        <v>58</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6343,7 +6408,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6355,20 +6420,20 @@
         <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F130" s="12">
-        <v>20651</v>
+        <v>28573</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
+        <v>42</v>
       </c>
       <c r="H130" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
@@ -6380,7 +6445,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6391,17 +6456,17 @@
       <c r="D131" t="s">
         <v>277</v>
       </c>
-      <c r="E131" t="s">
-        <v>190</v>
+      <c r="E131" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F131" s="12">
-        <v>20797</v>
+        <v>22094</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="H131" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
+        <v>60</v>
+      </c>
+      <c r="H131" t="s">
         <v>205</v>
       </c>
       <c r="I131" s="11" t="s">
@@ -6417,7 +6482,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6428,17 +6493,17 @@
       <c r="D132" t="s">
         <v>277</v>
       </c>
-      <c r="E132" t="s">
-        <v>197</v>
+      <c r="E132" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F132" s="12">
-        <v>27361</v>
+        <v>23444</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="H132" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
+        <v>56</v>
+      </c>
+      <c r="H132" t="s">
         <v>205</v>
       </c>
       <c r="I132" s="11" t="s">
@@ -6449,12 +6514,12 @@
       </c>
       <c r="K132"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="8"/>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6466,16 +6531,16 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F133" s="12">
-        <v>19103</v>
+        <v>19287</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
         <v>68</v>
       </c>
-      <c r="H133" s="11" t="s">
+      <c r="H133" t="s">
         <v>205</v>
       </c>
       <c r="I133" s="11" t="s">
@@ -6491,7 +6556,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6503,16 +6568,16 @@
         <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F134" s="12">
-        <v>23776</v>
+        <v>20651</v>
       </c>
       <c r="G134" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="H134" s="11" t="s">
+        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
+        <v>64</v>
+      </c>
+      <c r="H134" t="s">
         <v>205</v>
       </c>
       <c r="I134" s="11" t="s">
@@ -6528,7 +6593,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6540,14 +6605,14 @@
         <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>230</v>
-      </c>
-      <c r="F135" s="9">
-        <v>21953</v>
+        <v>190</v>
+      </c>
+      <c r="F135" s="12">
+        <v>20797</v>
       </c>
       <c r="G135" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
+        <v>64</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>205</v>
@@ -6560,73 +6625,74 @@
       </c>
       <c r="K135"/>
       <c r="L135" s="9"/>
-      <c r="N135"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B136">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" s="12">
         <v>44132</v>
       </c>
       <c r="D136" t="s">
-        <v>278</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>56</v>
+        <v>277</v>
+      </c>
+      <c r="E136" t="s">
+        <v>197</v>
       </c>
       <c r="F136" s="12">
-        <v>32533</v>
+        <v>27361</v>
       </c>
       <c r="G136" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="H136" t="s">
-        <v>229</v>
-      </c>
-      <c r="I136" t="s">
-        <v>282</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
+        <v>46</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
       </c>
       <c r="K136"/>
       <c r="L136" s="9"/>
-      <c r="M136" s="2"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" s="12">
         <v>44132</v>
       </c>
       <c r="D137" t="s">
-        <v>278</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>18</v>
+        <v>277</v>
+      </c>
+      <c r="E137" t="s">
+        <v>198</v>
       </c>
       <c r="F137" s="12">
-        <v>31454</v>
+        <v>19103</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="H137" t="s">
-        <v>229</v>
-      </c>
-      <c r="I137" t="s">
-        <v>282</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
+        <v>68</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
@@ -6638,32 +6704,32 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" s="12">
         <v>44132</v>
       </c>
       <c r="D138" t="s">
-        <v>278</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>147</v>
+        <v>277</v>
+      </c>
+      <c r="E138" t="s">
+        <v>199</v>
       </c>
       <c r="F138" s="12">
-        <v>31783</v>
+        <v>23776</v>
       </c>
       <c r="G138" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="H138" t="s">
-        <v>229</v>
-      </c>
-      <c r="I138" t="s">
-        <v>282</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
+        <v>55</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I138" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
@@ -6675,44 +6741,43 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" s="12">
         <v>44132</v>
       </c>
       <c r="D139" t="s">
-        <v>278</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F139" s="12">
-        <v>26709</v>
+        <v>277</v>
+      </c>
+      <c r="E139" t="s">
+        <v>230</v>
+      </c>
+      <c r="F139" s="9">
+        <v>21953</v>
       </c>
       <c r="G139" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="H139" t="s">
-        <v>206</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
+        <v>60</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J139" s="11">
         <v>0</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+      <c r="N139"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B140">
         <v>7</v>
@@ -6724,20 +6789,20 @@
         <v>278</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="F140" s="12">
-        <v>26900</v>
+        <v>32533</v>
       </c>
       <c r="G140" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
+        <v>31</v>
       </c>
       <c r="H140" t="s">
-        <v>206</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="I140" t="s">
+        <v>282</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
@@ -6749,7 +6814,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>7</v>
@@ -6760,21 +6825,21 @@
       <c r="D141" t="s">
         <v>278</v>
       </c>
-      <c r="E141" s="11" t="s">
-        <v>8</v>
+      <c r="E141" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F141" s="12">
-        <v>25885</v>
+        <v>31454</v>
       </c>
       <c r="G141" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
+        <v>34</v>
       </c>
       <c r="H141" t="s">
-        <v>206</v>
-      </c>
-      <c r="I141" s="11" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="I141" t="s">
+        <v>282</v>
       </c>
       <c r="J141" s="11">
         <v>0</v>
@@ -6786,7 +6851,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -6797,33 +6862,33 @@
       <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>32</v>
+      <c r="E142" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F142" s="12">
-        <v>25750</v>
+        <v>31783</v>
       </c>
       <c r="G142" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
+        <v>33</v>
       </c>
       <c r="H142" t="s">
-        <v>206</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="I142" t="s">
+        <v>282</v>
       </c>
       <c r="J142" s="11">
         <v>0</v>
       </c>
       <c r="K142"/>
       <c r="L142" s="9"/>
-      <c r="M142" s="8"/>
+      <c r="M142" s="2"/>
       <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -6834,15 +6899,15 @@
       <c r="D143" t="s">
         <v>278</v>
       </c>
-      <c r="E143" s="11" t="s">
-        <v>78</v>
+      <c r="E143" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F143" s="12">
-        <v>23332</v>
+        <v>26709</v>
       </c>
       <c r="G143" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
+        <v>47</v>
       </c>
       <c r="H143" t="s">
         <v>206</v>
@@ -6860,7 +6925,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -6872,14 +6937,14 @@
         <v>278</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F144" s="12">
-        <v>24014</v>
+        <v>26900</v>
       </c>
       <c r="G144" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
+        <v>47</v>
       </c>
       <c r="H144" t="s">
         <v>206</v>
@@ -6897,7 +6962,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -6908,21 +6973,21 @@
       <c r="D145" t="s">
         <v>278</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>81</v>
+      <c r="E145" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F145" s="12">
-        <v>23226</v>
+        <v>25885</v>
       </c>
       <c r="G145" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
+        <v>50</v>
       </c>
       <c r="H145" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
@@ -6934,7 +6999,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -6945,33 +7010,33 @@
       <c r="D146" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>117</v>
+      <c r="E146" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F146" s="12">
-        <v>24059</v>
+        <v>25750</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
+        <v>50</v>
       </c>
       <c r="H146" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="2"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -6982,21 +7047,21 @@
       <c r="D147" t="s">
         <v>278</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>131</v>
+      <c r="E147" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F147" s="12">
-        <v>23594</v>
+        <v>23332</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
+        <v>57</v>
       </c>
       <c r="H147" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J147" s="11">
         <v>0</v>
@@ -7008,7 +7073,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -7020,20 +7085,20 @@
         <v>278</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F148" s="12">
-        <v>23006</v>
+        <v>24014</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
+        <v>55</v>
       </c>
       <c r="H148" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J148" s="11">
         <v>0</v>
@@ -7045,7 +7110,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -7056,21 +7121,21 @@
       <c r="D149" t="s">
         <v>278</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>139</v>
+      <c r="E149" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F149" s="12">
-        <v>30347</v>
+        <v>23226</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
+        <v>57</v>
       </c>
       <c r="H149" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J149" s="11">
         <v>0</v>
@@ -7082,7 +7147,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -7094,20 +7159,20 @@
         <v>278</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="F150" s="12">
-        <v>20371</v>
+        <v>24059</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
+        <v>55</v>
       </c>
       <c r="H150" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J150" s="11">
         <v>0</v>
@@ -7115,11 +7180,11 @@
       <c r="K150"/>
       <c r="L150" s="9"/>
       <c r="M150" s="2"/>
-      <c r="N150"/>
+      <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -7131,20 +7196,20 @@
         <v>278</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F151" s="12">
-        <v>32261</v>
+        <v>23594</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
+        <v>56</v>
       </c>
       <c r="H151" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J151" s="11">
         <v>0</v>
@@ -7156,7 +7221,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -7167,21 +7232,21 @@
       <c r="D152" t="s">
         <v>278</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>21</v>
+      <c r="E152" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="F152" s="12">
-        <v>31868</v>
+        <v>23006</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
+        <v>58</v>
       </c>
       <c r="H152" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
@@ -7193,7 +7258,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -7205,20 +7270,20 @@
         <v>278</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="F153" s="12">
-        <v>25691</v>
+        <v>30347</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
+        <v>37</v>
       </c>
       <c r="H153" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>
@@ -7230,32 +7295,32 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
+        <v>149</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D154" t="s">
+        <v>278</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>7</v>
-      </c>
-      <c r="C154" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D154" t="s">
-        <v>278</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F154" s="12">
-        <v>22559</v>
+        <v>20371</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" ref="G154:G185" ca="1" si="5">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>59</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
+        <v>65</v>
       </c>
       <c r="H154" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J154" s="11">
         <v>0</v>
@@ -7263,11 +7328,11 @@
       <c r="K154"/>
       <c r="L154" s="9"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+      <c r="N154"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -7278,15 +7343,15 @@
       <c r="D155" t="s">
         <v>278</v>
       </c>
-      <c r="E155" s="11" t="s">
-        <v>53</v>
+      <c r="E155" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="F155" s="12">
-        <v>16607</v>
+        <v>32261</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
+        <v>32</v>
       </c>
       <c r="H155" t="s">
         <v>210</v>
@@ -7304,7 +7369,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -7315,15 +7380,15 @@
       <c r="D156" t="s">
         <v>278</v>
       </c>
-      <c r="E156" s="11" t="s">
-        <v>64</v>
+      <c r="E156" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F156" s="12">
-        <v>18196</v>
+        <v>31868</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
+        <v>33</v>
       </c>
       <c r="H156" t="s">
         <v>210</v>
@@ -7341,7 +7406,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -7353,14 +7418,14 @@
         <v>278</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="F157" s="12">
-        <v>25940</v>
+        <v>25691</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
+        <v>50</v>
       </c>
       <c r="H157" t="s">
         <v>210</v>
@@ -7378,7 +7443,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7389,15 +7454,15 @@
       <c r="D158" t="s">
         <v>278</v>
       </c>
-      <c r="E158" s="11" t="s">
-        <v>122</v>
+      <c r="E158" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F158" s="12">
-        <v>16008</v>
+        <v>22559</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
+        <v>59</v>
       </c>
       <c r="H158" t="s">
         <v>210</v>
@@ -7415,7 +7480,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7426,21 +7491,21 @@
       <c r="D159" t="s">
         <v>278</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>10</v>
+      <c r="E159" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="F159" s="12">
-        <v>19657</v>
+        <v>16607</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
+        <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J159" s="11">
         <v>0</v>
@@ -7452,7 +7517,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7463,21 +7528,21 @@
       <c r="D160" t="s">
         <v>278</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>41</v>
+      <c r="E160" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F160" s="12">
-        <v>20255</v>
+        <v>18196</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
+        <v>71</v>
       </c>
       <c r="H160" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J160" s="11">
         <v>0</v>
@@ -7489,7 +7554,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7500,21 +7565,21 @@
       <c r="D161" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>71</v>
+      <c r="E161" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="F161" s="12">
-        <v>17116</v>
+        <v>25940</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
+        <v>49</v>
       </c>
       <c r="H161" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J161" s="11">
         <v>0</v>
@@ -7526,7 +7591,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7537,21 +7602,21 @@
       <c r="D162" t="s">
         <v>278</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>90</v>
+      <c r="E162" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F162" s="12">
-        <v>15302</v>
+        <v>16008</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
+        <v>77</v>
       </c>
       <c r="H162" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J162" s="11">
         <v>0</v>
@@ -7563,7 +7628,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7574,15 +7639,15 @@
       <c r="D163" t="s">
         <v>278</v>
       </c>
-      <c r="E163" s="11" t="s">
-        <v>96</v>
+      <c r="E163" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F163" s="12">
-        <v>27851</v>
+        <v>19657</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
+        <v>67</v>
       </c>
       <c r="H163" t="s">
         <v>204</v>
@@ -7600,7 +7665,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7611,21 +7676,21 @@
       <c r="D164" t="s">
         <v>278</v>
       </c>
-      <c r="E164" s="11" t="s">
-        <v>121</v>
+      <c r="E164" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F164" s="12">
-        <v>32101</v>
+        <v>20255</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
+        <v>65</v>
       </c>
       <c r="H164" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J164" s="11">
         <v>0</v>
@@ -7637,7 +7702,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7649,14 +7714,14 @@
         <v>278</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="F165" s="12">
-        <v>27678</v>
+        <v>17116</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
+        <v>74</v>
       </c>
       <c r="H165" t="s">
         <v>204</v>
@@ -7674,7 +7739,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7686,20 +7751,20 @@
         <v>278</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="F166" s="12">
-        <v>18196</v>
+        <v>15302</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
+        <v>79</v>
       </c>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J166" s="11">
         <v>0</v>
@@ -7711,7 +7776,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -7722,15 +7787,15 @@
       <c r="D167" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="6" t="s">
-        <v>152</v>
+      <c r="E167" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F167" s="12">
-        <v>23371</v>
+        <v>27851</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
+        <v>44</v>
       </c>
       <c r="H167" t="s">
         <v>204</v>
@@ -7748,7 +7813,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -7760,14 +7825,14 @@
         <v>278</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="F168" s="12">
-        <v>26864</v>
+        <v>27678</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
+        <v>45</v>
       </c>
       <c r="H168" t="s">
         <v>204</v>
@@ -7785,7 +7850,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7796,21 +7861,21 @@
       <c r="D169" t="s">
         <v>278</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>48</v>
+      <c r="E169" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F169" s="12">
-        <v>26445</v>
+        <v>18196</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
+        <v>71</v>
       </c>
       <c r="H169" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J169" s="11">
         <v>0</v>
@@ -7822,7 +7887,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -7833,21 +7898,21 @@
       <c r="D170" t="s">
         <v>278</v>
       </c>
-      <c r="E170" s="11" t="s">
-        <v>5</v>
+      <c r="E170" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F170" s="12">
-        <v>16725</v>
+        <v>23371</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
+        <v>57</v>
       </c>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J170" s="11">
         <v>0</v>
@@ -7859,7 +7924,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -7870,21 +7935,21 @@
       <c r="D171" t="s">
         <v>278</v>
       </c>
-      <c r="E171" s="11" t="s">
-        <v>54</v>
+      <c r="E171" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F171" s="12">
-        <v>20655</v>
+        <v>26864</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
+        <v>47</v>
       </c>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J171" s="11">
         <v>0</v>
@@ -7896,7 +7961,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -7908,20 +7973,20 @@
         <v>278</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F172" s="12">
-        <v>22250</v>
+        <v>26445</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
+        <v>48</v>
       </c>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J172" s="11">
         <v>0</v>
@@ -7933,7 +7998,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -7945,20 +8010,20 @@
         <v>278</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="F173" s="12">
-        <v>33308</v>
+        <v>16725</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
+        <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="J173" s="11">
         <v>0</v>
@@ -7970,7 +8035,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -7982,20 +8047,20 @@
         <v>278</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F174" s="12">
-        <v>28888</v>
+        <v>20655</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
+        <v>64</v>
       </c>
       <c r="H174" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J174" s="11">
         <v>0</v>
@@ -8007,7 +8072,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -8018,21 +8083,21 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>76</v>
+      <c r="E175" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="F175" s="12">
-        <v>31920</v>
+        <v>22250</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>33</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
+        <v>60</v>
       </c>
       <c r="H175" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J175" s="11">
         <v>0</v>
@@ -8044,7 +8109,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -8056,14 +8121,14 @@
         <v>278</v>
       </c>
       <c r="E176" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F176" s="12">
-        <v>25397</v>
+        <v>33308</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
+        <v>29</v>
       </c>
       <c r="H176" t="s">
         <v>312</v>
@@ -8081,7 +8146,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -8092,21 +8157,21 @@
       <c r="D177" t="s">
         <v>278</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>6</v>
+      <c r="E177" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F177" s="12">
-        <v>21338</v>
+        <v>28888</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
+        <v>41</v>
       </c>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J177" s="11">
         <v>0</v>
@@ -8118,7 +8183,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8130,20 +8195,20 @@
         <v>278</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F178" s="12">
-        <v>26802</v>
+        <v>31920</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
+        <v>33</v>
       </c>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J178" s="11">
         <v>0</v>
@@ -8155,7 +8220,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -8167,20 +8232,20 @@
         <v>278</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="F179" s="12">
-        <v>20281</v>
+        <v>25397</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
+        <v>51</v>
       </c>
       <c r="H179" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="J179" s="11">
         <v>0</v>
@@ -8192,7 +8257,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -8204,20 +8269,20 @@
         <v>278</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="F180" s="12">
-        <v>15245</v>
+        <v>21338</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
+        <v>62</v>
       </c>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J180" s="11">
         <v>0</v>
@@ -8229,7 +8294,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -8241,14 +8306,14 @@
         <v>278</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F181" s="12">
-        <v>22890</v>
+        <v>26802</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
+        <v>47</v>
       </c>
       <c r="H181" t="s">
         <v>203</v>
@@ -8284,7 +8349,7 @@
         <v>23367</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
         <v>57</v>
       </c>
       <c r="H182" t="s">
@@ -8321,7 +8386,7 @@
         <v>24717</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
         <v>53</v>
       </c>
       <c r="H183" t="s">
@@ -8358,7 +8423,7 @@
         <v>22655</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
         <v>58</v>
       </c>
       <c r="H184" t="s">
@@ -8395,7 +8460,7 @@
         <v>27508</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
         <v>45</v>
       </c>
       <c r="H185" t="s">
@@ -8432,7 +8497,7 @@
         <v>20885</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" ref="G186:G217" ca="1" si="6">(YEAR(TODAY())-YEAR(F186))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
         <v>63</v>
       </c>
       <c r="H186" t="s">
@@ -8469,7 +8534,7 @@
         <v>21958</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
         <v>60</v>
       </c>
       <c r="H187" t="s">
@@ -8506,7 +8571,7 @@
         <v>21970</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
         <v>60</v>
       </c>
       <c r="H188" t="s">
@@ -8543,7 +8608,7 @@
         <v>16997</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
         <v>74</v>
       </c>
       <c r="H189" t="s">
@@ -8580,7 +8645,7 @@
         <v>14974</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
         <v>80</v>
       </c>
       <c r="H190" t="s">
@@ -8617,7 +8682,7 @@
         <v>25566</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
         <v>51</v>
       </c>
       <c r="H191" t="s">
@@ -8654,7 +8719,7 @@
         <v>16390</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
         <v>76</v>
       </c>
       <c r="H192" t="s">
@@ -8691,7 +8756,7 @@
         <v>25970</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
         <v>49</v>
       </c>
       <c r="H193" t="s">
@@ -8728,7 +8793,7 @@
         <v>27118</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
         <v>46</v>
       </c>
       <c r="H194" t="s">
@@ -8765,7 +8830,7 @@
         <v>22024</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
         <v>60</v>
       </c>
       <c r="H195" t="s">
@@ -8802,7 +8867,7 @@
         <v>32142</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
         <v>33</v>
       </c>
       <c r="H196" t="s">
@@ -8839,7 +8904,7 @@
         <v>25592</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
         <v>50</v>
       </c>
       <c r="H197" t="s">
@@ -8876,7 +8941,7 @@
         <v>25846</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
         <v>50</v>
       </c>
       <c r="H198" t="s">
@@ -8913,7 +8978,7 @@
         <v>27112</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
         <v>46</v>
       </c>
       <c r="H199" t="s">
@@ -8950,7 +9015,7 @@
         <v>23902</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
         <v>55</v>
       </c>
       <c r="H200" t="s">
@@ -8987,7 +9052,7 @@
         <v>18640</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
         <v>69</v>
       </c>
       <c r="H201" t="s">
@@ -9024,7 +9089,7 @@
         <v>25067</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
         <v>52</v>
       </c>
       <c r="H202" t="s">
@@ -9061,7 +9126,7 @@
         <v>21445</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
         <v>62</v>
       </c>
       <c r="H203" t="s">
@@ -9098,7 +9163,7 @@
         <v>24964</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
         <v>52</v>
       </c>
       <c r="H204" t="s">
@@ -9135,7 +9200,7 @@
         <v>20415</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
         <v>65</v>
       </c>
       <c r="H205" t="s">
@@ -9172,7 +9237,7 @@
         <v>18781</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
         <v>69</v>
       </c>
       <c r="H206" t="s">
@@ -9209,7 +9274,7 @@
         <v>32771</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
         <v>31</v>
       </c>
       <c r="H207" t="s">
@@ -9246,7 +9311,7 @@
         <v>18036</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
         <v>71</v>
       </c>
       <c r="H208" t="s">
@@ -9283,7 +9348,7 @@
         <v>24242</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
         <v>54</v>
       </c>
       <c r="H209" t="s">
@@ -9320,7 +9385,7 @@
         <v>26203</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
         <v>49</v>
       </c>
       <c r="H210" t="s">
@@ -9357,7 +9422,7 @@
         <v>14047</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
         <v>82</v>
       </c>
       <c r="H211" t="s">
@@ -9394,7 +9459,7 @@
         <v>17079</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
         <v>74</v>
       </c>
       <c r="H212" t="s">
@@ -9431,7 +9496,7 @@
         <v>27246</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
         <v>46</v>
       </c>
       <c r="H213" t="s">
@@ -9468,7 +9533,7 @@
         <v>26205</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
         <v>49</v>
       </c>
       <c r="H214" t="s">
@@ -9505,7 +9570,7 @@
         <v>25149</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
         <v>52</v>
       </c>
       <c r="H215" t="s">
@@ -9542,7 +9607,7 @@
         <v>26833</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
         <v>47</v>
       </c>
       <c r="H216" t="s">
@@ -9579,7 +9644,7 @@
         <v>19566</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
         <v>67</v>
       </c>
       <c r="H217" t="s">
@@ -9616,7 +9681,7 @@
         <v>18407</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" ref="G218:G249" ca="1" si="7">(YEAR(TODAY())-YEAR(F218))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
         <v>70</v>
       </c>
       <c r="H218" t="s">
@@ -9652,7 +9717,7 @@
         <v>31990</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
         <v>33</v>
       </c>
       <c r="H219" t="s">
@@ -9689,7 +9754,7 @@
         <v>30315</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
         <v>38</v>
       </c>
       <c r="H220" t="s">
@@ -9726,7 +9791,7 @@
         <v>20907</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
         <v>63</v>
       </c>
       <c r="H221" t="s">
@@ -9762,7 +9827,7 @@
         <v>20377</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
         <v>65</v>
       </c>
       <c r="H222" t="s">
@@ -9799,7 +9864,7 @@
         <v>23941</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
         <v>55</v>
       </c>
       <c r="H223" t="s">
@@ -9835,7 +9900,7 @@
         <v>26624</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
         <v>48</v>
       </c>
       <c r="H224" t="s">
@@ -9871,7 +9936,7 @@
         <v>29623</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
         <v>39</v>
       </c>
       <c r="H225" t="s">
@@ -9908,7 +9973,7 @@
         <v>23358</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
         <v>57</v>
       </c>
       <c r="H226" t="s">
@@ -9945,7 +10010,7 @@
         <v>30164</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
         <v>38</v>
       </c>
       <c r="H227" t="s">
@@ -9982,7 +10047,7 @@
         <v>31562</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
         <v>34</v>
       </c>
       <c r="H228" t="s">
@@ -10019,7 +10084,7 @@
         <v>33225</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
         <v>30</v>
       </c>
       <c r="H229" t="s">
@@ -10056,7 +10121,7 @@
         <v>30491</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
         <v>37</v>
       </c>
       <c r="H230" t="s">
@@ -10093,7 +10158,7 @@
         <v>32481</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
         <v>32</v>
       </c>
       <c r="H231" t="s">
@@ -10130,7 +10195,7 @@
         <v>32885</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
         <v>30</v>
       </c>
       <c r="H232" t="s">
@@ -10167,7 +10232,7 @@
         <v>31146</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
         <v>35</v>
       </c>
       <c r="H233" t="s">
@@ -10204,7 +10269,7 @@
         <v>31814</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
         <v>33</v>
       </c>
       <c r="H234" t="s">
@@ -10241,7 +10306,7 @@
         <v>32196</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
         <v>32</v>
       </c>
       <c r="H235" t="s">
@@ -10278,7 +10343,7 @@
         <v>20417</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
         <v>65</v>
       </c>
       <c r="H236" t="s">
@@ -10315,7 +10380,7 @@
         <v>19630</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
         <v>67</v>
       </c>
       <c r="H237" t="s">
@@ -10352,7 +10417,7 @@
         <v>21249</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
         <v>62</v>
       </c>
       <c r="H238" t="s">
@@ -10388,7 +10453,7 @@
         <v>21269</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
         <v>62</v>
       </c>
       <c r="H239" t="s">
@@ -10425,7 +10490,7 @@
         <v>29503</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
         <v>40</v>
       </c>
       <c r="H240" t="s">
@@ -10462,7 +10527,7 @@
         <v>26846</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
         <v>47</v>
       </c>
       <c r="H241" t="s">
@@ -10499,7 +10564,7 @@
         <v>24000</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
         <v>55</v>
       </c>
       <c r="H242" t="s">
@@ -10536,7 +10601,7 @@
         <v>19943</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
         <v>66</v>
       </c>
       <c r="H243" t="s">
@@ -10572,7 +10637,7 @@
         <v>28122</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
         <v>44</v>
       </c>
       <c r="H244" t="s">
@@ -10609,7 +10674,7 @@
         <v>29350</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
         <v>40</v>
       </c>
       <c r="H245" t="s">
@@ -10646,7 +10711,7 @@
         <v>29000</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
         <v>41</v>
       </c>
       <c r="H246" t="s">
@@ -10683,7 +10748,7 @@
         <v>28805</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
         <v>42</v>
       </c>
       <c r="H247" t="s">
@@ -10720,7 +10785,7 @@
         <v>20625</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
         <v>64</v>
       </c>
       <c r="H248" t="s">
@@ -10756,7 +10821,7 @@
         <v>21011</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
         <v>63</v>
       </c>
       <c r="H249" t="s">
@@ -10792,7 +10857,7 @@
         <v>29713</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" ref="G250:G281" ca="1" si="8">(YEAR(TODAY())-YEAR(F250))</f>
+        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
         <v>39</v>
       </c>
       <c r="H250" t="s">
@@ -10828,7 +10893,7 @@
         <v>21432</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
         <v>62</v>
       </c>
       <c r="H251" t="s">
@@ -10864,7 +10929,7 @@
         <v>28961</v>
       </c>
       <c r="G252" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
         <v>41</v>
       </c>
       <c r="H252" t="s">
@@ -10901,7 +10966,7 @@
         <v>25069</v>
       </c>
       <c r="G253" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
         <v>52</v>
       </c>
       <c r="H253" t="s">
@@ -10937,7 +11002,7 @@
         <v>24451</v>
       </c>
       <c r="G254" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
         <v>54</v>
       </c>
       <c r="H254" t="s">
@@ -10974,7 +11039,7 @@
         <v>27834</v>
       </c>
       <c r="G255" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
         <v>44</v>
       </c>
       <c r="H255" t="s">
@@ -11010,7 +11075,7 @@
         <v>18677</v>
       </c>
       <c r="G256" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
         <v>69</v>
       </c>
       <c r="H256" t="s">
@@ -11046,7 +11111,7 @@
         <v>18960</v>
       </c>
       <c r="G257" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
         <v>69</v>
       </c>
       <c r="H257" t="s">
@@ -11083,7 +11148,7 @@
         <v>20084</v>
       </c>
       <c r="G258" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
         <v>66</v>
       </c>
       <c r="H258" t="s">
@@ -11119,7 +11184,7 @@
         <v>29014</v>
       </c>
       <c r="G259" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
         <v>41</v>
       </c>
       <c r="H259" t="s">
@@ -11156,7 +11221,7 @@
         <v>27808</v>
       </c>
       <c r="G260" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
         <v>44</v>
       </c>
       <c r="H260" t="s">
@@ -11192,7 +11257,7 @@
         <v>29294</v>
       </c>
       <c r="G261" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
         <v>40</v>
       </c>
       <c r="H261" t="s">
@@ -11229,7 +11294,7 @@
         <v>22529</v>
       </c>
       <c r="G262" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
         <v>59</v>
       </c>
       <c r="H262" t="s">
@@ -11266,7 +11331,7 @@
         <v>28020</v>
       </c>
       <c r="G263" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
         <v>44</v>
       </c>
       <c r="H263" t="s">
@@ -11303,7 +11368,7 @@
         <v>21554</v>
       </c>
       <c r="G264" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
         <v>61</v>
       </c>
       <c r="H264" s="11" t="s">
@@ -11322,14 +11387,14 @@
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{CA21F026-2D6F-E04E-A7CB-C8C35E5BFFBC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
-      <sortCondition descending="1" ref="J1"/>
+      <sortCondition ref="K1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M24" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
-    <hyperlink ref="M23" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
-    <hyperlink ref="M22" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
+    <hyperlink ref="M30" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
+    <hyperlink ref="M29" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
+    <hyperlink ref="M28" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
     <hyperlink ref="M11" r:id="rId4" xr:uid="{4634D10E-9CA3-436E-B233-50CC94520292}"/>
     <hyperlink ref="M10" r:id="rId5" xr:uid="{A049E81B-F121-49D7-93A2-FDF6958D3886}"/>
   </hyperlinks>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D1979-F524-4EAA-91B8-0C41BA63664D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077BA80-6AA4-4AC8-AAAE-B1799E5EE5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="332">
   <si>
     <t>id</t>
   </si>
@@ -1023,6 +1023,15 @@
   </si>
   <si>
     <t>https://www.latercera.com/la-tercera-pm/noticia/vidal-remueve-las-aguas-del-ppd-munoz-se-reactiva-girardi-el-gran-elector-y-las-apuestas-de-parlamentarios/HZ2KOBTJZNH5PHDYEB7CYBP52Q/</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/noticias/2020/10/29/desbordes-candidato-grupo-de-diputados-rn-y-alcalde-alessandri-aseguran-que-es-el-liderazgo-que-chile-necesita-alejado-de-los-dogmas-y-conectado-con-la-realidad/</t>
+  </si>
+  <si>
+    <t>https://www.24horas.cl/politica/diputados-rn-piden-a-desbordes-ser-candidato-presidencial-chile-lo-necesita-4510124</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/politica/noticia/heraldo-munoz-lanza-candidatura-presidencial-y-apuesta-por-primarias-en-el-ppd/PL6KAZR3YFAGFM2M5GXDLZMTSM/</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,44 +1482,44 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="12">
         <v>44132</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
+        <v>277</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F2" s="12">
-        <v>27492</v>
+        <v>25553</v>
       </c>
       <c r="G2" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J2" s="11">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="9">
-        <v>44135</v>
+        <v>44144</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>316</v>
@@ -1518,7 +1527,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -1529,33 +1538,33 @@
       <c r="D3" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
+      <c r="E3" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F3" s="12">
-        <v>29572</v>
+        <v>21157</v>
       </c>
       <c r="G3" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L3" s="9">
-        <v>44135</v>
+        <v>44144</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>316</v>
@@ -1563,7 +1572,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1574,33 +1583,33 @@
       <c r="D4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F4" s="12">
-        <v>24666</v>
+        <v>15245</v>
       </c>
       <c r="G4" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L4" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>316</v>
@@ -1608,26 +1617,26 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="12">
         <v>44132</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>88</v>
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
       </c>
       <c r="F5" s="12">
-        <v>27763</v>
+        <v>26732</v>
       </c>
       <c r="G5" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>201</v>
@@ -1639,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L5" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>316</v>
@@ -1653,44 +1662,44 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12">
         <v>44132</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="F6" s="12">
-        <v>24834</v>
+        <v>24767</v>
       </c>
       <c r="G6" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L6" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>316</v>
@@ -1698,44 +1707,44 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>111</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
       <c r="C7" s="12">
         <v>44132</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
       </c>
       <c r="F7" s="12">
-        <v>27004</v>
+        <v>17801</v>
       </c>
       <c r="G7" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>200</v>
+        <v>72</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L7" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>316</v>
@@ -1743,7 +1752,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1755,32 +1764,32 @@
         <v>278</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F8" s="12">
-        <v>30097</v>
+        <v>32101</v>
       </c>
       <c r="G8" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L8" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>316</v>
@@ -1788,7 +1797,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1799,33 +1808,33 @@
       <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="9">
-        <v>32980</v>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12">
+        <v>20281</v>
       </c>
       <c r="G9" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
-        <v>30</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>203</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L9" s="9">
-        <v>44135</v>
+        <v>44124</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>316</v>
@@ -1833,44 +1842,44 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="12">
         <v>44132</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="F10" s="12">
-        <v>25553</v>
+        <v>22890</v>
       </c>
       <c r="G10" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L10" s="9">
-        <v>44144</v>
+        <v>44124</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>316</v>
@@ -1878,44 +1887,44 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12">
         <v>44132</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="F11" s="12">
-        <v>21157</v>
+        <v>22305</v>
       </c>
       <c r="G11" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>204</v>
+        <v>59</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L11" s="9">
-        <v>44144</v>
+        <v>44131</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>316</v>
@@ -2193,7 +2202,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -2204,21 +2213,21 @@
       <c r="D18" t="s">
         <v>278</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
+      <c r="E18" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F18" s="12">
-        <v>21674</v>
+        <v>27719</v>
       </c>
       <c r="G18" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
@@ -2229,16 +2238,16 @@
       <c r="L18" s="9">
         <v>43581</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -2249,15 +2258,15 @@
       <c r="D19" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>129</v>
+      <c r="E19" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="F19" s="12">
-        <v>27719</v>
+        <v>25084</v>
       </c>
       <c r="G19" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
         <v>200</v>
@@ -2283,7 +2292,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -2295,20 +2304,20 @@
         <v>278</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F20" s="12">
-        <v>25084</v>
+        <v>21079</v>
       </c>
       <c r="G20" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
@@ -2328,7 +2337,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -2339,33 +2348,33 @@
       <c r="D21" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>155</v>
+      <c r="E21" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F21" s="12">
-        <v>21079</v>
+        <v>27492</v>
       </c>
       <c r="G21" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L21" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>316</v>
@@ -2373,44 +2382,44 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="12">
         <v>44132</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" t="s">
-        <v>170</v>
+        <v>278</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F22" s="12">
-        <v>26732</v>
+        <v>29572</v>
       </c>
       <c r="G22" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J22" s="11">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L22" s="9">
-        <v>44124</v>
+        <v>44135</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>316</v>
@@ -2418,44 +2427,44 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="12">
         <v>44132</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>174</v>
+        <v>278</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="12">
-        <v>24767</v>
+        <v>24666</v>
       </c>
       <c r="G23" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
         <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L23" s="9">
-        <v>44124</v>
+        <v>44135</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>316</v>
@@ -2463,44 +2472,44 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="12">
         <v>44132</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" t="s">
-        <v>191</v>
+        <v>278</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F24" s="12">
-        <v>17801</v>
+        <v>27763</v>
       </c>
       <c r="G24" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
-        <v>72</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>203</v>
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>201</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J24" s="11">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L24" s="9">
-        <v>44124</v>
+        <v>44135</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>316</v>
@@ -2508,7 +2517,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2519,33 +2528,33 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>121</v>
+      <c r="E25" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F25" s="12">
-        <v>32101</v>
+        <v>24834</v>
       </c>
       <c r="G25" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L25" s="9">
-        <v>44124</v>
+        <v>44135</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>316</v>
@@ -2553,7 +2562,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2565,32 +2574,32 @@
         <v>278</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F26" s="12">
-        <v>20281</v>
+        <v>27004</v>
       </c>
       <c r="G26" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J26" s="11">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L26" s="9">
-        <v>44124</v>
+        <v>44135</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>316</v>
@@ -2598,7 +2607,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2609,33 +2618,33 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>60</v>
+      <c r="E27" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F27" s="12">
-        <v>22890</v>
+        <v>30097</v>
       </c>
       <c r="G27" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J27" s="11">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L27" s="9">
-        <v>44124</v>
+        <v>44135</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>316</v>
@@ -2643,7 +2652,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2654,33 +2663,33 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="12">
-        <v>31247</v>
+      <c r="E28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="9">
+        <v>32980</v>
       </c>
       <c r="G28" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>204</v>
+        <v>30</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J28" s="11">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L28" s="9">
-        <v>44144</v>
+        <v>44135</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>316</v>
@@ -2688,7 +2697,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2700,77 +2709,77 @@
         <v>278</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F29" s="12">
-        <v>28018</v>
+        <v>21674</v>
       </c>
       <c r="G29" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J29" s="11">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L29" s="9">
-        <v>44144</v>
+        <v>44133</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N29" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N29" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="12">
         <v>44132</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="12">
-        <v>19343</v>
+        <v>276</v>
+      </c>
+      <c r="E30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="9">
+        <v>27429</v>
       </c>
       <c r="G30" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
-        <v>68</v>
-      </c>
-      <c r="H30" t="s">
-        <v>204</v>
+        <v>45</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J30" s="11">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L30" s="9">
-        <v>44144</v>
+        <v>44133</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>316</v>
@@ -2958,7 +2967,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2969,33 +2978,33 @@
       <c r="D35" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>49</v>
+      <c r="E35" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F35" s="12">
-        <v>15245</v>
+        <v>31247</v>
       </c>
       <c r="G35" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L35" s="9">
-        <v>44124</v>
+        <v>44144</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>316</v>
@@ -3003,117 +3012,133 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C36" s="12">
         <v>44132</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
-      </c>
-      <c r="E36" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="12">
+        <v>28018</v>
       </c>
       <c r="G36" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
-        <v>71</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>201</v>
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36" s="9"/>
-      <c r="N36"/>
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C37" s="12">
         <v>44132</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="9">
-        <v>15516</v>
+        <v>278</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="12">
+        <v>19343</v>
       </c>
       <c r="G37" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
-        <v>78</v>
-      </c>
-      <c r="H37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
         <v>204</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>287</v>
       </c>
       <c r="J37" s="11">
-        <v>0</v>
-      </c>
-      <c r="K37"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="F38" s="9">
-        <v>13941</v>
+        <v>18233</v>
       </c>
       <c r="G38" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J38" s="11">
         <v>0</v>
       </c>
       <c r="K38"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3125,20 +3150,20 @@
         <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F39" s="9">
-        <v>18900</v>
+        <v>15516</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J39" s="11">
         <v>0</v>
@@ -3150,32 +3175,32 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="12">
         <v>44132</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="F40" s="9">
-        <v>26645</v>
+        <v>13941</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J40" s="11">
         <v>0</v>
@@ -3187,32 +3212,32 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="12">
         <v>44132</v>
       </c>
       <c r="D41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="F41" s="9">
-        <v>20120</v>
+        <v>18900</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="J41" s="11">
         <v>0</v>
@@ -3224,7 +3249,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3236,20 +3261,20 @@
         <v>274</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F42" s="9">
-        <v>28232</v>
+        <v>26645</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J42" s="11">
         <v>0</v>
@@ -3261,7 +3286,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3273,20 +3298,20 @@
         <v>274</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="F43" s="9">
-        <v>27653</v>
+        <v>20120</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J43" s="11">
         <v>0</v>
@@ -3298,7 +3323,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -3310,14 +3335,14 @@
         <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="F44" s="9">
-        <v>22460</v>
+        <v>28232</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>201</v>
@@ -3335,7 +3360,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -3347,10 +3372,10 @@
         <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F45" s="9">
-        <v>27681</v>
+        <v>27653</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
@@ -3372,7 +3397,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -3384,14 +3409,14 @@
         <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="F46" s="9">
-        <v>17815</v>
+        <v>22460</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>201</v>
@@ -3409,7 +3434,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3421,10 +3446,10 @@
         <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="F47" s="9">
-        <v>27474</v>
+        <v>27681</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
@@ -3446,7 +3471,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3458,14 +3483,14 @@
         <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c r="F48" s="9">
-        <v>20671</v>
+        <v>17815</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>201</v>
@@ -3483,7 +3508,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3495,14 +3520,14 @@
         <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F49" s="9">
-        <v>17779</v>
+        <v>27474</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>201</v>
@@ -3520,7 +3545,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3532,14 +3557,14 @@
         <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F50" s="9">
-        <v>24724</v>
+        <v>20671</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>201</v>
@@ -3557,7 +3582,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3569,14 +3594,14 @@
         <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F51" s="9">
-        <v>25134</v>
+        <v>17779</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>201</v>
@@ -3594,7 +3619,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3605,21 +3630,21 @@
       <c r="D52" t="s">
         <v>274</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="12">
-        <v>25126</v>
+      <c r="E52" t="s">
+        <v>305</v>
+      </c>
+      <c r="F52" s="9">
+        <v>24724</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>52</v>
-      </c>
-      <c r="H52" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J52" s="11">
         <v>0</v>
@@ -3631,7 +3656,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3643,20 +3668,20 @@
         <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
       <c r="F53" s="9">
-        <v>24970</v>
+        <v>25134</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
         <v>52</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
@@ -3668,7 +3693,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3679,17 +3704,17 @@
       <c r="D54" t="s">
         <v>274</v>
       </c>
-      <c r="E54" t="s">
-        <v>181</v>
-      </c>
-      <c r="F54" s="9">
-        <v>20492</v>
+      <c r="E54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="12">
+        <v>25126</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>64</v>
-      </c>
-      <c r="H54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
         <v>200</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -3705,7 +3730,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3717,14 +3742,14 @@
         <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="F55" s="9">
-        <v>21368</v>
+        <v>24970</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>200</v>
@@ -3742,7 +3767,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3754,14 +3779,14 @@
         <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="F56" s="9">
-        <v>27295</v>
+        <v>20492</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>200</v>
@@ -3779,7 +3804,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3791,20 +3816,20 @@
         <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F57" s="9">
-        <v>27105</v>
+        <v>21368</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J57" s="11">
         <v>0</v>
@@ -3816,7 +3841,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3827,21 +3852,21 @@
       <c r="D58" t="s">
         <v>274</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="12">
-        <v>29554</v>
+      <c r="E58" t="s">
+        <v>307</v>
+      </c>
+      <c r="F58" s="9">
+        <v>27295</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>40</v>
-      </c>
-      <c r="H58" t="s">
-        <v>205</v>
+        <v>46</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
@@ -3853,7 +3878,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3865,14 +3890,14 @@
         <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F59" s="9">
-        <v>20015</v>
+        <v>27105</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>205</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3901,17 +3926,17 @@
       <c r="D60" t="s">
         <v>274</v>
       </c>
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-      <c r="F60" s="9">
-        <v>26556</v>
+      <c r="E60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="12">
+        <v>29554</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>48</v>
-      </c>
-      <c r="H60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
         <v>205</v>
       </c>
       <c r="I60" s="11" t="s">
@@ -3927,7 +3952,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -3939,14 +3964,14 @@
         <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F61" s="9">
-        <v>32557</v>
+        <v>20015</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>205</v>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -3976,14 +4001,14 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F62" s="9">
-        <v>22770</v>
+        <v>26556</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>205</v>
@@ -4001,7 +4026,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4013,14 +4038,14 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F63" s="9">
-        <v>17431</v>
+        <v>32557</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>205</v>
@@ -4038,79 +4063,81 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="12">
         <v>44132</v>
       </c>
       <c r="D64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="F64" s="9">
-        <v>30994</v>
+        <v>22770</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
       </c>
       <c r="K64"/>
       <c r="L64" s="9"/>
-      <c r="N64"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="12">
         <v>44132</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="F65" s="9">
-        <v>25454</v>
+        <v>17431</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
       </c>
       <c r="K65"/>
       <c r="L65" s="9"/>
-      <c r="N65"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -4122,15 +4149,20 @@
         <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="F66" s="9">
+        <v>30994</v>
+      </c>
+      <c r="G66" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
+        <v>36</v>
+      </c>
       <c r="H66" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
@@ -4141,7 +4173,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -4153,15 +4185,20 @@
         <v>275</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10"/>
+        <v>253</v>
+      </c>
+      <c r="F67" s="9">
+        <v>25454</v>
+      </c>
+      <c r="G67" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
+        <v>51</v>
+      </c>
       <c r="H67" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4172,7 +4209,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -4184,15 +4221,10 @@
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
-      </c>
-      <c r="F68" s="9">
-        <v>19642</v>
-      </c>
-      <c r="G68" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>67</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="11" t="s">
         <v>201</v>
       </c>
@@ -4208,7 +4240,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -4220,15 +4252,15 @@
         <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4239,7 +4271,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4251,20 +4283,20 @@
         <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F70" s="9">
-        <v>29935</v>
+        <v>19642</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4275,7 +4307,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -4287,15 +4319,10 @@
         <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>261</v>
-      </c>
-      <c r="F71" s="9">
-        <v>26622</v>
-      </c>
-      <c r="G71" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>48</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="11" t="s">
         <v>200</v>
       </c>
@@ -4311,7 +4338,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4323,14 +4350,14 @@
         <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F72" s="9">
-        <v>24689</v>
+        <v>29935</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>200</v>
@@ -4347,7 +4374,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4359,10 +4386,15 @@
         <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
+        <v>261</v>
+      </c>
+      <c r="F73" s="9">
+        <v>26622</v>
+      </c>
+      <c r="G73" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
+        <v>48</v>
+      </c>
       <c r="H73" s="11" t="s">
         <v>200</v>
       </c>
@@ -4378,7 +4410,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4390,14 +4422,14 @@
         <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F74" s="9">
-        <v>18048</v>
+        <v>24689</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>200</v>
@@ -4414,7 +4446,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4426,20 +4458,15 @@
         <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
-      </c>
-      <c r="F75" s="9">
-        <v>25492</v>
-      </c>
-      <c r="G75" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>51</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
@@ -4450,7 +4477,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4462,20 +4489,20 @@
         <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F76" s="9">
-        <v>27655</v>
+        <v>18048</v>
       </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
@@ -4486,7 +4513,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4498,14 +4525,14 @@
         <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F77" s="9">
-        <v>22881</v>
+        <v>25492</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>205</v>
@@ -4522,7 +4549,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4534,14 +4561,14 @@
         <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F78" s="9">
-        <v>29105</v>
+        <v>27655</v>
       </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>205</v>
@@ -4558,7 +4585,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -4570,14 +4597,14 @@
         <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F79" s="9">
-        <v>20806</v>
+        <v>22881</v>
       </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>205</v>
@@ -4594,81 +4621,79 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="12">
         <v>44132</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="F80" s="9">
-        <v>26763</v>
+        <v>29105</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="12">
         <v>44132</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F81" s="9">
-        <v>26090</v>
+        <v>20806</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4680,14 +4705,14 @@
         <v>276</v>
       </c>
       <c r="E82" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F82" s="9">
-        <v>31131</v>
+        <v>26763</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>201</v>
@@ -4705,7 +4730,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4717,14 +4742,14 @@
         <v>276</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F83" s="9">
-        <v>25265</v>
+        <v>26090</v>
       </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>201</v>
@@ -4742,7 +4767,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4754,10 +4779,15 @@
         <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>248</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="10"/>
+        <v>238</v>
+      </c>
+      <c r="F84" s="9">
+        <v>31131</v>
+      </c>
+      <c r="G84" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
+        <v>35</v>
+      </c>
       <c r="H84" s="11" t="s">
         <v>201</v>
       </c>
@@ -4769,11 +4799,12 @@
       </c>
       <c r="K84"/>
       <c r="L84" s="9"/>
-      <c r="N84"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4785,14 +4816,14 @@
         <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F85" s="9">
-        <v>20899</v>
+        <v>25265</v>
       </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>201</v>
@@ -4805,11 +4836,12 @@
       </c>
       <c r="K85"/>
       <c r="L85" s="9"/>
-      <c r="N85"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4821,27 +4853,26 @@
         <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="9"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4853,32 +4884,31 @@
         <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F87" s="9">
-        <v>28422</v>
+        <v>20899</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="N87"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4890,20 +4920,15 @@
         <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>244</v>
-      </c>
-      <c r="F88" s="9">
-        <v>28694</v>
-      </c>
-      <c r="G88" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>42</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -4915,7 +4940,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4927,20 +4952,20 @@
         <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F89" s="9">
-        <v>34561</v>
+        <v>28422</v>
       </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
@@ -4952,7 +4977,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4964,15 +4989,20 @@
         <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>237</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="F90" s="9">
+        <v>28694</v>
+      </c>
+      <c r="G90" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
+        <v>42</v>
+      </c>
       <c r="H90" s="11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
@@ -4984,7 +5014,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4996,15 +5026,20 @@
         <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>241</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="F91" s="9">
+        <v>34561</v>
+      </c>
+      <c r="G91" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
+        <v>26</v>
+      </c>
       <c r="H91" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
@@ -5016,7 +5051,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5028,7 +5063,7 @@
         <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
@@ -5048,7 +5083,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5060,20 +5095,15 @@
         <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
-      </c>
-      <c r="F93" s="9">
-        <v>27116</v>
-      </c>
-      <c r="G93" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>46</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5085,7 +5115,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5097,20 +5127,15 @@
         <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
-      </c>
-      <c r="F94" s="9">
-        <v>27429</v>
-      </c>
-      <c r="G94" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>45</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
@@ -5122,7 +5147,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5134,14 +5159,14 @@
         <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F95" s="9">
-        <v>22196</v>
+        <v>27116</v>
       </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>200</v>
@@ -5154,11 +5179,12 @@
       </c>
       <c r="K95"/>
       <c r="L95" s="9"/>
-      <c r="N95"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5170,10 +5196,15 @@
         <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>245</v>
-      </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="F96" s="9">
+        <v>22196</v>
+      </c>
+      <c r="G96" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
+        <v>60</v>
+      </c>
       <c r="H96" s="11" t="s">
         <v>200</v>
       </c>
@@ -5189,7 +5220,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5201,15 +5232,10 @@
         <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
-      </c>
-      <c r="F97" s="9">
-        <v>19005</v>
-      </c>
-      <c r="G97" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>68</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
       <c r="H97" s="11" t="s">
         <v>200</v>
       </c>
@@ -5225,7 +5251,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5237,14 +5263,14 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F98" s="9">
-        <v>27845</v>
+        <v>19005</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>200</v>
@@ -5261,7 +5287,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5273,32 +5299,31 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F99" s="9">
-        <v>14442</v>
+        <v>27845</v>
       </c>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5310,14 +5335,14 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F100" s="9">
-        <v>19655</v>
+        <v>14442</v>
       </c>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>205</v>
@@ -5335,44 +5360,44 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="12">
         <v>44132</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F101" s="12">
-        <v>28285</v>
+        <v>276</v>
+      </c>
+      <c r="E101" t="s">
+        <v>239</v>
+      </c>
+      <c r="F101" s="9">
+        <v>19655</v>
       </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>43</v>
-      </c>
-      <c r="H101" t="s">
-        <v>206</v>
+        <v>67</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -5383,21 +5408,21 @@
       <c r="D102" t="s">
         <v>277</v>
       </c>
-      <c r="E102" t="s">
-        <v>158</v>
+      <c r="E102" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F102" s="12">
-        <v>24478</v>
+        <v>28285</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
@@ -5405,11 +5430,11 @@
       <c r="K102"/>
       <c r="L102" s="9"/>
       <c r="M102" s="8"/>
-      <c r="N102" s="2"/>
+      <c r="N102" s="8"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -5421,32 +5446,32 @@
         <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F103" s="12">
-        <v>21855</v>
+        <v>24478</v>
       </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="2"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5458,20 +5483,20 @@
         <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F104" s="12">
-        <v>21845</v>
+        <v>21855</v>
       </c>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
         <v>61</v>
       </c>
       <c r="H104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5483,7 +5508,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -5495,16 +5520,16 @@
         <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F105" s="12">
-        <v>22224</v>
+        <v>21845</v>
       </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>60</v>
-      </c>
-      <c r="H105" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" t="s">
         <v>201</v>
       </c>
       <c r="I105" s="11" t="s">
@@ -5516,11 +5541,11 @@
       <c r="K105"/>
       <c r="L105" s="9"/>
       <c r="M105" s="2"/>
-      <c r="N105"/>
+      <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5532,14 +5557,14 @@
         <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F106" s="12">
-        <v>19423</v>
+        <v>22224</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>201</v>
@@ -5553,11 +5578,11 @@
       <c r="K106"/>
       <c r="L106" s="9"/>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5569,14 +5594,14 @@
         <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F107" s="12">
-        <v>27196</v>
+        <v>19423</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>201</v>
@@ -5590,11 +5615,11 @@
       <c r="K107"/>
       <c r="L107" s="9"/>
       <c r="M107" s="2"/>
-      <c r="N107"/>
+      <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -5606,20 +5631,20 @@
         <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F108" s="12">
-        <v>21509</v>
+        <v>27196</v>
       </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5627,11 +5652,11 @@
       <c r="K108"/>
       <c r="L108" s="9"/>
       <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+      <c r="N108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5642,21 +5667,21 @@
       <c r="D109" t="s">
         <v>277</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>166</v>
+      <c r="E109" t="s">
+        <v>192</v>
       </c>
       <c r="F109" s="12">
-        <v>16153</v>
+        <v>21509</v>
       </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>76</v>
-      </c>
-      <c r="H109" t="s">
-        <v>204</v>
+        <v>62</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5668,7 +5693,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5679,15 +5704,15 @@
       <c r="D110" t="s">
         <v>277</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>179</v>
+      <c r="E110" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F110" s="12">
-        <v>25024</v>
+        <v>16153</v>
       </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s">
         <v>204</v>
@@ -5705,7 +5730,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -5716,17 +5741,17 @@
       <c r="D111" t="s">
         <v>277</v>
       </c>
-      <c r="E111" t="s">
-        <v>185</v>
+      <c r="E111" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F111" s="12">
-        <v>26653</v>
+        <v>25024</v>
       </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>48</v>
-      </c>
-      <c r="H111" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" t="s">
         <v>204</v>
       </c>
       <c r="I111" s="11" t="s">
@@ -5742,7 +5767,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -5754,14 +5779,14 @@
         <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F112" s="12">
-        <v>19105</v>
+        <v>26653</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>204</v>
@@ -5779,7 +5804,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5791,20 +5816,20 @@
         <v>277</v>
       </c>
       <c r="E113" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F113" s="12">
-        <v>22698</v>
+        <v>19105</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>58</v>
-      </c>
-      <c r="H113" t="s">
-        <v>203</v>
+        <v>68</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
@@ -5816,7 +5841,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -5827,15 +5852,15 @@
       <c r="D114" t="s">
         <v>277</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>180</v>
+      <c r="E114" t="s">
+        <v>168</v>
       </c>
       <c r="F114" s="12">
-        <v>13455</v>
+        <v>22698</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H114" t="s">
         <v>203</v>
@@ -5853,7 +5878,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -5865,16 +5890,16 @@
         <v>277</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F115" s="12">
-        <v>22305</v>
+        <v>13455</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>59</v>
-      </c>
-      <c r="H115" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H115" t="s">
         <v>203</v>
       </c>
       <c r="I115" s="11" t="s">
@@ -11392,13 +11417,14 @@
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M30" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
-    <hyperlink ref="M29" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
-    <hyperlink ref="M28" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
-    <hyperlink ref="M11" r:id="rId4" xr:uid="{4634D10E-9CA3-436E-B233-50CC94520292}"/>
-    <hyperlink ref="M10" r:id="rId5" xr:uid="{A049E81B-F121-49D7-93A2-FDF6958D3886}"/>
+    <hyperlink ref="M37" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
+    <hyperlink ref="M36" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
+    <hyperlink ref="M35" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{4634D10E-9CA3-436E-B233-50CC94520292}"/>
+    <hyperlink ref="M2" r:id="rId5" xr:uid="{A049E81B-F121-49D7-93A2-FDF6958D3886}"/>
+    <hyperlink ref="M29" r:id="rId6" xr:uid="{EBF14EBC-130E-4E66-B259-89F35B39D1D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077BA80-6AA4-4AC8-AAAE-B1799E5EE5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2012B-4228-4EF6-8B0B-E999F431A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$N$264</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="333">
   <si>
     <t>id</t>
   </si>
@@ -1032,6 +1032,9 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/heraldo-munoz-lanza-candidatura-presidencial-y-apuesta-por-primarias-en-el-ppd/PL6KAZR3YFAGFM2M5GXDLZMTSM/</t>
+  </si>
+  <si>
+    <t>https://www.theclinic.cl/2020/12/17/parte-ii-presidenciables-y-sus-equipos-los-aprontes-de-la-carrera-a-la-moneda/</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1673,17 +1676,17 @@
       <c r="D6" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>174</v>
+      <c r="E6" t="s">
+        <v>191</v>
       </c>
       <c r="F6" s="12">
-        <v>24767</v>
+        <v>17801</v>
       </c>
       <c r="G6" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -1707,7 +1710,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1718,15 +1721,15 @@
       <c r="D7" t="s">
         <v>277</v>
       </c>
-      <c r="E7" t="s">
-        <v>191</v>
+      <c r="E7" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="F7" s="12">
-        <v>17801</v>
+        <v>22305</v>
       </c>
       <c r="G7" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>203</v>
@@ -1741,10 +1744,10 @@
         <v>324</v>
       </c>
       <c r="L7" s="9">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>316</v>
@@ -1752,32 +1755,32 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12">
         <v>44132</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>121</v>
+        <v>277</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="F8" s="12">
-        <v>32101</v>
+        <v>24767</v>
       </c>
       <c r="G8" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1809,20 +1812,20 @@
         <v>278</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="F9" s="12">
-        <v>20281</v>
+        <v>32101</v>
       </c>
       <c r="G9" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1853,15 +1856,15 @@
       <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>60</v>
+      <c r="E10" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="12">
-        <v>22890</v>
+        <v>20281</v>
       </c>
       <c r="G10" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
         <v>203</v>
@@ -1887,28 +1890,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="12">
         <v>44132</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="F11" s="12">
-        <v>22305</v>
+        <v>22890</v>
       </c>
       <c r="G11" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
-        <v>59</v>
-      </c>
-      <c r="H11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
         <v>203</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -1921,10 +1924,10 @@
         <v>324</v>
       </c>
       <c r="L11" s="9">
-        <v>44131</v>
+        <v>44124</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>316</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1943,21 +1946,21 @@
       <c r="D12" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>82</v>
+      <c r="E12" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F12" s="12">
-        <v>29287</v>
+        <v>21079</v>
       </c>
       <c r="G12" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="J12" s="11">
         <v>1</v>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1989,14 +1992,14 @@
         <v>278</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F13" s="12">
-        <v>26299</v>
+        <v>29549</v>
       </c>
       <c r="G13" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
         <v>200</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -2124,14 +2127,14 @@
         <v>278</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="F16" s="12">
-        <v>29549</v>
+        <v>27719</v>
       </c>
       <c r="G16" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
         <v>200</v>
@@ -2157,7 +2160,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -2169,14 +2172,14 @@
         <v>278</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F17" s="12">
-        <v>21548</v>
+        <v>26299</v>
       </c>
       <c r="G17" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
         <v>200</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -2214,14 +2217,14 @@
         <v>278</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F18" s="12">
-        <v>27719</v>
+        <v>29287</v>
       </c>
       <c r="G18" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
         <v>200</v>
@@ -2292,44 +2295,44 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" s="12">
         <v>44132</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="12">
-        <v>21079</v>
+        <v>274</v>
+      </c>
+      <c r="E20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="9">
+        <v>24970</v>
       </c>
       <c r="G20" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>313</v>
+        <v>52</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L20" s="9">
-        <v>43581</v>
+        <v>44182</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>316</v>
@@ -2337,28 +2340,28 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" s="12">
         <v>44132</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="12">
-        <v>27492</v>
+        <v>275</v>
+      </c>
+      <c r="E21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="9">
+        <v>24689</v>
       </c>
       <c r="G21" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I21" s="11" t="s">
@@ -2371,10 +2374,10 @@
         <v>321</v>
       </c>
       <c r="L21" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>316</v>
@@ -2382,28 +2385,28 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="12">
         <v>44132</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="12">
-        <v>29572</v>
+        <v>276</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="9">
+        <v>27429</v>
       </c>
       <c r="G22" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I22" s="11" t="s">
@@ -2416,10 +2419,10 @@
         <v>321</v>
       </c>
       <c r="L22" s="9">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>316</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -2439,20 +2442,20 @@
         <v>278</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F23" s="12">
-        <v>24666</v>
+        <v>27763</v>
       </c>
       <c r="G23" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
@@ -2472,7 +2475,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2483,15 +2486,15 @@
       <c r="D24" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>88</v>
+      <c r="E24" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F24" s="12">
-        <v>27763</v>
+        <v>21674</v>
       </c>
       <c r="G24" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>201</v>
@@ -2506,18 +2509,18 @@
         <v>321</v>
       </c>
       <c r="L24" s="9">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2528,15 +2531,15 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>101</v>
+      <c r="E25" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F25" s="12">
-        <v>24834</v>
+        <v>27492</v>
       </c>
       <c r="G25" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
         <v>200</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2574,14 +2577,14 @@
         <v>278</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="F26" s="12">
-        <v>27004</v>
+        <v>30097</v>
       </c>
       <c r="G26" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
         <v>200</v>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2618,17 +2621,17 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="12">
-        <v>30097</v>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="9">
+        <v>32980</v>
       </c>
       <c r="G27" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
-        <v>38</v>
-      </c>
-      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -2652,7 +2655,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2663,17 +2666,17 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="9">
-        <v>32980</v>
+      <c r="E28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="12">
+        <v>24666</v>
       </c>
       <c r="G28" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
-        <v>30</v>
-      </c>
-      <c r="H28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
         <v>200</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -2697,7 +2700,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2708,21 +2711,21 @@
       <c r="D29" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>99</v>
+      <c r="E29" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F29" s="12">
-        <v>21674</v>
+        <v>27004</v>
       </c>
       <c r="G29" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J29" s="11">
         <v>1</v>
@@ -2731,39 +2734,39 @@
         <v>321</v>
       </c>
       <c r="L29" s="9">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N29" t="s">
+        <v>315</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="12">
         <v>44132</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="9">
-        <v>27429</v>
+        <v>278</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="12">
+        <v>29572</v>
       </c>
       <c r="G30" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
-        <v>45</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
         <v>200</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -2776,10 +2779,10 @@
         <v>321</v>
       </c>
       <c r="L30" s="9">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>316</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2798,15 +2801,15 @@
       <c r="D31" t="s">
         <v>278</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>68</v>
+      <c r="E31" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F31" s="12">
-        <v>26133</v>
+        <v>24834</v>
       </c>
       <c r="G31" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
         <v>200</v>
@@ -2818,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L31" s="9">
         <v>44135</v>
@@ -2832,28 +2835,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C32" s="12">
         <v>44132</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="12">
-        <v>22263</v>
+        <v>274</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="9">
+        <v>20492</v>
       </c>
       <c r="G32" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
-        <v>60</v>
-      </c>
-      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -2866,10 +2869,10 @@
         <v>326</v>
       </c>
       <c r="L32" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>316</v>
@@ -2877,7 +2880,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -2888,15 +2891,15 @@
       <c r="D33" t="s">
         <v>278</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>115</v>
+      <c r="E33" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F33" s="12">
-        <v>31120</v>
+        <v>31990</v>
       </c>
       <c r="G33" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
         <v>200</v>
@@ -2911,10 +2914,10 @@
         <v>326</v>
       </c>
       <c r="L33" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>316</v>
@@ -2922,7 +2925,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -2933,17 +2936,17 @@
       <c r="D34" t="s">
         <v>278</v>
       </c>
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" s="9">
-        <v>31116</v>
+      <c r="E34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="12">
+        <v>31120</v>
       </c>
       <c r="G34" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
         <v>35</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" t="s">
         <v>200</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -2967,7 +2970,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2979,32 +2982,32 @@
         <v>278</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F35" s="12">
-        <v>31247</v>
+        <v>26133</v>
       </c>
       <c r="G35" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L35" s="9">
-        <v>44144</v>
+        <v>44135</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>316</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -3023,33 +3026,33 @@
       <c r="D36" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>119</v>
+      <c r="E36" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F36" s="12">
-        <v>28018</v>
+        <v>22263</v>
       </c>
       <c r="G36" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L36" s="9">
-        <v>44144</v>
+        <v>44135</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>316</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3069,32 +3072,32 @@
         <v>278</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="F37" s="12">
-        <v>19343</v>
+        <v>21548</v>
       </c>
       <c r="G37" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L37" s="9">
-        <v>44144</v>
+        <v>44182</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>316</v>
@@ -3102,253 +3105,293 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F38" s="9">
-        <v>18233</v>
+        <v>31116</v>
       </c>
       <c r="G38" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38" s="9"/>
-      <c r="N38"/>
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C39" s="12">
         <v>44132</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="9">
-        <v>15516</v>
+        <v>278</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="12">
+        <v>28805</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>78</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>204</v>
+        <v>42</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C40" s="12">
         <v>44132</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="9">
-        <v>13941</v>
+        <v>278</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="12">
+        <v>19343</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>82</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>203</v>
+        <v>68</v>
+      </c>
+      <c r="H40" t="s">
+        <v>204</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>325</v>
+      </c>
+      <c r="L40" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C41" s="12">
         <v>44132</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="s">
-        <v>224</v>
-      </c>
-      <c r="F41" s="9">
-        <v>18900</v>
+        <v>278</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="12">
+        <v>28018</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>69</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>202</v>
+        <v>44</v>
+      </c>
+      <c r="H41" t="s">
+        <v>204</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J41" s="11">
-        <v>0</v>
-      </c>
-      <c r="K41"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>325</v>
+      </c>
+      <c r="L41" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C42" s="12">
         <v>44132</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="9">
-        <v>26645</v>
+        <v>278</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="12">
+        <v>31247</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>48</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>206</v>
+        <v>35</v>
+      </c>
+      <c r="H42" t="s">
+        <v>204</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="12">
         <v>44132</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E43" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="F43" s="9">
-        <v>20120</v>
+        <v>18233</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J43" s="11">
         <v>0</v>
       </c>
       <c r="K43"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="12">
         <v>44132</v>
       </c>
       <c r="D44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F44" s="9">
-        <v>28232</v>
+        <v>15516</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J44" s="11">
         <v>0</v>
@@ -3360,32 +3403,32 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="12">
         <v>44132</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="F45" s="9">
-        <v>27653</v>
+        <v>13941</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J45" s="11">
         <v>0</v>
@@ -3397,32 +3440,32 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="12">
         <v>44132</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="F46" s="9">
-        <v>22460</v>
+        <v>18900</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
@@ -3434,7 +3477,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -3446,20 +3489,20 @@
         <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="F47" s="9">
-        <v>27681</v>
+        <v>20120</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J47" s="11">
         <v>0</v>
@@ -3471,7 +3514,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3483,20 +3526,20 @@
         <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F48" s="9">
-        <v>17815</v>
+        <v>26645</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J48" s="11">
         <v>0</v>
@@ -3508,7 +3551,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3520,14 +3563,14 @@
         <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F49" s="9">
-        <v>27474</v>
+        <v>20671</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>201</v>
@@ -3545,7 +3588,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3557,14 +3600,14 @@
         <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F50" s="9">
-        <v>20671</v>
+        <v>25134</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>201</v>
@@ -3582,7 +3625,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3594,14 +3637,14 @@
         <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F51" s="9">
-        <v>17779</v>
+        <v>22460</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>201</v>
@@ -3656,7 +3699,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3668,14 +3711,14 @@
         <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="F53" s="9">
-        <v>25134</v>
+        <v>17815</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>201</v>
@@ -3693,7 +3736,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3704,21 +3747,21 @@
       <c r="D54" t="s">
         <v>274</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="12">
-        <v>25126</v>
+      <c r="E54" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" s="9">
+        <v>17779</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>52</v>
-      </c>
-      <c r="H54" t="s">
-        <v>200</v>
+        <v>72</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
@@ -3730,7 +3773,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3742,20 +3785,20 @@
         <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F55" s="9">
-        <v>24970</v>
+        <v>27681</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
@@ -3767,7 +3810,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3779,20 +3822,20 @@
         <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="F56" s="9">
-        <v>20492</v>
+        <v>28232</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -3804,7 +3847,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3816,20 +3859,20 @@
         <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="F57" s="9">
-        <v>21368</v>
+        <v>27653</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J57" s="11">
         <v>0</v>
@@ -3841,7 +3884,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3853,20 +3896,20 @@
         <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F58" s="9">
-        <v>27295</v>
+        <v>27474</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
@@ -3878,7 +3921,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3890,20 +3933,20 @@
         <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F59" s="9">
-        <v>27105</v>
+        <v>21368</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
@@ -3915,7 +3958,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3926,21 +3969,21 @@
       <c r="D60" t="s">
         <v>274</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="12">
-        <v>29554</v>
+      <c r="E60" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="9">
+        <v>27295</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>40</v>
-      </c>
-      <c r="H60" t="s">
-        <v>205</v>
+        <v>46</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -3952,7 +3995,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -3963,21 +4006,21 @@
       <c r="D61" t="s">
         <v>274</v>
       </c>
-      <c r="E61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="9">
-        <v>20015</v>
+      <c r="E61" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="12">
+        <v>25126</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>66</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>205</v>
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>200</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J61" s="11">
         <v>0</v>
@@ -4026,7 +4069,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4038,14 +4081,14 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F63" s="9">
-        <v>32557</v>
+        <v>17431</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>205</v>
@@ -4063,7 +4106,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4074,17 +4117,17 @@
       <c r="D64" t="s">
         <v>274</v>
       </c>
-      <c r="E64" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" s="9">
-        <v>22770</v>
+      <c r="E64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="12">
+        <v>29554</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>58</v>
-      </c>
-      <c r="H64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
         <v>205</v>
       </c>
       <c r="I64" s="11" t="s">
@@ -4100,7 +4143,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4112,14 +4155,14 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F65" s="9">
-        <v>17431</v>
+        <v>32557</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>205</v>
@@ -4137,110 +4180,118 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="12">
         <v>44132</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="F66" s="9">
-        <v>30994</v>
+        <v>27105</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="9"/>
-      <c r="N66"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="12">
         <v>44132</v>
       </c>
       <c r="D67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="F67" s="9">
-        <v>25454</v>
+        <v>22770</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
       </c>
       <c r="K67"/>
       <c r="L67" s="9"/>
-      <c r="N67"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="12">
         <v>44132</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10"/>
+        <v>214</v>
+      </c>
+      <c r="F68" s="9">
+        <v>20015</v>
+      </c>
+      <c r="G68" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
+        <v>66</v>
+      </c>
       <c r="H68" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="9"/>
-      <c r="N68"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -4252,15 +4303,20 @@
         <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10"/>
+        <v>253</v>
+      </c>
+      <c r="F69" s="9">
+        <v>25454</v>
+      </c>
+      <c r="G69" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
+        <v>51</v>
+      </c>
       <c r="H69" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4271,7 +4327,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4283,20 +4339,20 @@
         <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F70" s="9">
-        <v>19642</v>
+        <v>30994</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4307,7 +4363,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -4319,15 +4375,15 @@
         <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4338,7 +4394,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4350,20 +4406,20 @@
         <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F72" s="9">
-        <v>29935</v>
+        <v>19642</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4374,7 +4430,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4386,20 +4442,15 @@
         <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>261</v>
-      </c>
-      <c r="F73" s="9">
-        <v>26622</v>
-      </c>
-      <c r="G73" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>48</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4410,7 +4461,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4422,15 +4473,10 @@
         <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>260</v>
-      </c>
-      <c r="F74" s="9">
-        <v>24689</v>
-      </c>
-      <c r="G74" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>53</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="11" t="s">
         <v>200</v>
       </c>
@@ -4446,7 +4492,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4458,10 +4504,15 @@
         <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
+        <v>265</v>
+      </c>
+      <c r="F75" s="9">
+        <v>18048</v>
+      </c>
+      <c r="G75" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
+        <v>71</v>
+      </c>
       <c r="H75" s="11" t="s">
         <v>200</v>
       </c>
@@ -4477,7 +4528,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4489,14 +4540,14 @@
         <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F76" s="9">
-        <v>18048</v>
+        <v>26622</v>
       </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>200</v>
@@ -4513,7 +4564,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4525,20 +4576,20 @@
         <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F77" s="9">
-        <v>25492</v>
+        <v>29935</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J77" s="11">
         <v>0</v>
@@ -4549,7 +4600,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4561,20 +4612,15 @@
         <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" s="9">
-        <v>27655</v>
-      </c>
-      <c r="G78" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>45</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J78" s="11">
         <v>0</v>
@@ -4585,7 +4631,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -4597,14 +4643,14 @@
         <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F79" s="9">
-        <v>22881</v>
+        <v>27655</v>
       </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>205</v>
@@ -4621,7 +4667,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4633,14 +4679,14 @@
         <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F80" s="9">
-        <v>29105</v>
+        <v>25492</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>205</v>
@@ -4657,7 +4703,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4669,14 +4715,14 @@
         <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F81" s="9">
-        <v>20806</v>
+        <v>22881</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>205</v>
@@ -4693,81 +4739,79 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="12">
         <v>44132</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="F82" s="9">
-        <v>26763</v>
+        <v>20806</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="12">
         <v>44132</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F83" s="9">
-        <v>26090</v>
+        <v>29105</v>
       </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4779,20 +4823,20 @@
         <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F84" s="9">
-        <v>31131</v>
+        <v>28422</v>
       </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
@@ -4804,7 +4848,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4816,20 +4860,15 @@
         <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
-      </c>
-      <c r="F85" s="9">
-        <v>25265</v>
-      </c>
-      <c r="G85" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>51</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J85" s="11">
         <v>0</v>
@@ -4841,7 +4880,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4853,10 +4892,15 @@
         <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>248</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10"/>
+        <v>233</v>
+      </c>
+      <c r="F86" s="9">
+        <v>26763</v>
+      </c>
+      <c r="G86" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
+        <v>47</v>
+      </c>
       <c r="H86" s="11" t="s">
         <v>201</v>
       </c>
@@ -4868,11 +4912,12 @@
       </c>
       <c r="K86"/>
       <c r="L86" s="9"/>
-      <c r="N86"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4884,14 +4929,14 @@
         <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F87" s="9">
-        <v>20899</v>
+        <v>31131</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>201</v>
@@ -4904,11 +4949,12 @@
       </c>
       <c r="K87"/>
       <c r="L87" s="9"/>
-      <c r="N87"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4920,27 +4966,31 @@
         <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
-      </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="10"/>
+        <v>249</v>
+      </c>
+      <c r="F88" s="9">
+        <v>20899</v>
+      </c>
+      <c r="G88" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
+        <v>63</v>
+      </c>
       <c r="H88" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4952,20 +5002,20 @@
         <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F89" s="9">
-        <v>28422</v>
+        <v>25265</v>
       </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
@@ -4977,7 +5027,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4989,32 +5039,26 @@
         <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
-      </c>
-      <c r="F90" s="9">
-        <v>28694</v>
-      </c>
-      <c r="G90" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>42</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -5026,20 +5070,20 @@
         <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="F91" s="9">
-        <v>34561</v>
+        <v>26090</v>
       </c>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
@@ -5051,7 +5095,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5063,15 +5107,20 @@
         <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>237</v>
-      </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="F92" s="9">
+        <v>28694</v>
+      </c>
+      <c r="G92" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
+        <v>42</v>
+      </c>
       <c r="H92" s="11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
@@ -5083,7 +5132,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5095,15 +5144,20 @@
         <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="F93" s="9">
+        <v>34561</v>
+      </c>
+      <c r="G93" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
+        <v>26</v>
+      </c>
       <c r="H93" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5147,7 +5201,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5159,20 +5213,15 @@
         <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
-      </c>
-      <c r="F95" s="9">
-        <v>27116</v>
-      </c>
-      <c r="G95" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>46</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
@@ -5184,7 +5233,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5196,31 +5245,27 @@
         <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
-      </c>
-      <c r="F96" s="9">
-        <v>22196</v>
-      </c>
-      <c r="G96" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>60</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J96" s="11">
         <v>0</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="N96"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5232,10 +5277,15 @@
         <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>245</v>
-      </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="10"/>
+        <v>250</v>
+      </c>
+      <c r="F97" s="9">
+        <v>27845</v>
+      </c>
+      <c r="G97" s="10">
+        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
+        <v>44</v>
+      </c>
       <c r="H97" s="11" t="s">
         <v>200</v>
       </c>
@@ -5251,7 +5301,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5263,14 +5313,14 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F98" s="9">
-        <v>19005</v>
+        <v>27116</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>200</v>
@@ -5283,11 +5333,12 @@
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="N98"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5299,15 +5350,10 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>250</v>
-      </c>
-      <c r="F99" s="9">
-        <v>27845</v>
-      </c>
-      <c r="G99" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>44</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="11" t="s">
         <v>200</v>
       </c>
@@ -5323,7 +5369,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5335,32 +5381,31 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F100" s="9">
-        <v>14442</v>
+        <v>22196</v>
       </c>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
       </c>
       <c r="K100"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="N100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5372,106 +5417,105 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F101" s="9">
-        <v>19655</v>
+        <v>19005</v>
       </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="N101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" s="12">
         <v>44132</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F102" s="12">
-        <v>28285</v>
+        <v>276</v>
+      </c>
+      <c r="E102" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" s="9">
+        <v>19655</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>43</v>
-      </c>
-      <c r="H102" t="s">
-        <v>206</v>
+        <v>67</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" s="12">
         <v>44132</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>158</v>
-      </c>
-      <c r="F103" s="12">
-        <v>24478</v>
+        <v>236</v>
+      </c>
+      <c r="F103" s="9">
+        <v>14442</v>
       </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>53</v>
-      </c>
-      <c r="H103" t="s">
-        <v>201</v>
+        <v>81</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="8"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5483,20 +5527,20 @@
         <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F104" s="12">
-        <v>21855</v>
+        <v>26653</v>
       </c>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>61</v>
-      </c>
-      <c r="H104" t="s">
-        <v>200</v>
+        <v>48</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5508,7 +5552,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -5519,21 +5563,21 @@
       <c r="D105" t="s">
         <v>277</v>
       </c>
-      <c r="E105" t="s">
-        <v>173</v>
+      <c r="E105" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F105" s="12">
-        <v>21845</v>
+        <v>16153</v>
       </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H105" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
@@ -5545,7 +5589,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5557,20 +5601,20 @@
         <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F106" s="12">
-        <v>22224</v>
+        <v>19105</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
@@ -5578,11 +5622,11 @@
       <c r="K106"/>
       <c r="L106" s="9"/>
       <c r="M106" s="2"/>
-      <c r="N106"/>
+      <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5593,21 +5637,21 @@
       <c r="D107" t="s">
         <v>277</v>
       </c>
-      <c r="E107" t="s">
-        <v>186</v>
+      <c r="E107" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F107" s="12">
-        <v>19423</v>
+        <v>25024</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>67</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>201</v>
+        <v>52</v>
+      </c>
+      <c r="H107" t="s">
+        <v>204</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
@@ -5619,7 +5663,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -5630,33 +5674,33 @@
       <c r="D108" t="s">
         <v>277</v>
       </c>
-      <c r="E108" t="s">
-        <v>196</v>
+      <c r="E108" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F108" s="12">
-        <v>27196</v>
+        <v>28285</v>
       </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>46</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="H108" t="s">
+        <v>206</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="2"/>
-      <c r="N108"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5668,20 +5712,20 @@
         <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F109" s="12">
-        <v>21509</v>
+        <v>19423</v>
       </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5693,7 +5737,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5704,21 +5748,21 @@
       <c r="D110" t="s">
         <v>277</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>166</v>
+      <c r="E110" t="s">
+        <v>182</v>
       </c>
       <c r="F110" s="12">
-        <v>16153</v>
+        <v>22224</v>
       </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>76</v>
-      </c>
-      <c r="H110" t="s">
-        <v>204</v>
+        <v>60</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -5726,11 +5770,11 @@
       <c r="K110"/>
       <c r="L110" s="9"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+      <c r="N110"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -5741,33 +5785,33 @@
       <c r="D111" t="s">
         <v>277</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>179</v>
+      <c r="E111" t="s">
+        <v>158</v>
       </c>
       <c r="F111" s="12">
-        <v>25024</v>
+        <v>24478</v>
       </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H111" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="2"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -5779,20 +5823,20 @@
         <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F112" s="12">
-        <v>26653</v>
+        <v>21845</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>48</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>204</v>
+        <v>61</v>
+      </c>
+      <c r="H112" t="s">
+        <v>201</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J112" s="11">
         <v>0</v>
@@ -5804,7 +5848,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5816,20 +5860,20 @@
         <v>277</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F113" s="12">
-        <v>19105</v>
+        <v>27196</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
@@ -5837,11 +5881,11 @@
       <c r="K113"/>
       <c r="L113" s="9"/>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -5853,16 +5897,16 @@
         <v>277</v>
       </c>
       <c r="E114" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F114" s="12">
-        <v>22698</v>
+        <v>26500</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>58</v>
-      </c>
-      <c r="H114" t="s">
+        <v>48</v>
+      </c>
+      <c r="H114" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I114" s="11" t="s">
@@ -5915,7 +5959,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B116">
         <v>6</v>
@@ -5927,16 +5971,16 @@
         <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F116" s="12">
-        <v>26500</v>
+        <v>22698</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>48</v>
-      </c>
-      <c r="H116" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" t="s">
         <v>203</v>
       </c>
       <c r="I116" s="11" t="s">
@@ -5952,7 +5996,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -5964,20 +6008,20 @@
         <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F117" s="12">
-        <v>25491</v>
+        <v>21509</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>51</v>
-      </c>
-      <c r="H117" t="s">
-        <v>202</v>
+        <v>62</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
@@ -5989,7 +6033,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -6000,17 +6044,17 @@
       <c r="D118" t="s">
         <v>277</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>167</v>
+      <c r="E118" t="s">
+        <v>183</v>
       </c>
       <c r="F118" s="12">
-        <v>15859</v>
+        <v>24173</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>77</v>
-      </c>
-      <c r="H118" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I118" s="11" t="s">
@@ -6026,7 +6070,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6038,14 +6082,14 @@
         <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F119" s="12">
-        <v>16455</v>
+        <v>25491</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H119" t="s">
         <v>202</v>
@@ -6063,7 +6107,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6075,14 +6119,14 @@
         <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F120" s="12">
-        <v>24173</v>
+        <v>16933</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H120" s="11" t="s">
         <v>202</v>
@@ -6100,7 +6144,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6112,16 +6156,16 @@
         <v>277</v>
       </c>
       <c r="E121" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F121" s="12">
-        <v>22288</v>
+        <v>16455</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>59</v>
-      </c>
-      <c r="H121" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s">
         <v>202</v>
       </c>
       <c r="I121" s="11" t="s">
@@ -6137,7 +6181,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6148,17 +6192,17 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" t="s">
-        <v>189</v>
+      <c r="E122" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F122" s="12">
-        <v>16933</v>
+        <v>15859</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>74</v>
-      </c>
-      <c r="H122" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" t="s">
         <v>202</v>
       </c>
       <c r="I122" s="11" t="s">
@@ -6174,7 +6218,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6186,14 +6230,14 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F123" s="12">
-        <v>16010</v>
+        <v>22288</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>202</v>
@@ -6211,7 +6255,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6222,21 +6266,21 @@
       <c r="D124" t="s">
         <v>277</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>108</v>
+      <c r="E124" t="s">
+        <v>195</v>
       </c>
       <c r="F124" s="12">
-        <v>29680</v>
+        <v>16010</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>39</v>
-      </c>
-      <c r="H124" t="s">
-        <v>200</v>
+        <v>77</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J124" s="11">
         <v>0</v>
@@ -6248,7 +6292,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6259,33 +6303,33 @@
       <c r="D125" t="s">
         <v>277</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>160</v>
+      <c r="E125" t="s">
+        <v>169</v>
       </c>
       <c r="F125" s="12">
-        <v>26073</v>
+        <v>28573</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H125" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J125" s="11">
         <v>0</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="8"/>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6296,15 +6340,15 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" t="s">
-        <v>164</v>
+      <c r="E126" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F126" s="12">
-        <v>24414</v>
+        <v>26073</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H126" t="s">
         <v>200</v>
@@ -6317,7 +6361,7 @@
       </c>
       <c r="K126"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="2"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6359,7 +6403,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6371,14 +6415,14 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F128" s="12">
-        <v>20252</v>
+        <v>21855</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H128" t="s">
         <v>200</v>
@@ -6433,7 +6477,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6444,21 +6488,21 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130" t="s">
-        <v>169</v>
+      <c r="E130" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F130" s="12">
-        <v>28573</v>
+        <v>29680</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H130" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
@@ -6470,7 +6514,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6481,21 +6525,21 @@
       <c r="D131" t="s">
         <v>277</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>161</v>
+      <c r="E131" t="s">
+        <v>171</v>
       </c>
       <c r="F131" s="12">
-        <v>22094</v>
+        <v>20252</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H131" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
@@ -6507,7 +6551,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6518,21 +6562,21 @@
       <c r="D132" t="s">
         <v>277</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>162</v>
+      <c r="E132" t="s">
+        <v>164</v>
       </c>
       <c r="F132" s="12">
-        <v>23444</v>
+        <v>24414</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H132" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J132" s="11">
         <v>0</v>
@@ -6544,7 +6588,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6556,16 +6600,16 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="F133" s="12">
-        <v>19287</v>
+        <v>19103</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
         <v>68</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I133" s="11" t="s">
@@ -6581,7 +6625,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6593,16 +6637,16 @@
         <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
-      </c>
-      <c r="F134" s="12">
-        <v>20651</v>
+        <v>230</v>
+      </c>
+      <c r="F134" s="9">
+        <v>21953</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>64</v>
-      </c>
-      <c r="H134" t="s">
+        <v>60</v>
+      </c>
+      <c r="H134" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I134" s="11" t="s">
@@ -6613,12 +6657,11 @@
       </c>
       <c r="K134"/>
       <c r="L134" s="9"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+      <c r="N134"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6630,16 +6673,16 @@
         <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F135" s="12">
-        <v>20797</v>
+        <v>19287</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>64</v>
-      </c>
-      <c r="H135" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" t="s">
         <v>205</v>
       </c>
       <c r="I135" s="11" t="s">
@@ -6692,7 +6735,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6704,14 +6747,14 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F137" s="12">
-        <v>19103</v>
+        <v>20797</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>205</v>
@@ -6766,7 +6809,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6777,17 +6820,17 @@
       <c r="D139" t="s">
         <v>277</v>
       </c>
-      <c r="E139" t="s">
-        <v>230</v>
-      </c>
-      <c r="F139" s="9">
-        <v>21953</v>
+      <c r="E139" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F139" s="12">
+        <v>22094</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
         <v>60</v>
       </c>
-      <c r="H139" s="11" t="s">
+      <c r="H139" t="s">
         <v>205</v>
       </c>
       <c r="I139" s="11" t="s">
@@ -6798,36 +6841,37 @@
       </c>
       <c r="K139"/>
       <c r="L139" s="9"/>
-      <c r="N139"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" s="12">
         <v>44132</v>
       </c>
       <c r="D140" t="s">
-        <v>278</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>56</v>
+        <v>277</v>
+      </c>
+      <c r="E140" t="s">
+        <v>177</v>
       </c>
       <c r="F140" s="12">
-        <v>32533</v>
+        <v>20651</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H140" t="s">
-        <v>229</v>
-      </c>
-      <c r="I140" t="s">
-        <v>282</v>
+        <v>205</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
@@ -6839,32 +6883,32 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" s="12">
         <v>44132</v>
       </c>
       <c r="D141" t="s">
-        <v>278</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>18</v>
+        <v>277</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F141" s="12">
-        <v>31454</v>
+        <v>23444</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H141" t="s">
-        <v>229</v>
-      </c>
-      <c r="I141" t="s">
-        <v>282</v>
+        <v>205</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J141" s="11">
         <v>0</v>
@@ -6876,7 +6920,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B142">
         <v>7</v>
@@ -6888,20 +6932,20 @@
         <v>278</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="F142" s="12">
-        <v>31783</v>
+        <v>33308</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H142" t="s">
-        <v>229</v>
-      </c>
-      <c r="I142" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="J142" s="11">
         <v>0</v>
@@ -6913,7 +6957,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B143">
         <v>7</v>
@@ -6924,21 +6968,21 @@
       <c r="D143" t="s">
         <v>278</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>61</v>
+      <c r="E143" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F143" s="12">
-        <v>26709</v>
+        <v>25397</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J143" s="11">
         <v>0</v>
@@ -6950,7 +6994,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -6962,20 +7006,20 @@
         <v>278</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="F144" s="12">
-        <v>26900</v>
+        <v>32533</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H144" t="s">
-        <v>206</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="I144" t="s">
+        <v>282</v>
       </c>
       <c r="J144" s="11">
         <v>0</v>
@@ -6987,7 +7031,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B145">
         <v>7</v>
@@ -6998,21 +7042,21 @@
       <c r="D145" t="s">
         <v>278</v>
       </c>
-      <c r="E145" s="11" t="s">
-        <v>8</v>
+      <c r="E145" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F145" s="12">
-        <v>25885</v>
+        <v>31454</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H145" t="s">
-        <v>206</v>
-      </c>
-      <c r="I145" s="11" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="I145" t="s">
+        <v>282</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
@@ -7024,7 +7068,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -7035,33 +7079,33 @@
       <c r="D146" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>32</v>
+      <c r="E146" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F146" s="12">
-        <v>25750</v>
+        <v>32481</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H146" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="8"/>
+      <c r="M146" s="2"/>
       <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -7073,20 +7117,20 @@
         <v>278</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F147" s="12">
-        <v>23332</v>
+        <v>31783</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H147" t="s">
-        <v>206</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>283</v>
+        <v>229</v>
+      </c>
+      <c r="I147" t="s">
+        <v>282</v>
       </c>
       <c r="J147" s="11">
         <v>0</v>
@@ -7098,7 +7142,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -7109,21 +7153,21 @@
       <c r="D148" t="s">
         <v>278</v>
       </c>
-      <c r="E148" s="11" t="s">
-        <v>127</v>
+      <c r="E148" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F148" s="12">
-        <v>24014</v>
+        <v>19657</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H148" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J148" s="11">
         <v>0</v>
@@ -7135,7 +7179,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -7147,20 +7191,20 @@
         <v>278</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F149" s="12">
-        <v>23226</v>
+        <v>20255</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H149" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J149" s="11">
         <v>0</v>
@@ -7172,7 +7216,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B150">
         <v>7</v>
@@ -7183,21 +7227,21 @@
       <c r="D150" t="s">
         <v>278</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>117</v>
+      <c r="E150" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F150" s="12">
-        <v>24059</v>
+        <v>27851</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H150" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J150" s="11">
         <v>0</v>
@@ -7209,7 +7253,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -7221,20 +7265,20 @@
         <v>278</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F151" s="12">
-        <v>23594</v>
+        <v>23371</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H151" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J151" s="11">
         <v>0</v>
@@ -7246,7 +7290,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>7</v>
@@ -7257,21 +7301,21 @@
       <c r="D152" t="s">
         <v>278</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>132</v>
+      <c r="E152" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F152" s="12">
-        <v>23006</v>
+        <v>15302</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="H152" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
@@ -7283,7 +7327,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -7294,21 +7338,21 @@
       <c r="D153" t="s">
         <v>278</v>
       </c>
-      <c r="E153" s="11" t="s">
-        <v>139</v>
+      <c r="E153" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F153" s="12">
-        <v>30347</v>
+        <v>17116</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H153" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>
@@ -7320,7 +7364,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -7332,20 +7376,20 @@
         <v>278</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F154" s="12">
-        <v>20371</v>
+        <v>26864</v>
       </c>
       <c r="G154" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H154" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J154" s="11">
         <v>0</v>
@@ -7353,11 +7397,11 @@
       <c r="K154"/>
       <c r="L154" s="9"/>
       <c r="M154" s="2"/>
-      <c r="N154"/>
+      <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -7369,20 +7413,20 @@
         <v>278</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F155" s="12">
-        <v>32261</v>
+        <v>27678</v>
       </c>
       <c r="G155" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H155" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J155" s="11">
         <v>0</v>
@@ -7394,7 +7438,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -7405,21 +7449,21 @@
       <c r="D156" t="s">
         <v>278</v>
       </c>
-      <c r="E156" s="6" t="s">
-        <v>21</v>
+      <c r="E156" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F156" s="12">
-        <v>31868</v>
+        <v>23332</v>
       </c>
       <c r="G156" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H156" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J156" s="11">
         <v>0</v>
@@ -7431,7 +7475,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -7443,20 +7487,20 @@
         <v>278</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F157" s="12">
-        <v>25691</v>
+        <v>24014</v>
       </c>
       <c r="G157" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H157" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J157" s="11">
         <v>0</v>
@@ -7468,7 +7512,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7480,32 +7524,32 @@
         <v>278</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F158" s="12">
-        <v>22559</v>
+        <v>25750</v>
       </c>
       <c r="G158" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H158" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J158" s="11">
         <v>0</v>
       </c>
       <c r="K158"/>
       <c r="L158" s="9"/>
-      <c r="M158" s="2"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="2"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7517,20 +7561,20 @@
         <v>278</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="F159" s="12">
-        <v>16607</v>
+        <v>26900</v>
       </c>
       <c r="G159" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H159" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J159" s="11">
         <v>0</v>
@@ -7542,7 +7586,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7554,20 +7598,20 @@
         <v>278</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F160" s="12">
-        <v>18196</v>
+        <v>25885</v>
       </c>
       <c r="G160" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H160" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J160" s="11">
         <v>0</v>
@@ -7579,7 +7623,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7590,21 +7634,21 @@
       <c r="D161" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="11" t="s">
-        <v>86</v>
+      <c r="E161" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F161" s="12">
-        <v>25940</v>
+        <v>26709</v>
       </c>
       <c r="G161" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H161" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J161" s="11">
         <v>0</v>
@@ -7616,7 +7660,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7627,21 +7671,21 @@
       <c r="D162" t="s">
         <v>278</v>
       </c>
-      <c r="E162" s="11" t="s">
-        <v>122</v>
+      <c r="E162" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F162" s="12">
-        <v>16008</v>
+        <v>24059</v>
       </c>
       <c r="G162" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H162" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J162" s="11">
         <v>0</v>
@@ -7653,7 +7697,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7664,21 +7708,21 @@
       <c r="D163" t="s">
         <v>278</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>10</v>
+      <c r="E163" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="F163" s="12">
-        <v>19657</v>
+        <v>23006</v>
       </c>
       <c r="G163" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H163" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J163" s="11">
         <v>0</v>
@@ -7690,7 +7734,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7702,20 +7746,20 @@
         <v>278</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F164" s="12">
-        <v>20255</v>
+        <v>23226</v>
       </c>
       <c r="G164" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H164" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J164" s="11">
         <v>0</v>
@@ -7727,7 +7771,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7738,21 +7782,21 @@
       <c r="D165" t="s">
         <v>278</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>71</v>
+      <c r="E165" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F165" s="12">
-        <v>17116</v>
+        <v>29503</v>
       </c>
       <c r="G165" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H165" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J165" s="11">
         <v>0</v>
@@ -7760,11 +7804,11 @@
       <c r="K165"/>
       <c r="L165" s="9"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+      <c r="N165"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7776,20 +7820,20 @@
         <v>278</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F166" s="12">
-        <v>15302</v>
+        <v>16390</v>
       </c>
       <c r="G166" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H166" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J166" s="11">
         <v>0</v>
@@ -7801,7 +7845,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -7812,21 +7856,21 @@
       <c r="D167" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="11" t="s">
-        <v>96</v>
+      <c r="E167" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F167" s="12">
-        <v>27851</v>
+        <v>16997</v>
       </c>
       <c r="G167" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="H167" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J167" s="11">
         <v>0</v>
@@ -7838,7 +7882,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -7849,21 +7893,21 @@
       <c r="D168" t="s">
         <v>278</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>124</v>
+      <c r="E168" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F168" s="12">
-        <v>27678</v>
+        <v>30347</v>
       </c>
       <c r="G168" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J168" s="11">
         <v>0</v>
@@ -7875,7 +7919,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7887,14 +7931,14 @@
         <v>278</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="F169" s="12">
-        <v>18196</v>
+        <v>25970</v>
       </c>
       <c r="G169" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H169" t="s">
         <v>201</v>
@@ -7912,7 +7956,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -7924,20 +7968,20 @@
         <v>278</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F170" s="12">
-        <v>23371</v>
+        <v>18196</v>
       </c>
       <c r="G170" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H170" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J170" s="11">
         <v>0</v>
@@ -7949,7 +7993,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -7960,21 +8004,21 @@
       <c r="D171" t="s">
         <v>278</v>
       </c>
-      <c r="E171" s="6" t="s">
-        <v>157</v>
+      <c r="E171" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F171" s="12">
-        <v>26864</v>
+        <v>24964</v>
       </c>
       <c r="G171" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J171" s="11">
         <v>0</v>
@@ -7986,7 +8030,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -7997,21 +8041,21 @@
       <c r="D172" t="s">
         <v>278</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>48</v>
+      <c r="E172" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F172" s="12">
-        <v>26445</v>
+        <v>23594</v>
       </c>
       <c r="G172" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H172" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J172" s="11">
         <v>0</v>
@@ -8023,7 +8067,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -8035,20 +8079,20 @@
         <v>278</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F173" s="12">
-        <v>16725</v>
+        <v>20885</v>
       </c>
       <c r="G173" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J173" s="11">
         <v>0</v>
@@ -8060,7 +8104,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -8072,14 +8116,14 @@
         <v>278</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F174" s="12">
-        <v>20655</v>
+        <v>31562</v>
       </c>
       <c r="G174" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="H174" t="s">
         <v>201</v>
@@ -8097,7 +8141,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -8108,21 +8152,21 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="11" t="s">
-        <v>59</v>
+      <c r="E175" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F175" s="12">
-        <v>22250</v>
+        <v>21338</v>
       </c>
       <c r="G175" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J175" s="11">
         <v>0</v>
@@ -8134,7 +8178,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -8145,21 +8189,21 @@
       <c r="D176" t="s">
         <v>278</v>
       </c>
-      <c r="E176" s="11" t="s">
-        <v>105</v>
+      <c r="E176" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F176" s="12">
-        <v>33308</v>
+        <v>20371</v>
       </c>
       <c r="G176" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H176" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="J176" s="11">
         <v>0</v>
@@ -8167,11 +8211,11 @@
       <c r="K176"/>
       <c r="L176" s="9"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
+      <c r="N176"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -8183,20 +8227,20 @@
         <v>278</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F177" s="12">
-        <v>28888</v>
+        <v>20417</v>
       </c>
       <c r="G177" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H177" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J177" s="11">
         <v>0</v>
@@ -8208,7 +8252,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8219,21 +8263,21 @@
       <c r="D178" t="s">
         <v>278</v>
       </c>
-      <c r="E178" s="6" t="s">
-        <v>76</v>
+      <c r="E178" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="F178" s="12">
-        <v>31920</v>
+        <v>20655</v>
       </c>
       <c r="G178" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J178" s="11">
         <v>0</v>
@@ -8245,7 +8289,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -8257,32 +8301,31 @@
         <v>278</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F179" s="12">
-        <v>25397</v>
+        <v>18677</v>
       </c>
       <c r="G179" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H179" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="J179" s="11">
         <v>0</v>
       </c>
       <c r="K179"/>
       <c r="L179" s="9"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
+      <c r="N179"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -8293,21 +8336,21 @@
       <c r="D180" t="s">
         <v>278</v>
       </c>
-      <c r="E180" s="6" t="s">
-        <v>6</v>
+      <c r="E180" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F180" s="12">
-        <v>21338</v>
+        <v>18196</v>
       </c>
       <c r="G180" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J180" s="11">
         <v>0</v>
@@ -8319,7 +8362,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -8330,21 +8373,21 @@
       <c r="D181" t="s">
         <v>278</v>
       </c>
-      <c r="E181" s="6" t="s">
-        <v>23</v>
+      <c r="E181" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F181" s="12">
-        <v>26802</v>
+        <v>25691</v>
       </c>
       <c r="G181" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J181" s="11">
         <v>0</v>
@@ -8356,7 +8399,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -8367,21 +8410,21 @@
       <c r="D182" t="s">
         <v>278</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>70</v>
+      <c r="E182" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="F182" s="12">
-        <v>23367</v>
+        <v>32261</v>
       </c>
       <c r="G182" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J182" s="11">
         <v>0</v>
@@ -8393,7 +8436,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -8405,20 +8448,20 @@
         <v>278</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F183" s="12">
-        <v>24717</v>
+        <v>16607</v>
       </c>
       <c r="G183" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H183" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J183" s="11">
         <v>0</v>
@@ -8430,7 +8473,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -8442,20 +8485,20 @@
         <v>278</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="F184" s="12">
-        <v>22655</v>
+        <v>25940</v>
       </c>
       <c r="G184" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J184" s="11">
         <v>0</v>
@@ -8467,7 +8510,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -8479,14 +8522,14 @@
         <v>278</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F185" s="12">
-        <v>27508</v>
+        <v>16008</v>
       </c>
       <c r="G185" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H185" t="s">
         <v>210</v>
@@ -8504,7 +8547,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8515,21 +8558,21 @@
       <c r="D186" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>11</v>
+      <c r="E186" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F186" s="12">
-        <v>20885</v>
+        <v>22559</v>
       </c>
       <c r="G186" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H186" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J186" s="11">
         <v>0</v>
@@ -8541,7 +8584,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8553,20 +8596,20 @@
         <v>278</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F187" s="12">
-        <v>21958</v>
+        <v>31868</v>
       </c>
       <c r="G187" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J187" s="11">
         <v>0</v>
@@ -8578,7 +8621,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -8590,20 +8633,20 @@
         <v>278</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F188" s="12">
-        <v>21970</v>
+        <v>27508</v>
       </c>
       <c r="G188" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J188" s="11">
         <v>0</v>
@@ -8615,7 +8658,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -8626,21 +8669,21 @@
       <c r="D189" t="s">
         <v>278</v>
       </c>
-      <c r="E189" s="6" t="s">
-        <v>75</v>
+      <c r="E189" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="F189" s="12">
-        <v>16997</v>
+        <v>26445</v>
       </c>
       <c r="G189" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="H189" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J189" s="11">
         <v>0</v>
@@ -8652,7 +8695,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -8663,21 +8706,21 @@
       <c r="D190" t="s">
         <v>278</v>
       </c>
-      <c r="E190" s="6" t="s">
-        <v>97</v>
+      <c r="E190" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="F190" s="12">
-        <v>14974</v>
+        <v>22250</v>
       </c>
       <c r="G190" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J190" s="11">
         <v>0</v>
@@ -8689,7 +8732,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -8701,20 +8744,20 @@
         <v>278</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="F191" s="12">
-        <v>25566</v>
+        <v>16725</v>
       </c>
       <c r="G191" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H191" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J191" s="11">
         <v>0</v>
@@ -8726,7 +8769,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -8737,21 +8780,21 @@
       <c r="D192" t="s">
         <v>278</v>
       </c>
-      <c r="E192" s="6" t="s">
-        <v>143</v>
+      <c r="E192" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F192" s="12">
-        <v>16390</v>
+        <v>28888</v>
       </c>
       <c r="G192" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H192" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J192" s="11">
         <v>0</v>
@@ -8763,7 +8806,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -8775,20 +8818,20 @@
         <v>278</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F193" s="12">
-        <v>25970</v>
+        <v>31920</v>
       </c>
       <c r="G193" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H193" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J193" s="11">
         <v>0</v>
@@ -8800,7 +8843,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -8812,20 +8855,20 @@
         <v>278</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="F194" s="12">
-        <v>27118</v>
+        <v>24717</v>
       </c>
       <c r="G194" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H194" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J194" s="11">
         <v>0</v>
@@ -8837,7 +8880,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B195">
         <v>7</v>
@@ -8848,21 +8891,21 @@
       <c r="D195" t="s">
         <v>278</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>26</v>
+      <c r="E195" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F195" s="12">
-        <v>22024</v>
+        <v>23367</v>
       </c>
       <c r="G195" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H195" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J195" s="11">
         <v>0</v>
@@ -8874,7 +8917,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -8885,21 +8928,21 @@
       <c r="D196" t="s">
         <v>278</v>
       </c>
-      <c r="E196" s="6" t="s">
-        <v>29</v>
+      <c r="E196" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F196" s="12">
-        <v>32142</v>
+        <v>22655</v>
       </c>
       <c r="G196" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H196" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J196" s="11">
         <v>0</v>
@@ -8911,7 +8954,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B197">
         <v>7</v>
@@ -8923,20 +8966,20 @@
         <v>278</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F197" s="12">
-        <v>25592</v>
+        <v>26802</v>
       </c>
       <c r="G197" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H197" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J197" s="11">
         <v>0</v>
@@ -8948,7 +8991,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -8960,20 +9003,20 @@
         <v>278</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F198" s="12">
-        <v>25846</v>
+        <v>25566</v>
       </c>
       <c r="G198" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H198" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J198" s="11">
         <v>0</v>
@@ -8985,7 +9028,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -8997,20 +9040,20 @@
         <v>278</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F199" s="12">
-        <v>27112</v>
+        <v>21970</v>
       </c>
       <c r="G199" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H199" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J199" s="11">
         <v>0</v>
@@ -9022,7 +9065,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -9034,20 +9077,20 @@
         <v>278</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F200" s="12">
-        <v>23902</v>
+        <v>14974</v>
       </c>
       <c r="G200" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H200" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J200" s="11">
         <v>0</v>
@@ -9059,7 +9102,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -9071,20 +9114,20 @@
         <v>278</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F201" s="12">
-        <v>18640</v>
+        <v>21958</v>
       </c>
       <c r="G201" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H201" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J201" s="11">
         <v>0</v>
@@ -9096,7 +9139,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -9107,15 +9150,15 @@
       <c r="D202" t="s">
         <v>278</v>
       </c>
-      <c r="E202" s="11" t="s">
-        <v>87</v>
+      <c r="E202" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F202" s="12">
-        <v>25067</v>
+        <v>32142</v>
       </c>
       <c r="G202" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H202" t="s">
         <v>202</v>
@@ -9133,7 +9176,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -9144,15 +9187,15 @@
       <c r="D203" t="s">
         <v>278</v>
       </c>
-      <c r="E203" s="6" t="s">
-        <v>104</v>
+      <c r="E203" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F203" s="12">
-        <v>21445</v>
+        <v>25067</v>
       </c>
       <c r="G203" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H203" t="s">
         <v>202</v>
@@ -9170,7 +9213,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -9181,21 +9224,21 @@
       <c r="D204" t="s">
         <v>278</v>
       </c>
-      <c r="E204" s="11" t="s">
-        <v>106</v>
+      <c r="E204" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F204" s="12">
-        <v>24964</v>
+        <v>25592</v>
       </c>
       <c r="G204" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H204" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J204" s="11">
         <v>0</v>
@@ -9244,7 +9287,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -9256,10 +9299,10 @@
         <v>278</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F206" s="12">
-        <v>18781</v>
+        <v>18640</v>
       </c>
       <c r="G206" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
@@ -9281,7 +9324,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -9293,14 +9336,14 @@
         <v>278</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F207" s="12">
-        <v>32771</v>
+        <v>14047</v>
       </c>
       <c r="G207" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H207" t="s">
         <v>202</v>
@@ -9318,7 +9361,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -9330,14 +9373,14 @@
         <v>278</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="F208" s="12">
-        <v>18036</v>
+        <v>27118</v>
       </c>
       <c r="G208" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="H208" t="s">
         <v>202</v>
@@ -9355,7 +9398,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -9367,14 +9410,14 @@
         <v>278</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F209" s="12">
-        <v>24242</v>
+        <v>22024</v>
       </c>
       <c r="G209" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H209" t="s">
         <v>202</v>
@@ -9392,7 +9435,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -9403,15 +9446,15 @@
       <c r="D210" t="s">
         <v>278</v>
       </c>
-      <c r="E210" s="6" t="s">
-        <v>141</v>
+      <c r="E210" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F210" s="12">
-        <v>26203</v>
+        <v>32771</v>
       </c>
       <c r="G210" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H210" t="s">
         <v>202</v>
@@ -9429,7 +9472,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -9440,15 +9483,15 @@
       <c r="D211" t="s">
         <v>278</v>
       </c>
-      <c r="E211" s="11" t="s">
-        <v>154</v>
+      <c r="E211" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F211" s="12">
-        <v>14047</v>
+        <v>24242</v>
       </c>
       <c r="G211" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H211" t="s">
         <v>202</v>
@@ -9466,7 +9509,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -9478,20 +9521,20 @@
         <v>278</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F212" s="12">
-        <v>17079</v>
+        <v>21445</v>
       </c>
       <c r="G212" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H212" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J212" s="11">
         <v>0</v>
@@ -9503,7 +9546,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -9514,21 +9557,21 @@
       <c r="D213" t="s">
         <v>278</v>
       </c>
-      <c r="E213" s="11" t="s">
-        <v>25</v>
+      <c r="E213" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F213" s="12">
-        <v>27246</v>
+        <v>23902</v>
       </c>
       <c r="G213" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H213" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J213" s="11">
         <v>0</v>
@@ -9540,7 +9583,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -9552,32 +9595,32 @@
         <v>278</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="F214" s="12">
-        <v>26205</v>
+        <v>18036</v>
       </c>
       <c r="G214" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H214" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J214" s="11">
         <v>0</v>
       </c>
       <c r="K214"/>
       <c r="L214" s="9"/>
-      <c r="M214" s="8"/>
+      <c r="M214" s="2"/>
       <c r="N214" s="2"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -9589,20 +9632,20 @@
         <v>278</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F215" s="12">
-        <v>25149</v>
+        <v>25846</v>
       </c>
       <c r="G215" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H215" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J215" s="11">
         <v>0</v>
@@ -9614,7 +9657,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -9626,20 +9669,20 @@
         <v>278</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F216" s="12">
-        <v>26833</v>
+        <v>26203</v>
       </c>
       <c r="G216" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H216" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J216" s="11">
         <v>0</v>
@@ -9647,11 +9690,11 @@
       <c r="K216"/>
       <c r="L216" s="9"/>
       <c r="M216" s="2"/>
-      <c r="N216"/>
+      <c r="N216" s="2"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B217">
         <v>7</v>
@@ -9663,20 +9706,20 @@
         <v>278</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F217" s="12">
-        <v>19566</v>
+        <v>27112</v>
       </c>
       <c r="G217" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H217" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J217" s="11">
         <v>0</v>
@@ -9684,11 +9727,11 @@
       <c r="K217"/>
       <c r="L217" s="9"/>
       <c r="M217" s="2"/>
-      <c r="N217"/>
+      <c r="N217" s="2"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B218">
         <v>7</v>
@@ -9700,31 +9743,32 @@
         <v>278</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F218" s="12">
-        <v>18407</v>
+        <v>18781</v>
       </c>
       <c r="G218" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H218" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J218" s="11">
         <v>0</v>
       </c>
       <c r="K218"/>
       <c r="L218" s="9"/>
-      <c r="N218"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B219">
         <v>7</v>
@@ -9735,21 +9779,21 @@
       <c r="D219" t="s">
         <v>278</v>
       </c>
-      <c r="E219" s="6" t="s">
-        <v>93</v>
+      <c r="E219" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F219" s="12">
-        <v>31990</v>
+        <v>33225</v>
       </c>
       <c r="G219" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H219" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J219" s="11">
         <v>0</v>
@@ -9761,7 +9805,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B220">
         <v>7</v>
@@ -9772,21 +9816,21 @@
       <c r="D220" t="s">
         <v>278</v>
       </c>
-      <c r="E220" s="11" t="s">
-        <v>94</v>
+      <c r="E220" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F220" s="12">
-        <v>30315</v>
+        <v>31814</v>
       </c>
       <c r="G220" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H220" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J220" s="11">
         <v>0</v>
@@ -9794,11 +9838,11 @@
       <c r="K220"/>
       <c r="L220" s="9"/>
       <c r="M220" s="2"/>
-      <c r="N220"/>
+      <c r="N220" s="2"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B221">
         <v>7</v>
@@ -9810,31 +9854,32 @@
         <v>278</v>
       </c>
       <c r="E221" s="11" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F221" s="12">
-        <v>20907</v>
+        <v>32885</v>
       </c>
       <c r="G221" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H221" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J221" s="11">
         <v>0</v>
       </c>
       <c r="K221"/>
       <c r="L221" s="9"/>
-      <c r="N221"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B222">
         <v>7</v>
@@ -9846,20 +9891,20 @@
         <v>278</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>270</v>
+        <v>89</v>
       </c>
       <c r="F222" s="12">
-        <v>20377</v>
+        <v>32196</v>
       </c>
       <c r="G222" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H222" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J222" s="11">
         <v>0</v>
@@ -9871,7 +9916,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B223">
         <v>7</v>
@@ -9882,32 +9927,33 @@
       <c r="D223" t="s">
         <v>278</v>
       </c>
-      <c r="E223" s="6" t="s">
-        <v>111</v>
+      <c r="E223" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F223" s="12">
-        <v>23941</v>
+        <v>31146</v>
       </c>
       <c r="G223" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H223" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J223" s="11">
         <v>0</v>
       </c>
       <c r="K223"/>
       <c r="L223" s="9"/>
-      <c r="N223"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B224">
         <v>7</v>
@@ -9918,32 +9964,33 @@
       <c r="D224" t="s">
         <v>278</v>
       </c>
-      <c r="E224" s="6" t="s">
-        <v>114</v>
+      <c r="E224" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F224" s="12">
-        <v>26624</v>
+        <v>30164</v>
       </c>
       <c r="G224" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H224" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J224" s="11">
         <v>0</v>
       </c>
       <c r="K224"/>
       <c r="L224" s="9"/>
-      <c r="N224"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B225">
         <v>7</v>
@@ -9955,20 +10002,20 @@
         <v>278</v>
       </c>
       <c r="E225" s="11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F225" s="12">
-        <v>29623</v>
+        <v>30491</v>
       </c>
       <c r="G225" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H225" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J225" s="11">
         <v>0</v>
@@ -9980,7 +10027,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B226">
         <v>7</v>
@@ -9991,15 +10038,15 @@
       <c r="D226" t="s">
         <v>278</v>
       </c>
-      <c r="E226" s="11" t="s">
-        <v>151</v>
+      <c r="E226" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="F226" s="12">
-        <v>23358</v>
+        <v>23941</v>
       </c>
       <c r="G226" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H226" t="s">
         <v>200</v>
@@ -10012,12 +10059,11 @@
       </c>
       <c r="K226"/>
       <c r="L226" s="9"/>
-      <c r="M226" s="2"/>
-      <c r="N226" s="2"/>
+      <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B227">
         <v>7</v>
@@ -10028,21 +10074,21 @@
       <c r="D227" t="s">
         <v>278</v>
       </c>
-      <c r="E227" s="11" t="s">
-        <v>24</v>
+      <c r="E227" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F227" s="12">
-        <v>30164</v>
+        <v>17079</v>
       </c>
       <c r="G227" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H227" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J227" s="11">
         <v>0</v>
@@ -10054,7 +10100,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B228">
         <v>7</v>
@@ -10066,20 +10112,20 @@
         <v>278</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F228" s="12">
-        <v>31562</v>
+        <v>25149</v>
       </c>
       <c r="G228" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H228" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J228" s="11">
         <v>0</v>
@@ -10091,7 +10137,7 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B229">
         <v>7</v>
@@ -10102,33 +10148,32 @@
       <c r="D229" t="s">
         <v>278</v>
       </c>
-      <c r="E229" s="11" t="s">
-        <v>95</v>
+      <c r="E229" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F229" s="12">
-        <v>33225</v>
+        <v>26624</v>
       </c>
       <c r="G229" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H229" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J229" s="11">
         <v>0</v>
       </c>
       <c r="K229"/>
       <c r="L229" s="9"/>
-      <c r="M229" s="2"/>
-      <c r="N229" s="2"/>
+      <c r="N229"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B230">
         <v>7</v>
@@ -10139,21 +10184,21 @@
       <c r="D230" t="s">
         <v>278</v>
       </c>
-      <c r="E230" s="11" t="s">
-        <v>135</v>
+      <c r="E230" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="F230" s="12">
-        <v>30491</v>
+        <v>26833</v>
       </c>
       <c r="G230" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H230" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J230" s="11">
         <v>0</v>
@@ -10161,11 +10206,11 @@
       <c r="K230"/>
       <c r="L230" s="9"/>
       <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
+      <c r="N230"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B231">
         <v>7</v>
@@ -10177,20 +10222,20 @@
         <v>278</v>
       </c>
       <c r="E231" s="11" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="F231" s="12">
-        <v>32481</v>
+        <v>27246</v>
       </c>
       <c r="G231" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H231" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="J231" s="11">
         <v>0</v>
@@ -10202,7 +10247,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B232">
         <v>7</v>
@@ -10214,20 +10259,20 @@
         <v>278</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="F232" s="12">
-        <v>32885</v>
+        <v>20377</v>
       </c>
       <c r="G232" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H232" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J232" s="11">
         <v>0</v>
@@ -10239,7 +10284,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B233">
         <v>7</v>
@@ -10251,32 +10296,31 @@
         <v>278</v>
       </c>
       <c r="E233" s="11" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F233" s="12">
-        <v>31146</v>
+        <v>20907</v>
       </c>
       <c r="G233" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H233" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J233" s="11">
         <v>0</v>
       </c>
       <c r="K233"/>
       <c r="L233" s="9"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
+      <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B234">
         <v>7</v>
@@ -10287,21 +10331,21 @@
       <c r="D234" t="s">
         <v>278</v>
       </c>
-      <c r="E234" s="6" t="s">
-        <v>58</v>
+      <c r="E234" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F234" s="12">
-        <v>31814</v>
+        <v>30315</v>
       </c>
       <c r="G234" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H234" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J234" s="11">
         <v>0</v>
@@ -10309,11 +10353,11 @@
       <c r="K234"/>
       <c r="L234" s="9"/>
       <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
+      <c r="N234"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B235">
         <v>7</v>
@@ -10325,20 +10369,20 @@
         <v>278</v>
       </c>
       <c r="E235" s="11" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F235" s="12">
-        <v>32196</v>
+        <v>19566</v>
       </c>
       <c r="G235" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H235" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J235" s="11">
         <v>0</v>
@@ -10346,11 +10390,11 @@
       <c r="K235"/>
       <c r="L235" s="9"/>
       <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
+      <c r="N235"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B236">
         <v>7</v>
@@ -10361,33 +10405,32 @@
       <c r="D236" t="s">
         <v>278</v>
       </c>
-      <c r="E236" s="11" t="s">
-        <v>9</v>
+      <c r="E236" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="F236" s="12">
-        <v>20417</v>
+        <v>18407</v>
       </c>
       <c r="G236" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I236" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J236" s="11">
         <v>0</v>
       </c>
       <c r="K236"/>
       <c r="L236" s="9"/>
-      <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
+      <c r="N236"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B237">
         <v>7</v>
@@ -10399,20 +10442,20 @@
         <v>278</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F237" s="12">
-        <v>19630</v>
+        <v>29623</v>
       </c>
       <c r="G237" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H237" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J237" s="11">
         <v>0</v>
@@ -10420,11 +10463,11 @@
       <c r="K237"/>
       <c r="L237" s="9"/>
       <c r="M237" s="2"/>
-      <c r="N237"/>
+      <c r="N237" s="2"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B238">
         <v>7</v>
@@ -10435,32 +10478,33 @@
       <c r="D238" t="s">
         <v>278</v>
       </c>
-      <c r="E238" s="6" t="s">
-        <v>14</v>
+      <c r="E238" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F238" s="12">
-        <v>21249</v>
+        <v>26205</v>
       </c>
       <c r="G238" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H238" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J238" s="11">
         <v>0</v>
       </c>
       <c r="K238"/>
       <c r="L238" s="9"/>
-      <c r="N238"/>
+      <c r="M238" s="8"/>
+      <c r="N238" s="2"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B239">
         <v>7</v>
@@ -10471,21 +10515,21 @@
       <c r="D239" t="s">
         <v>278</v>
       </c>
-      <c r="E239" s="6" t="s">
-        <v>17</v>
+      <c r="E239" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="F239" s="12">
-        <v>21269</v>
+        <v>23358</v>
       </c>
       <c r="G239" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H239" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I239" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J239" s="11">
         <v>0</v>
@@ -10497,7 +10541,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B240">
         <v>7</v>
@@ -10509,32 +10553,31 @@
         <v>278</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F240" s="12">
-        <v>29503</v>
+        <v>21011</v>
       </c>
       <c r="G240" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H240" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J240" s="11">
         <v>0</v>
       </c>
       <c r="K240"/>
       <c r="L240" s="9"/>
-      <c r="M240" s="2"/>
       <c r="N240"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B241">
         <v>7</v>
@@ -10546,14 +10589,14 @@
         <v>278</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="F241" s="12">
-        <v>26846</v>
+        <v>22529</v>
       </c>
       <c r="G241" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H241" t="s">
         <v>205</v>
@@ -10571,7 +10614,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="B242">
         <v>7</v>
@@ -10583,14 +10626,14 @@
         <v>278</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="F242" s="12">
-        <v>24000</v>
+        <v>28020</v>
       </c>
       <c r="G242" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H242" t="s">
         <v>205</v>
@@ -10608,7 +10651,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B243">
         <v>7</v>
@@ -10620,10 +10663,10 @@
         <v>278</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="F243" s="12">
-        <v>19943</v>
+        <v>20084</v>
       </c>
       <c r="G243" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
@@ -10644,7 +10687,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B244">
         <v>7</v>
@@ -10655,15 +10698,15 @@
       <c r="D244" t="s">
         <v>278</v>
       </c>
-      <c r="E244" s="6" t="s">
-        <v>55</v>
+      <c r="E244" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="F244" s="12">
-        <v>28122</v>
+        <v>28961</v>
       </c>
       <c r="G244" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H244" t="s">
         <v>205</v>
@@ -10681,7 +10724,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B245">
         <v>7</v>
@@ -10692,15 +10735,15 @@
       <c r="D245" t="s">
         <v>278</v>
       </c>
-      <c r="E245" s="6" t="s">
-        <v>62</v>
+      <c r="E245" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F245" s="12">
-        <v>29350</v>
+        <v>24451</v>
       </c>
       <c r="G245" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H245" t="s">
         <v>205</v>
@@ -10718,7 +10761,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246">
         <v>7</v>
@@ -10730,14 +10773,14 @@
         <v>278</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F246" s="12">
-        <v>29000</v>
+        <v>29350</v>
       </c>
       <c r="G246" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H246" t="s">
         <v>205</v>
@@ -10751,11 +10794,11 @@
       <c r="K246"/>
       <c r="L246" s="9"/>
       <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
+      <c r="N246"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B247">
         <v>7</v>
@@ -10767,14 +10810,14 @@
         <v>278</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F247" s="12">
-        <v>28805</v>
+        <v>21432</v>
       </c>
       <c r="G247" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H247" t="s">
         <v>205</v>
@@ -10787,12 +10830,11 @@
       </c>
       <c r="K247"/>
       <c r="L247" s="9"/>
-      <c r="M247" s="2"/>
       <c r="N247"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B248">
         <v>7</v>
@@ -10804,14 +10846,14 @@
         <v>278</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F248" s="12">
-        <v>20625</v>
+        <v>19943</v>
       </c>
       <c r="G248" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H248" t="s">
         <v>205</v>
@@ -10828,7 +10870,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B249">
         <v>7</v>
@@ -10839,15 +10881,15 @@
       <c r="D249" t="s">
         <v>278</v>
       </c>
-      <c r="E249" s="11" t="s">
-        <v>80</v>
+      <c r="E249" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F249" s="12">
-        <v>21011</v>
+        <v>29000</v>
       </c>
       <c r="G249" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H249" t="s">
         <v>205</v>
@@ -10860,11 +10902,12 @@
       </c>
       <c r="K249"/>
       <c r="L249" s="9"/>
-      <c r="N249"/>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B250">
         <v>7</v>
@@ -10876,14 +10919,14 @@
         <v>278</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="F250" s="12">
-        <v>29713</v>
+        <v>29014</v>
       </c>
       <c r="G250" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H250" t="s">
         <v>205</v>
@@ -10896,11 +10939,12 @@
       </c>
       <c r="K250"/>
       <c r="L250" s="9"/>
-      <c r="N250"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B251">
         <v>7</v>
@@ -10912,14 +10956,14 @@
         <v>278</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="F251" s="12">
-        <v>21432</v>
+        <v>29294</v>
       </c>
       <c r="G251" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H251" t="s">
         <v>205</v>
@@ -10932,11 +10976,12 @@
       </c>
       <c r="K251"/>
       <c r="L251" s="9"/>
-      <c r="N251"/>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B252">
         <v>7</v>
@@ -10948,14 +10993,14 @@
         <v>278</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F252" s="12">
-        <v>28961</v>
+        <v>26846</v>
       </c>
       <c r="G252" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H252" t="s">
         <v>205</v>
@@ -10969,11 +11014,11 @@
       <c r="K252"/>
       <c r="L252" s="9"/>
       <c r="M252" s="2"/>
-      <c r="N252" s="2"/>
+      <c r="N252"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B253">
         <v>7</v>
@@ -10984,15 +11029,15 @@
       <c r="D253" t="s">
         <v>278</v>
       </c>
-      <c r="E253" s="11" t="s">
-        <v>102</v>
+      <c r="E253" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="F253" s="12">
-        <v>25069</v>
+        <v>28122</v>
       </c>
       <c r="G253" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H253" t="s">
         <v>205</v>
@@ -11005,11 +11050,12 @@
       </c>
       <c r="K253"/>
       <c r="L253" s="9"/>
-      <c r="N253"/>
+      <c r="M253" s="2"/>
+      <c r="N253" s="2"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B254">
         <v>7</v>
@@ -11021,14 +11067,14 @@
         <v>278</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F254" s="12">
-        <v>24451</v>
+        <v>29713</v>
       </c>
       <c r="G254" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H254" t="s">
         <v>205</v>
@@ -11041,12 +11087,11 @@
       </c>
       <c r="K254"/>
       <c r="L254" s="9"/>
-      <c r="M254" s="2"/>
       <c r="N254"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -11057,15 +11102,15 @@
       <c r="D255" t="s">
         <v>278</v>
       </c>
-      <c r="E255" s="6" t="s">
-        <v>125</v>
+      <c r="E255" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F255" s="12">
-        <v>27834</v>
+        <v>19630</v>
       </c>
       <c r="G255" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H255" t="s">
         <v>205</v>
@@ -11078,11 +11123,12 @@
       </c>
       <c r="K255"/>
       <c r="L255" s="9"/>
+      <c r="M255" s="2"/>
       <c r="N255"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B256">
         <v>7</v>
@@ -11093,21 +11139,21 @@
       <c r="D256" t="s">
         <v>278</v>
       </c>
-      <c r="E256" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F256" s="12">
-        <v>18677</v>
+      <c r="E256" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F256" s="9">
+        <v>21554</v>
       </c>
       <c r="G256" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
-        <v>69</v>
-      </c>
-      <c r="H256" t="s">
-        <v>201</v>
+        <v>61</v>
+      </c>
+      <c r="H256" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J256" s="11">
         <v>0</v>
@@ -11155,7 +11201,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B258">
         <v>7</v>
@@ -11167,14 +11213,14 @@
         <v>278</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F258" s="12">
-        <v>20084</v>
+        <v>20625</v>
       </c>
       <c r="G258" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H258" t="s">
         <v>205</v>
@@ -11191,7 +11237,7 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>7</v>
@@ -11202,15 +11248,15 @@
       <c r="D259" t="s">
         <v>278</v>
       </c>
-      <c r="E259" s="11" t="s">
-        <v>137</v>
+      <c r="E259" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="F259" s="12">
-        <v>29014</v>
+        <v>27808</v>
       </c>
       <c r="G259" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H259" t="s">
         <v>205</v>
@@ -11223,12 +11269,11 @@
       </c>
       <c r="K259"/>
       <c r="L259" s="9"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
+      <c r="N259"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B260">
         <v>7</v>
@@ -11240,14 +11285,14 @@
         <v>278</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="F260" s="12">
-        <v>27808</v>
+        <v>21249</v>
       </c>
       <c r="G260" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H260" t="s">
         <v>205</v>
@@ -11264,7 +11309,7 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B261">
         <v>7</v>
@@ -11276,14 +11321,14 @@
         <v>278</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F261" s="12">
-        <v>29294</v>
+        <v>27834</v>
       </c>
       <c r="G261" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H261" t="s">
         <v>205</v>
@@ -11296,12 +11341,11 @@
       </c>
       <c r="K261"/>
       <c r="L261" s="9"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
+      <c r="N261"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B262">
         <v>7</v>
@@ -11313,14 +11357,14 @@
         <v>278</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F262" s="12">
-        <v>22529</v>
+        <v>25069</v>
       </c>
       <c r="G262" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H262" t="s">
         <v>205</v>
@@ -11333,12 +11377,11 @@
       </c>
       <c r="K262"/>
       <c r="L262" s="9"/>
-      <c r="M262" s="2"/>
       <c r="N262"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B263">
         <v>7</v>
@@ -11350,14 +11393,14 @@
         <v>278</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="F263" s="12">
-        <v>28020</v>
+        <v>21269</v>
       </c>
       <c r="G263" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H263" t="s">
         <v>205</v>
@@ -11371,11 +11414,11 @@
       <c r="K263"/>
       <c r="L263" s="9"/>
       <c r="M263" s="2"/>
-      <c r="N263"/>
+      <c r="N263" s="2"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B264">
         <v>7</v>
@@ -11387,16 +11430,16 @@
         <v>278</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F264" s="9">
-        <v>21554</v>
+        <v>44</v>
+      </c>
+      <c r="F264" s="12">
+        <v>24000</v>
       </c>
       <c r="G264" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
-        <v>61</v>
-      </c>
-      <c r="H264" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H264" t="s">
         <v>205</v>
       </c>
       <c r="I264" s="11" t="s">
@@ -11407,22 +11450,27 @@
       </c>
       <c r="K264"/>
       <c r="L264" s="9"/>
+      <c r="M264" s="2"/>
       <c r="N264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{CA21F026-2D6F-E04E-A7CB-C8C35E5BFFBC}">
+  <autoFilter ref="A1:N264" xr:uid="{CA21F026-2D6F-E04E-A7CB-C8C35E5BFFBC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
-      <sortCondition ref="K1"/>
+      <sortCondition ref="K1:K264"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N268">
+    <sortCondition ref="B2:B268"/>
+    <sortCondition ref="K2:K268"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M37" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
-    <hyperlink ref="M36" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
-    <hyperlink ref="M35" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
+    <hyperlink ref="M40" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
+    <hyperlink ref="M41" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
+    <hyperlink ref="M42" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
     <hyperlink ref="M3" r:id="rId4" xr:uid="{4634D10E-9CA3-436E-B233-50CC94520292}"/>
     <hyperlink ref="M2" r:id="rId5" xr:uid="{A049E81B-F121-49D7-93A2-FDF6958D3886}"/>
-    <hyperlink ref="M29" r:id="rId6" xr:uid="{EBF14EBC-130E-4E66-B259-89F35B39D1D9}"/>
+    <hyperlink ref="M24" r:id="rId6" xr:uid="{EBF14EBC-130E-4E66-B259-89F35B39D1D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B2012B-4228-4EF6-8B0B-E999F431A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BFA2F4-9D03-4AC4-929A-663D8975BFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="334">
   <si>
     <t>id</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>https://www.theclinic.cl/2020/12/17/parte-ii-presidenciables-y-sus-equipos-los-aprontes-de-la-carrera-a-la-moneda/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RafaelProhensE/status/1339973109026353154</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1424,7 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1551,7 @@
         <v>21157</v>
       </c>
       <c r="G3" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
+        <f t="shared" ref="G3:G66" ca="1" si="0">(YEAR(TODAY())-YEAR(F3))</f>
         <v>63</v>
       </c>
       <c r="H3" t="s">
@@ -1593,7 +1596,7 @@
         <v>15245</v>
       </c>
       <c r="G4" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>79</v>
       </c>
       <c r="H4" t="s">
@@ -1638,7 +1641,7 @@
         <v>26732</v>
       </c>
       <c r="G5" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="H5" t="s">
@@ -1683,7 +1686,7 @@
         <v>17801</v>
       </c>
       <c r="G6" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -1728,7 +1731,7 @@
         <v>22305</v>
       </c>
       <c r="G7" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1773,7 +1776,7 @@
         <v>24767</v>
       </c>
       <c r="G8" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="H8" t="s">
@@ -1818,7 +1821,7 @@
         <v>32101</v>
       </c>
       <c r="G9" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="H9" t="s">
@@ -1863,7 +1866,7 @@
         <v>20281</v>
       </c>
       <c r="G10" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
       <c r="H10" t="s">
@@ -1908,7 +1911,7 @@
         <v>22890</v>
       </c>
       <c r="G11" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="H11" t="s">
@@ -1953,7 +1956,7 @@
         <v>21079</v>
       </c>
       <c r="G12" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
       <c r="H12" t="s">
@@ -1998,7 +2001,7 @@
         <v>29549</v>
       </c>
       <c r="G13" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H13" t="s">
@@ -2043,7 +2046,7 @@
         <v>31817</v>
       </c>
       <c r="G14" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="H14" t="s">
@@ -2088,7 +2091,7 @@
         <v>19434</v>
       </c>
       <c r="G15" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>67</v>
       </c>
       <c r="H15" t="s">
@@ -2133,7 +2136,7 @@
         <v>27719</v>
       </c>
       <c r="G16" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H16" t="s">
@@ -2178,7 +2181,7 @@
         <v>26299</v>
       </c>
       <c r="G17" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="H17" t="s">
@@ -2223,7 +2226,7 @@
         <v>29287</v>
       </c>
       <c r="G18" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="H18" t="s">
@@ -2268,7 +2271,7 @@
         <v>25084</v>
       </c>
       <c r="G19" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H19" t="s">
@@ -2313,7 +2316,7 @@
         <v>24970</v>
       </c>
       <c r="G20" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -2358,7 +2361,7 @@
         <v>24689</v>
       </c>
       <c r="G21" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -2403,7 +2406,7 @@
         <v>27429</v>
       </c>
       <c r="G22" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -2430,32 +2433,32 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="12">
         <v>44132</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>88</v>
+        <v>277</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
       </c>
       <c r="F23" s="12">
-        <v>27763</v>
+        <v>20252</v>
       </c>
       <c r="G23" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
@@ -2464,10 +2467,10 @@
         <v>321</v>
       </c>
       <c r="L23" s="9">
-        <v>44135</v>
+        <v>44183</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>316</v>
@@ -2475,7 +2478,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2486,15 +2489,15 @@
       <c r="D24" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>99</v>
+      <c r="E24" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F24" s="12">
-        <v>21674</v>
+        <v>27763</v>
       </c>
       <c r="G24" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
         <v>201</v>
@@ -2509,18 +2512,18 @@
         <v>321</v>
       </c>
       <c r="L24" s="9">
-        <v>44133</v>
+        <v>44135</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N24" t="s">
+        <v>315</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2531,21 +2534,21 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>27</v>
+      <c r="E25" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F25" s="12">
-        <v>27492</v>
+        <v>21674</v>
       </c>
       <c r="G25" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J25" s="11">
         <v>1</v>
@@ -2554,18 +2557,18 @@
         <v>321</v>
       </c>
       <c r="L25" s="9">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N25" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2577,14 +2580,14 @@
         <v>278</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="F26" s="12">
-        <v>30097</v>
+        <v>27492</v>
       </c>
       <c r="G26" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
         <v>200</v>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2621,17 +2624,17 @@
       <c r="D27" t="s">
         <v>278</v>
       </c>
-      <c r="E27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="9">
-        <v>32980</v>
+      <c r="E27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="12">
+        <v>30097</v>
       </c>
       <c r="G27" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
-        <v>30</v>
-      </c>
-      <c r="H27" s="11" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
         <v>200</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -2655,7 +2658,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2666,17 +2669,17 @@
       <c r="D28" t="s">
         <v>278</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="12">
-        <v>24666</v>
+      <c r="E28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="9">
+        <v>32980</v>
       </c>
       <c r="G28" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
-        <v>53</v>
-      </c>
-      <c r="H28" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -2700,7 +2703,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2712,14 +2715,14 @@
         <v>278</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="F29" s="12">
-        <v>27004</v>
+        <v>24666</v>
       </c>
       <c r="G29" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
         <v>200</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -2757,14 +2760,14 @@
         <v>278</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="F30" s="12">
-        <v>29572</v>
+        <v>27004</v>
       </c>
       <c r="G30" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
         <v>200</v>
@@ -2790,7 +2793,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2801,15 +2804,15 @@
       <c r="D31" t="s">
         <v>278</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>101</v>
+      <c r="E31" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F31" s="12">
-        <v>24834</v>
+        <v>29572</v>
       </c>
       <c r="G31" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
         <v>200</v>
@@ -2835,28 +2838,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="12">
         <v>44132</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="12">
+        <v>24834</v>
       </c>
       <c r="G32" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
-        <v>64</v>
-      </c>
-      <c r="H32" s="11" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
         <v>200</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -2866,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L32" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>316</v>
@@ -2880,28 +2883,28 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" s="12">
         <v>44132</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="12">
-        <v>31990</v>
+        <v>274</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="9">
+        <v>20492</v>
       </c>
       <c r="G33" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -2925,7 +2928,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -2936,15 +2939,15 @@
       <c r="D34" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>115</v>
+      <c r="E34" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F34" s="12">
-        <v>31120</v>
+        <v>31990</v>
       </c>
       <c r="G34" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
         <v>200</v>
@@ -2959,10 +2962,10 @@
         <v>326</v>
       </c>
       <c r="L34" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>316</v>
@@ -2970,7 +2973,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2982,14 +2985,14 @@
         <v>278</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F35" s="12">
-        <v>26133</v>
+        <v>31120</v>
       </c>
       <c r="G35" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
         <v>200</v>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -3027,14 +3030,14 @@
         <v>278</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F36" s="12">
-        <v>22263</v>
+        <v>26133</v>
       </c>
       <c r="G36" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
         <v>200</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3072,14 +3075,14 @@
         <v>278</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F37" s="12">
-        <v>21548</v>
+        <v>22263</v>
       </c>
       <c r="G37" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>200</v>
@@ -3094,10 +3097,10 @@
         <v>326</v>
       </c>
       <c r="L37" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>316</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -3116,17 +3119,17 @@
       <c r="D38" t="s">
         <v>278</v>
       </c>
-      <c r="E38" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" s="9">
-        <v>31116</v>
+      <c r="E38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="12">
+        <v>21548</v>
       </c>
       <c r="G38" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>35</v>
-      </c>
-      <c r="H38" s="11" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
         <v>200</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -3139,10 +3142,10 @@
         <v>326</v>
       </c>
       <c r="L38" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>316</v>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3161,21 +3164,21 @@
       <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="12">
-        <v>28805</v>
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="9">
+        <v>31116</v>
       </c>
       <c r="G39" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>42</v>
-      </c>
-      <c r="H39" t="s">
-        <v>205</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
@@ -3184,10 +3187,10 @@
         <v>326</v>
       </c>
       <c r="L39" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>316</v>
@@ -3195,7 +3198,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3206,33 +3209,33 @@
       <c r="D40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>134</v>
+      <c r="E40" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="12">
-        <v>19343</v>
+        <v>28805</v>
       </c>
       <c r="G40" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L40" s="9">
-        <v>44144</v>
+        <v>44182</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>316</v>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3251,15 +3254,15 @@
       <c r="D41" t="s">
         <v>278</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>119</v>
+      <c r="E41" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F41" s="12">
-        <v>28018</v>
+        <v>19343</v>
       </c>
       <c r="G41" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>204</v>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3296,15 +3299,15 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>20</v>
+      <c r="E42" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F42" s="12">
-        <v>31247</v>
+        <v>28018</v>
       </c>
       <c r="G42" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="H42" t="s">
         <v>204</v>
@@ -3330,80 +3333,88 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="12">
+        <v>31247</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="J43" s="11">
         <v>1</v>
       </c>
-      <c r="C43" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D43" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" s="9">
-        <v>18233</v>
-      </c>
-      <c r="G43" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>71</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J43" s="11">
-        <v>0</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43" s="9"/>
-      <c r="N43"/>
+      <c r="K43" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="12">
         <v>44132</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F44" s="9">
-        <v>15516</v>
+        <v>18233</v>
       </c>
       <c r="G44" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J44" s="11">
         <v>0</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3415,20 +3426,20 @@
         <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="F45" s="9">
-        <v>13941</v>
+        <v>15516</v>
       </c>
       <c r="G45" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J45" s="11">
         <v>0</v>
@@ -3440,7 +3451,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3452,20 +3463,20 @@
         <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="F46" s="9">
-        <v>18900</v>
+        <v>13941</v>
       </c>
       <c r="G46" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J46" s="11">
         <v>0</v>
@@ -3477,32 +3488,32 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="12">
         <v>44132</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="F47" s="9">
-        <v>20120</v>
+        <v>18900</v>
       </c>
       <c r="G47" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="J47" s="11">
         <v>0</v>
@@ -3514,7 +3525,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -3526,14 +3537,14 @@
         <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="F48" s="9">
-        <v>26645</v>
+        <v>20120</v>
       </c>
       <c r="G48" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>206</v>
@@ -3551,7 +3562,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -3563,20 +3574,20 @@
         <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F49" s="9">
-        <v>20671</v>
+        <v>26645</v>
       </c>
       <c r="G49" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J49" s="11">
         <v>0</v>
@@ -3588,7 +3599,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -3600,14 +3611,14 @@
         <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F50" s="9">
-        <v>25134</v>
+        <v>20671</v>
       </c>
       <c r="G50" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>201</v>
@@ -3625,7 +3636,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3637,14 +3648,14 @@
         <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F51" s="9">
-        <v>22460</v>
+        <v>25134</v>
       </c>
       <c r="G51" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>201</v>
@@ -3662,7 +3673,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3674,14 +3685,14 @@
         <v>274</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F52" s="9">
-        <v>24724</v>
+        <v>22460</v>
       </c>
       <c r="G52" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>201</v>
@@ -3699,7 +3710,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3711,14 +3722,14 @@
         <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="F53" s="9">
-        <v>17815</v>
+        <v>24724</v>
       </c>
       <c r="G53" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>201</v>
@@ -3736,7 +3747,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3748,13 +3759,13 @@
         <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="F54" s="9">
-        <v>17779</v>
+        <v>17815</v>
       </c>
       <c r="G54" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="H54" s="11" t="s">
@@ -3773,7 +3784,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3785,14 +3796,14 @@
         <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="F55" s="9">
-        <v>27681</v>
+        <v>17779</v>
       </c>
       <c r="G55" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>201</v>
@@ -3810,7 +3821,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3822,14 +3833,14 @@
         <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F56" s="9">
-        <v>28232</v>
+        <v>27681</v>
       </c>
       <c r="G56" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>201</v>
@@ -3847,7 +3858,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3859,14 +3870,14 @@
         <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F57" s="9">
-        <v>27653</v>
+        <v>28232</v>
       </c>
       <c r="G57" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>201</v>
@@ -3884,7 +3895,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3896,13 +3907,13 @@
         <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="F58" s="9">
-        <v>27474</v>
+        <v>27653</v>
       </c>
       <c r="G58" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="H58" s="11" t="s">
@@ -3921,7 +3932,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3933,20 +3944,20 @@
         <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F59" s="9">
-        <v>21368</v>
+        <v>27474</v>
       </c>
       <c r="G59" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
@@ -3958,7 +3969,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3970,14 +3981,14 @@
         <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F60" s="9">
-        <v>27295</v>
+        <v>21368</v>
       </c>
       <c r="G60" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>200</v>
@@ -3995,7 +4006,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -4006,17 +4017,17 @@
       <c r="D61" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="12">
-        <v>25126</v>
+      <c r="E61" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="9">
+        <v>27295</v>
       </c>
       <c r="G61" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>52</v>
-      </c>
-      <c r="H61" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I61" s="11" t="s">
@@ -4032,7 +4043,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4043,21 +4054,21 @@
       <c r="D62" t="s">
         <v>274</v>
       </c>
-      <c r="E62" t="s">
-        <v>309</v>
-      </c>
-      <c r="F62" s="9">
-        <v>26556</v>
+      <c r="E62" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="12">
+        <v>25126</v>
       </c>
       <c r="G62" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>48</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>205</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>200</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
@@ -4069,7 +4080,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4081,14 +4092,14 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="F63" s="9">
-        <v>17431</v>
+        <v>26556</v>
       </c>
       <c r="G63" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>205</v>
@@ -4106,7 +4117,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4117,17 +4128,17 @@
       <c r="D64" t="s">
         <v>274</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="12">
-        <v>29554</v>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" s="9">
+        <v>17431</v>
       </c>
       <c r="G64" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>40</v>
-      </c>
-      <c r="H64" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I64" s="11" t="s">
@@ -4143,7 +4154,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4154,17 +4165,17 @@
       <c r="D65" t="s">
         <v>274</v>
       </c>
-      <c r="E65" t="s">
-        <v>220</v>
-      </c>
-      <c r="F65" s="9">
-        <v>32557</v>
+      <c r="E65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="12">
+        <v>29554</v>
       </c>
       <c r="G65" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>31</v>
-      </c>
-      <c r="H65" s="11" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H65" t="s">
         <v>205</v>
       </c>
       <c r="I65" s="11" t="s">
@@ -4180,7 +4191,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4192,14 +4203,14 @@
         <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="F66" s="9">
-        <v>27105</v>
+        <v>32557</v>
       </c>
       <c r="G66" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>205</v>
@@ -4217,7 +4228,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4229,14 +4240,14 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F67" s="9">
-        <v>22770</v>
+        <v>27105</v>
       </c>
       <c r="G67" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>58</v>
+        <f t="shared" ref="G67:G130" ca="1" si="1">(YEAR(TODAY())-YEAR(F67))</f>
+        <v>46</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>205</v>
@@ -4254,7 +4265,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4266,14 +4277,14 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="F68" s="9">
-        <v>20015</v>
+        <v>22770</v>
       </c>
       <c r="G68" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>205</v>
@@ -4291,43 +4302,44 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="12">
         <v>44132</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F69" s="9">
-        <v>25454</v>
+        <v>20015</v>
       </c>
       <c r="G69" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69"/>
       <c r="L69" s="9"/>
-      <c r="N69"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4339,14 +4351,14 @@
         <v>275</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F70" s="9">
-        <v>30994</v>
+        <v>25454</v>
       </c>
       <c r="G70" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>206</v>
@@ -4363,7 +4375,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -4375,15 +4387,20 @@
         <v>275</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10"/>
+        <v>258</v>
+      </c>
+      <c r="F71" s="9">
+        <v>30994</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
       <c r="H71" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4394,7 +4411,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -4406,14 +4423,12 @@
         <v>275</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
-      </c>
-      <c r="F72" s="9">
-        <v>19642</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>201</v>
@@ -4430,7 +4445,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -4442,10 +4457,15 @@
         <v>275</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
+        <v>252</v>
+      </c>
+      <c r="F73" s="9">
+        <v>19642</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
       <c r="H73" s="11" t="s">
         <v>201</v>
       </c>
@@ -4461,7 +4481,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -4473,15 +4493,18 @@
         <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
       <c r="H74" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
@@ -4492,7 +4515,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4504,14 +4527,12 @@
         <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="9">
-        <v>18048</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F75" s="9"/>
       <c r="G75" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>200</v>
@@ -4528,7 +4549,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4540,14 +4561,14 @@
         <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F76" s="9">
-        <v>26622</v>
+        <v>18048</v>
       </c>
       <c r="G76" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>200</v>
@@ -4564,7 +4585,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4576,14 +4597,14 @@
         <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F77" s="9">
-        <v>29935</v>
+        <v>26622</v>
       </c>
       <c r="G77" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>200</v>
@@ -4600,7 +4621,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4612,10 +4633,15 @@
         <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
+        <v>262</v>
+      </c>
+      <c r="F78" s="9">
+        <v>29935</v>
+      </c>
+      <c r="G78" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
       <c r="H78" s="11" t="s">
         <v>200</v>
       </c>
@@ -4631,7 +4657,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -4643,20 +4669,18 @@
         <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>267</v>
-      </c>
-      <c r="F79" s="9">
-        <v>27655</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F79" s="9"/>
       <c r="G79" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J79" s="11">
         <v>0</v>
@@ -4667,7 +4691,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4679,14 +4703,14 @@
         <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F80" s="9">
-        <v>25492</v>
+        <v>27655</v>
       </c>
       <c r="G80" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>205</v>
@@ -4703,7 +4727,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4715,14 +4739,14 @@
         <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F81" s="9">
-        <v>22881</v>
+        <v>25492</v>
       </c>
       <c r="G81" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>205</v>
@@ -4739,7 +4763,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4751,14 +4775,14 @@
         <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F82" s="9">
-        <v>20806</v>
+        <v>22881</v>
       </c>
       <c r="G82" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>205</v>
@@ -4775,7 +4799,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4787,14 +4811,14 @@
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F83" s="9">
-        <v>29105</v>
+        <v>20806</v>
       </c>
       <c r="G83" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>205</v>
@@ -4811,44 +4835,43 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="12">
         <v>44132</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F84" s="9">
-        <v>28422</v>
+        <v>29105</v>
       </c>
       <c r="G84" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="9"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4860,10 +4883,15 @@
         <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="F85" s="9">
+        <v>28422</v>
+      </c>
+      <c r="G85" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
       <c r="H85" s="11" t="s">
         <v>204</v>
       </c>
@@ -4880,7 +4908,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4892,20 +4920,18 @@
         <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
-      </c>
-      <c r="F86" s="9">
-        <v>26763</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
@@ -4917,7 +4943,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4929,14 +4955,14 @@
         <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F87" s="9">
-        <v>31131</v>
+        <v>26763</v>
       </c>
       <c r="G87" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>201</v>
@@ -4954,7 +4980,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4966,14 +4992,14 @@
         <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F88" s="9">
-        <v>20899</v>
+        <v>31131</v>
       </c>
       <c r="G88" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>201</v>
@@ -4986,11 +5012,12 @@
       </c>
       <c r="K88"/>
       <c r="L88" s="9"/>
-      <c r="N88"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -5002,14 +5029,14 @@
         <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F89" s="9">
-        <v>25265</v>
+        <v>20899</v>
       </c>
       <c r="G89" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>201</v>
@@ -5022,12 +5049,11 @@
       </c>
       <c r="K89"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -5039,10 +5065,15 @@
         <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>248</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
+        <v>246</v>
+      </c>
+      <c r="F90" s="9">
+        <v>25265</v>
+      </c>
+      <c r="G90" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
       <c r="H90" s="11" t="s">
         <v>201</v>
       </c>
@@ -5054,11 +5085,12 @@
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="N90"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -5070,14 +5102,12 @@
         <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
-      </c>
-      <c r="F91" s="9">
-        <v>26090</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>201</v>
@@ -5090,12 +5120,11 @@
       </c>
       <c r="K91"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5107,20 +5136,20 @@
         <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F92" s="9">
-        <v>28694</v>
+        <v>26090</v>
       </c>
       <c r="G92" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
@@ -5132,7 +5161,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5144,20 +5173,20 @@
         <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F93" s="9">
-        <v>34561</v>
+        <v>28694</v>
       </c>
       <c r="G93" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5169,7 +5198,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5181,15 +5210,20 @@
         <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>251</v>
-      </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="10"/>
+        <v>266</v>
+      </c>
+      <c r="F94" s="9">
+        <v>34561</v>
+      </c>
+      <c r="G94" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
       <c r="H94" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
@@ -5201,7 +5235,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5213,10 +5247,13 @@
         <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="10"/>
+      <c r="G95" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
       <c r="H95" s="11" t="s">
         <v>202</v>
       </c>
@@ -5233,7 +5270,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5245,10 +5282,13 @@
         <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
+      <c r="G96" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
       <c r="H96" s="11" t="s">
         <v>202</v>
       </c>
@@ -5265,7 +5305,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5277,31 +5317,30 @@
         <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>250</v>
-      </c>
-      <c r="F97" s="9">
-        <v>27845</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F97" s="9"/>
       <c r="G97" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="N97"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5313,14 +5352,14 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F98" s="9">
-        <v>27116</v>
+        <v>27845</v>
       </c>
       <c r="G98" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>200</v>
@@ -5333,12 +5372,11 @@
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5350,10 +5388,15 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="10"/>
+        <v>232</v>
+      </c>
+      <c r="F99" s="9">
+        <v>27116</v>
+      </c>
+      <c r="G99" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
       <c r="H99" s="11" t="s">
         <v>200</v>
       </c>
@@ -5365,11 +5408,12 @@
       </c>
       <c r="K99"/>
       <c r="L99" s="9"/>
-      <c r="N99"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5381,14 +5425,12 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>240</v>
-      </c>
-      <c r="F100" s="9">
-        <v>22196</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>200</v>
@@ -5405,7 +5447,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5417,14 +5459,14 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F101" s="9">
-        <v>19005</v>
+        <v>22196</v>
       </c>
       <c r="G101" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>200</v>
@@ -5441,7 +5483,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5453,32 +5495,31 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F102" s="9">
-        <v>19655</v>
+        <v>19005</v>
       </c>
       <c r="G102" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5490,14 +5531,14 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F103" s="9">
-        <v>14442</v>
+        <v>19655</v>
       </c>
       <c r="G103" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>205</v>
@@ -5515,32 +5556,32 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" s="12">
         <v>44132</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
-      </c>
-      <c r="F104" s="12">
-        <v>26653</v>
+        <v>236</v>
+      </c>
+      <c r="F104" s="9">
+        <v>14442</v>
       </c>
       <c r="G104" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5552,7 +5593,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -5563,17 +5604,17 @@
       <c r="D105" t="s">
         <v>277</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>166</v>
+      <c r="E105" t="s">
+        <v>185</v>
       </c>
       <c r="F105" s="12">
-        <v>16153</v>
+        <v>26653</v>
       </c>
       <c r="G105" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>76</v>
-      </c>
-      <c r="H105" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H105" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I105" s="11" t="s">
@@ -5589,7 +5630,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5600,17 +5641,17 @@
       <c r="D106" t="s">
         <v>277</v>
       </c>
-      <c r="E106" t="s">
-        <v>194</v>
+      <c r="E106" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F106" s="12">
-        <v>19105</v>
+        <v>16153</v>
       </c>
       <c r="G106" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>68</v>
-      </c>
-      <c r="H106" s="11" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H106" t="s">
         <v>204</v>
       </c>
       <c r="I106" s="11" t="s">
@@ -5626,7 +5667,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5637,17 +5678,17 @@
       <c r="D107" t="s">
         <v>277</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>179</v>
+      <c r="E107" t="s">
+        <v>194</v>
       </c>
       <c r="F107" s="12">
-        <v>25024</v>
+        <v>19105</v>
       </c>
       <c r="G107" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>52</v>
-      </c>
-      <c r="H107" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="H107" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I107" s="11" t="s">
@@ -5663,7 +5704,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -5674,33 +5715,33 @@
       <c r="D108" t="s">
         <v>277</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>178</v>
+      <c r="E108" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F108" s="12">
-        <v>28285</v>
+        <v>25024</v>
       </c>
       <c r="G108" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="9"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5711,33 +5752,33 @@
       <c r="D109" t="s">
         <v>277</v>
       </c>
-      <c r="E109" t="s">
-        <v>186</v>
+      <c r="E109" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F109" s="12">
-        <v>19423</v>
+        <v>28285</v>
       </c>
       <c r="G109" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>67</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>201</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H109" t="s">
+        <v>206</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5749,14 +5790,14 @@
         <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F110" s="12">
-        <v>22224</v>
+        <v>19423</v>
       </c>
       <c r="G110" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>201</v>
@@ -5770,11 +5811,11 @@
       <c r="K110"/>
       <c r="L110" s="9"/>
       <c r="M110" s="2"/>
-      <c r="N110"/>
+      <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -5786,16 +5827,16 @@
         <v>277</v>
       </c>
       <c r="E111" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F111" s="12">
-        <v>24478</v>
+        <v>22224</v>
       </c>
       <c r="G111" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>53</v>
-      </c>
-      <c r="H111" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H111" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I111" s="11" t="s">
@@ -5806,12 +5847,12 @@
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -5823,14 +5864,14 @@
         <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F112" s="12">
-        <v>21845</v>
+        <v>24478</v>
       </c>
       <c r="G112" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
       </c>
       <c r="H112" t="s">
         <v>201</v>
@@ -5843,12 +5884,12 @@
       </c>
       <c r="K112"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="2"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5860,16 +5901,16 @@
         <v>277</v>
       </c>
       <c r="E113" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F113" s="12">
-        <v>27196</v>
+        <v>21845</v>
       </c>
       <c r="G113" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>46</v>
-      </c>
-      <c r="H113" s="11" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H113" t="s">
         <v>201</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -5881,11 +5922,11 @@
       <c r="K113"/>
       <c r="L113" s="9"/>
       <c r="M113" s="2"/>
-      <c r="N113"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -5897,20 +5938,20 @@
         <v>277</v>
       </c>
       <c r="E114" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F114" s="12">
-        <v>26500</v>
+        <v>27196</v>
       </c>
       <c r="G114" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
@@ -5918,11 +5959,11 @@
       <c r="K114"/>
       <c r="L114" s="9"/>
       <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+      <c r="N114"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -5933,17 +5974,17 @@
       <c r="D115" t="s">
         <v>277</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>180</v>
+      <c r="E115" t="s">
+        <v>187</v>
       </c>
       <c r="F115" s="12">
-        <v>13455</v>
+        <v>26500</v>
       </c>
       <c r="G115" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>84</v>
-      </c>
-      <c r="H115" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H115" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I115" s="11" t="s">
@@ -5959,7 +6000,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B116">
         <v>6</v>
@@ -5970,15 +6011,15 @@
       <c r="D116" t="s">
         <v>277</v>
       </c>
-      <c r="E116" t="s">
-        <v>168</v>
+      <c r="E116" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F116" s="12">
-        <v>22698</v>
+        <v>13455</v>
       </c>
       <c r="G116" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
       </c>
       <c r="H116" t="s">
         <v>203</v>
@@ -5996,7 +6037,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -6008,20 +6049,20 @@
         <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F117" s="12">
-        <v>21509</v>
+        <v>22698</v>
       </c>
       <c r="G117" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>62</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>310</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H117" t="s">
+        <v>203</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
@@ -6033,7 +6074,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -6045,20 +6086,20 @@
         <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F118" s="12">
-        <v>24173</v>
+        <v>21509</v>
       </c>
       <c r="G118" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
@@ -6070,7 +6111,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6082,16 +6123,16 @@
         <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F119" s="12">
-        <v>25491</v>
+        <v>24173</v>
       </c>
       <c r="G119" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>51</v>
-      </c>
-      <c r="H119" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H119" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I119" s="11" t="s">
@@ -6107,7 +6148,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6119,16 +6160,16 @@
         <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F120" s="12">
-        <v>16933</v>
+        <v>25491</v>
       </c>
       <c r="G120" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>74</v>
-      </c>
-      <c r="H120" s="11" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H120" t="s">
         <v>202</v>
       </c>
       <c r="I120" s="11" t="s">
@@ -6144,7 +6185,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6156,16 +6197,16 @@
         <v>277</v>
       </c>
       <c r="E121" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F121" s="12">
-        <v>16455</v>
+        <v>16933</v>
       </c>
       <c r="G121" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>75</v>
-      </c>
-      <c r="H121" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="H121" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I121" s="11" t="s">
@@ -6181,7 +6222,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6192,15 +6233,15 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>167</v>
+      <c r="E122" t="s">
+        <v>176</v>
       </c>
       <c r="F122" s="12">
-        <v>15859</v>
+        <v>16455</v>
       </c>
       <c r="G122" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
       </c>
       <c r="H122" t="s">
         <v>202</v>
@@ -6218,7 +6259,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6229,17 +6270,17 @@
       <c r="D123" t="s">
         <v>277</v>
       </c>
-      <c r="E123" t="s">
-        <v>188</v>
+      <c r="E123" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F123" s="12">
-        <v>22288</v>
+        <v>15859</v>
       </c>
       <c r="G123" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>59</v>
-      </c>
-      <c r="H123" s="11" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="H123" t="s">
         <v>202</v>
       </c>
       <c r="I123" s="11" t="s">
@@ -6255,7 +6296,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6267,14 +6308,14 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F124" s="12">
-        <v>16010</v>
+        <v>22288</v>
       </c>
       <c r="G124" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>202</v>
@@ -6292,7 +6333,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6304,20 +6345,20 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F125" s="12">
-        <v>28573</v>
+        <v>16010</v>
       </c>
       <c r="G125" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>42</v>
-      </c>
-      <c r="H125" t="s">
-        <v>207</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J125" s="11">
         <v>0</v>
@@ -6329,7 +6370,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6340,33 +6381,33 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>160</v>
+      <c r="E126" t="s">
+        <v>169</v>
       </c>
       <c r="F126" s="12">
-        <v>26073</v>
+        <v>28573</v>
       </c>
       <c r="G126" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="H126" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J126" s="11">
         <v>0</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="8"/>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6377,15 +6418,15 @@
       <c r="D127" t="s">
         <v>277</v>
       </c>
-      <c r="E127" t="s">
-        <v>165</v>
+      <c r="E127" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F127" s="12">
-        <v>20231</v>
+        <v>26073</v>
       </c>
       <c r="G127" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="H127" t="s">
         <v>200</v>
@@ -6403,7 +6444,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6415,14 +6456,14 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F128" s="12">
-        <v>21855</v>
+        <v>20231</v>
       </c>
       <c r="G128" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="H128" t="s">
         <v>200</v>
@@ -6435,12 +6476,12 @@
       </c>
       <c r="K128"/>
       <c r="L128" s="9"/>
-      <c r="M128" s="2"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6452,16 +6493,16 @@
         <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F129" s="12">
-        <v>22882</v>
+        <v>21855</v>
       </c>
       <c r="G129" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>58</v>
-      </c>
-      <c r="H129" s="11" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H129" t="s">
         <v>200</v>
       </c>
       <c r="I129" s="11" t="s">
@@ -6477,7 +6518,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6488,17 +6529,17 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>108</v>
+      <c r="E130" t="s">
+        <v>193</v>
       </c>
       <c r="F130" s="12">
-        <v>29680</v>
+        <v>22882</v>
       </c>
       <c r="G130" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>39</v>
-      </c>
-      <c r="H130" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H130" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I130" s="11" t="s">
@@ -6514,7 +6555,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6525,15 +6566,15 @@
       <c r="D131" t="s">
         <v>277</v>
       </c>
-      <c r="E131" t="s">
-        <v>171</v>
+      <c r="E131" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F131" s="12">
-        <v>20252</v>
+        <v>29680</v>
       </c>
       <c r="G131" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>65</v>
+        <f t="shared" ref="G131:G194" ca="1" si="2">(YEAR(TODAY())-YEAR(F131))</f>
+        <v>39</v>
       </c>
       <c r="H131" t="s">
         <v>200</v>
@@ -6569,7 +6610,7 @@
         <v>24414</v>
       </c>
       <c r="G132" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="H132" t="s">
@@ -6606,7 +6647,7 @@
         <v>19103</v>
       </c>
       <c r="G133" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H133" s="11" t="s">
@@ -6643,7 +6684,7 @@
         <v>21953</v>
       </c>
       <c r="G134" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H134" s="11" t="s">
@@ -6679,7 +6720,7 @@
         <v>19287</v>
       </c>
       <c r="G135" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>68</v>
       </c>
       <c r="H135" t="s">
@@ -6716,7 +6757,7 @@
         <v>27361</v>
       </c>
       <c r="G136" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
       <c r="H136" s="11" t="s">
@@ -6753,7 +6794,7 @@
         <v>20797</v>
       </c>
       <c r="G137" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H137" s="11" t="s">
@@ -6790,7 +6831,7 @@
         <v>23776</v>
       </c>
       <c r="G138" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H138" s="11" t="s">
@@ -6827,7 +6868,7 @@
         <v>22094</v>
       </c>
       <c r="G139" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H139" t="s">
@@ -6864,7 +6905,7 @@
         <v>20651</v>
       </c>
       <c r="G140" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H140" t="s">
@@ -6901,7 +6942,7 @@
         <v>23444</v>
       </c>
       <c r="G141" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="H141" t="s">
@@ -6938,7 +6979,7 @@
         <v>33308</v>
       </c>
       <c r="G142" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
       <c r="H142" t="s">
@@ -6975,7 +7016,7 @@
         <v>25397</v>
       </c>
       <c r="G143" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
       <c r="H143" t="s">
@@ -7012,7 +7053,7 @@
         <v>32533</v>
       </c>
       <c r="G144" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31</v>
       </c>
       <c r="H144" t="s">
@@ -7049,7 +7090,7 @@
         <v>31454</v>
       </c>
       <c r="G145" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="H145" t="s">
@@ -7086,7 +7127,7 @@
         <v>32481</v>
       </c>
       <c r="G146" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="H146" t="s">
@@ -7123,7 +7164,7 @@
         <v>31783</v>
       </c>
       <c r="G147" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="H147" t="s">
@@ -7160,7 +7201,7 @@
         <v>19657</v>
       </c>
       <c r="G148" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>67</v>
       </c>
       <c r="H148" t="s">
@@ -7197,7 +7238,7 @@
         <v>20255</v>
       </c>
       <c r="G149" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H149" t="s">
@@ -7234,7 +7275,7 @@
         <v>27851</v>
       </c>
       <c r="G150" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="H150" t="s">
@@ -7271,7 +7312,7 @@
         <v>23371</v>
       </c>
       <c r="G151" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="H151" t="s">
@@ -7308,7 +7349,7 @@
         <v>15302</v>
       </c>
       <c r="G152" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
       <c r="H152" t="s">
@@ -7345,7 +7386,7 @@
         <v>17116</v>
       </c>
       <c r="G153" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="H153" t="s">
@@ -7382,7 +7423,7 @@
         <v>26864</v>
       </c>
       <c r="G154" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H154" t="s">
@@ -7419,7 +7460,7 @@
         <v>27678</v>
       </c>
       <c r="G155" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
       <c r="H155" t="s">
@@ -7456,7 +7497,7 @@
         <v>23332</v>
       </c>
       <c r="G156" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="H156" t="s">
@@ -7493,7 +7534,7 @@
         <v>24014</v>
       </c>
       <c r="G157" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H157" t="s">
@@ -7530,7 +7571,7 @@
         <v>25750</v>
       </c>
       <c r="G158" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="H158" t="s">
@@ -7567,7 +7608,7 @@
         <v>26900</v>
       </c>
       <c r="G159" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H159" t="s">
@@ -7604,7 +7645,7 @@
         <v>25885</v>
       </c>
       <c r="G160" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="H160" t="s">
@@ -7641,7 +7682,7 @@
         <v>26709</v>
       </c>
       <c r="G161" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>47</v>
       </c>
       <c r="H161" t="s">
@@ -7678,7 +7719,7 @@
         <v>24059</v>
       </c>
       <c r="G162" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="H162" t="s">
@@ -7715,7 +7756,7 @@
         <v>23006</v>
       </c>
       <c r="G163" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="H163" t="s">
@@ -7752,7 +7793,7 @@
         <v>23226</v>
       </c>
       <c r="G164" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="H164" t="s">
@@ -7789,7 +7830,7 @@
         <v>29503</v>
       </c>
       <c r="G165" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
       <c r="H165" t="s">
@@ -7826,7 +7867,7 @@
         <v>16390</v>
       </c>
       <c r="G166" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>76</v>
       </c>
       <c r="H166" t="s">
@@ -7863,7 +7904,7 @@
         <v>16997</v>
       </c>
       <c r="G167" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>74</v>
       </c>
       <c r="H167" t="s">
@@ -7900,7 +7941,7 @@
         <v>30347</v>
       </c>
       <c r="G168" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="H168" t="s">
@@ -7937,7 +7978,7 @@
         <v>25970</v>
       </c>
       <c r="G169" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="H169" t="s">
@@ -7974,7 +8015,7 @@
         <v>18196</v>
       </c>
       <c r="G170" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>71</v>
       </c>
       <c r="H170" t="s">
@@ -8011,7 +8052,7 @@
         <v>24964</v>
       </c>
       <c r="G171" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="H171" t="s">
@@ -8048,7 +8089,7 @@
         <v>23594</v>
       </c>
       <c r="G172" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
       <c r="H172" t="s">
@@ -8085,7 +8126,7 @@
         <v>20885</v>
       </c>
       <c r="G173" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="H173" t="s">
@@ -8122,7 +8163,7 @@
         <v>31562</v>
       </c>
       <c r="G174" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="H174" t="s">
@@ -8159,7 +8200,7 @@
         <v>21338</v>
       </c>
       <c r="G175" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="H175" t="s">
@@ -8196,7 +8237,7 @@
         <v>20371</v>
       </c>
       <c r="G176" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H176" t="s">
@@ -8233,7 +8274,7 @@
         <v>20417</v>
       </c>
       <c r="G177" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
       <c r="H177" t="s">
@@ -8270,7 +8311,7 @@
         <v>20655</v>
       </c>
       <c r="G178" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
       <c r="H178" t="s">
@@ -8307,7 +8348,7 @@
         <v>18677</v>
       </c>
       <c r="G179" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
       <c r="H179" t="s">
@@ -8343,7 +8384,7 @@
         <v>18196</v>
       </c>
       <c r="G180" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>71</v>
       </c>
       <c r="H180" t="s">
@@ -8380,7 +8421,7 @@
         <v>25691</v>
       </c>
       <c r="G181" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
       <c r="H181" t="s">
@@ -8417,7 +8458,7 @@
         <v>32261</v>
       </c>
       <c r="G182" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="H182" t="s">
@@ -8454,7 +8495,7 @@
         <v>16607</v>
       </c>
       <c r="G183" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="H183" t="s">
@@ -8491,7 +8532,7 @@
         <v>25940</v>
       </c>
       <c r="G184" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
       <c r="H184" t="s">
@@ -8528,7 +8569,7 @@
         <v>16008</v>
       </c>
       <c r="G185" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77</v>
       </c>
       <c r="H185" t="s">
@@ -8565,7 +8606,7 @@
         <v>22559</v>
       </c>
       <c r="G186" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
       <c r="H186" t="s">
@@ -8602,7 +8643,7 @@
         <v>31868</v>
       </c>
       <c r="G187" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="H187" t="s">
@@ -8639,7 +8680,7 @@
         <v>27508</v>
       </c>
       <c r="G188" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
       <c r="H188" t="s">
@@ -8676,7 +8717,7 @@
         <v>26445</v>
       </c>
       <c r="G189" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>48</v>
       </c>
       <c r="H189" t="s">
@@ -8713,7 +8754,7 @@
         <v>22250</v>
       </c>
       <c r="G190" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="H190" t="s">
@@ -8750,7 +8791,7 @@
         <v>16725</v>
       </c>
       <c r="G191" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>75</v>
       </c>
       <c r="H191" t="s">
@@ -8787,7 +8828,7 @@
         <v>28888</v>
       </c>
       <c r="G192" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
       <c r="H192" t="s">
@@ -8824,7 +8865,7 @@
         <v>31920</v>
       </c>
       <c r="G193" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
       <c r="H193" t="s">
@@ -8861,7 +8902,7 @@
         <v>24717</v>
       </c>
       <c r="G194" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="H194" t="s">
@@ -8898,7 +8939,7 @@
         <v>23367</v>
       </c>
       <c r="G195" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
+        <f t="shared" ref="G195:G258" ca="1" si="3">(YEAR(TODAY())-YEAR(F195))</f>
         <v>57</v>
       </c>
       <c r="H195" t="s">
@@ -8935,7 +8976,7 @@
         <v>22655</v>
       </c>
       <c r="G196" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>58</v>
       </c>
       <c r="H196" t="s">
@@ -8972,7 +9013,7 @@
         <v>26802</v>
       </c>
       <c r="G197" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H197" t="s">
@@ -9009,7 +9050,7 @@
         <v>25566</v>
       </c>
       <c r="G198" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>51</v>
       </c>
       <c r="H198" t="s">
@@ -9046,7 +9087,7 @@
         <v>21970</v>
       </c>
       <c r="G199" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H199" t="s">
@@ -9083,7 +9124,7 @@
         <v>14974</v>
       </c>
       <c r="G200" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>80</v>
       </c>
       <c r="H200" t="s">
@@ -9120,7 +9161,7 @@
         <v>21958</v>
       </c>
       <c r="G201" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H201" t="s">
@@ -9157,7 +9198,7 @@
         <v>32142</v>
       </c>
       <c r="G202" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H202" t="s">
@@ -9194,7 +9235,7 @@
         <v>25067</v>
       </c>
       <c r="G203" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="H203" t="s">
@@ -9231,7 +9272,7 @@
         <v>25592</v>
       </c>
       <c r="G204" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H204" t="s">
@@ -9268,7 +9309,7 @@
         <v>20415</v>
       </c>
       <c r="G205" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H205" t="s">
@@ -9305,7 +9346,7 @@
         <v>18640</v>
       </c>
       <c r="G206" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="H206" t="s">
@@ -9342,7 +9383,7 @@
         <v>14047</v>
       </c>
       <c r="G207" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>82</v>
       </c>
       <c r="H207" t="s">
@@ -9379,7 +9420,7 @@
         <v>27118</v>
       </c>
       <c r="G208" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H208" t="s">
@@ -9416,7 +9457,7 @@
         <v>22024</v>
       </c>
       <c r="G209" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>60</v>
       </c>
       <c r="H209" t="s">
@@ -9453,7 +9494,7 @@
         <v>32771</v>
       </c>
       <c r="G210" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>31</v>
       </c>
       <c r="H210" t="s">
@@ -9490,7 +9531,7 @@
         <v>24242</v>
       </c>
       <c r="G211" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="H211" t="s">
@@ -9527,7 +9568,7 @@
         <v>21445</v>
       </c>
       <c r="G212" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="H212" t="s">
@@ -9564,7 +9605,7 @@
         <v>23902</v>
       </c>
       <c r="G213" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="H213" t="s">
@@ -9601,7 +9642,7 @@
         <v>18036</v>
       </c>
       <c r="G214" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>71</v>
       </c>
       <c r="H214" t="s">
@@ -9638,7 +9679,7 @@
         <v>25846</v>
       </c>
       <c r="G215" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>50</v>
       </c>
       <c r="H215" t="s">
@@ -9675,7 +9716,7 @@
         <v>26203</v>
       </c>
       <c r="G216" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H216" t="s">
@@ -9712,7 +9753,7 @@
         <v>27112</v>
       </c>
       <c r="G217" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H217" t="s">
@@ -9749,7 +9790,7 @@
         <v>18781</v>
       </c>
       <c r="G218" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="H218" t="s">
@@ -9786,7 +9827,7 @@
         <v>33225</v>
       </c>
       <c r="G219" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="H219" t="s">
@@ -9823,7 +9864,7 @@
         <v>31814</v>
       </c>
       <c r="G220" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>33</v>
       </c>
       <c r="H220" t="s">
@@ -9860,7 +9901,7 @@
         <v>32885</v>
       </c>
       <c r="G221" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>30</v>
       </c>
       <c r="H221" t="s">
@@ -9897,7 +9938,7 @@
         <v>32196</v>
       </c>
       <c r="G222" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
       <c r="H222" t="s">
@@ -9934,7 +9975,7 @@
         <v>31146</v>
       </c>
       <c r="G223" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="H223" t="s">
@@ -9971,7 +10012,7 @@
         <v>30164</v>
       </c>
       <c r="G224" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
       <c r="H224" t="s">
@@ -10008,7 +10049,7 @@
         <v>30491</v>
       </c>
       <c r="G225" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>37</v>
       </c>
       <c r="H225" t="s">
@@ -10045,7 +10086,7 @@
         <v>23941</v>
       </c>
       <c r="G226" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
       <c r="H226" t="s">
@@ -10081,7 +10122,7 @@
         <v>17079</v>
       </c>
       <c r="G227" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
       <c r="H227" t="s">
@@ -10118,7 +10159,7 @@
         <v>25149</v>
       </c>
       <c r="G228" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
       <c r="H228" t="s">
@@ -10155,7 +10196,7 @@
         <v>26624</v>
       </c>
       <c r="G229" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>48</v>
       </c>
       <c r="H229" t="s">
@@ -10191,7 +10232,7 @@
         <v>26833</v>
       </c>
       <c r="G230" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H230" t="s">
@@ -10228,7 +10269,7 @@
         <v>27246</v>
       </c>
       <c r="G231" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="H231" t="s">
@@ -10265,7 +10306,7 @@
         <v>20377</v>
       </c>
       <c r="G232" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="H232" t="s">
@@ -10302,7 +10343,7 @@
         <v>20907</v>
       </c>
       <c r="G233" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="H233" t="s">
@@ -10338,7 +10379,7 @@
         <v>30315</v>
       </c>
       <c r="G234" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>38</v>
       </c>
       <c r="H234" t="s">
@@ -10375,7 +10416,7 @@
         <v>19566</v>
       </c>
       <c r="G235" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="H235" t="s">
@@ -10412,7 +10453,7 @@
         <v>18407</v>
       </c>
       <c r="G236" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>70</v>
       </c>
       <c r="H236" t="s">
@@ -10448,7 +10489,7 @@
         <v>29623</v>
       </c>
       <c r="G237" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
       <c r="H237" t="s">
@@ -10485,7 +10526,7 @@
         <v>26205</v>
       </c>
       <c r="G238" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>49</v>
       </c>
       <c r="H238" t="s">
@@ -10522,7 +10563,7 @@
         <v>23358</v>
       </c>
       <c r="G239" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>57</v>
       </c>
       <c r="H239" t="s">
@@ -10559,7 +10600,7 @@
         <v>21011</v>
       </c>
       <c r="G240" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>63</v>
       </c>
       <c r="H240" t="s">
@@ -10595,7 +10636,7 @@
         <v>22529</v>
       </c>
       <c r="G241" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
       </c>
       <c r="H241" t="s">
@@ -10632,7 +10673,7 @@
         <v>28020</v>
       </c>
       <c r="G242" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H242" t="s">
@@ -10669,7 +10710,7 @@
         <v>20084</v>
       </c>
       <c r="G243" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>66</v>
       </c>
       <c r="H243" t="s">
@@ -10705,7 +10746,7 @@
         <v>28961</v>
       </c>
       <c r="G244" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="H244" t="s">
@@ -10742,7 +10783,7 @@
         <v>24451</v>
       </c>
       <c r="G245" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
       <c r="H245" t="s">
@@ -10779,7 +10820,7 @@
         <v>29350</v>
       </c>
       <c r="G246" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
       <c r="H246" t="s">
@@ -10816,7 +10857,7 @@
         <v>21432</v>
       </c>
       <c r="G247" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>62</v>
       </c>
       <c r="H247" t="s">
@@ -10852,7 +10893,7 @@
         <v>19943</v>
       </c>
       <c r="G248" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>66</v>
       </c>
       <c r="H248" t="s">
@@ -10888,7 +10929,7 @@
         <v>29000</v>
       </c>
       <c r="G249" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="H249" t="s">
@@ -10925,7 +10966,7 @@
         <v>29014</v>
       </c>
       <c r="G250" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="H250" t="s">
@@ -10962,7 +11003,7 @@
         <v>29294</v>
       </c>
       <c r="G251" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>40</v>
       </c>
       <c r="H251" t="s">
@@ -10999,7 +11040,7 @@
         <v>26846</v>
       </c>
       <c r="G252" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>47</v>
       </c>
       <c r="H252" t="s">
@@ -11036,7 +11077,7 @@
         <v>28122</v>
       </c>
       <c r="G253" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="H253" t="s">
@@ -11073,7 +11114,7 @@
         <v>29713</v>
       </c>
       <c r="G254" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>39</v>
       </c>
       <c r="H254" t="s">
@@ -11109,7 +11150,7 @@
         <v>19630</v>
       </c>
       <c r="G255" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
       <c r="H255" t="s">
@@ -11146,7 +11187,7 @@
         <v>21554</v>
       </c>
       <c r="G256" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>61</v>
       </c>
       <c r="H256" s="11" t="s">
@@ -11182,7 +11223,7 @@
         <v>18960</v>
       </c>
       <c r="G257" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
       <c r="H257" t="s">
@@ -11219,7 +11260,7 @@
         <v>20625</v>
       </c>
       <c r="G258" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>64</v>
       </c>
       <c r="H258" t="s">
@@ -11255,7 +11296,7 @@
         <v>27808</v>
       </c>
       <c r="G259" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
+        <f t="shared" ref="G259:G264" ca="1" si="4">(YEAR(TODAY())-YEAR(F259))</f>
         <v>44</v>
       </c>
       <c r="H259" t="s">
@@ -11291,7 +11332,7 @@
         <v>21249</v>
       </c>
       <c r="G260" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H260" t="s">
@@ -11327,7 +11368,7 @@
         <v>27834</v>
       </c>
       <c r="G261" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>44</v>
       </c>
       <c r="H261" t="s">
@@ -11363,7 +11404,7 @@
         <v>25069</v>
       </c>
       <c r="G262" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>52</v>
       </c>
       <c r="H262" t="s">
@@ -11399,7 +11440,7 @@
         <v>21269</v>
       </c>
       <c r="G263" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>62</v>
       </c>
       <c r="H263" t="s">
@@ -11436,7 +11477,7 @@
         <v>24000</v>
       </c>
       <c r="G264" s="10">
-        <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>55</v>
       </c>
       <c r="H264" t="s">
@@ -11459,18 +11500,18 @@
       <sortCondition ref="K1:K264"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N268">
-    <sortCondition ref="B2:B268"/>
-    <sortCondition ref="K2:K268"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N267">
+    <sortCondition ref="K2:K267"/>
+    <sortCondition ref="B2:B267"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M40" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
-    <hyperlink ref="M41" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
-    <hyperlink ref="M42" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
+    <hyperlink ref="M41" r:id="rId1" xr:uid="{A890A8DA-02B3-463B-AD54-468A4E0CB12D}"/>
+    <hyperlink ref="M42" r:id="rId2" xr:uid="{8DDDBDD8-0ABD-4AA1-93E8-8776B0B4C90C}"/>
+    <hyperlink ref="M43" r:id="rId3" xr:uid="{4AE833F6-584E-436B-A032-494CFB35CA41}"/>
     <hyperlink ref="M3" r:id="rId4" xr:uid="{4634D10E-9CA3-436E-B233-50CC94520292}"/>
     <hyperlink ref="M2" r:id="rId5" xr:uid="{A049E81B-F121-49D7-93A2-FDF6958D3886}"/>
-    <hyperlink ref="M24" r:id="rId6" xr:uid="{EBF14EBC-130E-4E66-B259-89F35B39D1D9}"/>
+    <hyperlink ref="M25" r:id="rId6" xr:uid="{EBF14EBC-130E-4E66-B259-89F35B39D1D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salón Balmaceda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F16183-DAA0-44E8-8A48-B916466C0514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$N$264</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1048,7 +1050,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
@@ -1147,7 +1149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1425,14 +1427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
@@ -11580,23 +11582,23 @@
       <c r="N264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N264">
-    <sortState ref="A2:N264">
+  <autoFilter ref="A1:N264" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
       <sortCondition ref="K1:K264"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N264">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
     <sortCondition ref="K2:K264"/>
     <sortCondition ref="B2:B264"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M51" r:id="rId1"/>
-    <hyperlink ref="M52" r:id="rId2"/>
-    <hyperlink ref="M53" r:id="rId3"/>
-    <hyperlink ref="M13" r:id="rId4"/>
-    <hyperlink ref="M12" r:id="rId5"/>
-    <hyperlink ref="M35" r:id="rId6"/>
+    <hyperlink ref="M51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M52" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salón Balmaceda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F16183-DAA0-44E8-8A48-B916466C0514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$N$264</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -1045,12 +1044,18 @@
   </si>
   <si>
     <t>https://www.latercera.com/politica/noticia/diputados-ps-piden-a-alvaro-elizalde-asumir-candidatura-presidencial/KTXWI22X6ZBDBCY6OXLS4SSUJA/</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/la-tercera-pm/noticia/bachelet-ya-tiene-candidata-con-su-firma-unge-a-paula-narvaez-como-carta-ps/SJCZ7E2BIFBFHGNJ5K3UWJLIJE/</t>
+  </si>
+  <si>
+    <t>P. Narváez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
@@ -1149,7 +1154,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1427,14 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
@@ -3340,44 +3345,44 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="12">
         <v>44132</v>
       </c>
       <c r="D43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="F43" s="9">
-        <v>20492</v>
+        <v>18900</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L43" s="9">
-        <v>44182</v>
+        <v>44193</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>316</v>
@@ -3385,44 +3390,44 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="12">
         <v>44132</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>93</v>
+        <v>277</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
       </c>
       <c r="F44" s="12">
-        <v>31990</v>
+        <v>16933</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>33</v>
-      </c>
-      <c r="H44" t="s">
-        <v>200</v>
+        <v>74</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L44" s="9">
-        <v>44182</v>
+        <v>44193</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>316</v>
@@ -3430,7 +3435,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3441,33 +3446,33 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>115</v>
+      <c r="E45" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F45" s="12">
-        <v>31120</v>
+        <v>26203</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L45" s="9">
-        <v>44135</v>
+        <v>44193</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>316</v>
@@ -3475,28 +3480,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C46" s="12">
         <v>44132</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="12">
-        <v>26133</v>
+        <v>274</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="9">
+        <v>20492</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>49</v>
-      </c>
-      <c r="H46" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -3509,10 +3514,10 @@
         <v>326</v>
       </c>
       <c r="L46" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>316</v>
@@ -3520,7 +3525,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3531,15 +3536,15 @@
       <c r="D47" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>91</v>
+      <c r="E47" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F47" s="12">
-        <v>22263</v>
+        <v>31990</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H47" t="s">
         <v>200</v>
@@ -3554,10 +3559,10 @@
         <v>326</v>
       </c>
       <c r="L47" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>316</v>
@@ -3565,7 +3570,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3577,14 +3582,14 @@
         <v>278</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F48" s="12">
-        <v>21548</v>
+        <v>31120</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
         <v>200</v>
@@ -3599,10 +3604,10 @@
         <v>326</v>
       </c>
       <c r="L48" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>316</v>
@@ -3610,7 +3615,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3621,17 +3626,17 @@
       <c r="D49" t="s">
         <v>278</v>
       </c>
-      <c r="E49" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="9">
-        <v>31116</v>
+      <c r="E49" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="12">
+        <v>26133</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>35</v>
-      </c>
-      <c r="H49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
         <v>200</v>
       </c>
       <c r="I49" s="11" t="s">
@@ -3655,7 +3660,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3666,21 +3671,21 @@
       <c r="D50" t="s">
         <v>278</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>69</v>
+      <c r="E50" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F50" s="12">
-        <v>28805</v>
+        <v>22263</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J50" s="11">
         <v>1</v>
@@ -3689,10 +3694,10 @@
         <v>326</v>
       </c>
       <c r="L50" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>316</v>
@@ -3700,7 +3705,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3712,32 +3717,32 @@
         <v>278</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="F51" s="12">
-        <v>19343</v>
+        <v>21548</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J51" s="11">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L51" s="9">
-        <v>44144</v>
+        <v>44182</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>316</v>
@@ -3745,7 +3750,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3756,33 +3761,33 @@
       <c r="D52" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="12">
-        <v>28018</v>
+      <c r="E52" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="9">
+        <v>31116</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>44</v>
-      </c>
-      <c r="H52" t="s">
-        <v>204</v>
+        <v>35</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J52" s="11">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L52" s="9">
-        <v>44144</v>
+        <v>44135</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>316</v>
@@ -3790,7 +3795,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3801,33 +3806,33 @@
       <c r="D53" t="s">
         <v>278</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>20</v>
+      <c r="E53" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F53" s="12">
-        <v>31247</v>
+        <v>28805</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J53" s="11">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L53" s="9">
-        <v>44144</v>
+        <v>44182</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>316</v>
@@ -3835,179 +3840,203 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C54" s="12">
         <v>44132</v>
       </c>
       <c r="D54" t="s">
-        <v>272</v>
-      </c>
-      <c r="E54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F54" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="12">
+        <v>19343</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>71</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>201</v>
+        <v>68</v>
+      </c>
+      <c r="H54" t="s">
+        <v>204</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54" s="9"/>
-      <c r="N54"/>
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>325</v>
+      </c>
+      <c r="L54" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55" s="12">
         <v>44132</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
-      </c>
-      <c r="E55" t="s">
-        <v>225</v>
-      </c>
-      <c r="F55" s="9">
-        <v>15516</v>
+        <v>278</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="12">
+        <v>28018</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>78</v>
-      </c>
-      <c r="H55" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s">
         <v>204</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>287</v>
       </c>
       <c r="J55" s="11">
-        <v>0</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>325</v>
+      </c>
+      <c r="L55" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C56" s="12">
         <v>44132</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="F56" s="9">
-        <v>13941</v>
+        <v>278</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="12">
+        <v>31247</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>82</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>203</v>
+        <v>35</v>
+      </c>
+      <c r="H56" t="s">
+        <v>204</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>325</v>
+      </c>
+      <c r="L56" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F57" s="9">
-        <v>18900</v>
+        <v>18233</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J57" s="11">
         <v>0</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="F58" s="9">
-        <v>20120</v>
+        <v>15516</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
@@ -4019,32 +4048,32 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="F59" s="9">
-        <v>26645</v>
+        <v>13941</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
@@ -4056,7 +4085,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4068,20 +4097,20 @@
         <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F60" s="9">
-        <v>20671</v>
+        <v>20120</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -4093,7 +4122,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -4105,20 +4134,20 @@
         <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>215</v>
       </c>
       <c r="F61" s="9">
-        <v>25134</v>
+        <v>26645</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J61" s="11">
         <v>0</v>
@@ -4130,7 +4159,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4142,14 +4171,14 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F62" s="9">
-        <v>22460</v>
+        <v>20671</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>201</v>
@@ -4167,7 +4196,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4179,14 +4208,14 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F63" s="9">
-        <v>24724</v>
+        <v>25134</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>201</v>
@@ -4204,7 +4233,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4216,14 +4245,14 @@
         <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="F64" s="9">
-        <v>17815</v>
+        <v>22460</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>201</v>
@@ -4241,7 +4270,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4253,14 +4282,14 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F65" s="9">
-        <v>17779</v>
+        <v>24724</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>201</v>
@@ -4278,7 +4307,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4290,14 +4319,14 @@
         <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F66" s="9">
-        <v>27681</v>
+        <v>17815</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>201</v>
@@ -4315,7 +4344,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4327,14 +4356,14 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="F67" s="9">
-        <v>28232</v>
+        <v>17779</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>201</v>
@@ -4352,7 +4381,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4364,10 +4393,10 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F68" s="9">
-        <v>27653</v>
+        <v>27681</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
@@ -4389,7 +4418,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4401,14 +4430,14 @@
         <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F69" s="9">
-        <v>27474</v>
+        <v>28232</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>201</v>
@@ -4426,7 +4455,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4438,20 +4467,20 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="F70" s="9">
-        <v>21368</v>
+        <v>27653</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4463,7 +4492,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4475,20 +4504,20 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F71" s="9">
-        <v>27295</v>
+        <v>27474</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4500,7 +4529,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4511,17 +4540,17 @@
       <c r="D72" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" s="12">
-        <v>25126</v>
+      <c r="E72" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="9">
+        <v>21368</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>52</v>
-      </c>
-      <c r="H72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -4537,7 +4566,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4549,20 +4578,20 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F73" s="9">
-        <v>26556</v>
+        <v>27295</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4574,7 +4603,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4585,21 +4614,21 @@
       <c r="D74" t="s">
         <v>274</v>
       </c>
-      <c r="E74" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="9">
-        <v>17431</v>
+      <c r="E74" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="12">
+        <v>25126</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>73</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>205</v>
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>200</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
@@ -4611,7 +4640,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -4622,17 +4651,17 @@
       <c r="D75" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="12">
-        <v>29554</v>
+      <c r="E75" t="s">
+        <v>309</v>
+      </c>
+      <c r="F75" s="9">
+        <v>26556</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>40</v>
-      </c>
-      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I75" s="11" t="s">
@@ -4648,7 +4677,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -4660,14 +4689,14 @@
         <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F76" s="9">
-        <v>32557</v>
+        <v>17431</v>
       </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>205</v>
@@ -4685,7 +4714,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -4696,17 +4725,17 @@
       <c r="D77" t="s">
         <v>274</v>
       </c>
-      <c r="E77" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="9">
-        <v>27105</v>
+      <c r="E77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="12">
+        <v>29554</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>46</v>
-      </c>
-      <c r="H77" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s">
         <v>205</v>
       </c>
       <c r="I77" s="11" t="s">
@@ -4722,7 +4751,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -4734,14 +4763,14 @@
         <v>274</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="F78" s="9">
-        <v>22770</v>
+        <v>32557</v>
       </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>205</v>
@@ -4759,7 +4788,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -4771,14 +4800,14 @@
         <v>274</v>
       </c>
       <c r="E79" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F79" s="9">
-        <v>20015</v>
+        <v>27105</v>
       </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>205</v>
@@ -4796,79 +4825,81 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="12">
         <v>44132</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="F80" s="9">
-        <v>25454</v>
+        <v>22770</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="9"/>
-      <c r="N80"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="12">
         <v>44132</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="F81" s="9">
-        <v>30994</v>
+        <v>20015</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="9"/>
-      <c r="N81"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4880,18 +4911,20 @@
         <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
-      </c>
-      <c r="F82" s="9"/>
+        <v>253</v>
+      </c>
+      <c r="F82" s="9">
+        <v>25454</v>
+      </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
@@ -4902,7 +4935,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4914,20 +4947,20 @@
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F83" s="9">
-        <v>19642</v>
+        <v>30994</v>
       </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
@@ -4938,7 +4971,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4950,7 +4983,7 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="10">
@@ -4972,7 +5005,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4984,18 +5017,20 @@
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
-      </c>
-      <c r="F85" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="F85" s="9">
+        <v>19642</v>
+      </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J85" s="11">
         <v>0</v>
@@ -5006,7 +5041,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -5018,20 +5053,18 @@
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>265</v>
-      </c>
-      <c r="F86" s="9">
-        <v>18048</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
@@ -5042,7 +5075,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5054,14 +5087,12 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F87" s="9">
-        <v>26622</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>200</v>
@@ -5078,7 +5109,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5090,14 +5121,14 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F88" s="9">
-        <v>29935</v>
+        <v>18048</v>
       </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>200</v>
@@ -5114,7 +5145,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -5126,12 +5157,14 @@
         <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>255</v>
-      </c>
-      <c r="F89" s="9"/>
+        <v>261</v>
+      </c>
+      <c r="F89" s="9">
+        <v>26622</v>
+      </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>200</v>
@@ -5148,7 +5181,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -5160,20 +5193,20 @@
         <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F90" s="9">
-        <v>27655</v>
+        <v>29935</v>
       </c>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
@@ -5184,7 +5217,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -5196,20 +5229,18 @@
         <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="9">
-        <v>25492</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
@@ -5220,7 +5251,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -5232,14 +5263,14 @@
         <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F92" s="9">
-        <v>22881</v>
+        <v>27655</v>
       </c>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>205</v>
@@ -5256,7 +5287,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5268,14 +5299,14 @@
         <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F93" s="9">
-        <v>20806</v>
+        <v>25492</v>
       </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>205</v>
@@ -5292,7 +5323,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5304,14 +5335,14 @@
         <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F94" s="9">
-        <v>29105</v>
+        <v>22881</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>205</v>
@@ -5328,79 +5359,79 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="12">
         <v>44132</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="F95" s="9">
-        <v>28422</v>
+        <v>20806</v>
       </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="9"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="12">
         <v>44132</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>242</v>
-      </c>
-      <c r="F96" s="9"/>
+        <v>256</v>
+      </c>
+      <c r="F96" s="9">
+        <v>29105</v>
+      </c>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J96" s="11">
         <v>0</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5412,20 +5443,20 @@
         <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F97" s="9">
-        <v>26763</v>
+        <v>28422</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
@@ -5437,7 +5468,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5449,20 +5480,18 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
-      </c>
-      <c r="F98" s="9">
-        <v>31131</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F98" s="9"/>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
@@ -5474,7 +5503,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5486,14 +5515,14 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F99" s="9">
-        <v>20899</v>
+        <v>26763</v>
       </c>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>201</v>
@@ -5506,11 +5535,12 @@
       </c>
       <c r="K99"/>
       <c r="L99" s="9"/>
-      <c r="N99"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5522,14 +5552,14 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F100" s="9">
-        <v>25265</v>
+        <v>31131</v>
       </c>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>201</v>
@@ -5547,7 +5577,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5559,12 +5589,14 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>248</v>
-      </c>
-      <c r="F101" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="F101" s="9">
+        <v>20899</v>
+      </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>201</v>
@@ -5581,7 +5613,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5593,14 +5625,14 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F102" s="9">
-        <v>26090</v>
+        <v>25265</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>201</v>
@@ -5618,7 +5650,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5630,32 +5662,29 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
-      </c>
-      <c r="F103" s="9">
-        <v>28694</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5667,20 +5696,20 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="F104" s="9">
-        <v>34561</v>
+        <v>26090</v>
       </c>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5692,7 +5721,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5704,18 +5733,20 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>251</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="F105" s="9">
+        <v>28694</v>
+      </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
@@ -5727,7 +5758,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5739,18 +5770,20 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>241</v>
-      </c>
-      <c r="F106" s="9"/>
+        <v>266</v>
+      </c>
+      <c r="F106" s="9">
+        <v>34561</v>
+      </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
@@ -5762,7 +5795,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5774,7 +5807,7 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="10">
@@ -5797,7 +5830,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5809,31 +5842,30 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>250</v>
-      </c>
-      <c r="F108" s="9">
-        <v>27845</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F108" s="9"/>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="9"/>
-      <c r="N108"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5845,20 +5877,18 @@
         <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>232</v>
-      </c>
-      <c r="F109" s="9">
-        <v>27116</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F109" s="9"/>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5870,7 +5900,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5882,12 +5912,14 @@
         <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>245</v>
-      </c>
-      <c r="F110" s="9"/>
+        <v>250</v>
+      </c>
+      <c r="F110" s="9">
+        <v>27845</v>
+      </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>200</v>
@@ -5904,7 +5936,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5916,14 +5948,14 @@
         <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F111" s="9">
-        <v>22196</v>
+        <v>27116</v>
       </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>200</v>
@@ -5936,11 +5968,12 @@
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="N111"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5952,14 +5985,12 @@
         <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>247</v>
-      </c>
-      <c r="F112" s="9">
-        <v>19005</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F112" s="9"/>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>200</v>
@@ -5976,7 +6007,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5988,32 +6019,31 @@
         <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F113" s="9">
-        <v>19655</v>
+        <v>22196</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
       </c>
       <c r="K113"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -6025,57 +6055,56 @@
         <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F114" s="9">
-        <v>14442</v>
+        <v>19005</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+      <c r="N114"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" s="12">
         <v>44132</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
-      </c>
-      <c r="F115" s="12">
-        <v>26653</v>
+        <v>239</v>
+      </c>
+      <c r="F115" s="9">
+        <v>19655</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
@@ -6087,32 +6116,32 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" s="12">
         <v>44132</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" s="12">
-        <v>16153</v>
+        <v>276</v>
+      </c>
+      <c r="E116" t="s">
+        <v>236</v>
+      </c>
+      <c r="F116" s="9">
+        <v>14442</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>76</v>
-      </c>
-      <c r="H116" t="s">
-        <v>204</v>
+        <v>81</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -6124,7 +6153,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -6136,14 +6165,14 @@
         <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F117" s="12">
-        <v>19105</v>
+        <v>26653</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>204</v>
@@ -6161,7 +6190,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -6172,15 +6201,15 @@
       <c r="D118" t="s">
         <v>277</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>179</v>
+      <c r="E118" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F118" s="12">
-        <v>25024</v>
+        <v>16153</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s">
         <v>204</v>
@@ -6198,7 +6227,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6209,33 +6238,33 @@
       <c r="D119" t="s">
         <v>277</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>178</v>
+      <c r="E119" t="s">
+        <v>194</v>
       </c>
       <c r="F119" s="12">
-        <v>28285</v>
+        <v>19105</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>43</v>
-      </c>
-      <c r="H119" t="s">
-        <v>206</v>
+        <v>68</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J119" s="11">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="9"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6246,21 +6275,21 @@
       <c r="D120" t="s">
         <v>277</v>
       </c>
-      <c r="E120" t="s">
-        <v>186</v>
+      <c r="E120" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F120" s="12">
-        <v>19423</v>
+        <v>25024</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>67</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>201</v>
+        <v>52</v>
+      </c>
+      <c r="H120" t="s">
+        <v>204</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6272,7 +6301,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6283,33 +6312,33 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" t="s">
-        <v>182</v>
+      <c r="E121" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F121" s="12">
-        <v>22224</v>
+        <v>28285</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>60</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="H121" t="s">
+        <v>206</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="2"/>
-      <c r="N121"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6321,16 +6350,16 @@
         <v>277</v>
       </c>
       <c r="E122" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="F122" s="12">
-        <v>24478</v>
+        <v>19423</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>53</v>
-      </c>
-      <c r="H122" t="s">
+        <v>67</v>
+      </c>
+      <c r="H122" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I122" s="11" t="s">
@@ -6341,12 +6370,12 @@
       </c>
       <c r="K122"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="8"/>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6358,16 +6387,16 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F123" s="12">
-        <v>21845</v>
+        <v>22224</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>61</v>
-      </c>
-      <c r="H123" t="s">
+        <v>60</v>
+      </c>
+      <c r="H123" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I123" s="11" t="s">
@@ -6379,11 +6408,11 @@
       <c r="K123"/>
       <c r="L123" s="9"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6395,16 +6424,16 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F124" s="12">
-        <v>27196</v>
+        <v>24478</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>46</v>
-      </c>
-      <c r="H124" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H124" t="s">
         <v>201</v>
       </c>
       <c r="I124" s="11" t="s">
@@ -6415,12 +6444,12 @@
       </c>
       <c r="K124"/>
       <c r="L124" s="9"/>
-      <c r="M124" s="2"/>
-      <c r="N124"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6432,20 +6461,20 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F125" s="12">
-        <v>26500</v>
+        <v>21845</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>48</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>203</v>
+        <v>61</v>
+      </c>
+      <c r="H125" t="s">
+        <v>201</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J125" s="11">
         <v>0</v>
@@ -6457,7 +6486,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6468,21 +6497,21 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>180</v>
+      <c r="E126" t="s">
+        <v>196</v>
       </c>
       <c r="F126" s="12">
-        <v>13455</v>
+        <v>27196</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>84</v>
-      </c>
-      <c r="H126" t="s">
-        <v>203</v>
+        <v>46</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J126" s="11">
         <v>0</v>
@@ -6490,11 +6519,11 @@
       <c r="K126"/>
       <c r="L126" s="9"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+      <c r="N126"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6506,16 +6535,16 @@
         <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F127" s="12">
-        <v>22698</v>
+        <v>26500</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>58</v>
-      </c>
-      <c r="H127" t="s">
+        <v>48</v>
+      </c>
+      <c r="H127" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I127" s="11" t="s">
@@ -6531,7 +6560,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6542,21 +6571,21 @@
       <c r="D128" t="s">
         <v>277</v>
       </c>
-      <c r="E128" t="s">
-        <v>192</v>
+      <c r="E128" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F128" s="12">
-        <v>21509</v>
+        <v>13455</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>62</v>
-      </c>
-      <c r="H128" s="11" t="s">
-        <v>310</v>
+        <v>84</v>
+      </c>
+      <c r="H128" t="s">
+        <v>203</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6568,7 +6597,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6580,20 +6609,20 @@
         <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F129" s="12">
-        <v>24173</v>
+        <v>22698</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>54</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>202</v>
+        <v>58</v>
+      </c>
+      <c r="H129" t="s">
+        <v>203</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6605,7 +6634,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6617,20 +6646,20 @@
         <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F130" s="12">
-        <v>25491</v>
+        <v>21509</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>51</v>
-      </c>
-      <c r="H130" t="s">
-        <v>202</v>
+        <v>62</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
@@ -6642,7 +6671,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6654,14 +6683,14 @@
         <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F131" s="12">
-        <v>16933</v>
+        <v>24173</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>202</v>
@@ -6679,7 +6708,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6691,14 +6720,14 @@
         <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F132" s="12">
-        <v>16455</v>
+        <v>25491</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s">
         <v>202</v>
@@ -6716,7 +6745,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6727,15 +6756,15 @@
       <c r="D133" t="s">
         <v>277</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>167</v>
+      <c r="E133" t="s">
+        <v>176</v>
       </c>
       <c r="F133" s="12">
-        <v>15859</v>
+        <v>16455</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H133" t="s">
         <v>202</v>
@@ -6753,7 +6782,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6764,17 +6793,17 @@
       <c r="D134" t="s">
         <v>277</v>
       </c>
-      <c r="E134" t="s">
-        <v>188</v>
+      <c r="E134" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F134" s="12">
-        <v>22288</v>
+        <v>15859</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>59</v>
-      </c>
-      <c r="H134" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" t="s">
         <v>202</v>
       </c>
       <c r="I134" s="11" t="s">
@@ -6790,7 +6819,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6802,14 +6831,14 @@
         <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F135" s="12">
-        <v>16010</v>
+        <v>22288</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>202</v>
@@ -6827,7 +6856,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6839,20 +6868,20 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F136" s="12">
-        <v>28573</v>
+        <v>16010</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>42</v>
-      </c>
-      <c r="H136" t="s">
-        <v>207</v>
+        <v>77</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -6864,7 +6893,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6875,33 +6904,33 @@
       <c r="D137" t="s">
         <v>277</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>160</v>
+      <c r="E137" t="s">
+        <v>169</v>
       </c>
       <c r="F137" s="12">
-        <v>26073</v>
+        <v>28573</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H137" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="8"/>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6912,15 +6941,15 @@
       <c r="D138" t="s">
         <v>277</v>
       </c>
-      <c r="E138" t="s">
-        <v>165</v>
+      <c r="E138" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F138" s="12">
-        <v>20231</v>
+        <v>26073</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H138" t="s">
         <v>200</v>
@@ -6938,7 +6967,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6950,14 +6979,14 @@
         <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F139" s="12">
-        <v>21855</v>
+        <v>20231</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H139" t="s">
         <v>200</v>
@@ -6970,12 +6999,12 @@
       </c>
       <c r="K139"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="2"/>
+      <c r="M139" s="8"/>
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -6987,16 +7016,16 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F140" s="12">
-        <v>22882</v>
+        <v>21855</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>58</v>
-      </c>
-      <c r="H140" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H140" t="s">
         <v>200</v>
       </c>
       <c r="I140" s="11" t="s">
@@ -7012,7 +7041,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -7023,17 +7052,17 @@
       <c r="D141" t="s">
         <v>277</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>108</v>
+      <c r="E141" t="s">
+        <v>193</v>
       </c>
       <c r="F141" s="12">
-        <v>29680</v>
+        <v>22882</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>39</v>
-      </c>
-      <c r="H141" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I141" s="11" t="s">
@@ -7049,7 +7078,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7060,15 +7089,15 @@
       <c r="D142" t="s">
         <v>277</v>
       </c>
-      <c r="E142" t="s">
-        <v>164</v>
+      <c r="E142" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F142" s="12">
-        <v>24414</v>
+        <v>29680</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H142" t="s">
         <v>200</v>
@@ -7086,7 +7115,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7098,20 +7127,20 @@
         <v>277</v>
       </c>
       <c r="E143" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F143" s="12">
-        <v>19103</v>
+        <v>24414</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>68</v>
-      </c>
-      <c r="H143" s="11" t="s">
-        <v>205</v>
+        <v>54</v>
+      </c>
+      <c r="H143" t="s">
+        <v>200</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J143" s="11">
         <v>0</v>
@@ -7123,7 +7152,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7135,14 +7164,14 @@
         <v>277</v>
       </c>
       <c r="E144" t="s">
-        <v>230</v>
-      </c>
-      <c r="F144" s="9">
-        <v>21953</v>
+        <v>198</v>
+      </c>
+      <c r="F144" s="12">
+        <v>19103</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H144" s="11" t="s">
         <v>205</v>
@@ -7155,11 +7184,12 @@
       </c>
       <c r="K144"/>
       <c r="L144" s="9"/>
-      <c r="N144"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -7171,16 +7201,16 @@
         <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>175</v>
-      </c>
-      <c r="F145" s="12">
-        <v>19287</v>
+        <v>230</v>
+      </c>
+      <c r="F145" s="9">
+        <v>21953</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>68</v>
-      </c>
-      <c r="H145" t="s">
+        <v>60</v>
+      </c>
+      <c r="H145" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I145" s="11" t="s">
@@ -7191,12 +7221,11 @@
       </c>
       <c r="K145"/>
       <c r="L145" s="9"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+      <c r="N145"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -7208,16 +7237,16 @@
         <v>277</v>
       </c>
       <c r="E146" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F146" s="12">
-        <v>27361</v>
+        <v>19287</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>46</v>
-      </c>
-      <c r="H146" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
         <v>205</v>
       </c>
       <c r="I146" s="11" t="s">
@@ -7228,12 +7257,12 @@
       </c>
       <c r="K146"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="8"/>
+      <c r="M146" s="2"/>
       <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B147">
         <v>6</v>
@@ -7245,14 +7274,14 @@
         <v>277</v>
       </c>
       <c r="E147" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F147" s="12">
-        <v>20797</v>
+        <v>27361</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H147" s="11" t="s">
         <v>205</v>
@@ -7265,12 +7294,12 @@
       </c>
       <c r="K147"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="2"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="2"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -7282,14 +7311,14 @@
         <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F148" s="12">
-        <v>23776</v>
+        <v>20797</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H148" s="11" t="s">
         <v>205</v>
@@ -7307,7 +7336,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B149">
         <v>6</v>
@@ -7318,17 +7347,17 @@
       <c r="D149" t="s">
         <v>277</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>161</v>
+      <c r="E149" t="s">
+        <v>199</v>
       </c>
       <c r="F149" s="12">
-        <v>22094</v>
+        <v>23776</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>60</v>
-      </c>
-      <c r="H149" t="s">
+        <v>55</v>
+      </c>
+      <c r="H149" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I149" s="11" t="s">
@@ -7344,7 +7373,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -7355,15 +7384,15 @@
       <c r="D150" t="s">
         <v>277</v>
       </c>
-      <c r="E150" t="s">
-        <v>177</v>
+      <c r="E150" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F150" s="12">
-        <v>20651</v>
+        <v>22094</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H150" t="s">
         <v>205</v>
@@ -7381,7 +7410,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -7392,15 +7421,15 @@
       <c r="D151" t="s">
         <v>277</v>
       </c>
-      <c r="E151" s="5" t="s">
-        <v>162</v>
+      <c r="E151" t="s">
+        <v>177</v>
       </c>
       <c r="F151" s="12">
-        <v>23444</v>
+        <v>20651</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H151" t="s">
         <v>205</v>
@@ -7418,32 +7447,32 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" s="12">
         <v>44132</v>
       </c>
       <c r="D152" t="s">
-        <v>278</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>105</v>
+        <v>277</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F152" s="12">
-        <v>33308</v>
+        <v>23444</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H152" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
@@ -7455,7 +7484,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -7467,14 +7496,14 @@
         <v>278</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F153" s="12">
-        <v>25397</v>
+        <v>33308</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H153" t="s">
         <v>312</v>
@@ -7492,7 +7521,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -7504,20 +7533,20 @@
         <v>278</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F154" s="12">
-        <v>32533</v>
+        <v>25397</v>
       </c>
       <c r="G154" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s">
-        <v>229</v>
-      </c>
-      <c r="I154" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="J154" s="11">
         <v>0</v>
@@ -7529,7 +7558,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -7540,15 +7569,15 @@
       <c r="D155" t="s">
         <v>278</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>18</v>
+      <c r="E155" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F155" s="12">
-        <v>31454</v>
+        <v>32533</v>
       </c>
       <c r="G155" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H155" t="s">
         <v>229</v>
@@ -7566,7 +7595,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -7577,20 +7606,20 @@
       <c r="D156" t="s">
         <v>278</v>
       </c>
-      <c r="E156" s="11" t="s">
-        <v>148</v>
+      <c r="E156" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F156" s="12">
-        <v>32481</v>
+        <v>31454</v>
       </c>
       <c r="G156" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H156" t="s">
         <v>229</v>
       </c>
-      <c r="I156" s="11" t="s">
+      <c r="I156" t="s">
         <v>282</v>
       </c>
       <c r="J156" s="11">
@@ -7603,7 +7632,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -7615,19 +7644,19 @@
         <v>278</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F157" s="12">
-        <v>31783</v>
+        <v>32481</v>
       </c>
       <c r="G157" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
         <v>229</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="11" t="s">
         <v>282</v>
       </c>
       <c r="J157" s="11">
@@ -7640,7 +7669,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7651,21 +7680,21 @@
       <c r="D158" t="s">
         <v>278</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>10</v>
+      <c r="E158" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F158" s="12">
-        <v>19657</v>
+        <v>31783</v>
       </c>
       <c r="G158" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H158" t="s">
-        <v>204</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>287</v>
+        <v>229</v>
+      </c>
+      <c r="I158" t="s">
+        <v>282</v>
       </c>
       <c r="J158" s="11">
         <v>0</v>
@@ -7677,7 +7706,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7689,14 +7718,14 @@
         <v>278</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F159" s="12">
-        <v>20255</v>
+        <v>19657</v>
       </c>
       <c r="G159" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H159" t="s">
         <v>204</v>
@@ -7714,7 +7743,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7725,15 +7754,15 @@
       <c r="D160" t="s">
         <v>278</v>
       </c>
-      <c r="E160" s="11" t="s">
-        <v>96</v>
+      <c r="E160" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F160" s="12">
-        <v>27851</v>
+        <v>20255</v>
       </c>
       <c r="G160" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H160" t="s">
         <v>204</v>
@@ -7751,7 +7780,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7762,15 +7791,15 @@
       <c r="D161" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>152</v>
+      <c r="E161" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F161" s="12">
-        <v>23371</v>
+        <v>27851</v>
       </c>
       <c r="G161" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H161" t="s">
         <v>204</v>
@@ -7788,7 +7817,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7800,14 +7829,14 @@
         <v>278</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="F162" s="12">
-        <v>15302</v>
+        <v>23371</v>
       </c>
       <c r="G162" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H162" t="s">
         <v>204</v>
@@ -7825,7 +7854,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7837,14 +7866,14 @@
         <v>278</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F163" s="12">
-        <v>17116</v>
+        <v>15302</v>
       </c>
       <c r="G163" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H163" t="s">
         <v>204</v>
@@ -7862,7 +7891,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7874,14 +7903,14 @@
         <v>278</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="F164" s="12">
-        <v>26864</v>
+        <v>17116</v>
       </c>
       <c r="G164" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H164" t="s">
         <v>204</v>
@@ -7899,7 +7928,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7911,14 +7940,14 @@
         <v>278</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F165" s="12">
-        <v>27678</v>
+        <v>26864</v>
       </c>
       <c r="G165" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H165" t="s">
         <v>204</v>
@@ -7936,7 +7965,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7947,21 +7976,21 @@
       <c r="D166" t="s">
         <v>278</v>
       </c>
-      <c r="E166" s="11" t="s">
-        <v>78</v>
+      <c r="E166" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="F166" s="12">
-        <v>23332</v>
+        <v>27678</v>
       </c>
       <c r="G166" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J166" s="11">
         <v>0</v>
@@ -7973,7 +8002,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -7985,14 +8014,14 @@
         <v>278</v>
       </c>
       <c r="E167" s="11" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F167" s="12">
-        <v>24014</v>
+        <v>23332</v>
       </c>
       <c r="G167" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H167" t="s">
         <v>206</v>
@@ -8010,7 +8039,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -8021,15 +8050,15 @@
       <c r="D168" t="s">
         <v>278</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>32</v>
+      <c r="E168" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F168" s="12">
-        <v>25750</v>
+        <v>24014</v>
       </c>
       <c r="G168" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H168" t="s">
         <v>206</v>
@@ -8042,12 +8071,12 @@
       </c>
       <c r="K168"/>
       <c r="L168" s="9"/>
-      <c r="M168" s="8"/>
+      <c r="M168" s="2"/>
       <c r="N168" s="2"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -8058,15 +8087,15 @@
       <c r="D169" t="s">
         <v>278</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>145</v>
+      <c r="E169" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F169" s="12">
-        <v>26900</v>
+        <v>25750</v>
       </c>
       <c r="G169" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H169" t="s">
         <v>206</v>
@@ -8079,12 +8108,12 @@
       </c>
       <c r="K169"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="2"/>
+      <c r="M169" s="8"/>
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -8096,14 +8125,14 @@
         <v>278</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="F170" s="12">
-        <v>25885</v>
+        <v>26900</v>
       </c>
       <c r="G170" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H170" t="s">
         <v>206</v>
@@ -8121,7 +8150,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -8132,15 +8161,15 @@
       <c r="D171" t="s">
         <v>278</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>61</v>
+      <c r="E171" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F171" s="12">
-        <v>26709</v>
+        <v>25885</v>
       </c>
       <c r="G171" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H171" t="s">
         <v>206</v>
@@ -8158,7 +8187,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -8169,21 +8198,21 @@
       <c r="D172" t="s">
         <v>278</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>117</v>
+      <c r="E172" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F172" s="12">
-        <v>24059</v>
+        <v>26709</v>
       </c>
       <c r="G172" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H172" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J172" s="11">
         <v>0</v>
@@ -8195,7 +8224,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -8206,15 +8235,15 @@
       <c r="D173" t="s">
         <v>278</v>
       </c>
-      <c r="E173" s="11" t="s">
-        <v>132</v>
+      <c r="E173" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F173" s="12">
-        <v>23006</v>
+        <v>24059</v>
       </c>
       <c r="G173" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H173" t="s">
         <v>213</v>
@@ -8232,7 +8261,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -8243,15 +8272,15 @@
       <c r="D174" t="s">
         <v>278</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>81</v>
+      <c r="E174" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="F174" s="12">
-        <v>23226</v>
+        <v>23006</v>
       </c>
       <c r="G174" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H174" t="s">
         <v>213</v>
@@ -8269,7 +8298,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -8280,21 +8309,21 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="11" t="s">
-        <v>22</v>
+      <c r="E175" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F175" s="12">
-        <v>29503</v>
+        <v>23226</v>
       </c>
       <c r="G175" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J175" s="11">
         <v>0</v>
@@ -8302,11 +8331,11 @@
       <c r="K175"/>
       <c r="L175" s="9"/>
       <c r="M175" s="2"/>
-      <c r="N175"/>
+      <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -8317,15 +8346,15 @@
       <c r="D176" t="s">
         <v>278</v>
       </c>
-      <c r="E176" s="6" t="s">
-        <v>143</v>
+      <c r="E176" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F176" s="12">
-        <v>16390</v>
+        <v>29503</v>
       </c>
       <c r="G176" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H176" t="s">
         <v>201</v>
@@ -8339,11 +8368,11 @@
       <c r="K176"/>
       <c r="L176" s="9"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
+      <c r="N176"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -8355,14 +8384,14 @@
         <v>278</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F177" s="12">
-        <v>16997</v>
+        <v>16390</v>
       </c>
       <c r="G177" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H177" t="s">
         <v>201</v>
@@ -8380,7 +8409,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8391,15 +8420,15 @@
       <c r="D178" t="s">
         <v>278</v>
       </c>
-      <c r="E178" s="11" t="s">
-        <v>139</v>
+      <c r="E178" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F178" s="12">
-        <v>30347</v>
+        <v>16997</v>
       </c>
       <c r="G178" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H178" t="s">
         <v>201</v>
@@ -8417,7 +8446,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -8428,15 +8457,15 @@
       <c r="D179" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="6" t="s">
-        <v>35</v>
+      <c r="E179" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F179" s="12">
-        <v>25970</v>
+        <v>30347</v>
       </c>
       <c r="G179" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H179" t="s">
         <v>201</v>
@@ -8454,7 +8483,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -8466,14 +8495,14 @@
         <v>278</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="F180" s="12">
-        <v>18196</v>
+        <v>25970</v>
       </c>
       <c r="G180" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="H180" t="s">
         <v>201</v>
@@ -8491,7 +8520,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -8502,15 +8531,15 @@
       <c r="D181" t="s">
         <v>278</v>
       </c>
-      <c r="E181" s="11" t="s">
-        <v>106</v>
+      <c r="E181" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F181" s="12">
-        <v>24964</v>
+        <v>18196</v>
       </c>
       <c r="G181" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H181" t="s">
         <v>201</v>
@@ -8528,7 +8557,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -8539,15 +8568,15 @@
       <c r="D182" t="s">
         <v>278</v>
       </c>
-      <c r="E182" s="6" t="s">
-        <v>131</v>
+      <c r="E182" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F182" s="12">
-        <v>23594</v>
+        <v>24964</v>
       </c>
       <c r="G182" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H182" t="s">
         <v>201</v>
@@ -8565,7 +8594,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -8576,15 +8605,15 @@
       <c r="D183" t="s">
         <v>278</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>11</v>
+      <c r="E183" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F183" s="12">
-        <v>20885</v>
+        <v>23594</v>
       </c>
       <c r="G183" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H183" t="s">
         <v>201</v>
@@ -8602,7 +8631,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -8614,14 +8643,14 @@
         <v>278</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F184" s="12">
-        <v>31562</v>
+        <v>20885</v>
       </c>
       <c r="G184" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H184" t="s">
         <v>201</v>
@@ -8639,7 +8668,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -8650,15 +8679,15 @@
       <c r="D185" t="s">
         <v>278</v>
       </c>
-      <c r="E185" s="6" t="s">
-        <v>6</v>
+      <c r="E185" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F185" s="12">
-        <v>21338</v>
+        <v>31562</v>
       </c>
       <c r="G185" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H185" t="s">
         <v>201</v>
@@ -8676,7 +8705,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8688,14 +8717,14 @@
         <v>278</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F186" s="12">
-        <v>20371</v>
+        <v>21338</v>
       </c>
       <c r="G186" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H186" t="s">
         <v>201</v>
@@ -8709,11 +8738,11 @@
       <c r="K186"/>
       <c r="L186" s="9"/>
       <c r="M186" s="2"/>
-      <c r="N186"/>
+      <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8724,11 +8753,11 @@
       <c r="D187" t="s">
         <v>278</v>
       </c>
-      <c r="E187" s="11" t="s">
-        <v>9</v>
+      <c r="E187" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F187" s="12">
-        <v>20417</v>
+        <v>20371</v>
       </c>
       <c r="G187" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
@@ -8746,11 +8775,11 @@
       <c r="K187"/>
       <c r="L187" s="9"/>
       <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
+      <c r="N187"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -8762,14 +8791,14 @@
         <v>278</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F188" s="12">
-        <v>20655</v>
+        <v>20417</v>
       </c>
       <c r="G188" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H188" t="s">
         <v>201</v>
@@ -8787,7 +8816,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -8799,14 +8828,14 @@
         <v>278</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F189" s="12">
-        <v>18677</v>
+        <v>20655</v>
       </c>
       <c r="G189" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H189" t="s">
         <v>201</v>
@@ -8819,11 +8848,12 @@
       </c>
       <c r="K189"/>
       <c r="L189" s="9"/>
-      <c r="N189"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -8835,32 +8865,31 @@
         <v>278</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F190" s="12">
-        <v>18196</v>
+        <v>18677</v>
       </c>
       <c r="G190" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H190" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J190" s="11">
         <v>0</v>
       </c>
       <c r="K190"/>
       <c r="L190" s="9"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
+      <c r="N190"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -8872,14 +8901,14 @@
         <v>278</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F191" s="12">
-        <v>25691</v>
+        <v>18196</v>
       </c>
       <c r="G191" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="H191" t="s">
         <v>210</v>
@@ -8897,7 +8926,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -8908,15 +8937,15 @@
       <c r="D192" t="s">
         <v>278</v>
       </c>
-      <c r="E192" s="6" t="s">
-        <v>130</v>
+      <c r="E192" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F192" s="12">
-        <v>32261</v>
+        <v>25691</v>
       </c>
       <c r="G192" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H192" t="s">
         <v>210</v>
@@ -8934,7 +8963,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -8945,15 +8974,15 @@
       <c r="D193" t="s">
         <v>278</v>
       </c>
-      <c r="E193" s="11" t="s">
-        <v>53</v>
+      <c r="E193" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="F193" s="12">
-        <v>16607</v>
+        <v>32261</v>
       </c>
       <c r="G193" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H193" t="s">
         <v>210</v>
@@ -8971,7 +9000,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -8983,14 +9012,14 @@
         <v>278</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F194" s="12">
-        <v>25940</v>
+        <v>16607</v>
       </c>
       <c r="G194" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H194" t="s">
         <v>210</v>
@@ -9008,7 +9037,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B195">
         <v>7</v>
@@ -9020,14 +9049,14 @@
         <v>278</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F195" s="12">
-        <v>16008</v>
+        <v>25940</v>
       </c>
       <c r="G195" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="H195" t="s">
         <v>210</v>
@@ -9045,7 +9074,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -9056,15 +9085,15 @@
       <c r="D196" t="s">
         <v>278</v>
       </c>
-      <c r="E196" s="5" t="s">
-        <v>50</v>
+      <c r="E196" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F196" s="12">
-        <v>22559</v>
+        <v>16008</v>
       </c>
       <c r="G196" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H196" t="s">
         <v>210</v>
@@ -9082,7 +9111,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B197">
         <v>7</v>
@@ -9093,15 +9122,15 @@
       <c r="D197" t="s">
         <v>278</v>
       </c>
-      <c r="E197" s="6" t="s">
-        <v>21</v>
+      <c r="E197" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F197" s="12">
-        <v>31868</v>
+        <v>22559</v>
       </c>
       <c r="G197" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H197" t="s">
         <v>210</v>
@@ -9119,7 +9148,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -9130,15 +9159,15 @@
       <c r="D198" t="s">
         <v>278</v>
       </c>
-      <c r="E198" s="11" t="s">
-        <v>113</v>
+      <c r="E198" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F198" s="12">
-        <v>27508</v>
+        <v>31868</v>
       </c>
       <c r="G198" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H198" t="s">
         <v>210</v>
@@ -9156,7 +9185,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -9168,20 +9197,20 @@
         <v>278</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F199" s="12">
-        <v>26445</v>
+        <v>27508</v>
       </c>
       <c r="G199" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H199" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J199" s="11">
         <v>0</v>
@@ -9193,7 +9222,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -9205,20 +9234,20 @@
         <v>278</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F200" s="12">
-        <v>22250</v>
+        <v>26445</v>
       </c>
       <c r="G200" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H200" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J200" s="11">
         <v>0</v>
@@ -9230,7 +9259,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -9242,14 +9271,14 @@
         <v>278</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F201" s="12">
-        <v>16725</v>
+        <v>22250</v>
       </c>
       <c r="G201" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H201" t="s">
         <v>208</v>
@@ -9267,7 +9296,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -9279,20 +9308,20 @@
         <v>278</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F202" s="12">
-        <v>28888</v>
+        <v>16725</v>
       </c>
       <c r="G202" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H202" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J202" s="11">
         <v>0</v>
@@ -9304,7 +9333,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -9315,15 +9344,15 @@
       <c r="D203" t="s">
         <v>278</v>
       </c>
-      <c r="E203" s="6" t="s">
-        <v>76</v>
+      <c r="E203" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F203" s="12">
-        <v>31920</v>
+        <v>28888</v>
       </c>
       <c r="G203" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H203" t="s">
         <v>211</v>
@@ -9341,7 +9370,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -9352,21 +9381,21 @@
       <c r="D204" t="s">
         <v>278</v>
       </c>
-      <c r="E204" s="11" t="s">
-        <v>92</v>
+      <c r="E204" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F204" s="12">
-        <v>24717</v>
+        <v>31920</v>
       </c>
       <c r="G204" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H204" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J204" s="11">
         <v>0</v>
@@ -9378,7 +9407,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -9390,14 +9419,14 @@
         <v>278</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F205" s="12">
-        <v>23367</v>
+        <v>24717</v>
       </c>
       <c r="G205" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H205" t="s">
         <v>203</v>
@@ -9415,7 +9444,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -9427,14 +9456,14 @@
         <v>278</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="F206" s="12">
-        <v>22655</v>
+        <v>23367</v>
       </c>
       <c r="G206" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H206" t="s">
         <v>203</v>
@@ -9452,7 +9481,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -9463,15 +9492,15 @@
       <c r="D207" t="s">
         <v>278</v>
       </c>
-      <c r="E207" s="6" t="s">
-        <v>23</v>
+      <c r="E207" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F207" s="12">
-        <v>26802</v>
+        <v>22655</v>
       </c>
       <c r="G207" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H207" t="s">
         <v>203</v>
@@ -9489,7 +9518,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -9500,21 +9529,21 @@
       <c r="D208" t="s">
         <v>278</v>
       </c>
-      <c r="E208" s="11" t="s">
-        <v>118</v>
+      <c r="E208" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F208" s="12">
-        <v>25566</v>
+        <v>26802</v>
       </c>
       <c r="G208" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H208" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J208" s="11">
         <v>0</v>
@@ -9526,7 +9555,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -9538,14 +9567,14 @@
         <v>278</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F209" s="12">
-        <v>21970</v>
+        <v>25566</v>
       </c>
       <c r="G209" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H209" t="s">
         <v>209</v>
@@ -9563,7 +9592,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -9574,15 +9603,15 @@
       <c r="D210" t="s">
         <v>278</v>
       </c>
-      <c r="E210" s="6" t="s">
-        <v>97</v>
+      <c r="E210" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F210" s="12">
-        <v>14974</v>
+        <v>21970</v>
       </c>
       <c r="G210" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H210" t="s">
         <v>209</v>
@@ -9600,7 +9629,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -9612,14 +9641,14 @@
         <v>278</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F211" s="12">
-        <v>21958</v>
+        <v>14974</v>
       </c>
       <c r="G211" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H211" t="s">
         <v>209</v>
@@ -9637,7 +9666,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -9649,20 +9678,20 @@
         <v>278</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F212" s="12">
-        <v>32142</v>
+        <v>21958</v>
       </c>
       <c r="G212" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H212" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J212" s="11">
         <v>0</v>
@@ -9674,7 +9703,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -9685,15 +9714,15 @@
       <c r="D213" t="s">
         <v>278</v>
       </c>
-      <c r="E213" s="11" t="s">
-        <v>87</v>
+      <c r="E213" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F213" s="12">
-        <v>25067</v>
+        <v>32142</v>
       </c>
       <c r="G213" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H213" t="s">
         <v>202</v>
@@ -9711,7 +9740,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -9722,15 +9751,15 @@
       <c r="D214" t="s">
         <v>278</v>
       </c>
-      <c r="E214" s="6" t="s">
-        <v>39</v>
+      <c r="E214" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F214" s="12">
-        <v>25592</v>
+        <v>25067</v>
       </c>
       <c r="G214" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H214" t="s">
         <v>202</v>
@@ -9748,7 +9777,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -9759,15 +9788,15 @@
       <c r="D215" t="s">
         <v>278</v>
       </c>
-      <c r="E215" s="11" t="s">
-        <v>154</v>
+      <c r="E215" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F215" s="12">
-        <v>14047</v>
+        <v>25592</v>
       </c>
       <c r="G215" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H215" t="s">
         <v>202</v>
@@ -9785,7 +9814,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -9796,15 +9825,15 @@
       <c r="D216" t="s">
         <v>278</v>
       </c>
-      <c r="E216" s="6" t="s">
-        <v>104</v>
+      <c r="E216" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F216" s="12">
-        <v>21445</v>
+        <v>14047</v>
       </c>
       <c r="G216" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H216" t="s">
         <v>202</v>
@@ -9822,7 +9851,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B217">
         <v>7</v>
@@ -9834,14 +9863,14 @@
         <v>278</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F217" s="12">
-        <v>26203</v>
+        <v>21445</v>
       </c>
       <c r="G217" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H217" t="s">
         <v>202</v>
@@ -11582,23 +11611,23 @@
       <c r="N264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N264" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
+  <autoFilter ref="A1:N264">
+    <sortState ref="A2:N264">
       <sortCondition ref="K1:K264"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
+  <sortState ref="A2:N264">
     <sortCondition ref="K2:K264"/>
     <sortCondition ref="B2:B264"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M52" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M54" r:id="rId1"/>
+    <hyperlink ref="M55" r:id="rId2"/>
+    <hyperlink ref="M56" r:id="rId3"/>
+    <hyperlink ref="M13" r:id="rId4"/>
+    <hyperlink ref="M12" r:id="rId5"/>
+    <hyperlink ref="M35" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salón Balmaceda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920B7B1-0B32-4227-ADBF-895161AC61A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$N$264</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -1050,12 +1051,15 @@
   </si>
   <si>
     <t>P. Narváez</t>
+  </si>
+  <si>
+    <t>https://www.latercera.com/la-tercera-pm/noticia/isabel-allende-y-su-sorpresivo-apoyo-a-paula-narvaez-es-el-tiempo-para-el-liderazgo-de-mujeres/G2TKKV3N4NFSTLJVM5SNMA2FU4/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
@@ -1124,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1152,9 +1156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1432,14 +1437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
@@ -3435,26 +3440,26 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="12">
         <v>44132</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>141</v>
+        <v>277</v>
+      </c>
+      <c r="E45" t="s">
+        <v>176</v>
       </c>
       <c r="F45" s="12">
-        <v>26203</v>
+        <v>16455</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
         <v>202</v>
@@ -3465,14 +3470,14 @@
       <c r="J45" s="11">
         <v>1</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="15" t="s">
         <v>337</v>
       </c>
       <c r="L45" s="9">
-        <v>44193</v>
+        <v>44195</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>316</v>
@@ -3480,44 +3485,44 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C46" s="12">
         <v>44132</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
-      </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="12">
+        <v>26203</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>64</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>200</v>
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
+        <v>202</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L46" s="9">
-        <v>44182</v>
+        <v>44193</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>316</v>
@@ -3525,28 +3530,28 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" s="12">
         <v>44132</v>
       </c>
       <c r="D47" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="12">
-        <v>31990</v>
+        <v>274</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="9">
+        <v>20492</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>33</v>
-      </c>
-      <c r="H47" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -3570,7 +3575,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3581,15 +3586,15 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>115</v>
+      <c r="E48" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F48" s="12">
-        <v>31120</v>
+        <v>31990</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
         <v>200</v>
@@ -3604,10 +3609,10 @@
         <v>326</v>
       </c>
       <c r="L48" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>316</v>
@@ -3615,7 +3620,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3627,14 +3632,14 @@
         <v>278</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F49" s="12">
-        <v>26133</v>
+        <v>31120</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
         <v>200</v>
@@ -3660,7 +3665,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3672,14 +3677,14 @@
         <v>278</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F50" s="12">
-        <v>22263</v>
+        <v>26133</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
         <v>200</v>
@@ -3705,7 +3710,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3717,14 +3722,14 @@
         <v>278</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F51" s="12">
-        <v>21548</v>
+        <v>22263</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H51" t="s">
         <v>200</v>
@@ -3739,10 +3744,10 @@
         <v>326</v>
       </c>
       <c r="L51" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>316</v>
@@ -3750,7 +3755,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3761,17 +3766,17 @@
       <c r="D52" t="s">
         <v>278</v>
       </c>
-      <c r="E52" t="s">
-        <v>227</v>
-      </c>
-      <c r="F52" s="9">
-        <v>31116</v>
+      <c r="E52" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="12">
+        <v>21548</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>35</v>
-      </c>
-      <c r="H52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
         <v>200</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -3784,10 +3789,10 @@
         <v>326</v>
       </c>
       <c r="L52" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>316</v>
@@ -3795,7 +3800,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3806,21 +3811,21 @@
       <c r="D53" t="s">
         <v>278</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="12">
-        <v>28805</v>
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" s="9">
+        <v>31116</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>42</v>
-      </c>
-      <c r="H53" t="s">
-        <v>205</v>
+        <v>35</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J53" s="11">
         <v>1</v>
@@ -3829,10 +3834,10 @@
         <v>326</v>
       </c>
       <c r="L53" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>316</v>
@@ -3840,7 +3845,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3851,33 +3856,33 @@
       <c r="D54" t="s">
         <v>278</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>134</v>
+      <c r="E54" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F54" s="12">
-        <v>19343</v>
+        <v>28805</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J54" s="11">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L54" s="9">
-        <v>44144</v>
+        <v>44182</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>316</v>
@@ -3885,7 +3890,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3896,15 +3901,15 @@
       <c r="D55" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>119</v>
+      <c r="E55" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F55" s="12">
-        <v>28018</v>
+        <v>19343</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
         <v>204</v>
@@ -3930,7 +3935,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -3941,15 +3946,15 @@
       <c r="D56" t="s">
         <v>278</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>20</v>
+      <c r="E56" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F56" s="12">
-        <v>31247</v>
+        <v>28018</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
         <v>204</v>
@@ -3975,80 +3980,88 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
-      </c>
-      <c r="E57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F57" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="12">
+        <v>31247</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>71</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>201</v>
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>204</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J57" s="11">
-        <v>0</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57" s="9"/>
-      <c r="N57"/>
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>325</v>
+      </c>
+      <c r="L57" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F58" s="9">
-        <v>15516</v>
+        <v>18233</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -4060,20 +4073,20 @@
         <v>273</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="F59" s="9">
-        <v>13941</v>
+        <v>15516</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
@@ -4085,32 +4098,32 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="12">
         <v>44132</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F60" s="9">
-        <v>20120</v>
+        <v>13941</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -4122,7 +4135,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -4134,14 +4147,14 @@
         <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="F61" s="9">
-        <v>26645</v>
+        <v>20120</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>206</v>
@@ -4159,7 +4172,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4171,20 +4184,20 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F62" s="9">
-        <v>20671</v>
+        <v>26645</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
@@ -4196,7 +4209,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4208,14 +4221,14 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F63" s="9">
-        <v>25134</v>
+        <v>20671</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>201</v>
@@ -4233,7 +4246,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4245,14 +4258,14 @@
         <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F64" s="9">
-        <v>22460</v>
+        <v>25134</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>201</v>
@@ -4270,7 +4283,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4282,14 +4295,14 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F65" s="9">
-        <v>24724</v>
+        <v>22460</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>201</v>
@@ -4307,7 +4320,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4319,14 +4332,14 @@
         <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="F66" s="9">
-        <v>17815</v>
+        <v>24724</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>201</v>
@@ -4344,7 +4357,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4356,10 +4369,10 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="F67" s="9">
-        <v>17779</v>
+        <v>17815</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
@@ -4381,7 +4394,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4393,14 +4406,14 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="F68" s="9">
-        <v>27681</v>
+        <v>17779</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>201</v>
@@ -4418,7 +4431,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4430,14 +4443,14 @@
         <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F69" s="9">
-        <v>28232</v>
+        <v>27681</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>201</v>
@@ -4455,7 +4468,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4467,14 +4480,14 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F70" s="9">
-        <v>27653</v>
+        <v>28232</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>201</v>
@@ -4492,7 +4505,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4504,10 +4517,10 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="F71" s="9">
-        <v>27474</v>
+        <v>27653</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
@@ -4529,7 +4542,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4541,20 +4554,20 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F72" s="9">
-        <v>21368</v>
+        <v>27474</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4566,7 +4579,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4578,14 +4591,14 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F73" s="9">
-        <v>27295</v>
+        <v>21368</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>200</v>
@@ -4603,7 +4616,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4614,17 +4627,17 @@
       <c r="D74" t="s">
         <v>274</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="12">
-        <v>25126</v>
+      <c r="E74" t="s">
+        <v>307</v>
+      </c>
+      <c r="F74" s="9">
+        <v>27295</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>52</v>
-      </c>
-      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I74" s="11" t="s">
@@ -4640,7 +4653,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -4651,21 +4664,21 @@
       <c r="D75" t="s">
         <v>274</v>
       </c>
-      <c r="E75" t="s">
-        <v>309</v>
-      </c>
-      <c r="F75" s="9">
-        <v>26556</v>
+      <c r="E75" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="12">
+        <v>25126</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>48</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>205</v>
+        <v>52</v>
+      </c>
+      <c r="H75" t="s">
+        <v>200</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
@@ -4677,7 +4690,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -4689,14 +4702,14 @@
         <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="F76" s="9">
-        <v>17431</v>
+        <v>26556</v>
       </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>205</v>
@@ -4714,7 +4727,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -4725,17 +4738,17 @@
       <c r="D77" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="12">
-        <v>29554</v>
+      <c r="E77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" s="9">
+        <v>17431</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>40</v>
-      </c>
-      <c r="H77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I77" s="11" t="s">
@@ -4751,7 +4764,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -4762,17 +4775,17 @@
       <c r="D78" t="s">
         <v>274</v>
       </c>
-      <c r="E78" t="s">
-        <v>220</v>
-      </c>
-      <c r="F78" s="9">
-        <v>32557</v>
+      <c r="E78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="12">
+        <v>29554</v>
       </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>31</v>
-      </c>
-      <c r="H78" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s">
         <v>205</v>
       </c>
       <c r="I78" s="11" t="s">
@@ -4788,7 +4801,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -4800,14 +4813,14 @@
         <v>274</v>
       </c>
       <c r="E79" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="F79" s="9">
-        <v>27105</v>
+        <v>32557</v>
       </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>205</v>
@@ -4825,7 +4838,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -4837,14 +4850,14 @@
         <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F80" s="9">
-        <v>22770</v>
+        <v>27105</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>205</v>
@@ -4862,7 +4875,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -4874,14 +4887,14 @@
         <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="F81" s="9">
-        <v>20015</v>
+        <v>22770</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>205</v>
@@ -4899,43 +4912,44 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="12">
         <v>44132</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F82" s="9">
-        <v>25454</v>
+        <v>20015</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="9"/>
-      <c r="N82"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4947,14 +4961,14 @@
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F83" s="9">
-        <v>30994</v>
+        <v>25454</v>
       </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>206</v>
@@ -4971,7 +4985,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4983,18 +4997,20 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="F84" s="9">
+        <v>30994</v>
+      </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
@@ -5005,7 +5021,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -5017,14 +5033,12 @@
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
-      </c>
-      <c r="F85" s="9">
-        <v>19642</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>201</v>
@@ -5041,7 +5055,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -5053,12 +5067,14 @@
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
-      </c>
-      <c r="F86" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="F86" s="9">
+        <v>19642</v>
+      </c>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>201</v>
@@ -5075,7 +5091,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5087,7 +5103,7 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="10">
@@ -5095,10 +5111,10 @@
         <v>120</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
@@ -5109,7 +5125,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5121,14 +5137,12 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>265</v>
-      </c>
-      <c r="F88" s="9">
-        <v>18048</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F88" s="9"/>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>200</v>
@@ -5145,7 +5159,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -5157,14 +5171,14 @@
         <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F89" s="9">
-        <v>26622</v>
+        <v>18048</v>
       </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>200</v>
@@ -5181,7 +5195,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -5193,14 +5207,14 @@
         <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F90" s="9">
-        <v>29935</v>
+        <v>26622</v>
       </c>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>200</v>
@@ -5217,7 +5231,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -5229,12 +5243,14 @@
         <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>255</v>
-      </c>
-      <c r="F91" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="F91" s="9">
+        <v>29935</v>
+      </c>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>200</v>
@@ -5251,7 +5267,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -5263,20 +5279,18 @@
         <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
-      </c>
-      <c r="F92" s="9">
-        <v>27655</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
@@ -5287,7 +5301,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5299,14 +5313,14 @@
         <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F93" s="9">
-        <v>25492</v>
+        <v>27655</v>
       </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>205</v>
@@ -5323,7 +5337,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5335,14 +5349,14 @@
         <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F94" s="9">
-        <v>22881</v>
+        <v>25492</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>205</v>
@@ -5359,7 +5373,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5371,14 +5385,14 @@
         <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F95" s="9">
-        <v>20806</v>
+        <v>22881</v>
       </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>205</v>
@@ -5395,7 +5409,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -5407,14 +5421,14 @@
         <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F96" s="9">
-        <v>29105</v>
+        <v>20806</v>
       </c>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>205</v>
@@ -5431,44 +5445,43 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="12">
         <v>44132</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F97" s="9">
-        <v>28422</v>
+        <v>29105</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5480,12 +5493,14 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>242</v>
-      </c>
-      <c r="F98" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="F98" s="9">
+        <v>28422</v>
+      </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>204</v>
@@ -5503,7 +5518,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5515,20 +5530,18 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
-      </c>
-      <c r="F99" s="9">
-        <v>26763</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F99" s="9"/>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
@@ -5540,7 +5553,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5552,14 +5565,14 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F100" s="9">
-        <v>31131</v>
+        <v>26763</v>
       </c>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>201</v>
@@ -5577,7 +5590,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5589,14 +5602,14 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F101" s="9">
-        <v>20899</v>
+        <v>31131</v>
       </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>201</v>
@@ -5609,11 +5622,12 @@
       </c>
       <c r="K101"/>
       <c r="L101" s="9"/>
-      <c r="N101"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5625,14 +5639,14 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F102" s="9">
-        <v>25265</v>
+        <v>20899</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>201</v>
@@ -5645,12 +5659,11 @@
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5662,12 +5675,14 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>248</v>
-      </c>
-      <c r="F103" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="F103" s="9">
+        <v>25265</v>
+      </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>201</v>
@@ -5680,11 +5695,12 @@
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="N103"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5696,14 +5712,12 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
-      </c>
-      <c r="F104" s="9">
-        <v>26090</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F104" s="9"/>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>201</v>
@@ -5716,12 +5730,11 @@
       </c>
       <c r="K104"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5733,20 +5746,20 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F105" s="9">
-        <v>28694</v>
+        <v>26090</v>
       </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
@@ -5758,7 +5771,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5770,20 +5783,20 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F106" s="9">
-        <v>34561</v>
+        <v>28694</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
@@ -5795,7 +5808,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5807,18 +5820,20 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>251</v>
-      </c>
-      <c r="F107" s="9"/>
+        <v>266</v>
+      </c>
+      <c r="F107" s="9">
+        <v>34561</v>
+      </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
@@ -5830,7 +5845,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5842,7 +5857,7 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="10">
@@ -5865,7 +5880,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5877,7 +5892,7 @@
         <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="10">
@@ -5900,7 +5915,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5912,31 +5927,30 @@
         <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>250</v>
-      </c>
-      <c r="F110" s="9">
-        <v>27845</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F110" s="9"/>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="9"/>
-      <c r="N110"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5948,14 +5962,14 @@
         <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F111" s="9">
-        <v>27116</v>
+        <v>27845</v>
       </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>200</v>
@@ -5968,12 +5982,11 @@
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5985,12 +5998,14 @@
         <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>245</v>
-      </c>
-      <c r="F112" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="F112" s="9">
+        <v>27116</v>
+      </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>200</v>
@@ -6003,11 +6018,12 @@
       </c>
       <c r="K112"/>
       <c r="L112" s="9"/>
-      <c r="N112"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -6019,14 +6035,12 @@
         <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>240</v>
-      </c>
-      <c r="F113" s="9">
-        <v>22196</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F113" s="9"/>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>200</v>
@@ -6043,7 +6057,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -6055,14 +6069,14 @@
         <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F114" s="9">
-        <v>19005</v>
+        <v>22196</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>200</v>
@@ -6079,7 +6093,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -6091,32 +6105,31 @@
         <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F115" s="9">
-        <v>19655</v>
+        <v>19005</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="N115"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -6128,14 +6141,14 @@
         <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F116" s="9">
-        <v>14442</v>
+        <v>19655</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>205</v>
@@ -6153,32 +6166,32 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" s="12">
         <v>44132</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>185</v>
-      </c>
-      <c r="F117" s="12">
-        <v>26653</v>
+        <v>236</v>
+      </c>
+      <c r="F117" s="9">
+        <v>14442</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
@@ -6190,7 +6203,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -6201,17 +6214,17 @@
       <c r="D118" t="s">
         <v>277</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>166</v>
+      <c r="E118" t="s">
+        <v>185</v>
       </c>
       <c r="F118" s="12">
-        <v>16153</v>
+        <v>26653</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>76</v>
-      </c>
-      <c r="H118" t="s">
+        <v>48</v>
+      </c>
+      <c r="H118" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I118" s="11" t="s">
@@ -6227,7 +6240,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6238,17 +6251,17 @@
       <c r="D119" t="s">
         <v>277</v>
       </c>
-      <c r="E119" t="s">
-        <v>194</v>
+      <c r="E119" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F119" s="12">
-        <v>19105</v>
+        <v>16153</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>68</v>
-      </c>
-      <c r="H119" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
         <v>204</v>
       </c>
       <c r="I119" s="11" t="s">
@@ -6264,7 +6277,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6275,17 +6288,17 @@
       <c r="D120" t="s">
         <v>277</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>179</v>
+      <c r="E120" t="s">
+        <v>194</v>
       </c>
       <c r="F120" s="12">
-        <v>25024</v>
+        <v>19105</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>52</v>
-      </c>
-      <c r="H120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I120" s="11" t="s">
@@ -6301,7 +6314,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6312,33 +6325,33 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>178</v>
+      <c r="E121" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F121" s="12">
-        <v>28285</v>
+        <v>25024</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H121" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="9"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6349,33 +6362,33 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" t="s">
-        <v>186</v>
+      <c r="E122" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F122" s="12">
-        <v>19423</v>
+        <v>28285</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>67</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="H122" t="s">
+        <v>206</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6387,14 +6400,14 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F123" s="12">
-        <v>22224</v>
+        <v>19423</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>201</v>
@@ -6408,11 +6421,11 @@
       <c r="K123"/>
       <c r="L123" s="9"/>
       <c r="M123" s="2"/>
-      <c r="N123"/>
+      <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6424,16 +6437,16 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F124" s="12">
-        <v>24478</v>
+        <v>22224</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>53</v>
-      </c>
-      <c r="H124" t="s">
+        <v>60</v>
+      </c>
+      <c r="H124" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I124" s="11" t="s">
@@ -6444,12 +6457,12 @@
       </c>
       <c r="K124"/>
       <c r="L124" s="9"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6461,14 +6474,14 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F125" s="12">
-        <v>21845</v>
+        <v>24478</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H125" t="s">
         <v>201</v>
@@ -6481,12 +6494,12 @@
       </c>
       <c r="K125"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="2"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6498,16 +6511,16 @@
         <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F126" s="12">
-        <v>27196</v>
+        <v>21845</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>46</v>
-      </c>
-      <c r="H126" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H126" t="s">
         <v>201</v>
       </c>
       <c r="I126" s="11" t="s">
@@ -6519,11 +6532,11 @@
       <c r="K126"/>
       <c r="L126" s="9"/>
       <c r="M126" s="2"/>
-      <c r="N126"/>
+      <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6535,20 +6548,20 @@
         <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F127" s="12">
-        <v>26500</v>
+        <v>27196</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J127" s="11">
         <v>0</v>
@@ -6556,11 +6569,11 @@
       <c r="K127"/>
       <c r="L127" s="9"/>
       <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+      <c r="N127"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6571,17 +6584,17 @@
       <c r="D128" t="s">
         <v>277</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>180</v>
+      <c r="E128" t="s">
+        <v>187</v>
       </c>
       <c r="F128" s="12">
-        <v>13455</v>
+        <v>26500</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>84</v>
-      </c>
-      <c r="H128" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I128" s="11" t="s">
@@ -6597,7 +6610,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6608,15 +6621,15 @@
       <c r="D129" t="s">
         <v>277</v>
       </c>
-      <c r="E129" t="s">
-        <v>168</v>
+      <c r="E129" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F129" s="12">
-        <v>22698</v>
+        <v>13455</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="H129" t="s">
         <v>203</v>
@@ -6634,7 +6647,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6646,20 +6659,20 @@
         <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F130" s="12">
-        <v>21509</v>
+        <v>22698</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>62</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>310</v>
+        <v>58</v>
+      </c>
+      <c r="H130" t="s">
+        <v>203</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
@@ -6671,7 +6684,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6683,20 +6696,20 @@
         <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F131" s="12">
-        <v>24173</v>
+        <v>21509</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
@@ -6708,7 +6721,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6720,16 +6733,16 @@
         <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F132" s="12">
-        <v>25491</v>
+        <v>24173</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>51</v>
-      </c>
-      <c r="H132" t="s">
+        <v>54</v>
+      </c>
+      <c r="H132" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I132" s="11" t="s">
@@ -6745,7 +6758,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6757,14 +6770,14 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F133" s="12">
-        <v>16455</v>
+        <v>25491</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s">
         <v>202</v>
@@ -11611,23 +11624,23 @@
       <c r="N264"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N264">
-    <sortState ref="A2:N264">
+  <autoFilter ref="A1:N264" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
       <sortCondition ref="K1:K264"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N264">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
     <sortCondition ref="K2:K264"/>
     <sortCondition ref="B2:B264"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M54" r:id="rId1"/>
-    <hyperlink ref="M55" r:id="rId2"/>
-    <hyperlink ref="M56" r:id="rId3"/>
-    <hyperlink ref="M13" r:id="rId4"/>
-    <hyperlink ref="M12" r:id="rId5"/>
-    <hyperlink ref="M35" r:id="rId6"/>
+    <hyperlink ref="M55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M57" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920B7B1-0B32-4227-ADBF-895161AC61A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226DDB1-E300-427E-99C1-679BEA64085E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -1005,9 +1005,6 @@
     <t>M. Desbordes</t>
   </si>
   <si>
-    <t>F. Huenchumilla</t>
-  </si>
-  <si>
     <t>JA. Kast</t>
   </si>
   <si>
@@ -1041,9 +1038,6 @@
     <t>https://twitter.com/RafaelProhensE/status/1339973109026353154</t>
   </si>
   <si>
-    <t>A. Elizalde</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/diputados-ps-piden-a-alvaro-elizalde-asumir-candidatura-presidencial/KTXWI22X6ZBDBCY6OXLS4SSUJA/</t>
   </si>
   <si>
@@ -1054,6 +1048,9 @@
   </si>
   <si>
     <t>https://www.latercera.com/la-tercera-pm/noticia/isabel-allende-y-su-sorpresivo-apoyo-a-paula-narvaez-es-el-tiempo-para-el-liderazgo-de-mujeres/G2TKKV3N4NFSTLJVM5SNMA2FU4/</t>
+  </si>
+  <si>
+    <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2021/01/16/tras-uncion-de-bachelet-diputados-toha-saavedra-y-monsalve-apoyan-precandidatura-de-narvaez.shtml</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1447,7 @@
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.85546875" customWidth="1"/>
@@ -1505,7 +1502,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1516,33 +1513,33 @@
       <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>107</v>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="12">
-        <v>20415</v>
+        <v>15245</v>
       </c>
       <c r="G2" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J2" s="11">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L2" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>316</v>
@@ -1550,44 +1547,44 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="12">
         <v>44132</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>83</v>
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
       </c>
       <c r="F3" s="12">
-        <v>18640</v>
+        <v>26732</v>
       </c>
       <c r="G3" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L3" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>316</v>
@@ -1595,44 +1592,44 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12">
         <v>44132</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="12">
-        <v>27118</v>
+        <v>17801</v>
       </c>
       <c r="G4" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>202</v>
+        <v>73</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L4" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>316</v>
@@ -1640,44 +1637,44 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="12">
         <v>44132</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="F5" s="12">
-        <v>22024</v>
+        <v>22305</v>
       </c>
       <c r="G5" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
         <v>60</v>
       </c>
-      <c r="H5" t="s">
-        <v>202</v>
+      <c r="H5" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L5" s="9">
-        <v>44188</v>
+        <v>44131</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>316</v>
@@ -1685,44 +1682,44 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12">
         <v>44132</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>112</v>
+        <v>277</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="F6" s="12">
-        <v>32771</v>
+        <v>24767</v>
       </c>
       <c r="G6" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L6" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>316</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1741,33 +1738,33 @@
       <c r="D7" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>120</v>
+      <c r="E7" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F7" s="12">
-        <v>24242</v>
+        <v>32101</v>
       </c>
       <c r="G7" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L7" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>316</v>
@@ -1775,7 +1772,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1786,33 +1783,33 @@
       <c r="D8" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>79</v>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="12">
-        <v>23902</v>
+        <v>20281</v>
       </c>
       <c r="G8" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L8" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>316</v>
@@ -1820,7 +1817,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1831,33 +1828,33 @@
       <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>116</v>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="12">
-        <v>18036</v>
+        <v>22890</v>
       </c>
       <c r="G9" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="L9" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>316</v>
@@ -1865,7 +1862,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1876,33 +1873,33 @@
       <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>57</v>
+      <c r="E10" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F10" s="12">
-        <v>25846</v>
+        <v>21079</v>
       </c>
       <c r="G10" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L10" s="9">
-        <v>44188</v>
+        <v>43581</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>316</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1922,32 +1919,32 @@
         <v>278</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="12">
-        <v>27112</v>
+        <v>29549</v>
       </c>
       <c r="G11" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L11" s="9">
-        <v>44188</v>
+        <v>43581</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>316</v>
@@ -1955,32 +1952,32 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12">
         <v>44132</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>278</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="12">
-        <v>25553</v>
+        <v>31817</v>
       </c>
       <c r="G12" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J12" s="11">
         <v>1</v>
@@ -1989,10 +1986,10 @@
         <v>322</v>
       </c>
       <c r="L12" s="9">
-        <v>44144</v>
+        <v>43581</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>316</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -2012,20 +2009,20 @@
         <v>278</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F13" s="12">
-        <v>21157</v>
+        <v>19434</v>
       </c>
       <c r="G13" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
@@ -2034,10 +2031,10 @@
         <v>322</v>
       </c>
       <c r="L13" s="9">
-        <v>44144</v>
+        <v>43581</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>316</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -2056,33 +2053,33 @@
       <c r="D14" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>49</v>
+      <c r="E14" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F14" s="12">
-        <v>15245</v>
+        <v>27719</v>
       </c>
       <c r="G14" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J14" s="11">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L14" s="9">
-        <v>44124</v>
+        <v>43581</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>316</v>
@@ -2090,44 +2087,44 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="12">
         <v>44132</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" t="s">
-        <v>170</v>
+        <v>278</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="12">
-        <v>26732</v>
+        <v>26299</v>
       </c>
       <c r="G15" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J15" s="11">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L15" s="9">
-        <v>44124</v>
+        <v>43581</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>316</v>
@@ -2135,44 +2132,44 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="12">
         <v>44132</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" t="s">
-        <v>191</v>
+        <v>278</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="12">
-        <v>17801</v>
+        <v>29287</v>
       </c>
       <c r="G16" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
-        <v>72</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>203</v>
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>200</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J16" s="11">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L16" s="9">
-        <v>44124</v>
+        <v>43581</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>316</v>
@@ -2180,44 +2177,44 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="12">
         <v>44132</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="F17" s="12">
-        <v>22305</v>
+        <v>25084</v>
       </c>
       <c r="G17" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
-        <v>59</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>203</v>
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>200</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J17" s="11">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L17" s="9">
-        <v>44131</v>
+        <v>43581</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>316</v>
@@ -2225,44 +2222,44 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="12">
         <v>44132</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="12">
-        <v>24767</v>
+        <v>274</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="9">
+        <v>24970</v>
       </c>
       <c r="G18" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
         <v>53</v>
       </c>
-      <c r="H18" t="s">
-        <v>203</v>
+      <c r="H18" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L18" s="9">
-        <v>44124</v>
+        <v>44182</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>316</v>
@@ -2270,44 +2267,44 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="12">
         <v>44132</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="12">
-        <v>32101</v>
+        <v>275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="9">
+        <v>24689</v>
       </c>
       <c r="G19" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>201</v>
+        <v>54</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J19" s="11">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L19" s="9">
-        <v>44124</v>
+        <v>44182</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>316</v>
@@ -2315,41 +2312,41 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="12">
         <v>44132</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="12">
-        <v>20281</v>
+        <v>276</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="9">
+        <v>27429</v>
       </c>
       <c r="G20" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>203</v>
+        <v>46</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L20" s="9">
-        <v>44124</v>
+        <v>44133</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>328</v>
@@ -2360,44 +2357,44 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="12">
         <v>44132</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>277</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
       </c>
       <c r="F21" s="12">
-        <v>22890</v>
+        <v>20252</v>
       </c>
       <c r="G21" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L21" s="9">
-        <v>44124</v>
+        <v>44183</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>316</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -2416,33 +2413,33 @@
       <c r="D22" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>155</v>
+      <c r="E22" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F22" s="12">
-        <v>21079</v>
+        <v>27763</v>
       </c>
       <c r="G22" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="J22" s="11">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L22" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>316</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -2461,41 +2458,41 @@
       <c r="D23" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>67</v>
+      <c r="E23" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F23" s="12">
-        <v>29549</v>
+        <v>21674</v>
       </c>
       <c r="G23" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L23" s="9">
-        <v>43581</v>
+        <v>44133</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2507,14 +2504,14 @@
         <v>278</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F24" s="12">
-        <v>31817</v>
+        <v>27492</v>
       </c>
       <c r="G24" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>200</v>
@@ -2526,13 +2523,13 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L24" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>316</v>
@@ -2540,7 +2537,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2551,15 +2548,15 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>63</v>
+      <c r="E25" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F25" s="12">
-        <v>19434</v>
+        <v>30097</v>
       </c>
       <c r="G25" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
         <v>200</v>
@@ -2571,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L25" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>316</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2596,17 +2593,17 @@
       <c r="D26" t="s">
         <v>278</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="12">
-        <v>27719</v>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="9">
+        <v>32980</v>
       </c>
       <c r="G26" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -2616,13 +2613,13 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L26" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>316</v>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2642,14 +2639,14 @@
         <v>278</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" s="12">
-        <v>26299</v>
+        <v>24666</v>
       </c>
       <c r="G27" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
         <v>200</v>
@@ -2661,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L27" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>316</v>
@@ -2675,7 +2672,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2687,14 +2684,14 @@
         <v>278</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F28" s="12">
-        <v>29287</v>
+        <v>27004</v>
       </c>
       <c r="G28" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>200</v>
@@ -2706,13 +2703,13 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L28" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>316</v>
@@ -2720,7 +2717,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2731,15 +2728,15 @@
       <c r="D29" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>144</v>
+      <c r="E29" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="12">
-        <v>25084</v>
+        <v>29572</v>
       </c>
       <c r="G29" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
         <v>200</v>
@@ -2751,13 +2748,13 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L29" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>316</v>
@@ -2765,28 +2762,28 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" s="12">
         <v>44132</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="9">
-        <v>24970</v>
+        <v>278</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="12">
+        <v>24834</v>
       </c>
       <c r="G30" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
-        <v>52</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
         <v>200</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -2799,10 +2796,10 @@
         <v>321</v>
       </c>
       <c r="L30" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>316</v>
@@ -2810,44 +2807,44 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="12">
         <v>44132</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="9">
-        <v>24689</v>
+        <v>278</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="12">
+        <v>20415</v>
       </c>
       <c r="G31" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
-        <v>53</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>200</v>
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>202</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J31" s="11">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L31" s="9">
-        <v>44182</v>
+        <v>44188</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>316</v>
@@ -2855,44 +2852,44 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="12">
         <v>44132</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
-      </c>
-      <c r="E32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="9">
-        <v>27429</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="12">
+        <v>23902</v>
       </c>
       <c r="G32" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
-        <v>45</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>200</v>
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>202</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J32" s="11">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L32" s="9">
-        <v>44133</v>
+        <v>44188</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>316</v>
@@ -2900,44 +2897,44 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C33" s="12">
         <v>44132</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="12">
-        <v>20252</v>
+        <v>224</v>
+      </c>
+      <c r="F33" s="9">
+        <v>18900</v>
       </c>
       <c r="G33" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>200</v>
+        <v>70</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" s="11">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L33" s="9">
-        <v>44183</v>
+        <v>44193</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>316</v>
@@ -2945,44 +2942,44 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="12">
         <v>44132</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>88</v>
+        <v>277</v>
+      </c>
+      <c r="E34" t="s">
+        <v>189</v>
       </c>
       <c r="F34" s="12">
-        <v>27763</v>
+        <v>16933</v>
       </c>
       <c r="G34" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
-        <v>44</v>
-      </c>
-      <c r="H34" t="s">
-        <v>201</v>
+        <v>75</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L34" s="9">
-        <v>44135</v>
+        <v>44193</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>316</v>
@@ -2990,52 +2987,52 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="12">
         <v>44132</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>99</v>
+        <v>277</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
       </c>
       <c r="F35" s="12">
-        <v>21674</v>
+        <v>16455</v>
       </c>
       <c r="G35" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
-        <v>321</v>
+      <c r="K35" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="L35" s="9">
-        <v>44133</v>
+        <v>44195</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N35" t="s">
+        <v>336</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -3046,33 +3043,33 @@
       <c r="D36" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>27</v>
+      <c r="E36" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F36" s="12">
-        <v>27492</v>
+        <v>26203</v>
       </c>
       <c r="G36" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L36" s="9">
-        <v>44135</v>
+        <v>44193</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>316</v>
@@ -3080,7 +3077,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3092,32 +3089,32 @@
         <v>278</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F37" s="12">
-        <v>30097</v>
+        <v>14047</v>
       </c>
       <c r="G37" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L37" s="9">
-        <v>44135</v>
+        <v>44212</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>316</v>
@@ -3125,26 +3122,26 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="F38" s="9">
-        <v>32980</v>
+        <v>20492</v>
       </c>
       <c r="G38" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>200</v>
@@ -3156,13 +3153,13 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L38" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>316</v>
@@ -3170,7 +3167,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3181,15 +3178,15 @@
       <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>38</v>
+      <c r="E39" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F39" s="12">
-        <v>24666</v>
+        <v>31990</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
         <v>200</v>
@@ -3201,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L39" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>316</v>
@@ -3215,7 +3212,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3227,14 +3224,14 @@
         <v>278</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F40" s="12">
-        <v>27004</v>
+        <v>31120</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
         <v>200</v>
@@ -3246,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L40" s="9">
         <v>44135</v>
@@ -3260,7 +3257,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3272,14 +3269,14 @@
         <v>278</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F41" s="12">
-        <v>29572</v>
+        <v>26133</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
         <v>200</v>
@@ -3291,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L41" s="9">
         <v>44135</v>
@@ -3305,7 +3302,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3316,15 +3313,15 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>101</v>
+      <c r="E42" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F42" s="12">
-        <v>24834</v>
+        <v>22263</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
         <v>200</v>
@@ -3336,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L42" s="9">
         <v>44135</v>
@@ -3350,44 +3347,44 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43" s="12">
         <v>44132</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" s="9">
-        <v>18900</v>
+        <v>278</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="12">
+        <v>21548</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>69</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>202</v>
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>200</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L43" s="9">
-        <v>44193</v>
+        <v>44182</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>316</v>
@@ -3395,44 +3392,44 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" s="12">
         <v>44132</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="12">
-        <v>16933</v>
+        <v>227</v>
+      </c>
+      <c r="F44" s="9">
+        <v>31116</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L44" s="9">
-        <v>44193</v>
+        <v>44135</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>316</v>
@@ -3440,44 +3437,44 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="12">
         <v>44132</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
-      </c>
-      <c r="E45" t="s">
-        <v>176</v>
+        <v>278</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="12">
-        <v>16455</v>
+        <v>28805</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>337</v>
+      <c r="K45" t="s">
+        <v>325</v>
       </c>
       <c r="L45" s="9">
-        <v>44195</v>
+        <v>44182</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>316</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3496,33 +3493,33 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>141</v>
+      <c r="E46" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F46" s="12">
-        <v>26203</v>
+        <v>19343</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="L46" s="9">
-        <v>44193</v>
+        <v>44144</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>316</v>
@@ -3530,44 +3527,44 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47" s="12">
         <v>44132</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="12">
+        <v>28018</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>64</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>200</v>
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>204</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J47" s="11">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L47" s="9">
-        <v>44182</v>
+        <v>44144</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>316</v>
@@ -3575,7 +3572,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3586,33 +3583,33 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>93</v>
+      <c r="E48" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F48" s="12">
-        <v>31990</v>
+        <v>31247</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L48" s="9">
-        <v>44182</v>
+        <v>44144</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>316</v>
@@ -3620,52 +3617,44 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="12">
         <v>44132</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>115</v>
+        <v>277</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F49" s="12">
-        <v>31120</v>
+        <v>25553</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J49" s="11">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>326</v>
-      </c>
-      <c r="L49" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3676,41 +3665,33 @@
       <c r="D50" t="s">
         <v>278</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>68</v>
+      <c r="E50" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F50" s="12">
-        <v>26133</v>
+        <v>21157</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J50" s="11">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>326</v>
-      </c>
-      <c r="L50" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3721,41 +3702,33 @@
       <c r="D51" t="s">
         <v>278</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>91</v>
+      <c r="E51" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F51" s="12">
-        <v>22263</v>
+        <v>18640</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J51" s="11">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>326</v>
-      </c>
-      <c r="L51" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3767,40 +3740,32 @@
         <v>278</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F52" s="12">
-        <v>21548</v>
+        <v>27118</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J52" s="11">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>326</v>
-      </c>
-      <c r="L52" s="9">
-        <v>44182</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3811,41 +3776,33 @@
       <c r="D53" t="s">
         <v>278</v>
       </c>
-      <c r="E53" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53" s="9">
-        <v>31116</v>
+      <c r="E53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="12">
+        <v>22024</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>35</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>200</v>
+        <v>61</v>
+      </c>
+      <c r="H53" t="s">
+        <v>202</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J53" s="11">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>326</v>
-      </c>
-      <c r="L53" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3856,41 +3813,33 @@
       <c r="D54" t="s">
         <v>278</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>69</v>
+      <c r="E54" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F54" s="12">
-        <v>28805</v>
+        <v>32771</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J54" s="11">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>326</v>
-      </c>
-      <c r="L54" s="9">
-        <v>44182</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3901,41 +3850,33 @@
       <c r="D55" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>134</v>
+      <c r="E55" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F55" s="12">
-        <v>19343</v>
+        <v>24242</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J55" s="11">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>325</v>
-      </c>
-      <c r="L55" s="9">
-        <v>44144</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -3946,41 +3887,33 @@
       <c r="D56" t="s">
         <v>278</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>119</v>
+      <c r="E56" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F56" s="12">
-        <v>28018</v>
+        <v>18036</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J56" s="11">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>325</v>
-      </c>
-      <c r="L56" s="9">
-        <v>44144</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -3992,113 +3925,105 @@
         <v>278</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F57" s="12">
-        <v>31247</v>
+        <v>25846</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J57" s="11">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>325</v>
-      </c>
-      <c r="L57" s="9">
-        <v>44144</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
-      </c>
-      <c r="E58" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="12">
+        <v>27112</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>71</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>201</v>
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>202</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="9"/>
-      <c r="N58"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F59" s="9">
-        <v>15516</v>
+        <v>18233</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -4110,20 +4035,20 @@
         <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="F60" s="9">
-        <v>13941</v>
+        <v>15516</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -4135,32 +4060,32 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="12">
         <v>44132</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F61" s="9">
-        <v>20120</v>
+        <v>13941</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J61" s="11">
         <v>0</v>
@@ -4172,7 +4097,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4184,14 +4109,14 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="F62" s="9">
-        <v>26645</v>
+        <v>20120</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>206</v>
@@ -4209,7 +4134,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4221,20 +4146,20 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F63" s="9">
-        <v>20671</v>
+        <v>26645</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
@@ -4246,7 +4171,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4258,14 +4183,14 @@
         <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F64" s="9">
-        <v>25134</v>
+        <v>20671</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>201</v>
@@ -4283,7 +4208,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4295,14 +4220,14 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F65" s="9">
-        <v>22460</v>
+        <v>25134</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>201</v>
@@ -4320,7 +4245,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4332,14 +4257,14 @@
         <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F66" s="9">
-        <v>24724</v>
+        <v>22460</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>201</v>
@@ -4357,7 +4282,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4369,14 +4294,14 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="F67" s="9">
-        <v>17815</v>
+        <v>24724</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>201</v>
@@ -4394,7 +4319,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4406,14 +4331,14 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="F68" s="9">
-        <v>17779</v>
+        <v>17815</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>201</v>
@@ -4431,7 +4356,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4443,14 +4368,14 @@
         <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="F69" s="9">
-        <v>27681</v>
+        <v>17779</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>201</v>
@@ -4468,7 +4393,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4480,14 +4405,14 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F70" s="9">
-        <v>28232</v>
+        <v>27681</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>201</v>
@@ -4505,7 +4430,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4517,14 +4442,14 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F71" s="9">
-        <v>27653</v>
+        <v>28232</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>201</v>
@@ -4542,7 +4467,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4554,14 +4479,14 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="F72" s="9">
-        <v>27474</v>
+        <v>27653</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>201</v>
@@ -4579,7 +4504,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4591,20 +4516,20 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F73" s="9">
-        <v>21368</v>
+        <v>27474</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4616,7 +4541,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4628,14 +4553,14 @@
         <v>274</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F74" s="9">
-        <v>27295</v>
+        <v>21368</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>200</v>
@@ -4653,7 +4578,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -4664,17 +4589,17 @@
       <c r="D75" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="12">
-        <v>25126</v>
+      <c r="E75" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" s="9">
+        <v>27295</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>52</v>
-      </c>
-      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I75" s="11" t="s">
@@ -4690,7 +4615,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -4701,21 +4626,21 @@
       <c r="D76" t="s">
         <v>274</v>
       </c>
-      <c r="E76" t="s">
-        <v>309</v>
-      </c>
-      <c r="F76" s="9">
-        <v>26556</v>
+      <c r="E76" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="12">
+        <v>25126</v>
       </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>48</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>205</v>
+        <v>53</v>
+      </c>
+      <c r="H76" t="s">
+        <v>200</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
@@ -4727,7 +4652,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -4739,14 +4664,14 @@
         <v>274</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="F77" s="9">
-        <v>17431</v>
+        <v>26556</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>205</v>
@@ -4764,7 +4689,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -4775,17 +4700,17 @@
       <c r="D78" t="s">
         <v>274</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="12">
-        <v>29554</v>
+      <c r="E78" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" s="9">
+        <v>17431</v>
       </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>40</v>
-      </c>
-      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I78" s="11" t="s">
@@ -4801,7 +4726,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -4812,17 +4737,17 @@
       <c r="D79" t="s">
         <v>274</v>
       </c>
-      <c r="E79" t="s">
-        <v>220</v>
-      </c>
-      <c r="F79" s="9">
-        <v>32557</v>
+      <c r="E79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="12">
+        <v>29554</v>
       </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>31</v>
-      </c>
-      <c r="H79" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s">
         <v>205</v>
       </c>
       <c r="I79" s="11" t="s">
@@ -4838,7 +4763,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -4850,14 +4775,14 @@
         <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="F80" s="9">
-        <v>27105</v>
+        <v>32557</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>205</v>
@@ -4875,7 +4800,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -4887,14 +4812,14 @@
         <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F81" s="9">
-        <v>22770</v>
+        <v>27105</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>205</v>
@@ -4912,7 +4837,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -4924,14 +4849,14 @@
         <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="F82" s="9">
-        <v>20015</v>
+        <v>22770</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>205</v>
@@ -4949,43 +4874,44 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="12">
         <v>44132</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F83" s="9">
-        <v>25454</v>
+        <v>20015</v>
       </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="9"/>
-      <c r="N83"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4997,14 +4923,14 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F84" s="9">
-        <v>30994</v>
+        <v>25454</v>
       </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>206</v>
@@ -5021,7 +4947,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -5033,18 +4959,20 @@
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="F85" s="9">
+        <v>30994</v>
+      </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J85" s="11">
         <v>0</v>
@@ -5055,7 +4983,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -5067,14 +4995,12 @@
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>252</v>
-      </c>
-      <c r="F86" s="9">
-        <v>19642</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>201</v>
@@ -5091,7 +5017,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5103,12 +5029,14 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
-      </c>
-      <c r="F87" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="F87" s="9">
+        <v>19642</v>
+      </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>201</v>
@@ -5125,7 +5053,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5137,18 +5065,18 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -5159,7 +5087,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -5171,14 +5099,12 @@
         <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
-      </c>
-      <c r="F89" s="9">
-        <v>18048</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>200</v>
@@ -5195,7 +5121,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -5207,14 +5133,14 @@
         <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F90" s="9">
-        <v>26622</v>
+        <v>18048</v>
       </c>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>200</v>
@@ -5231,7 +5157,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -5243,14 +5169,14 @@
         <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F91" s="9">
-        <v>29935</v>
+        <v>26622</v>
       </c>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>200</v>
@@ -5267,7 +5193,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -5279,12 +5205,14 @@
         <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
-      </c>
-      <c r="F92" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="F92" s="9">
+        <v>29935</v>
+      </c>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>200</v>
@@ -5301,7 +5229,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5313,20 +5241,18 @@
         <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
-      </c>
-      <c r="F93" s="9">
-        <v>27655</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F93" s="9"/>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5337,7 +5263,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5349,14 +5275,14 @@
         <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F94" s="9">
-        <v>25492</v>
+        <v>27655</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>205</v>
@@ -5373,7 +5299,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5385,14 +5311,14 @@
         <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F95" s="9">
-        <v>22881</v>
+        <v>25492</v>
       </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>205</v>
@@ -5409,7 +5335,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -5421,14 +5347,14 @@
         <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F96" s="9">
-        <v>20806</v>
+        <v>22881</v>
       </c>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>205</v>
@@ -5445,7 +5371,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -5457,14 +5383,14 @@
         <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F97" s="9">
-        <v>29105</v>
+        <v>20806</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>205</v>
@@ -5481,44 +5407,43 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="12">
         <v>44132</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F98" s="9">
-        <v>28422</v>
+        <v>29105</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5530,12 +5455,14 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
-      </c>
-      <c r="F99" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="F99" s="9">
+        <v>28422</v>
+      </c>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>204</v>
@@ -5553,7 +5480,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5565,20 +5492,18 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
-      </c>
-      <c r="F100" s="9">
-        <v>26763</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
@@ -5590,7 +5515,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5602,14 +5527,14 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F101" s="9">
-        <v>31131</v>
+        <v>26763</v>
       </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>201</v>
@@ -5627,7 +5552,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5639,14 +5564,14 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F102" s="9">
-        <v>20899</v>
+        <v>31131</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>201</v>
@@ -5659,11 +5584,12 @@
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="N102"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5675,14 +5601,14 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F103" s="9">
-        <v>25265</v>
+        <v>20899</v>
       </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>201</v>
@@ -5695,12 +5621,11 @@
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5712,12 +5637,14 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>248</v>
-      </c>
-      <c r="F104" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="F104" s="9">
+        <v>25265</v>
+      </c>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>201</v>
@@ -5730,11 +5657,12 @@
       </c>
       <c r="K104"/>
       <c r="L104" s="9"/>
-      <c r="N104"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5746,14 +5674,12 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>235</v>
-      </c>
-      <c r="F105" s="9">
-        <v>26090</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F105" s="9"/>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>201</v>
@@ -5766,12 +5692,11 @@
       </c>
       <c r="K105"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5783,20 +5708,20 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F106" s="9">
-        <v>28694</v>
+        <v>26090</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
@@ -5808,7 +5733,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5820,20 +5745,20 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F107" s="9">
-        <v>34561</v>
+        <v>28694</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
@@ -5845,7 +5770,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5857,18 +5782,20 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>251</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>266</v>
+      </c>
+      <c r="F108" s="9">
+        <v>34561</v>
+      </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5880,7 +5807,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5892,12 +5819,12 @@
         <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>202</v>
@@ -5915,7 +5842,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5927,12 +5854,12 @@
         <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>202</v>
@@ -5950,7 +5877,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5962,31 +5889,30 @@
         <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>250</v>
-      </c>
-      <c r="F111" s="9">
-        <v>27845</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F111" s="9"/>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="N111"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5998,14 +5924,14 @@
         <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F112" s="9">
-        <v>27116</v>
+        <v>27845</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>200</v>
@@ -6018,12 +5944,11 @@
       </c>
       <c r="K112"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -6035,12 +5960,14 @@
         <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
-      </c>
-      <c r="F113" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="F113" s="9">
+        <v>27116</v>
+      </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>200</v>
@@ -6053,11 +5980,12 @@
       </c>
       <c r="K113"/>
       <c r="L113" s="9"/>
-      <c r="N113"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -6069,14 +5997,12 @@
         <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>240</v>
-      </c>
-      <c r="F114" s="9">
-        <v>22196</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F114" s="9"/>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>200</v>
@@ -6093,7 +6019,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -6105,14 +6031,14 @@
         <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F115" s="9">
-        <v>19005</v>
+        <v>22196</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>200</v>
@@ -6129,7 +6055,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -6141,32 +6067,31 @@
         <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F116" s="9">
-        <v>19655</v>
+        <v>19005</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="9"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="N116"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -6178,14 +6103,14 @@
         <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F117" s="9">
-        <v>14442</v>
+        <v>19655</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>205</v>
@@ -6203,32 +6128,32 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="12">
         <v>44132</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
-      </c>
-      <c r="F118" s="12">
-        <v>26653</v>
+        <v>236</v>
+      </c>
+      <c r="F118" s="9">
+        <v>14442</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
@@ -6240,7 +6165,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6251,17 +6176,17 @@
       <c r="D119" t="s">
         <v>277</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>166</v>
+      <c r="E119" t="s">
+        <v>185</v>
       </c>
       <c r="F119" s="12">
-        <v>16153</v>
+        <v>26653</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>76</v>
-      </c>
-      <c r="H119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I119" s="11" t="s">
@@ -6277,7 +6202,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6288,17 +6213,17 @@
       <c r="D120" t="s">
         <v>277</v>
       </c>
-      <c r="E120" t="s">
-        <v>194</v>
+      <c r="E120" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F120" s="12">
-        <v>19105</v>
+        <v>16153</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>68</v>
-      </c>
-      <c r="H120" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" t="s">
         <v>204</v>
       </c>
       <c r="I120" s="11" t="s">
@@ -6314,7 +6239,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6325,17 +6250,17 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>179</v>
+      <c r="E121" t="s">
+        <v>194</v>
       </c>
       <c r="F121" s="12">
-        <v>25024</v>
+        <v>19105</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>52</v>
-      </c>
-      <c r="H121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I121" s="11" t="s">
@@ -6351,7 +6276,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6362,33 +6287,33 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>178</v>
+      <c r="E122" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F122" s="12">
-        <v>28285</v>
+        <v>25024</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H122" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6399,33 +6324,33 @@
       <c r="D123" t="s">
         <v>277</v>
       </c>
-      <c r="E123" t="s">
-        <v>186</v>
+      <c r="E123" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F123" s="12">
-        <v>19423</v>
+        <v>28285</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>67</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>201</v>
+        <v>44</v>
+      </c>
+      <c r="H123" t="s">
+        <v>206</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6437,14 +6362,14 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F124" s="12">
-        <v>22224</v>
+        <v>19423</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H124" s="11" t="s">
         <v>201</v>
@@ -6458,11 +6383,11 @@
       <c r="K124"/>
       <c r="L124" s="9"/>
       <c r="M124" s="2"/>
-      <c r="N124"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6474,16 +6399,16 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F125" s="12">
-        <v>24478</v>
+        <v>22224</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>53</v>
-      </c>
-      <c r="H125" t="s">
+        <v>61</v>
+      </c>
+      <c r="H125" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I125" s="11" t="s">
@@ -6494,12 +6419,12 @@
       </c>
       <c r="K125"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6511,14 +6436,14 @@
         <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F126" s="12">
-        <v>21845</v>
+        <v>24478</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H126" t="s">
         <v>201</v>
@@ -6531,12 +6456,12 @@
       </c>
       <c r="K126"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="2"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6548,16 +6473,16 @@
         <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F127" s="12">
-        <v>27196</v>
+        <v>21845</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>46</v>
-      </c>
-      <c r="H127" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H127" t="s">
         <v>201</v>
       </c>
       <c r="I127" s="11" t="s">
@@ -6569,11 +6494,11 @@
       <c r="K127"/>
       <c r="L127" s="9"/>
       <c r="M127" s="2"/>
-      <c r="N127"/>
+      <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6585,20 +6510,20 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F128" s="12">
-        <v>26500</v>
+        <v>27196</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6606,11 +6531,11 @@
       <c r="K128"/>
       <c r="L128" s="9"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="N128"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6621,17 +6546,17 @@
       <c r="D129" t="s">
         <v>277</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>180</v>
+      <c r="E129" t="s">
+        <v>187</v>
       </c>
       <c r="F129" s="12">
-        <v>13455</v>
+        <v>26500</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>84</v>
-      </c>
-      <c r="H129" t="s">
+        <v>49</v>
+      </c>
+      <c r="H129" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I129" s="11" t="s">
@@ -6647,7 +6572,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6658,15 +6583,15 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130" t="s">
-        <v>168</v>
+      <c r="E130" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F130" s="12">
-        <v>22698</v>
+        <v>13455</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H130" t="s">
         <v>203</v>
@@ -6684,7 +6609,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6696,20 +6621,20 @@
         <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F131" s="12">
-        <v>21509</v>
+        <v>22698</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>62</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>310</v>
+        <v>59</v>
+      </c>
+      <c r="H131" t="s">
+        <v>203</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
@@ -6721,7 +6646,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6733,20 +6658,20 @@
         <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F132" s="12">
-        <v>24173</v>
+        <v>21509</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="J132" s="11">
         <v>0</v>
@@ -6758,7 +6683,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6770,16 +6695,16 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F133" s="12">
-        <v>25491</v>
+        <v>24173</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>51</v>
-      </c>
-      <c r="H133" t="s">
+        <v>55</v>
+      </c>
+      <c r="H133" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I133" s="11" t="s">
@@ -6795,7 +6720,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6806,15 +6731,15 @@
       <c r="D134" t="s">
         <v>277</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>167</v>
+      <c r="E134" t="s">
+        <v>163</v>
       </c>
       <c r="F134" s="12">
-        <v>15859</v>
+        <v>25491</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H134" t="s">
         <v>202</v>
@@ -6832,7 +6757,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6843,17 +6768,17 @@
       <c r="D135" t="s">
         <v>277</v>
       </c>
-      <c r="E135" t="s">
-        <v>188</v>
+      <c r="E135" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F135" s="12">
-        <v>22288</v>
+        <v>15859</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>59</v>
-      </c>
-      <c r="H135" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
         <v>202</v>
       </c>
       <c r="I135" s="11" t="s">
@@ -6869,7 +6794,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6881,14 +6806,14 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F136" s="12">
-        <v>16010</v>
+        <v>22288</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>202</v>
@@ -6906,7 +6831,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6918,20 +6843,20 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F137" s="12">
-        <v>28573</v>
+        <v>16010</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>42</v>
-      </c>
-      <c r="H137" t="s">
-        <v>207</v>
+        <v>78</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
@@ -6943,7 +6868,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6954,33 +6879,33 @@
       <c r="D138" t="s">
         <v>277</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>160</v>
+      <c r="E138" t="s">
+        <v>169</v>
       </c>
       <c r="F138" s="12">
-        <v>26073</v>
+        <v>28573</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H138" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="8"/>
+      <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6991,15 +6916,15 @@
       <c r="D139" t="s">
         <v>277</v>
       </c>
-      <c r="E139" t="s">
-        <v>165</v>
+      <c r="E139" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F139" s="12">
-        <v>20231</v>
+        <v>26073</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H139" t="s">
         <v>200</v>
@@ -7017,7 +6942,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -7029,14 +6954,14 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F140" s="12">
-        <v>21855</v>
+        <v>20231</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H140" t="s">
         <v>200</v>
@@ -7049,12 +6974,12 @@
       </c>
       <c r="K140"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="2"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -7066,16 +6991,16 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F141" s="12">
-        <v>22882</v>
+        <v>21855</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>58</v>
-      </c>
-      <c r="H141" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H141" t="s">
         <v>200</v>
       </c>
       <c r="I141" s="11" t="s">
@@ -7091,7 +7016,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7102,17 +7027,17 @@
       <c r="D142" t="s">
         <v>277</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>108</v>
+      <c r="E142" t="s">
+        <v>193</v>
       </c>
       <c r="F142" s="12">
-        <v>29680</v>
+        <v>22882</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>39</v>
-      </c>
-      <c r="H142" t="s">
+        <v>59</v>
+      </c>
+      <c r="H142" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I142" s="11" t="s">
@@ -7128,7 +7053,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7139,15 +7064,15 @@
       <c r="D143" t="s">
         <v>277</v>
       </c>
-      <c r="E143" t="s">
-        <v>164</v>
+      <c r="E143" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F143" s="12">
-        <v>24414</v>
+        <v>29680</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H143" t="s">
         <v>200</v>
@@ -7165,7 +7090,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7177,20 +7102,20 @@
         <v>277</v>
       </c>
       <c r="E144" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F144" s="12">
-        <v>19103</v>
+        <v>24414</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>68</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>205</v>
+        <v>55</v>
+      </c>
+      <c r="H144" t="s">
+        <v>200</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J144" s="11">
         <v>0</v>
@@ -7202,7 +7127,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -7214,14 +7139,14 @@
         <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>230</v>
-      </c>
-      <c r="F145" s="9">
-        <v>21953</v>
+        <v>198</v>
+      </c>
+      <c r="F145" s="12">
+        <v>19103</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H145" s="11" t="s">
         <v>205</v>
@@ -7234,11 +7159,12 @@
       </c>
       <c r="K145"/>
       <c r="L145" s="9"/>
-      <c r="N145"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -7250,16 +7176,16 @@
         <v>277</v>
       </c>
       <c r="E146" t="s">
-        <v>175</v>
-      </c>
-      <c r="F146" s="12">
-        <v>19287</v>
+        <v>230</v>
+      </c>
+      <c r="F146" s="9">
+        <v>21953</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>68</v>
-      </c>
-      <c r="H146" t="s">
+        <v>61</v>
+      </c>
+      <c r="H146" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I146" s="11" t="s">
@@ -7270,12 +7196,11 @@
       </c>
       <c r="K146"/>
       <c r="L146" s="9"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
+      <c r="N146"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B147">
         <v>6</v>
@@ -7287,16 +7212,16 @@
         <v>277</v>
       </c>
       <c r="E147" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F147" s="12">
-        <v>27361</v>
+        <v>19287</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>46</v>
-      </c>
-      <c r="H147" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H147" t="s">
         <v>205</v>
       </c>
       <c r="I147" s="11" t="s">
@@ -7307,12 +7232,12 @@
       </c>
       <c r="K147"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="8"/>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -7324,14 +7249,14 @@
         <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F148" s="12">
-        <v>20797</v>
+        <v>27361</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H148" s="11" t="s">
         <v>205</v>
@@ -7344,12 +7269,12 @@
       </c>
       <c r="K148"/>
       <c r="L148" s="9"/>
-      <c r="M148" s="2"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B149">
         <v>6</v>
@@ -7361,14 +7286,14 @@
         <v>277</v>
       </c>
       <c r="E149" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F149" s="12">
-        <v>23776</v>
+        <v>20797</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H149" s="11" t="s">
         <v>205</v>
@@ -7386,7 +7311,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -7397,17 +7322,17 @@
       <c r="D150" t="s">
         <v>277</v>
       </c>
-      <c r="E150" s="5" t="s">
-        <v>161</v>
+      <c r="E150" t="s">
+        <v>199</v>
       </c>
       <c r="F150" s="12">
-        <v>22094</v>
+        <v>23776</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>60</v>
-      </c>
-      <c r="H150" t="s">
+        <v>56</v>
+      </c>
+      <c r="H150" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I150" s="11" t="s">
@@ -7423,7 +7348,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -7434,15 +7359,15 @@
       <c r="D151" t="s">
         <v>277</v>
       </c>
-      <c r="E151" t="s">
-        <v>177</v>
+      <c r="E151" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F151" s="12">
-        <v>20651</v>
+        <v>22094</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H151" t="s">
         <v>205</v>
@@ -7460,7 +7385,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -7471,15 +7396,15 @@
       <c r="D152" t="s">
         <v>277</v>
       </c>
-      <c r="E152" s="5" t="s">
-        <v>162</v>
+      <c r="E152" t="s">
+        <v>177</v>
       </c>
       <c r="F152" s="12">
-        <v>23444</v>
+        <v>20651</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H152" t="s">
         <v>205</v>
@@ -7497,32 +7422,32 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" s="12">
         <v>44132</v>
       </c>
       <c r="D153" t="s">
-        <v>278</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>105</v>
+        <v>277</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F153" s="12">
-        <v>33308</v>
+        <v>23444</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H153" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>
@@ -7534,7 +7459,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -7546,14 +7471,14 @@
         <v>278</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F154" s="12">
-        <v>25397</v>
+        <v>33308</v>
       </c>
       <c r="G154" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H154" t="s">
         <v>312</v>
@@ -7571,7 +7496,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -7583,20 +7508,20 @@
         <v>278</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F155" s="12">
-        <v>32533</v>
+        <v>25397</v>
       </c>
       <c r="G155" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H155" t="s">
-        <v>229</v>
-      </c>
-      <c r="I155" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="J155" s="11">
         <v>0</v>
@@ -7608,7 +7533,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -7619,15 +7544,15 @@
       <c r="D156" t="s">
         <v>278</v>
       </c>
-      <c r="E156" s="6" t="s">
-        <v>18</v>
+      <c r="E156" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F156" s="12">
-        <v>31454</v>
+        <v>32533</v>
       </c>
       <c r="G156" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H156" t="s">
         <v>229</v>
@@ -7645,7 +7570,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -7656,20 +7581,20 @@
       <c r="D157" t="s">
         <v>278</v>
       </c>
-      <c r="E157" s="11" t="s">
-        <v>148</v>
+      <c r="E157" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F157" s="12">
-        <v>32481</v>
+        <v>31454</v>
       </c>
       <c r="G157" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H157" t="s">
         <v>229</v>
       </c>
-      <c r="I157" s="11" t="s">
+      <c r="I157" t="s">
         <v>282</v>
       </c>
       <c r="J157" s="11">
@@ -7682,7 +7607,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7694,10 +7619,10 @@
         <v>278</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F158" s="12">
-        <v>31783</v>
+        <v>32481</v>
       </c>
       <c r="G158" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
@@ -7706,7 +7631,7 @@
       <c r="H158" t="s">
         <v>229</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="11" t="s">
         <v>282</v>
       </c>
       <c r="J158" s="11">
@@ -7719,7 +7644,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7730,21 +7655,21 @@
       <c r="D159" t="s">
         <v>278</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>10</v>
+      <c r="E159" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F159" s="12">
-        <v>19657</v>
+        <v>31783</v>
       </c>
       <c r="G159" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H159" t="s">
-        <v>204</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>287</v>
+        <v>229</v>
+      </c>
+      <c r="I159" t="s">
+        <v>282</v>
       </c>
       <c r="J159" s="11">
         <v>0</v>
@@ -7756,7 +7681,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7768,14 +7693,14 @@
         <v>278</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F160" s="12">
-        <v>20255</v>
+        <v>19657</v>
       </c>
       <c r="G160" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H160" t="s">
         <v>204</v>
@@ -7793,7 +7718,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7804,15 +7729,15 @@
       <c r="D161" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="11" t="s">
-        <v>96</v>
+      <c r="E161" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F161" s="12">
-        <v>27851</v>
+        <v>20255</v>
       </c>
       <c r="G161" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H161" t="s">
         <v>204</v>
@@ -7830,7 +7755,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7841,15 +7766,15 @@
       <c r="D162" t="s">
         <v>278</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>152</v>
+      <c r="E162" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F162" s="12">
-        <v>23371</v>
+        <v>27851</v>
       </c>
       <c r="G162" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H162" t="s">
         <v>204</v>
@@ -7867,7 +7792,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7879,14 +7804,14 @@
         <v>278</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="F163" s="12">
-        <v>15302</v>
+        <v>23371</v>
       </c>
       <c r="G163" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H163" t="s">
         <v>204</v>
@@ -7904,7 +7829,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7916,14 +7841,14 @@
         <v>278</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F164" s="12">
-        <v>17116</v>
+        <v>15302</v>
       </c>
       <c r="G164" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H164" t="s">
         <v>204</v>
@@ -7941,7 +7866,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7953,14 +7878,14 @@
         <v>278</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="F165" s="12">
-        <v>26864</v>
+        <v>17116</v>
       </c>
       <c r="G165" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H165" t="s">
         <v>204</v>
@@ -7978,7 +7903,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7990,14 +7915,14 @@
         <v>278</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F166" s="12">
-        <v>27678</v>
+        <v>26864</v>
       </c>
       <c r="G166" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H166" t="s">
         <v>204</v>
@@ -8015,7 +7940,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -8026,21 +7951,21 @@
       <c r="D167" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="11" t="s">
-        <v>78</v>
+      <c r="E167" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="F167" s="12">
-        <v>23332</v>
+        <v>27678</v>
       </c>
       <c r="G167" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J167" s="11">
         <v>0</v>
@@ -8052,7 +7977,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -8064,14 +7989,14 @@
         <v>278</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F168" s="12">
-        <v>24014</v>
+        <v>23332</v>
       </c>
       <c r="G168" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H168" t="s">
         <v>206</v>
@@ -8089,7 +8014,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -8100,15 +8025,15 @@
       <c r="D169" t="s">
         <v>278</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>32</v>
+      <c r="E169" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F169" s="12">
-        <v>25750</v>
+        <v>24014</v>
       </c>
       <c r="G169" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H169" t="s">
         <v>206</v>
@@ -8121,12 +8046,12 @@
       </c>
       <c r="K169"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="8"/>
+      <c r="M169" s="2"/>
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -8137,15 +8062,15 @@
       <c r="D170" t="s">
         <v>278</v>
       </c>
-      <c r="E170" s="11" t="s">
-        <v>145</v>
+      <c r="E170" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F170" s="12">
-        <v>26900</v>
+        <v>25750</v>
       </c>
       <c r="G170" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H170" t="s">
         <v>206</v>
@@ -8158,12 +8083,12 @@
       </c>
       <c r="K170"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="2"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -8175,14 +8100,14 @@
         <v>278</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="F171" s="12">
-        <v>25885</v>
+        <v>26900</v>
       </c>
       <c r="G171" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H171" t="s">
         <v>206</v>
@@ -8200,7 +8125,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -8211,15 +8136,15 @@
       <c r="D172" t="s">
         <v>278</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>61</v>
+      <c r="E172" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F172" s="12">
-        <v>26709</v>
+        <v>25885</v>
       </c>
       <c r="G172" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H172" t="s">
         <v>206</v>
@@ -8237,7 +8162,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -8248,21 +8173,21 @@
       <c r="D173" t="s">
         <v>278</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>117</v>
+      <c r="E173" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F173" s="12">
-        <v>24059</v>
+        <v>26709</v>
       </c>
       <c r="G173" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H173" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J173" s="11">
         <v>0</v>
@@ -8274,7 +8199,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -8285,15 +8210,15 @@
       <c r="D174" t="s">
         <v>278</v>
       </c>
-      <c r="E174" s="11" t="s">
-        <v>132</v>
+      <c r="E174" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F174" s="12">
-        <v>23006</v>
+        <v>24059</v>
       </c>
       <c r="G174" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H174" t="s">
         <v>213</v>
@@ -8311,7 +8236,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -8322,15 +8247,15 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>81</v>
+      <c r="E175" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="F175" s="12">
-        <v>23226</v>
+        <v>23006</v>
       </c>
       <c r="G175" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H175" t="s">
         <v>213</v>
@@ -8348,7 +8273,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -8359,21 +8284,21 @@
       <c r="D176" t="s">
         <v>278</v>
       </c>
-      <c r="E176" s="11" t="s">
-        <v>22</v>
+      <c r="E176" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F176" s="12">
-        <v>29503</v>
+        <v>23226</v>
       </c>
       <c r="G176" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J176" s="11">
         <v>0</v>
@@ -8381,11 +8306,11 @@
       <c r="K176"/>
       <c r="L176" s="9"/>
       <c r="M176" s="2"/>
-      <c r="N176"/>
+      <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -8396,15 +8321,15 @@
       <c r="D177" t="s">
         <v>278</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>143</v>
+      <c r="E177" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F177" s="12">
-        <v>16390</v>
+        <v>29503</v>
       </c>
       <c r="G177" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H177" t="s">
         <v>201</v>
@@ -8418,11 +8343,11 @@
       <c r="K177"/>
       <c r="L177" s="9"/>
       <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
+      <c r="N177"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8434,14 +8359,14 @@
         <v>278</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F178" s="12">
-        <v>16997</v>
+        <v>16390</v>
       </c>
       <c r="G178" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H178" t="s">
         <v>201</v>
@@ -8459,7 +8384,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -8470,15 +8395,15 @@
       <c r="D179" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="11" t="s">
-        <v>139</v>
+      <c r="E179" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F179" s="12">
-        <v>30347</v>
+        <v>16997</v>
       </c>
       <c r="G179" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H179" t="s">
         <v>201</v>
@@ -8496,7 +8421,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -8507,15 +8432,15 @@
       <c r="D180" t="s">
         <v>278</v>
       </c>
-      <c r="E180" s="6" t="s">
-        <v>35</v>
+      <c r="E180" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F180" s="12">
-        <v>25970</v>
+        <v>30347</v>
       </c>
       <c r="G180" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H180" t="s">
         <v>201</v>
@@ -8533,7 +8458,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -8545,14 +8470,14 @@
         <v>278</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="F181" s="12">
-        <v>18196</v>
+        <v>25970</v>
       </c>
       <c r="G181" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H181" t="s">
         <v>201</v>
@@ -8570,7 +8495,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -8581,15 +8506,15 @@
       <c r="D182" t="s">
         <v>278</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>106</v>
+      <c r="E182" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F182" s="12">
-        <v>24964</v>
+        <v>18196</v>
       </c>
       <c r="G182" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H182" t="s">
         <v>201</v>
@@ -8607,7 +8532,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -8618,15 +8543,15 @@
       <c r="D183" t="s">
         <v>278</v>
       </c>
-      <c r="E183" s="6" t="s">
-        <v>131</v>
+      <c r="E183" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F183" s="12">
-        <v>23594</v>
+        <v>24964</v>
       </c>
       <c r="G183" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H183" t="s">
         <v>201</v>
@@ -8644,7 +8569,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -8655,15 +8580,15 @@
       <c r="D184" t="s">
         <v>278</v>
       </c>
-      <c r="E184" s="11" t="s">
-        <v>11</v>
+      <c r="E184" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F184" s="12">
-        <v>20885</v>
+        <v>23594</v>
       </c>
       <c r="G184" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H184" t="s">
         <v>201</v>
@@ -8681,7 +8606,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -8693,14 +8618,14 @@
         <v>278</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F185" s="12">
-        <v>31562</v>
+        <v>20885</v>
       </c>
       <c r="G185" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H185" t="s">
         <v>201</v>
@@ -8718,7 +8643,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8729,15 +8654,15 @@
       <c r="D186" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="6" t="s">
-        <v>6</v>
+      <c r="E186" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F186" s="12">
-        <v>21338</v>
+        <v>31562</v>
       </c>
       <c r="G186" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H186" t="s">
         <v>201</v>
@@ -8755,7 +8680,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8767,14 +8692,14 @@
         <v>278</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F187" s="12">
-        <v>20371</v>
+        <v>21338</v>
       </c>
       <c r="G187" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H187" t="s">
         <v>201</v>
@@ -8788,11 +8713,11 @@
       <c r="K187"/>
       <c r="L187" s="9"/>
       <c r="M187" s="2"/>
-      <c r="N187"/>
+      <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -8803,15 +8728,15 @@
       <c r="D188" t="s">
         <v>278</v>
       </c>
-      <c r="E188" s="11" t="s">
-        <v>9</v>
+      <c r="E188" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F188" s="12">
-        <v>20417</v>
+        <v>20371</v>
       </c>
       <c r="G188" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H188" t="s">
         <v>201</v>
@@ -8825,11 +8750,11 @@
       <c r="K188"/>
       <c r="L188" s="9"/>
       <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
+      <c r="N188"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -8841,14 +8766,14 @@
         <v>278</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F189" s="12">
-        <v>20655</v>
+        <v>20417</v>
       </c>
       <c r="G189" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H189" t="s">
         <v>201</v>
@@ -8866,7 +8791,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -8878,14 +8803,14 @@
         <v>278</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F190" s="12">
-        <v>18677</v>
+        <v>20655</v>
       </c>
       <c r="G190" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H190" t="s">
         <v>201</v>
@@ -8898,11 +8823,12 @@
       </c>
       <c r="K190"/>
       <c r="L190" s="9"/>
-      <c r="N190"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -8914,32 +8840,31 @@
         <v>278</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F191" s="12">
-        <v>18196</v>
+        <v>18677</v>
       </c>
       <c r="G191" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J191" s="11">
         <v>0</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
+      <c r="N191"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -8951,14 +8876,14 @@
         <v>278</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F192" s="12">
-        <v>25691</v>
+        <v>18196</v>
       </c>
       <c r="G192" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H192" t="s">
         <v>210</v>
@@ -8976,7 +8901,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -8987,15 +8912,15 @@
       <c r="D193" t="s">
         <v>278</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>130</v>
+      <c r="E193" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F193" s="12">
-        <v>32261</v>
+        <v>25691</v>
       </c>
       <c r="G193" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H193" t="s">
         <v>210</v>
@@ -9013,7 +8938,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -9024,15 +8949,15 @@
       <c r="D194" t="s">
         <v>278</v>
       </c>
-      <c r="E194" s="11" t="s">
-        <v>53</v>
+      <c r="E194" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="F194" s="12">
-        <v>16607</v>
+        <v>32261</v>
       </c>
       <c r="G194" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H194" t="s">
         <v>210</v>
@@ -9050,7 +8975,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B195">
         <v>7</v>
@@ -9062,14 +8987,14 @@
         <v>278</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F195" s="12">
-        <v>25940</v>
+        <v>16607</v>
       </c>
       <c r="G195" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H195" t="s">
         <v>210</v>
@@ -9087,7 +9012,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -9099,14 +9024,14 @@
         <v>278</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F196" s="12">
-        <v>16008</v>
+        <v>25940</v>
       </c>
       <c r="G196" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H196" t="s">
         <v>210</v>
@@ -9124,7 +9049,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B197">
         <v>7</v>
@@ -9135,15 +9060,15 @@
       <c r="D197" t="s">
         <v>278</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>50</v>
+      <c r="E197" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F197" s="12">
-        <v>22559</v>
+        <v>16008</v>
       </c>
       <c r="G197" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H197" t="s">
         <v>210</v>
@@ -9161,7 +9086,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -9172,15 +9097,15 @@
       <c r="D198" t="s">
         <v>278</v>
       </c>
-      <c r="E198" s="6" t="s">
-        <v>21</v>
+      <c r="E198" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F198" s="12">
-        <v>31868</v>
+        <v>22559</v>
       </c>
       <c r="G198" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H198" t="s">
         <v>210</v>
@@ -9198,7 +9123,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -9209,15 +9134,15 @@
       <c r="D199" t="s">
         <v>278</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>113</v>
+      <c r="E199" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F199" s="12">
-        <v>27508</v>
+        <v>31868</v>
       </c>
       <c r="G199" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H199" t="s">
         <v>210</v>
@@ -9235,7 +9160,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -9247,20 +9172,20 @@
         <v>278</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F200" s="12">
-        <v>26445</v>
+        <v>27508</v>
       </c>
       <c r="G200" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H200" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J200" s="11">
         <v>0</v>
@@ -9272,7 +9197,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -9284,20 +9209,20 @@
         <v>278</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F201" s="12">
-        <v>22250</v>
+        <v>26445</v>
       </c>
       <c r="G201" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H201" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J201" s="11">
         <v>0</v>
@@ -9309,7 +9234,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -9321,14 +9246,14 @@
         <v>278</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F202" s="12">
-        <v>16725</v>
+        <v>22250</v>
       </c>
       <c r="G202" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H202" t="s">
         <v>208</v>
@@ -9346,7 +9271,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -9358,20 +9283,20 @@
         <v>278</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F203" s="12">
-        <v>28888</v>
+        <v>16725</v>
       </c>
       <c r="G203" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H203" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J203" s="11">
         <v>0</v>
@@ -9383,7 +9308,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -9394,15 +9319,15 @@
       <c r="D204" t="s">
         <v>278</v>
       </c>
-      <c r="E204" s="6" t="s">
-        <v>76</v>
+      <c r="E204" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F204" s="12">
-        <v>31920</v>
+        <v>28888</v>
       </c>
       <c r="G204" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H204" t="s">
         <v>211</v>
@@ -9420,7 +9345,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -9431,21 +9356,21 @@
       <c r="D205" t="s">
         <v>278</v>
       </c>
-      <c r="E205" s="11" t="s">
-        <v>92</v>
+      <c r="E205" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F205" s="12">
-        <v>24717</v>
+        <v>31920</v>
       </c>
       <c r="G205" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H205" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J205" s="11">
         <v>0</v>
@@ -9457,7 +9382,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -9469,14 +9394,14 @@
         <v>278</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F206" s="12">
-        <v>23367</v>
+        <v>24717</v>
       </c>
       <c r="G206" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H206" t="s">
         <v>203</v>
@@ -9494,7 +9419,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -9506,10 +9431,10 @@
         <v>278</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="F207" s="12">
-        <v>22655</v>
+        <v>23367</v>
       </c>
       <c r="G207" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
@@ -9531,7 +9456,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -9542,15 +9467,15 @@
       <c r="D208" t="s">
         <v>278</v>
       </c>
-      <c r="E208" s="6" t="s">
-        <v>23</v>
+      <c r="E208" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F208" s="12">
-        <v>26802</v>
+        <v>22655</v>
       </c>
       <c r="G208" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H208" t="s">
         <v>203</v>
@@ -9568,7 +9493,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -9579,21 +9504,21 @@
       <c r="D209" t="s">
         <v>278</v>
       </c>
-      <c r="E209" s="11" t="s">
-        <v>118</v>
+      <c r="E209" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F209" s="12">
-        <v>25566</v>
+        <v>26802</v>
       </c>
       <c r="G209" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H209" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J209" s="11">
         <v>0</v>
@@ -9605,7 +9530,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -9617,14 +9542,14 @@
         <v>278</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F210" s="12">
-        <v>21970</v>
+        <v>25566</v>
       </c>
       <c r="G210" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H210" t="s">
         <v>209</v>
@@ -9642,7 +9567,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -9653,15 +9578,15 @@
       <c r="D211" t="s">
         <v>278</v>
       </c>
-      <c r="E211" s="6" t="s">
-        <v>97</v>
+      <c r="E211" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F211" s="12">
-        <v>14974</v>
+        <v>21970</v>
       </c>
       <c r="G211" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H211" t="s">
         <v>209</v>
@@ -9679,7 +9604,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -9691,14 +9616,14 @@
         <v>278</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F212" s="12">
-        <v>21958</v>
+        <v>14974</v>
       </c>
       <c r="G212" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s">
         <v>209</v>
@@ -9716,7 +9641,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -9728,20 +9653,20 @@
         <v>278</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F213" s="12">
-        <v>32142</v>
+        <v>21958</v>
       </c>
       <c r="G213" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H213" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J213" s="11">
         <v>0</v>
@@ -9753,7 +9678,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -9764,15 +9689,15 @@
       <c r="D214" t="s">
         <v>278</v>
       </c>
-      <c r="E214" s="11" t="s">
-        <v>87</v>
+      <c r="E214" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F214" s="12">
-        <v>25067</v>
+        <v>32142</v>
       </c>
       <c r="G214" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H214" t="s">
         <v>202</v>
@@ -9790,7 +9715,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -9801,15 +9726,15 @@
       <c r="D215" t="s">
         <v>278</v>
       </c>
-      <c r="E215" s="6" t="s">
-        <v>39</v>
+      <c r="E215" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F215" s="12">
-        <v>25592</v>
+        <v>25067</v>
       </c>
       <c r="G215" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H215" t="s">
         <v>202</v>
@@ -9827,7 +9752,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -9838,15 +9763,15 @@
       <c r="D216" t="s">
         <v>278</v>
       </c>
-      <c r="E216" s="11" t="s">
-        <v>154</v>
+      <c r="E216" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F216" s="12">
-        <v>14047</v>
+        <v>25592</v>
       </c>
       <c r="G216" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="H216" t="s">
         <v>202</v>
@@ -9883,7 +9808,7 @@
       </c>
       <c r="G217" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H217" t="s">
         <v>202</v>
@@ -9920,7 +9845,7 @@
       </c>
       <c r="G218" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H218" t="s">
         <v>202</v>
@@ -9957,7 +9882,7 @@
       </c>
       <c r="G219" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H219" t="s">
         <v>207</v>
@@ -9994,7 +9919,7 @@
       </c>
       <c r="G220" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H220" t="s">
         <v>207</v>
@@ -10031,7 +9956,7 @@
       </c>
       <c r="G221" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H221" t="s">
         <v>207</v>
@@ -10068,7 +9993,7 @@
       </c>
       <c r="G222" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222" t="s">
         <v>207</v>
@@ -10105,7 +10030,7 @@
       </c>
       <c r="G223" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H223" t="s">
         <v>207</v>
@@ -10142,7 +10067,7 @@
       </c>
       <c r="G224" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224" t="s">
         <v>207</v>
@@ -10179,7 +10104,7 @@
       </c>
       <c r="G225" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H225" t="s">
         <v>207</v>
@@ -10216,7 +10141,7 @@
       </c>
       <c r="G226" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H226" t="s">
         <v>200</v>
@@ -10252,7 +10177,7 @@
       </c>
       <c r="G227" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H227" t="s">
         <v>200</v>
@@ -10289,7 +10214,7 @@
       </c>
       <c r="G228" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H228" t="s">
         <v>200</v>
@@ -10326,7 +10251,7 @@
       </c>
       <c r="G229" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H229" t="s">
         <v>200</v>
@@ -10362,7 +10287,7 @@
       </c>
       <c r="G230" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H230" t="s">
         <v>200</v>
@@ -10399,7 +10324,7 @@
       </c>
       <c r="G231" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H231" t="s">
         <v>200</v>
@@ -10436,7 +10361,7 @@
       </c>
       <c r="G232" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H232" t="s">
         <v>200</v>
@@ -10473,7 +10398,7 @@
       </c>
       <c r="G233" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H233" t="s">
         <v>200</v>
@@ -10509,7 +10434,7 @@
       </c>
       <c r="G234" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H234" t="s">
         <v>200</v>
@@ -10546,7 +10471,7 @@
       </c>
       <c r="G235" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H235" t="s">
         <v>200</v>
@@ -10583,7 +10508,7 @@
       </c>
       <c r="G236" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H236" t="s">
         <v>200</v>
@@ -10619,7 +10544,7 @@
       </c>
       <c r="G237" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H237" t="s">
         <v>200</v>
@@ -10656,7 +10581,7 @@
       </c>
       <c r="G238" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H238" t="s">
         <v>200</v>
@@ -10693,7 +10618,7 @@
       </c>
       <c r="G239" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H239" t="s">
         <v>200</v>
@@ -10730,7 +10655,7 @@
       </c>
       <c r="G240" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H240" t="s">
         <v>205</v>
@@ -10766,7 +10691,7 @@
       </c>
       <c r="G241" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H241" t="s">
         <v>205</v>
@@ -10803,7 +10728,7 @@
       </c>
       <c r="G242" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H242" t="s">
         <v>205</v>
@@ -10840,7 +10765,7 @@
       </c>
       <c r="G243" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H243" t="s">
         <v>205</v>
@@ -10876,7 +10801,7 @@
       </c>
       <c r="G244" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H244" t="s">
         <v>205</v>
@@ -10913,7 +10838,7 @@
       </c>
       <c r="G245" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H245" t="s">
         <v>205</v>
@@ -10950,7 +10875,7 @@
       </c>
       <c r="G246" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H246" t="s">
         <v>205</v>
@@ -10987,7 +10912,7 @@
       </c>
       <c r="G247" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H247" t="s">
         <v>205</v>
@@ -11023,7 +10948,7 @@
       </c>
       <c r="G248" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H248" t="s">
         <v>205</v>
@@ -11059,7 +10984,7 @@
       </c>
       <c r="G249" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H249" t="s">
         <v>205</v>
@@ -11096,7 +11021,7 @@
       </c>
       <c r="G250" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H250" t="s">
         <v>205</v>
@@ -11133,7 +11058,7 @@
       </c>
       <c r="G251" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H251" t="s">
         <v>205</v>
@@ -11170,7 +11095,7 @@
       </c>
       <c r="G252" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H252" t="s">
         <v>205</v>
@@ -11207,7 +11132,7 @@
       </c>
       <c r="G253" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H253" t="s">
         <v>205</v>
@@ -11244,7 +11169,7 @@
       </c>
       <c r="G254" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H254" t="s">
         <v>205</v>
@@ -11280,7 +11205,7 @@
       </c>
       <c r="G255" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H255" t="s">
         <v>205</v>
@@ -11317,7 +11242,7 @@
       </c>
       <c r="G256" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H256" s="11" t="s">
         <v>205</v>
@@ -11353,7 +11278,7 @@
       </c>
       <c r="G257" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H257" t="s">
         <v>205</v>
@@ -11390,7 +11315,7 @@
       </c>
       <c r="G258" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H258" t="s">
         <v>205</v>
@@ -11426,7 +11351,7 @@
       </c>
       <c r="G259" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H259" t="s">
         <v>205</v>
@@ -11462,7 +11387,7 @@
       </c>
       <c r="G260" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H260" t="s">
         <v>205</v>
@@ -11498,7 +11423,7 @@
       </c>
       <c r="G261" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H261" t="s">
         <v>205</v>
@@ -11534,7 +11459,7 @@
       </c>
       <c r="G262" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H262" t="s">
         <v>205</v>
@@ -11570,7 +11495,7 @@
       </c>
       <c r="G263" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H263" t="s">
         <v>205</v>
@@ -11607,7 +11532,7 @@
       </c>
       <c r="G264" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H264" t="s">
         <v>205</v>
@@ -11635,14 +11560,12 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M57" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M47" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226DDB1-E300-427E-99C1-679BEA64085E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD0AA5-FD63-472C-91E9-A677BF89627F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,9 +981,6 @@
     <t>Partido Republicano</t>
   </si>
   <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>https://www.ex-ante.cl/la-apuesta-de-sichel-en-rn/</t>
   </si>
   <si>
@@ -1051,6 +1048,9 @@
   </si>
   <si>
     <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2021/01/16/tras-uncion-de-bachelet-diputados-toha-saavedra-y-monsalve-apoyan-precandidatura-de-narvaez.shtml</t>
+  </si>
+  <si>
+    <t>REP</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,10 +1485,10 @@
         <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>269</v>
@@ -1533,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L2" s="9">
         <v>44124</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1578,16 +1578,16 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L3" s="9">
         <v>44124</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1623,16 +1623,16 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L4" s="9">
         <v>44124</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1668,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L5" s="9">
         <v>44131</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1713,16 +1713,16 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L6" s="9">
         <v>44124</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1758,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L7" s="9">
         <v>44124</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1803,16 +1803,16 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L8" s="9">
         <v>44124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1848,16 +1848,16 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L9" s="9">
         <v>44124</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1887,22 +1887,22 @@
         <v>313</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L10" s="9">
         <v>43581</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1938,16 +1938,16 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L11" s="9">
         <v>43581</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1983,16 +1983,16 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L12" s="9">
         <v>43581</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" s="9">
         <v>43581</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2073,16 +2073,16 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" s="9">
         <v>43581</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2118,16 +2118,16 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" s="9">
         <v>43581</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2163,16 +2163,16 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" s="9">
         <v>43581</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2208,16 +2208,16 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L17" s="9">
         <v>43581</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L18" s="9">
         <v>44182</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2298,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L19" s="9">
         <v>44182</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2343,16 +2343,16 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20" s="9">
         <v>44133</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2388,16 +2388,16 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L21" s="9">
         <v>44183</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2433,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L22" s="9">
         <v>44135</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2478,16 +2478,16 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L23" s="9">
         <v>44133</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2523,16 +2523,16 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L24" s="9">
         <v>44135</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2568,16 +2568,16 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L25" s="9">
         <v>44135</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2613,16 +2613,16 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L26" s="9">
         <v>44135</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2658,16 +2658,16 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L27" s="9">
         <v>44135</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2703,16 +2703,16 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L28" s="9">
         <v>44135</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2748,16 +2748,16 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L29" s="9">
         <v>44135</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2793,42 +2793,42 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L30" s="9">
         <v>44135</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C31" s="12">
         <v>44132</v>
       </c>
       <c r="D31" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="12">
-        <v>20415</v>
+        <v>273</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="9">
+        <v>18900</v>
       </c>
       <c r="G31" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -2838,42 +2838,42 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L31" s="9">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>333</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="12">
         <v>44132</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>79</v>
+        <v>277</v>
+      </c>
+      <c r="E32" t="s">
+        <v>189</v>
       </c>
       <c r="F32" s="12">
-        <v>23902</v>
+        <v>16933</v>
       </c>
       <c r="G32" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
-        <v>56</v>
-      </c>
-      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -2883,42 +2883,42 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L32" s="9">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>333</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33" s="12">
         <v>44132</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F33" s="9">
-        <v>18900</v>
+        <v>176</v>
+      </c>
+      <c r="F33" s="12">
+        <v>16455</v>
       </c>
       <c r="G33" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
-        <v>70</v>
-      </c>
-      <c r="H33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
         <v>202</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -2927,43 +2927,43 @@
       <c r="J33" s="11">
         <v>1</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="L33" s="9">
+        <v>44195</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="L33" s="9">
-        <v>44193</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="N33" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="12">
         <v>44132</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" t="s">
-        <v>189</v>
+        <v>278</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F34" s="12">
-        <v>16933</v>
+        <v>20415</v>
       </c>
       <c r="G34" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
-        <v>75</v>
-      </c>
-      <c r="H34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
         <v>202</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -2973,40 +2973,40 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L34" s="9">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="12">
         <v>44132</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E35" t="s">
-        <v>176</v>
+        <v>278</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F35" s="12">
-        <v>16455</v>
+        <v>23902</v>
       </c>
       <c r="G35" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
         <v>202</v>
@@ -3017,17 +3017,17 @@
       <c r="J35" s="11">
         <v>1</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>335</v>
+      <c r="K35" t="s">
+        <v>334</v>
       </c>
       <c r="L35" s="9">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3063,16 +3063,16 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L36" s="9">
         <v>44193</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3108,16 +3108,16 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L37" s="9">
         <v>44212</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3153,16 +3153,16 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L38" s="9">
         <v>44182</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3198,16 +3198,16 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L39" s="9">
         <v>44182</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L40" s="9">
         <v>44135</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3288,16 +3288,16 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L41" s="9">
         <v>44135</v>
       </c>
       <c r="M41" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L42" s="9">
         <v>44135</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3378,16 +3378,16 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L43" s="9">
         <v>44182</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3423,16 +3423,16 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L44" s="9">
         <v>44135</v>
       </c>
       <c r="M44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3468,16 +3468,16 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L45" s="9">
         <v>44182</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3513,16 +3513,16 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L46" s="9">
         <v>44144</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -3558,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L47" s="9">
         <v>44144</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3603,79 +3603,78 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L48" s="9">
         <v>44144</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49" s="12">
         <v>44132</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F49" s="12">
-        <v>25553</v>
+        <v>272</v>
+      </c>
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="9">
+        <v>18233</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>52</v>
-      </c>
-      <c r="H49" t="s">
-        <v>204</v>
+        <v>72</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J49" s="11">
         <v>0</v>
       </c>
       <c r="K49"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50" s="12">
         <v>44132</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="12">
-        <v>21157</v>
+        <v>273</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="9">
+        <v>15516</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>64</v>
-      </c>
-      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -3691,32 +3690,32 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C51" s="12">
         <v>44132</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="12">
-        <v>18640</v>
+        <v>273</v>
+      </c>
+      <c r="E51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" s="9">
+        <v>13941</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>70</v>
-      </c>
-      <c r="H51" t="s">
-        <v>202</v>
+        <v>83</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J51" s="11">
         <v>0</v>
@@ -3728,32 +3727,32 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C52" s="12">
         <v>44132</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="12">
-        <v>27118</v>
+        <v>274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="9">
+        <v>20120</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>47</v>
-      </c>
-      <c r="H52" t="s">
-        <v>202</v>
+        <v>66</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J52" s="11">
         <v>0</v>
@@ -3765,32 +3764,32 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" s="12">
         <v>44132</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="12">
-        <v>22024</v>
+        <v>274</v>
+      </c>
+      <c r="E53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="9">
+        <v>26645</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>61</v>
-      </c>
-      <c r="H53" t="s">
-        <v>202</v>
+        <v>49</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J53" s="11">
         <v>0</v>
@@ -3802,32 +3801,32 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C54" s="12">
         <v>44132</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="12">
-        <v>32771</v>
+        <v>274</v>
+      </c>
+      <c r="E54" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="9">
+        <v>20671</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>32</v>
-      </c>
-      <c r="H54" t="s">
-        <v>202</v>
+        <v>65</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
@@ -3839,32 +3838,32 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C55" s="12">
         <v>44132</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="12">
-        <v>24242</v>
+        <v>274</v>
+      </c>
+      <c r="E55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="9">
+        <v>25134</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>55</v>
-      </c>
-      <c r="H55" t="s">
-        <v>202</v>
+        <v>53</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J55" s="11">
         <v>0</v>
@@ -3876,32 +3875,32 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56" s="12">
         <v>44132</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F56" s="12">
-        <v>18036</v>
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="9">
+        <v>22460</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>72</v>
-      </c>
-      <c r="H56" t="s">
-        <v>202</v>
+        <v>60</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -3913,32 +3912,32 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="12">
-        <v>25846</v>
+        <v>274</v>
+      </c>
+      <c r="E57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="9">
+        <v>24724</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>51</v>
-      </c>
-      <c r="H57" t="s">
-        <v>202</v>
+        <v>54</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J57" s="11">
         <v>0</v>
@@ -3950,32 +3949,32 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="12">
-        <v>27112</v>
+        <v>274</v>
+      </c>
+      <c r="E58" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="9">
+        <v>17815</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>47</v>
-      </c>
-      <c r="H58" t="s">
-        <v>202</v>
+        <v>73</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J58" s="11">
         <v>0</v>
@@ -3987,26 +3986,26 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="F59" s="9">
-        <v>18233</v>
+        <v>17779</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>201</v>
@@ -4019,36 +4018,37 @@
       </c>
       <c r="K59"/>
       <c r="L59" s="9"/>
-      <c r="N59"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="12">
         <v>44132</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F60" s="9">
-        <v>15516</v>
+        <v>27681</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -4060,32 +4060,32 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="12">
         <v>44132</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="F61" s="9">
-        <v>13941</v>
+        <v>28232</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J61" s="11">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4109,20 +4109,20 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="F62" s="9">
-        <v>20120</v>
+        <v>27653</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4146,20 +4146,20 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="F63" s="9">
-        <v>26645</v>
+        <v>27474</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4183,20 +4183,20 @@
         <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F64" s="9">
-        <v>20671</v>
+        <v>21368</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4220,20 +4220,20 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F65" s="9">
-        <v>25134</v>
+        <v>27295</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4256,21 +4256,21 @@
       <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="E66" t="s">
-        <v>301</v>
-      </c>
-      <c r="F66" s="9">
-        <v>22460</v>
+      <c r="E66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="12">
+        <v>25126</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>60</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>201</v>
+        <v>53</v>
+      </c>
+      <c r="H66" t="s">
+        <v>200</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4294,20 +4294,20 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F67" s="9">
-        <v>24724</v>
+        <v>26556</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4331,20 +4331,20 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F68" s="9">
-        <v>17815</v>
+        <v>17431</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4367,21 +4367,21 @@
       <c r="D69" t="s">
         <v>274</v>
       </c>
-      <c r="E69" t="s">
-        <v>304</v>
-      </c>
-      <c r="F69" s="9">
-        <v>17779</v>
+      <c r="E69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="12">
+        <v>29554</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>73</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>201</v>
+        <v>41</v>
+      </c>
+      <c r="H69" t="s">
+        <v>205</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4405,20 +4405,20 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F70" s="9">
-        <v>27681</v>
+        <v>32557</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4442,20 +4442,20 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="F71" s="9">
-        <v>28232</v>
+        <v>27105</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4479,20 +4479,20 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="F72" s="9">
-        <v>27653</v>
+        <v>22770</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4516,20 +4516,20 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F73" s="9">
-        <v>27474</v>
+        <v>20015</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4541,377 +4541,359 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="12">
         <v>44132</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="F74" s="9">
-        <v>21368</v>
+        <v>25454</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="12">
         <v>44132</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="F75" s="9">
-        <v>27295</v>
+        <v>30994</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="12">
         <v>44132</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="12">
-        <v>25126</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="9"/>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>53</v>
-      </c>
-      <c r="H76" t="s">
-        <v>200</v>
+        <v>121</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="12">
         <v>44132</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="F77" s="9">
-        <v>26556</v>
+        <v>19642</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J77" s="11">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="12">
         <v>44132</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>218</v>
-      </c>
-      <c r="F78" s="9">
-        <v>17431</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J78" s="11">
         <v>0</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="12">
         <v>44132</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="12">
-        <v>29554</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="9"/>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>41</v>
-      </c>
-      <c r="H79" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J79" s="11">
         <v>0</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="12">
         <v>44132</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="F80" s="9">
-        <v>32557</v>
+        <v>18048</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="12">
         <v>44132</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="F81" s="9">
-        <v>27105</v>
+        <v>26622</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="12">
         <v>44132</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="F82" s="9">
-        <v>22770</v>
+        <v>29935</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" s="12">
         <v>44132</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" s="9">
-        <v>20015</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="9"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4923,20 +4905,20 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F84" s="9">
-        <v>25454</v>
+        <v>27655</v>
       </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
@@ -4947,7 +4929,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4959,20 +4941,20 @@
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F85" s="9">
-        <v>30994</v>
+        <v>25492</v>
       </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J85" s="11">
         <v>0</v>
@@ -4983,7 +4965,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4995,18 +4977,20 @@
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>254</v>
-      </c>
-      <c r="F86" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="F86" s="9">
+        <v>22881</v>
+      </c>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
@@ -5017,7 +5001,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5029,20 +5013,20 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F87" s="9">
-        <v>19642</v>
+        <v>20806</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
@@ -5053,7 +5037,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5065,18 +5049,20 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>257</v>
-      </c>
-      <c r="F88" s="9"/>
+        <v>256</v>
+      </c>
+      <c r="F88" s="9">
+        <v>29105</v>
+      </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -5087,172 +5073,178 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" s="12">
         <v>44132</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
-      </c>
-      <c r="F89" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="F89" s="9">
+        <v>28422</v>
+      </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="9"/>
-      <c r="N89"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" s="12">
         <v>44132</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>265</v>
-      </c>
-      <c r="F90" s="9">
-        <v>18048</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F90" s="9"/>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="N90"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" s="12">
         <v>44132</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="F91" s="9">
-        <v>26622</v>
+        <v>26763</v>
       </c>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="9"/>
-      <c r="N91"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" s="12">
         <v>44132</v>
       </c>
       <c r="D92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F92" s="9">
-        <v>29935</v>
+        <v>31131</v>
       </c>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="9"/>
-      <c r="N92"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="12">
         <v>44132</v>
       </c>
       <c r="D93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
-      </c>
-      <c r="F93" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="F93" s="9">
+        <v>20899</v>
+      </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5263,68 +5255,67 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="12">
         <v>44132</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F94" s="9">
-        <v>27655</v>
+        <v>25265</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="9"/>
-      <c r="N94"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="12">
         <v>44132</v>
       </c>
       <c r="D95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>264</v>
-      </c>
-      <c r="F95" s="9">
-        <v>25492</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F95" s="9"/>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
@@ -5335,115 +5326,118 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" s="12">
         <v>44132</v>
       </c>
       <c r="D96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F96" s="9">
-        <v>22881</v>
+        <v>26090</v>
       </c>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J96" s="11">
         <v>0</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="N96"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97" s="12">
         <v>44132</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="F97" s="9">
-        <v>20806</v>
+        <v>28694</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="N97"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C98" s="12">
         <v>44132</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F98" s="9">
-        <v>29105</v>
+        <v>34561</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="N98"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5455,20 +5449,18 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>243</v>
-      </c>
-      <c r="F99" s="9">
-        <v>28422</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F99" s="9"/>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
@@ -5480,7 +5472,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5492,7 +5484,7 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="10">
@@ -5500,10 +5492,10 @@
         <v>121</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
@@ -5515,7 +5507,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5527,20 +5519,18 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
-      </c>
-      <c r="F101" s="9">
-        <v>26763</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
@@ -5552,7 +5542,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5564,32 +5554,31 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F102" s="9">
-        <v>31131</v>
+        <v>27845</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="N102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5601,31 +5590,32 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F103" s="9">
-        <v>20899</v>
+        <v>27116</v>
       </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="N103"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5637,32 +5627,29 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>246</v>
-      </c>
-      <c r="F104" s="9">
-        <v>25265</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F104" s="9"/>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="9"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5674,18 +5661,20 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>248</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>240</v>
+      </c>
+      <c r="F105" s="9">
+        <v>22196</v>
+      </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
@@ -5696,7 +5685,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5708,32 +5697,31 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="F106" s="9">
-        <v>26090</v>
+        <v>19005</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5745,20 +5733,20 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F107" s="9">
-        <v>28694</v>
+        <v>19655</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
@@ -5770,7 +5758,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5782,20 +5770,20 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F108" s="9">
-        <v>34561</v>
+        <v>14442</v>
       </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5807,30 +5795,32 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="12">
         <v>44132</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
-      </c>
-      <c r="E109" t="s">
-        <v>251</v>
-      </c>
-      <c r="F109" s="9"/>
+        <v>277</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" s="12">
+        <v>25553</v>
+      </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>121</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>202</v>
+        <v>52</v>
+      </c>
+      <c r="H109" t="s">
+        <v>204</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5842,30 +5832,32 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" s="12">
         <v>44132</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>241</v>
-      </c>
-      <c r="F110" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="F110" s="12">
+        <v>26653</v>
+      </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -5877,30 +5869,32 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="12">
         <v>44132</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" t="s">
-        <v>237</v>
-      </c>
-      <c r="F111" s="9"/>
+        <v>277</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" s="12">
+        <v>16153</v>
+      </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>121</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>202</v>
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>204</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
@@ -5912,68 +5906,69 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" s="12">
         <v>44132</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>250</v>
-      </c>
-      <c r="F112" s="9">
-        <v>27845</v>
+        <v>194</v>
+      </c>
+      <c r="F112" s="12">
+        <v>19105</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J112" s="11">
         <v>0</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="9"/>
-      <c r="N112"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" s="12">
         <v>44132</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
-      </c>
-      <c r="E113" t="s">
-        <v>232</v>
-      </c>
-      <c r="F113" s="9">
-        <v>27116</v>
+        <v>277</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="12">
+        <v>25024</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>47</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="H113" t="s">
+        <v>204</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
@@ -5985,175 +5980,180 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" s="12">
         <v>44132</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
-      </c>
-      <c r="E114" t="s">
-        <v>245</v>
-      </c>
-      <c r="F114" s="9"/>
+        <v>277</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F114" s="12">
+        <v>28285</v>
+      </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>121</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>200</v>
+        <v>44</v>
+      </c>
+      <c r="H114" t="s">
+        <v>206</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="9"/>
-      <c r="N114"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" s="12">
         <v>44132</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
-      </c>
-      <c r="F115" s="9">
-        <v>22196</v>
+        <v>186</v>
+      </c>
+      <c r="F115" s="12">
+        <v>19423</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="9"/>
-      <c r="N115"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" s="12">
         <v>44132</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>247</v>
-      </c>
-      <c r="F116" s="9">
-        <v>19005</v>
+        <v>182</v>
+      </c>
+      <c r="F116" s="12">
+        <v>22224</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="9"/>
+      <c r="M116" s="2"/>
       <c r="N116"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" s="12">
         <v>44132</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
-      </c>
-      <c r="F117" s="9">
-        <v>19655</v>
+        <v>158</v>
+      </c>
+      <c r="F117" s="12">
+        <v>24478</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>68</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>205</v>
+        <v>54</v>
+      </c>
+      <c r="H117" t="s">
+        <v>201</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="2"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" s="12">
         <v>44132</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>236</v>
-      </c>
-      <c r="F118" s="9">
-        <v>14442</v>
+        <v>173</v>
+      </c>
+      <c r="F118" s="12">
+        <v>21845</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>82</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>205</v>
+        <v>62</v>
+      </c>
+      <c r="H118" t="s">
+        <v>201</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6177,20 +6177,20 @@
         <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F119" s="12">
-        <v>26653</v>
+        <v>27196</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J119" s="11">
         <v>0</v>
@@ -6198,11 +6198,11 @@
       <c r="K119"/>
       <c r="L119" s="9"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6213,21 +6213,21 @@
       <c r="D120" t="s">
         <v>277</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>166</v>
+      <c r="E120" t="s">
+        <v>187</v>
       </c>
       <c r="F120" s="12">
-        <v>16153</v>
+        <v>26500</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>77</v>
-      </c>
-      <c r="H120" t="s">
-        <v>204</v>
+        <v>49</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6250,21 +6250,21 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" t="s">
-        <v>194</v>
+      <c r="E121" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F121" s="12">
-        <v>19105</v>
+        <v>13455</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>69</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>204</v>
+        <v>85</v>
+      </c>
+      <c r="H121" t="s">
+        <v>203</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6287,21 +6287,21 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>179</v>
+      <c r="E122" t="s">
+        <v>168</v>
       </c>
       <c r="F122" s="12">
-        <v>25024</v>
+        <v>22698</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6324,33 +6324,33 @@
       <c r="D123" t="s">
         <v>277</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>178</v>
+      <c r="E123" t="s">
+        <v>192</v>
       </c>
       <c r="F123" s="12">
-        <v>28285</v>
+        <v>21509</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>44</v>
-      </c>
-      <c r="H123" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="9"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6362,20 +6362,20 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F124" s="12">
-        <v>19423</v>
+        <v>24173</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J124" s="11">
         <v>0</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6399,20 +6399,20 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F125" s="12">
-        <v>22224</v>
+        <v>25491</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>61</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>201</v>
+        <v>52</v>
+      </c>
+      <c r="H125" t="s">
+        <v>202</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J125" s="11">
         <v>0</v>
@@ -6420,11 +6420,11 @@
       <c r="K125"/>
       <c r="L125" s="9"/>
       <c r="M125" s="2"/>
-      <c r="N125"/>
+      <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6435,33 +6435,33 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" t="s">
-        <v>158</v>
+      <c r="E126" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F126" s="12">
-        <v>24478</v>
+        <v>15859</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H126" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J126" s="11">
         <v>0</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="8"/>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6473,20 +6473,20 @@
         <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F127" s="12">
-        <v>21845</v>
+        <v>22288</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>62</v>
-      </c>
-      <c r="H127" t="s">
-        <v>201</v>
+        <v>60</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J127" s="11">
         <v>0</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6510,20 +6510,20 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F128" s="12">
-        <v>27196</v>
+        <v>16010</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6531,11 +6531,11 @@
       <c r="K128"/>
       <c r="L128" s="9"/>
       <c r="M128" s="2"/>
-      <c r="N128"/>
+      <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6547,20 +6547,20 @@
         <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F129" s="12">
-        <v>26500</v>
+        <v>28573</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>49</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>203</v>
+        <v>43</v>
+      </c>
+      <c r="H129" t="s">
+        <v>207</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6584,32 +6584,32 @@
         <v>277</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F130" s="12">
-        <v>13455</v>
+        <v>26073</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H130" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="2"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6621,32 +6621,32 @@
         <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F131" s="12">
-        <v>22698</v>
+        <v>20231</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H131" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="2"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6658,20 +6658,20 @@
         <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="F132" s="12">
-        <v>21509</v>
+        <v>21855</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>63</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>310</v>
+        <v>62</v>
+      </c>
+      <c r="H132" t="s">
+        <v>200</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J132" s="11">
         <v>0</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6695,20 +6695,20 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F133" s="12">
-        <v>24173</v>
+        <v>22882</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J133" s="11">
         <v>0</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6731,21 +6731,21 @@
       <c r="D134" t="s">
         <v>277</v>
       </c>
-      <c r="E134" t="s">
-        <v>163</v>
+      <c r="E134" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F134" s="12">
-        <v>25491</v>
+        <v>29680</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H134" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J134" s="11">
         <v>0</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6768,21 +6768,21 @@
       <c r="D135" t="s">
         <v>277</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>167</v>
+      <c r="E135" t="s">
+        <v>164</v>
       </c>
       <c r="F135" s="12">
-        <v>15859</v>
+        <v>24414</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J135" s="11">
         <v>0</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6806,20 +6806,20 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F136" s="12">
-        <v>22288</v>
+        <v>19103</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6843,32 +6843,31 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>195</v>
-      </c>
-      <c r="F137" s="12">
-        <v>16010</v>
+        <v>230</v>
+      </c>
+      <c r="F137" s="9">
+        <v>21953</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="N137"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6880,20 +6879,20 @@
         <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F138" s="12">
-        <v>28573</v>
+        <v>19287</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
@@ -6905,7 +6904,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6916,21 +6915,21 @@
       <c r="D139" t="s">
         <v>277</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>160</v>
+      <c r="E139" t="s">
+        <v>197</v>
       </c>
       <c r="F139" s="12">
-        <v>26073</v>
+        <v>27361</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>50</v>
-      </c>
-      <c r="H139" t="s">
-        <v>200</v>
+        <v>47</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J139" s="11">
         <v>0</v>
@@ -6942,7 +6941,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -6954,32 +6953,32 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F140" s="12">
-        <v>20231</v>
+        <v>20797</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>66</v>
-      </c>
-      <c r="H140" t="s">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="8"/>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -6991,20 +6990,20 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F141" s="12">
-        <v>21855</v>
+        <v>23776</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>62</v>
-      </c>
-      <c r="H141" t="s">
-        <v>200</v>
+        <v>56</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J141" s="11">
         <v>0</v>
@@ -7016,7 +7015,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7027,21 +7026,21 @@
       <c r="D142" t="s">
         <v>277</v>
       </c>
-      <c r="E142" t="s">
-        <v>193</v>
+      <c r="E142" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F142" s="12">
-        <v>22882</v>
+        <v>22094</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>59</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>200</v>
+        <v>61</v>
+      </c>
+      <c r="H142" t="s">
+        <v>205</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J142" s="11">
         <v>0</v>
@@ -7053,7 +7052,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7064,21 +7063,21 @@
       <c r="D143" t="s">
         <v>277</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>108</v>
+      <c r="E143" t="s">
+        <v>177</v>
       </c>
       <c r="F143" s="12">
-        <v>29680</v>
+        <v>20651</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H143" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J143" s="11">
         <v>0</v>
@@ -7090,7 +7089,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7101,21 +7100,21 @@
       <c r="D144" t="s">
         <v>277</v>
       </c>
-      <c r="E144" t="s">
-        <v>164</v>
+      <c r="E144" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F144" s="12">
-        <v>24414</v>
+        <v>23444</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H144" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J144" s="11">
         <v>0</v>
@@ -7127,32 +7126,32 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" s="12">
         <v>44132</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
-      </c>
-      <c r="E145" t="s">
-        <v>198</v>
+        <v>278</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F145" s="12">
-        <v>19103</v>
+        <v>21157</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>69</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="H145" t="s">
+        <v>204</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
@@ -7164,68 +7163,69 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" s="12">
         <v>44132</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
-      </c>
-      <c r="E146" t="s">
-        <v>230</v>
-      </c>
-      <c r="F146" s="9">
-        <v>21953</v>
+        <v>278</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F146" s="12">
+        <v>18640</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>61</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>205</v>
+        <v>70</v>
+      </c>
+      <c r="H146" t="s">
+        <v>202</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="9"/>
-      <c r="N146"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" s="12">
         <v>44132</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
-      </c>
-      <c r="E147" t="s">
-        <v>175</v>
+        <v>278</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F147" s="12">
-        <v>19287</v>
+        <v>27118</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H147" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J147" s="11">
         <v>0</v>
@@ -7237,69 +7237,69 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" s="12">
         <v>44132</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
-      </c>
-      <c r="E148" t="s">
-        <v>197</v>
+        <v>278</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F148" s="12">
-        <v>27361</v>
+        <v>22024</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>47</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>205</v>
+        <v>61</v>
+      </c>
+      <c r="H148" t="s">
+        <v>202</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J148" s="11">
         <v>0</v>
       </c>
       <c r="K148"/>
       <c r="L148" s="9"/>
-      <c r="M148" s="8"/>
+      <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" s="12">
         <v>44132</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
-      </c>
-      <c r="E149" t="s">
-        <v>190</v>
+        <v>278</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F149" s="12">
-        <v>20797</v>
+        <v>32771</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>65</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>205</v>
+        <v>32</v>
+      </c>
+      <c r="H149" t="s">
+        <v>202</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J149" s="11">
         <v>0</v>
@@ -7311,32 +7311,32 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" s="12">
         <v>44132</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
-      </c>
-      <c r="E150" t="s">
-        <v>199</v>
+        <v>278</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F150" s="12">
-        <v>23776</v>
+        <v>24242</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>56</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>205</v>
+        <v>55</v>
+      </c>
+      <c r="H150" t="s">
+        <v>202</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J150" s="11">
         <v>0</v>
@@ -7348,32 +7348,32 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" s="12">
         <v>44132</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>161</v>
+        <v>278</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F151" s="12">
-        <v>22094</v>
+        <v>18036</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H151" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J151" s="11">
         <v>0</v>
@@ -7385,32 +7385,32 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" s="12">
         <v>44132</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
-      </c>
-      <c r="E152" t="s">
-        <v>177</v>
+        <v>278</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F152" s="12">
-        <v>20651</v>
+        <v>25846</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H152" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
@@ -7422,32 +7422,32 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" s="12">
         <v>44132</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>162</v>
+        <v>278</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="F153" s="12">
-        <v>23444</v>
+        <v>27112</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H153" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920B7B1-0B32-4227-ADBF-895161AC61A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD0AA5-FD63-472C-91E9-A677BF89627F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="338">
   <si>
     <t>id</t>
   </si>
@@ -981,9 +981,6 @@
     <t>Partido Republicano</t>
   </si>
   <si>
-    <t>PREP</t>
-  </si>
-  <si>
     <t>https://www.ex-ante.cl/la-apuesta-de-sichel-en-rn/</t>
   </si>
   <si>
@@ -1005,9 +1002,6 @@
     <t>M. Desbordes</t>
   </si>
   <si>
-    <t>F. Huenchumilla</t>
-  </si>
-  <si>
     <t>JA. Kast</t>
   </si>
   <si>
@@ -1041,9 +1035,6 @@
     <t>https://twitter.com/RafaelProhensE/status/1339973109026353154</t>
   </si>
   <si>
-    <t>A. Elizalde</t>
-  </si>
-  <si>
     <t>https://www.latercera.com/politica/noticia/diputados-ps-piden-a-alvaro-elizalde-asumir-candidatura-presidencial/KTXWI22X6ZBDBCY6OXLS4SSUJA/</t>
   </si>
   <si>
@@ -1054,6 +1045,12 @@
   </si>
   <si>
     <t>https://www.latercera.com/la-tercera-pm/noticia/isabel-allende-y-su-sorpresivo-apoyo-a-paula-narvaez-es-el-tiempo-para-el-liderazgo-de-mujeres/G2TKKV3N4NFSTLJVM5SNMA2FU4/</t>
+  </si>
+  <si>
+    <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2021/01/16/tras-uncion-de-bachelet-diputados-toha-saavedra-y-monsalve-apoyan-precandidatura-de-narvaez.shtml</t>
+  </si>
+  <si>
+    <t>REP</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1447,7 @@
     <col min="3" max="3" width="16" style="14" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.85546875" customWidth="1"/>
@@ -1488,10 +1485,10 @@
         <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>269</v>
@@ -1505,7 +1502,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -1516,221 +1513,221 @@
       <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>107</v>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="12">
-        <v>20415</v>
+        <v>15245</v>
       </c>
       <c r="G2" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F2))</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J2" s="11">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L2" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="12">
         <v>44132</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>83</v>
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
       </c>
       <c r="F3" s="12">
-        <v>18640</v>
+        <v>26732</v>
       </c>
       <c r="G3" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F3))</f>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J3" s="11">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L3" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12">
         <v>44132</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="12">
-        <v>27118</v>
+        <v>17801</v>
       </c>
       <c r="G4" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F4))</f>
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>202</v>
+        <v>73</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J4" s="11">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L4" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="12">
         <v>44132</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="F5" s="12">
-        <v>22024</v>
+        <v>22305</v>
       </c>
       <c r="G5" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F5))</f>
         <v>60</v>
       </c>
-      <c r="H5" t="s">
-        <v>202</v>
+      <c r="H5" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L5" s="9">
-        <v>44188</v>
+        <v>44131</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12">
         <v>44132</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>112</v>
+        <v>277</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="F6" s="12">
-        <v>32771</v>
+        <v>24767</v>
       </c>
       <c r="G6" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F6))</f>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L6" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1741,41 +1738,41 @@
       <c r="D7" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>120</v>
+      <c r="E7" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F7" s="12">
-        <v>24242</v>
+        <v>32101</v>
       </c>
       <c r="G7" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F7))</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L7" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1786,41 +1783,41 @@
       <c r="D8" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>79</v>
+      <c r="E8" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="12">
-        <v>23902</v>
+        <v>20281</v>
       </c>
       <c r="G8" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F8))</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L8" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1831,41 +1828,41 @@
       <c r="D9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>116</v>
+      <c r="E9" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="12">
-        <v>18036</v>
+        <v>22890</v>
       </c>
       <c r="G9" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F9))</f>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L9" s="9">
-        <v>44188</v>
+        <v>44124</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1876,41 +1873,41 @@
       <c r="D10" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>57</v>
+      <c r="E10" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F10" s="12">
-        <v>25846</v>
+        <v>21079</v>
       </c>
       <c r="G10" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F10))</f>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="J10" s="11">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L10" s="9">
-        <v>44188</v>
+        <v>43581</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1922,85 +1919,85 @@
         <v>278</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="12">
-        <v>27112</v>
+        <v>29549</v>
       </c>
       <c r="G11" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F11))</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J11" s="11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L11" s="9">
-        <v>44188</v>
+        <v>43581</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12">
         <v>44132</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>278</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="12">
-        <v>25553</v>
+        <v>31817</v>
       </c>
       <c r="G12" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F12))</f>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J12" s="11">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L12" s="9">
-        <v>44144</v>
+        <v>43581</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -2012,40 +2009,40 @@
         <v>278</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="F13" s="12">
-        <v>21157</v>
+        <v>19434</v>
       </c>
       <c r="G13" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F13))</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" s="9">
-        <v>44144</v>
+        <v>43581</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -2056,356 +2053,356 @@
       <c r="D14" t="s">
         <v>278</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>49</v>
+      <c r="E14" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F14" s="12">
-        <v>15245</v>
+        <v>27719</v>
       </c>
       <c r="G14" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F14))</f>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J14" s="11">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L14" s="9">
-        <v>44124</v>
+        <v>43581</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="12">
         <v>44132</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" t="s">
-        <v>170</v>
+        <v>278</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="12">
-        <v>26732</v>
+        <v>26299</v>
       </c>
       <c r="G15" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F15))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J15" s="11">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L15" s="9">
-        <v>44124</v>
+        <v>43581</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="12">
         <v>44132</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" t="s">
-        <v>191</v>
+        <v>278</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="F16" s="12">
-        <v>17801</v>
+        <v>29287</v>
       </c>
       <c r="G16" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F16))</f>
-        <v>72</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>203</v>
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>200</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J16" s="11">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L16" s="9">
-        <v>44124</v>
+        <v>43581</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="12">
         <v>44132</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="F17" s="12">
-        <v>22305</v>
+        <v>25084</v>
       </c>
       <c r="G17" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F17))</f>
-        <v>59</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>203</v>
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>200</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J17" s="11">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L17" s="9">
-        <v>44131</v>
+        <v>43581</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="12">
         <v>44132</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="12">
-        <v>24767</v>
+        <v>274</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="9">
+        <v>24970</v>
       </c>
       <c r="G18" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F18))</f>
         <v>53</v>
       </c>
-      <c r="H18" t="s">
-        <v>203</v>
+      <c r="H18" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J18" s="11">
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L18" s="9">
-        <v>44124</v>
+        <v>44182</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="12">
         <v>44132</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="12">
-        <v>32101</v>
+        <v>275</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="9">
+        <v>24689</v>
       </c>
       <c r="G19" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F19))</f>
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>201</v>
+        <v>54</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J19" s="11">
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L19" s="9">
-        <v>44124</v>
+        <v>44182</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="12">
         <v>44132</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="12">
-        <v>20281</v>
+        <v>276</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="9">
+        <v>27429</v>
       </c>
       <c r="G20" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F20))</f>
-        <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>203</v>
+        <v>46</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L20" s="9">
-        <v>44124</v>
+        <v>44133</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="12">
         <v>44132</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>277</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
       </c>
       <c r="F21" s="12">
-        <v>22890</v>
+        <v>20252</v>
       </c>
       <c r="G21" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F21))</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J21" s="11">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L21" s="9">
-        <v>44124</v>
+        <v>44183</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -2416,41 +2413,41 @@
       <c r="D22" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>155</v>
+      <c r="E22" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="F22" s="12">
-        <v>21079</v>
+        <v>27763</v>
       </c>
       <c r="G22" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F22))</f>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="J22" s="11">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L22" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -2461,41 +2458,41 @@
       <c r="D23" t="s">
         <v>278</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>67</v>
+      <c r="E23" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="F23" s="12">
-        <v>29549</v>
+        <v>21674</v>
       </c>
       <c r="G23" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F23))</f>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J23" s="11">
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L23" s="9">
-        <v>43581</v>
+        <v>44133</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
+      </c>
+      <c r="N23" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2507,14 +2504,14 @@
         <v>278</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F24" s="12">
-        <v>31817</v>
+        <v>27492</v>
       </c>
       <c r="G24" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F24))</f>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
         <v>200</v>
@@ -2526,21 +2523,21 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L24" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2551,15 +2548,15 @@
       <c r="D25" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>63</v>
+      <c r="E25" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F25" s="12">
-        <v>19434</v>
+        <v>30097</v>
       </c>
       <c r="G25" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F25))</f>
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
         <v>200</v>
@@ -2571,21 +2568,21 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L25" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2596,17 +2593,17 @@
       <c r="D26" t="s">
         <v>278</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="12">
-        <v>27719</v>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="9">
+        <v>32980</v>
       </c>
       <c r="G26" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F26))</f>
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -2616,21 +2613,21 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L26" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2642,14 +2639,14 @@
         <v>278</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" s="12">
-        <v>26299</v>
+        <v>24666</v>
       </c>
       <c r="G27" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F27))</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
         <v>200</v>
@@ -2661,21 +2658,21 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L27" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2687,14 +2684,14 @@
         <v>278</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F28" s="12">
-        <v>29287</v>
+        <v>27004</v>
       </c>
       <c r="G28" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F28))</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
         <v>200</v>
@@ -2706,21 +2703,21 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L28" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2731,15 +2728,15 @@
       <c r="D29" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>144</v>
+      <c r="E29" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="12">
-        <v>25084</v>
+        <v>29572</v>
       </c>
       <c r="G29" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F29))</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
         <v>200</v>
@@ -2751,42 +2748,42 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L29" s="9">
-        <v>43581</v>
+        <v>44135</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" s="12">
         <v>44132</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="9">
-        <v>24970</v>
+        <v>278</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="12">
+        <v>24834</v>
       </c>
       <c r="G30" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F30))</f>
-        <v>52</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
         <v>200</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -2796,111 +2793,111 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L30" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="12">
         <v>44132</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F31" s="9">
-        <v>24689</v>
+        <v>18900</v>
       </c>
       <c r="G31" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F31))</f>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J31" s="11">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L31" s="9">
-        <v>44182</v>
+        <v>44193</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="12">
         <v>44132</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="9">
-        <v>27429</v>
+        <v>189</v>
+      </c>
+      <c r="F32" s="12">
+        <v>16933</v>
       </c>
       <c r="G32" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F32))</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J32" s="11">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L32" s="9">
-        <v>44133</v>
+        <v>44193</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2912,40 +2909,40 @@
         <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F33" s="12">
-        <v>20252</v>
+        <v>16455</v>
       </c>
       <c r="G33" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F33))</f>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J33" s="11">
         <v>1</v>
       </c>
-      <c r="K33" t="s">
-        <v>321</v>
+      <c r="K33" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="L33" s="9">
-        <v>44183</v>
+        <v>44195</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -2957,40 +2954,40 @@
         <v>278</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F34" s="12">
-        <v>27763</v>
+        <v>20415</v>
       </c>
       <c r="G34" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F34))</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L34" s="9">
-        <v>44135</v>
+        <v>44188</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -3002,40 +2999,40 @@
         <v>278</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F35" s="12">
-        <v>21674</v>
+        <v>23902</v>
       </c>
       <c r="G35" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F35))</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L35" s="9">
-        <v>44133</v>
+        <v>44188</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="N35" t="s">
-        <v>316</v>
+        <v>332</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -3046,41 +3043,41 @@
       <c r="D36" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>27</v>
+      <c r="E36" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F36" s="12">
-        <v>27492</v>
+        <v>26203</v>
       </c>
       <c r="G36" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F36))</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L36" s="9">
-        <v>44135</v>
+        <v>44193</v>
       </c>
       <c r="M36" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -3092,59 +3089,59 @@
         <v>278</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F37" s="12">
-        <v>30097</v>
+        <v>14047</v>
       </c>
       <c r="G37" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F37))</f>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L37" s="9">
-        <v>44135</v>
+        <v>44212</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="F38" s="9">
-        <v>32980</v>
+        <v>20492</v>
       </c>
       <c r="G38" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>200</v>
@@ -3156,21 +3153,21 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L38" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3181,15 +3178,15 @@
       <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>38</v>
+      <c r="E39" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F39" s="12">
-        <v>24666</v>
+        <v>31990</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
         <v>200</v>
@@ -3201,21 +3198,21 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L39" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3227,14 +3224,14 @@
         <v>278</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F40" s="12">
-        <v>27004</v>
+        <v>31120</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
         <v>200</v>
@@ -3246,21 +3243,21 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L40" s="9">
         <v>44135</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3272,14 +3269,14 @@
         <v>278</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F41" s="12">
-        <v>29572</v>
+        <v>26133</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
         <v>200</v>
@@ -3291,21 +3288,21 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L41" s="9">
         <v>44135</v>
       </c>
       <c r="M41" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3316,15 +3313,15 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>101</v>
+      <c r="E42" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F42" s="12">
-        <v>24834</v>
+        <v>22263</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
         <v>200</v>
@@ -3336,156 +3333,156 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L42" s="9">
         <v>44135</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43" s="12">
         <v>44132</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F43" s="9">
-        <v>18900</v>
+        <v>278</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="12">
+        <v>21548</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>69</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>202</v>
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>200</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="L43" s="9">
-        <v>44193</v>
+        <v>44182</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" s="12">
         <v>44132</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="12">
-        <v>16933</v>
+        <v>227</v>
+      </c>
+      <c r="F44" s="9">
+        <v>31116</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="L44" s="9">
-        <v>44193</v>
+        <v>44135</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="12">
         <v>44132</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
-      </c>
-      <c r="E45" t="s">
-        <v>176</v>
+        <v>278</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="12">
-        <v>16455</v>
+        <v>28805</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>337</v>
+      <c r="K45" t="s">
+        <v>324</v>
       </c>
       <c r="L45" s="9">
-        <v>44195</v>
+        <v>44182</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3496,86 +3493,86 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>141</v>
+      <c r="E46" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F46" s="12">
-        <v>26203</v>
+        <v>19343</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="L46" s="9">
-        <v>44193</v>
+        <v>44144</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C47" s="12">
         <v>44132</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="12">
+        <v>28018</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>64</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>200</v>
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>204</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J47" s="11">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L47" s="9">
-        <v>44182</v>
+        <v>44144</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3586,465 +3583,392 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>93</v>
+      <c r="E48" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F48" s="12">
-        <v>31990</v>
+        <v>31247</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L48" s="9">
-        <v>44182</v>
+        <v>44144</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C49" s="12">
         <v>44132</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="12">
-        <v>31120</v>
+        <v>272</v>
+      </c>
+      <c r="E49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="9">
+        <v>18233</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>35</v>
-      </c>
-      <c r="H49" t="s">
-        <v>200</v>
+        <v>72</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J49" s="11">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>326</v>
-      </c>
-      <c r="L49" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49" s="9"/>
+      <c r="N49"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50" s="12">
         <v>44132</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="12">
-        <v>26133</v>
+        <v>273</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="9">
+        <v>15516</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>49</v>
-      </c>
-      <c r="H50" t="s">
-        <v>200</v>
+        <v>79</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J50" s="11">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>326</v>
-      </c>
-      <c r="L50" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C51" s="12">
         <v>44132</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="12">
-        <v>22263</v>
+        <v>273</v>
+      </c>
+      <c r="E51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" s="9">
+        <v>13941</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>60</v>
-      </c>
-      <c r="H51" t="s">
-        <v>200</v>
+        <v>83</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J51" s="11">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>326</v>
-      </c>
-      <c r="L51" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C52" s="12">
         <v>44132</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="12">
-        <v>21548</v>
+        <v>274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="9">
+        <v>20120</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>62</v>
-      </c>
-      <c r="H52" t="s">
-        <v>200</v>
+        <v>66</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J52" s="11">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>326</v>
-      </c>
-      <c r="L52" s="9">
-        <v>44182</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C53" s="12">
         <v>44132</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F53" s="9">
-        <v>31116</v>
+        <v>26645</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J53" s="11">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>326</v>
-      </c>
-      <c r="L53" s="9">
-        <v>44135</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C54" s="12">
         <v>44132</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="12">
-        <v>28805</v>
+        <v>274</v>
+      </c>
+      <c r="E54" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="9">
+        <v>20671</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>42</v>
-      </c>
-      <c r="H54" t="s">
-        <v>205</v>
+        <v>65</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J54" s="11">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>326</v>
-      </c>
-      <c r="L54" s="9">
-        <v>44182</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C55" s="12">
         <v>44132</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="12">
-        <v>19343</v>
+        <v>274</v>
+      </c>
+      <c r="E55" t="s">
+        <v>306</v>
+      </c>
+      <c r="F55" s="9">
+        <v>25134</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>68</v>
-      </c>
-      <c r="H55" t="s">
-        <v>204</v>
+        <v>53</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J55" s="11">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>325</v>
-      </c>
-      <c r="L55" s="9">
-        <v>44144</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56" s="12">
         <v>44132</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" s="12">
-        <v>28018</v>
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="9">
+        <v>22460</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>44</v>
-      </c>
-      <c r="H56" t="s">
-        <v>204</v>
+        <v>60</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J56" s="11">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>325</v>
-      </c>
-      <c r="L56" s="9">
-        <v>44144</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="12">
-        <v>31247</v>
+        <v>274</v>
+      </c>
+      <c r="E57" t="s">
+        <v>305</v>
+      </c>
+      <c r="F57" s="9">
+        <v>24724</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>35</v>
-      </c>
-      <c r="H57" t="s">
-        <v>204</v>
+        <v>54</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J57" s="11">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>325</v>
-      </c>
-      <c r="L57" s="9">
-        <v>44144</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F58" s="9">
-        <v>18233</v>
+        <v>17815</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>201</v>
@@ -4057,36 +3981,37 @@
       </c>
       <c r="K58"/>
       <c r="L58" s="9"/>
-      <c r="N58"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="F59" s="9">
-        <v>15516</v>
+        <v>17779</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J59" s="11">
         <v>0</v>
@@ -4098,32 +4023,32 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="12">
         <v>44132</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="F60" s="9">
-        <v>13941</v>
+        <v>27681</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -4135,7 +4060,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -4147,20 +4072,20 @@
         <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="F61" s="9">
-        <v>20120</v>
+        <v>28232</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J61" s="11">
         <v>0</v>
@@ -4172,7 +4097,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4184,20 +4109,20 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F62" s="9">
-        <v>26645</v>
+        <v>27653</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
@@ -4209,7 +4134,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4221,14 +4146,14 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F63" s="9">
-        <v>20671</v>
+        <v>27474</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>201</v>
@@ -4246,7 +4171,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4258,20 +4183,20 @@
         <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F64" s="9">
-        <v>25134</v>
+        <v>21368</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -4283,7 +4208,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4295,20 +4220,20 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F65" s="9">
-        <v>22460</v>
+        <v>27295</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
@@ -4320,7 +4245,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4331,21 +4256,21 @@
       <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="E66" t="s">
-        <v>305</v>
-      </c>
-      <c r="F66" s="9">
-        <v>24724</v>
+      <c r="E66" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="12">
+        <v>25126</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
         <v>53</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>201</v>
+      <c r="H66" t="s">
+        <v>200</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
@@ -4357,7 +4282,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4369,20 +4294,20 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="F67" s="9">
-        <v>17815</v>
+        <v>26556</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4394,7 +4319,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4406,20 +4331,20 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="F68" s="9">
-        <v>17779</v>
+        <v>17431</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
@@ -4431,7 +4356,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4442,21 +4367,21 @@
       <c r="D69" t="s">
         <v>274</v>
       </c>
-      <c r="E69" t="s">
-        <v>221</v>
-      </c>
-      <c r="F69" s="9">
-        <v>27681</v>
+      <c r="E69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="12">
+        <v>29554</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>45</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>201</v>
+        <v>41</v>
+      </c>
+      <c r="H69" t="s">
+        <v>205</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4468,7 +4393,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4480,20 +4405,20 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F70" s="9">
-        <v>28232</v>
+        <v>32557</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4505,7 +4430,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4517,20 +4442,20 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="F71" s="9">
-        <v>27653</v>
+        <v>27105</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4542,7 +4467,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4554,20 +4479,20 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F72" s="9">
-        <v>27474</v>
+        <v>22770</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4579,7 +4504,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4591,20 +4516,20 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="F73" s="9">
-        <v>21368</v>
+        <v>20015</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4616,340 +4541,325 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="12">
         <v>44132</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="F74" s="9">
-        <v>27295</v>
+        <v>25454</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="12">
         <v>44132</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" s="12">
-        <v>25126</v>
+        <v>275</v>
+      </c>
+      <c r="E75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F75" s="9">
+        <v>30994</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>52</v>
-      </c>
-      <c r="H75" t="s">
-        <v>200</v>
+        <v>37</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="12">
         <v>44132</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
-      </c>
-      <c r="F76" s="9">
-        <v>26556</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F76" s="9"/>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="12">
         <v>44132</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F77" s="9">
-        <v>17431</v>
+        <v>19642</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J77" s="11">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="12">
         <v>44132</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="12">
-        <v>29554</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E78" t="s">
+        <v>257</v>
+      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>40</v>
-      </c>
-      <c r="H78" t="s">
-        <v>205</v>
+        <v>121</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J78" s="11">
         <v>0</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="12">
         <v>44132</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
-      </c>
-      <c r="F79" s="9">
-        <v>32557</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F79" s="9"/>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J79" s="11">
         <v>0</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="12">
         <v>44132</v>
       </c>
       <c r="D80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="F80" s="9">
-        <v>27105</v>
+        <v>18048</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="12">
         <v>44132</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="F81" s="9">
-        <v>22770</v>
+        <v>26622</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="12">
         <v>44132</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="F82" s="9">
-        <v>20015</v>
+        <v>29935</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="9"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4961,20 +4871,18 @@
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
-      </c>
-      <c r="F83" s="9">
-        <v>25454</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
@@ -4985,7 +4893,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4997,20 +4905,20 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F84" s="9">
-        <v>30994</v>
+        <v>27655</v>
       </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
@@ -5021,7 +4929,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -5033,18 +4941,20 @@
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="9"/>
+        <v>264</v>
+      </c>
+      <c r="F85" s="9">
+        <v>25492</v>
+      </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J85" s="11">
         <v>0</v>
@@ -5055,7 +4965,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -5067,20 +4977,20 @@
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F86" s="9">
-        <v>19642</v>
+        <v>22881</v>
       </c>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J86" s="11">
         <v>0</v>
@@ -5091,7 +5001,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5103,18 +5013,20 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
-      </c>
-      <c r="F87" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="F87" s="9">
+        <v>20806</v>
+      </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
@@ -5125,7 +5037,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5137,18 +5049,20 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
-      </c>
-      <c r="F88" s="9"/>
+        <v>256</v>
+      </c>
+      <c r="F88" s="9">
+        <v>29105</v>
+      </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -5159,174 +5073,178 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" s="12">
         <v>44132</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="F89" s="9">
-        <v>18048</v>
+        <v>28422</v>
       </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="9"/>
-      <c r="N89"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C90" s="12">
         <v>44132</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>261</v>
-      </c>
-      <c r="F90" s="9">
-        <v>26622</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F90" s="9"/>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="N90"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" s="12">
         <v>44132</v>
       </c>
       <c r="D91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="F91" s="9">
-        <v>29935</v>
+        <v>26763</v>
       </c>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="9"/>
-      <c r="N91"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" s="12">
         <v>44132</v>
       </c>
       <c r="D92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
-      </c>
-      <c r="F92" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="F92" s="9">
+        <v>31131</v>
+      </c>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="9"/>
-      <c r="N92"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="12">
         <v>44132</v>
       </c>
       <c r="D93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="F93" s="9">
-        <v>27655</v>
+        <v>20899</v>
       </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5337,68 +5255,67 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="12">
         <v>44132</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F94" s="9">
-        <v>25492</v>
+        <v>25265</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="9"/>
-      <c r="N94"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="12">
         <v>44132</v>
       </c>
       <c r="D95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
-      </c>
-      <c r="F95" s="9">
-        <v>22881</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F95" s="9"/>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
@@ -5409,79 +5326,81 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" s="12">
         <v>44132</v>
       </c>
       <c r="D96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="F96" s="9">
-        <v>20806</v>
+        <v>26090</v>
       </c>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J96" s="11">
         <v>0</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="N96"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C97" s="12">
         <v>44132</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F97" s="9">
-        <v>29105</v>
+        <v>28694</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="N97"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5493,20 +5412,20 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="F98" s="9">
-        <v>28422</v>
+        <v>34561</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
@@ -5518,7 +5437,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5530,18 +5449,18 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
@@ -5553,7 +5472,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5565,20 +5484,18 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
-      </c>
-      <c r="F100" s="9">
-        <v>26763</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
@@ -5590,7 +5507,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5602,20 +5519,18 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
-      </c>
-      <c r="F101" s="9">
-        <v>31131</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
@@ -5627,7 +5542,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5639,20 +5554,20 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F102" s="9">
-        <v>20899</v>
+        <v>27845</v>
       </c>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
@@ -5663,7 +5578,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5675,20 +5590,20 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F103" s="9">
-        <v>25265</v>
+        <v>27116</v>
       </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
@@ -5700,7 +5615,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5712,18 +5627,18 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5734,7 +5649,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5746,32 +5661,31 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F105" s="9">
-        <v>26090</v>
+        <v>22196</v>
       </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5783,32 +5697,31 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F106" s="9">
-        <v>28694</v>
+        <v>19005</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="9"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5820,20 +5733,20 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="F107" s="9">
-        <v>34561</v>
+        <v>19655</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
@@ -5845,7 +5758,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5857,18 +5770,20 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>251</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="F108" s="9">
+        <v>14442</v>
+      </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5880,30 +5795,32 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="12">
         <v>44132</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
-      </c>
-      <c r="E109" t="s">
-        <v>241</v>
-      </c>
-      <c r="F109" s="9"/>
+        <v>277</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" s="12">
+        <v>25553</v>
+      </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>120</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>202</v>
+        <v>52</v>
+      </c>
+      <c r="H109" t="s">
+        <v>204</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5915,30 +5832,32 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" s="12">
         <v>44132</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
-      </c>
-      <c r="F110" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="F110" s="12">
+        <v>26653</v>
+      </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -5950,68 +5869,69 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="12">
         <v>44132</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
-      </c>
-      <c r="E111" t="s">
-        <v>250</v>
-      </c>
-      <c r="F111" s="9">
-        <v>27845</v>
+        <v>277</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" s="12">
+        <v>16153</v>
       </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>44</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>200</v>
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>204</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="N111"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" s="12">
         <v>44132</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
-      </c>
-      <c r="F112" s="9">
-        <v>27116</v>
+        <v>194</v>
+      </c>
+      <c r="F112" s="12">
+        <v>19105</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J112" s="11">
         <v>0</v>
@@ -6023,138 +5943,143 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" s="12">
         <v>44132</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
-      </c>
-      <c r="E113" t="s">
-        <v>245</v>
-      </c>
-      <c r="F113" s="9"/>
+        <v>277</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="12">
+        <v>25024</v>
+      </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>120</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="H113" t="s">
+        <v>204</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
       </c>
       <c r="K113"/>
       <c r="L113" s="9"/>
-      <c r="N113"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" s="12">
         <v>44132</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
-      </c>
-      <c r="E114" t="s">
-        <v>240</v>
-      </c>
-      <c r="F114" s="9">
-        <v>22196</v>
+        <v>277</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F114" s="12">
+        <v>28285</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>60</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>200</v>
+        <v>44</v>
+      </c>
+      <c r="H114" t="s">
+        <v>206</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="9"/>
-      <c r="N114"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" s="12">
         <v>44132</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
-      </c>
-      <c r="F115" s="9">
-        <v>19005</v>
+        <v>186</v>
+      </c>
+      <c r="F115" s="12">
+        <v>19423</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
         <v>68</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="9"/>
-      <c r="N115"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" s="12">
         <v>44132</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>239</v>
-      </c>
-      <c r="F116" s="9">
-        <v>19655</v>
+        <v>182</v>
+      </c>
+      <c r="F116" s="12">
+        <v>22224</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -6162,48 +6087,48 @@
       <c r="K116"/>
       <c r="L116" s="9"/>
       <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="N116"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" s="12">
         <v>44132</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>236</v>
-      </c>
-      <c r="F117" s="9">
-        <v>14442</v>
+        <v>158</v>
+      </c>
+      <c r="F117" s="12">
+        <v>24478</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>81</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>205</v>
+        <v>54</v>
+      </c>
+      <c r="H117" t="s">
+        <v>201</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="2"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -6215,20 +6140,20 @@
         <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F118" s="12">
-        <v>26653</v>
+        <v>21845</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>48</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>204</v>
+        <v>62</v>
+      </c>
+      <c r="H118" t="s">
+        <v>201</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
@@ -6240,7 +6165,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6251,21 +6176,21 @@
       <c r="D119" t="s">
         <v>277</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>166</v>
+      <c r="E119" t="s">
+        <v>196</v>
       </c>
       <c r="F119" s="12">
-        <v>16153</v>
+        <v>27196</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>76</v>
-      </c>
-      <c r="H119" t="s">
-        <v>204</v>
+        <v>47</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J119" s="11">
         <v>0</v>
@@ -6273,11 +6198,11 @@
       <c r="K119"/>
       <c r="L119" s="9"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6289,20 +6214,20 @@
         <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F120" s="12">
-        <v>19105</v>
+        <v>26500</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6314,7 +6239,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6325,21 +6250,21 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>179</v>
+      <c r="E121" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F121" s="12">
-        <v>25024</v>
+        <v>13455</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
@@ -6351,7 +6276,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6362,33 +6287,33 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>178</v>
+      <c r="E122" t="s">
+        <v>168</v>
       </c>
       <c r="F122" s="12">
-        <v>28285</v>
+        <v>22698</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H122" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6400,20 +6325,20 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F123" s="12">
-        <v>19423</v>
+        <v>21509</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
@@ -6425,7 +6350,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6437,20 +6362,20 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F124" s="12">
-        <v>22224</v>
+        <v>24173</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J124" s="11">
         <v>0</v>
@@ -6458,11 +6383,11 @@
       <c r="K124"/>
       <c r="L124" s="9"/>
       <c r="M124" s="2"/>
-      <c r="N124"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6474,32 +6399,32 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F125" s="12">
-        <v>24478</v>
+        <v>25491</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H125" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J125" s="11">
         <v>0</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="9"/>
-      <c r="M125" s="8"/>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6510,21 +6435,21 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" t="s">
-        <v>173</v>
+      <c r="E126" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F126" s="12">
-        <v>21845</v>
+        <v>15859</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H126" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J126" s="11">
         <v>0</v>
@@ -6536,7 +6461,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6548,20 +6473,20 @@
         <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F127" s="12">
-        <v>27196</v>
+        <v>22288</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J127" s="11">
         <v>0</v>
@@ -6569,11 +6494,11 @@
       <c r="K127"/>
       <c r="L127" s="9"/>
       <c r="M127" s="2"/>
-      <c r="N127"/>
+      <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6585,20 +6510,20 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F128" s="12">
-        <v>26500</v>
+        <v>16010</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6610,7 +6535,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6621,21 +6546,21 @@
       <c r="D129" t="s">
         <v>277</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>180</v>
+      <c r="E129" t="s">
+        <v>169</v>
       </c>
       <c r="F129" s="12">
-        <v>13455</v>
+        <v>28573</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6647,7 +6572,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6658,33 +6583,33 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130" t="s">
-        <v>168</v>
+      <c r="E130" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F130" s="12">
-        <v>22698</v>
+        <v>26073</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H130" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="2"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6696,32 +6621,32 @@
         <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="F131" s="12">
-        <v>21509</v>
+        <v>20231</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>62</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>310</v>
+        <v>66</v>
+      </c>
+      <c r="H131" t="s">
+        <v>200</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="2"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6733,20 +6658,20 @@
         <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F132" s="12">
-        <v>24173</v>
+        <v>21855</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>54</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>202</v>
+        <v>62</v>
+      </c>
+      <c r="H132" t="s">
+        <v>200</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J132" s="11">
         <v>0</v>
@@ -6758,7 +6683,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6770,20 +6695,20 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="F133" s="12">
-        <v>25491</v>
+        <v>22882</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>51</v>
-      </c>
-      <c r="H133" t="s">
-        <v>202</v>
+        <v>59</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J133" s="11">
         <v>0</v>
@@ -6795,7 +6720,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6807,20 +6732,20 @@
         <v>277</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="F134" s="12">
-        <v>15859</v>
+        <v>29680</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="H134" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J134" s="11">
         <v>0</v>
@@ -6832,7 +6757,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6844,20 +6769,20 @@
         <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F135" s="12">
-        <v>22288</v>
+        <v>24414</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>59</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>202</v>
+        <v>55</v>
+      </c>
+      <c r="H135" t="s">
+        <v>200</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J135" s="11">
         <v>0</v>
@@ -6869,7 +6794,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6881,20 +6806,20 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F136" s="12">
-        <v>16010</v>
+        <v>19103</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -6906,7 +6831,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6918,32 +6843,31 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>169</v>
-      </c>
-      <c r="F137" s="12">
-        <v>28573</v>
+        <v>230</v>
+      </c>
+      <c r="F137" s="9">
+        <v>21953</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>42</v>
-      </c>
-      <c r="H137" t="s">
-        <v>207</v>
+        <v>61</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="9"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="N137"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6954,33 +6878,33 @@
       <c r="D138" t="s">
         <v>277</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>160</v>
+      <c r="E138" t="s">
+        <v>175</v>
       </c>
       <c r="F138" s="12">
-        <v>26073</v>
+        <v>19287</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H138" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="8"/>
+      <c r="M138" s="2"/>
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6992,20 +6916,20 @@
         <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F139" s="12">
-        <v>20231</v>
+        <v>27361</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>65</v>
-      </c>
-      <c r="H139" t="s">
-        <v>200</v>
+        <v>47</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J139" s="11">
         <v>0</v>
@@ -7017,7 +6941,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -7029,20 +6953,20 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F140" s="12">
-        <v>21855</v>
+        <v>20797</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>61</v>
-      </c>
-      <c r="H140" t="s">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
@@ -7054,7 +6978,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -7066,20 +6990,20 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F141" s="12">
-        <v>22882</v>
+        <v>23776</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J141" s="11">
         <v>0</v>
@@ -7091,7 +7015,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7103,20 +7027,20 @@
         <v>277</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="F142" s="12">
-        <v>29680</v>
+        <v>22094</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H142" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J142" s="11">
         <v>0</v>
@@ -7128,7 +7052,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7140,20 +7064,20 @@
         <v>277</v>
       </c>
       <c r="E143" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F143" s="12">
-        <v>24414</v>
+        <v>20651</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H143" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J143" s="11">
         <v>0</v>
@@ -7165,7 +7089,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7176,17 +7100,17 @@
       <c r="D144" t="s">
         <v>277</v>
       </c>
-      <c r="E144" t="s">
-        <v>198</v>
+      <c r="E144" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F144" s="12">
-        <v>19103</v>
+        <v>23444</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>68</v>
-      </c>
-      <c r="H144" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" t="s">
         <v>205</v>
       </c>
       <c r="I144" s="11" t="s">
@@ -7202,68 +7126,69 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" s="12">
         <v>44132</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
-      </c>
-      <c r="E145" t="s">
-        <v>230</v>
-      </c>
-      <c r="F145" s="9">
-        <v>21953</v>
+        <v>278</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F145" s="12">
+        <v>21157</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>60</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="H145" t="s">
+        <v>204</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
       </c>
       <c r="K145"/>
       <c r="L145" s="9"/>
-      <c r="N145"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" s="12">
         <v>44132</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
-      </c>
-      <c r="E146" t="s">
-        <v>175</v>
+        <v>278</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F146" s="12">
-        <v>19287</v>
+        <v>18640</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H146" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
@@ -7275,69 +7200,69 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" s="12">
         <v>44132</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
-      </c>
-      <c r="E147" t="s">
-        <v>197</v>
+        <v>278</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F147" s="12">
-        <v>27361</v>
+        <v>27118</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>46</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>205</v>
+        <v>47</v>
+      </c>
+      <c r="H147" t="s">
+        <v>202</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J147" s="11">
         <v>0</v>
       </c>
       <c r="K147"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="8"/>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" s="12">
         <v>44132</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
-      </c>
-      <c r="E148" t="s">
-        <v>190</v>
+        <v>278</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F148" s="12">
-        <v>20797</v>
+        <v>22024</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>64</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>205</v>
+        <v>61</v>
+      </c>
+      <c r="H148" t="s">
+        <v>202</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J148" s="11">
         <v>0</v>
@@ -7349,32 +7274,32 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" s="12">
         <v>44132</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
-      </c>
-      <c r="E149" t="s">
-        <v>199</v>
+        <v>278</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F149" s="12">
-        <v>23776</v>
+        <v>32771</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>55</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>205</v>
+        <v>32</v>
+      </c>
+      <c r="H149" t="s">
+        <v>202</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J149" s="11">
         <v>0</v>
@@ -7386,32 +7311,32 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="B150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" s="12">
         <v>44132</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>161</v>
+        <v>278</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F150" s="12">
-        <v>22094</v>
+        <v>24242</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H150" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J150" s="11">
         <v>0</v>
@@ -7423,32 +7348,32 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" s="12">
         <v>44132</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
-      </c>
-      <c r="E151" t="s">
-        <v>177</v>
+        <v>278</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F151" s="12">
-        <v>20651</v>
+        <v>18036</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H151" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J151" s="11">
         <v>0</v>
@@ -7460,32 +7385,32 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" s="12">
         <v>44132</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>162</v>
+        <v>278</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F152" s="12">
-        <v>23444</v>
+        <v>25846</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H152" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
@@ -7497,7 +7422,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -7509,20 +7434,20 @@
         <v>278</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F153" s="12">
-        <v>33308</v>
+        <v>27112</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H153" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>
@@ -7534,7 +7459,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B154">
         <v>7</v>
@@ -7546,14 +7471,14 @@
         <v>278</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="F154" s="12">
-        <v>25397</v>
+        <v>33308</v>
       </c>
       <c r="G154" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H154" t="s">
         <v>312</v>
@@ -7571,7 +7496,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B155">
         <v>7</v>
@@ -7583,20 +7508,20 @@
         <v>278</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F155" s="12">
-        <v>32533</v>
+        <v>25397</v>
       </c>
       <c r="G155" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H155" t="s">
-        <v>229</v>
-      </c>
-      <c r="I155" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="J155" s="11">
         <v>0</v>
@@ -7608,7 +7533,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156">
         <v>7</v>
@@ -7619,15 +7544,15 @@
       <c r="D156" t="s">
         <v>278</v>
       </c>
-      <c r="E156" s="6" t="s">
-        <v>18</v>
+      <c r="E156" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F156" s="12">
-        <v>31454</v>
+        <v>32533</v>
       </c>
       <c r="G156" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H156" t="s">
         <v>229</v>
@@ -7645,7 +7570,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B157">
         <v>7</v>
@@ -7656,20 +7581,20 @@
       <c r="D157" t="s">
         <v>278</v>
       </c>
-      <c r="E157" s="11" t="s">
-        <v>148</v>
+      <c r="E157" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F157" s="12">
-        <v>32481</v>
+        <v>31454</v>
       </c>
       <c r="G157" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H157" t="s">
         <v>229</v>
       </c>
-      <c r="I157" s="11" t="s">
+      <c r="I157" t="s">
         <v>282</v>
       </c>
       <c r="J157" s="11">
@@ -7682,7 +7607,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7694,10 +7619,10 @@
         <v>278</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F158" s="12">
-        <v>31783</v>
+        <v>32481</v>
       </c>
       <c r="G158" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
@@ -7706,7 +7631,7 @@
       <c r="H158" t="s">
         <v>229</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="11" t="s">
         <v>282</v>
       </c>
       <c r="J158" s="11">
@@ -7719,7 +7644,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7730,21 +7655,21 @@
       <c r="D159" t="s">
         <v>278</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>10</v>
+      <c r="E159" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F159" s="12">
-        <v>19657</v>
+        <v>31783</v>
       </c>
       <c r="G159" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H159" t="s">
-        <v>204</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>287</v>
+        <v>229</v>
+      </c>
+      <c r="I159" t="s">
+        <v>282</v>
       </c>
       <c r="J159" s="11">
         <v>0</v>
@@ -7756,7 +7681,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7768,14 +7693,14 @@
         <v>278</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F160" s="12">
-        <v>20255</v>
+        <v>19657</v>
       </c>
       <c r="G160" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H160" t="s">
         <v>204</v>
@@ -7793,7 +7718,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7804,15 +7729,15 @@
       <c r="D161" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="11" t="s">
-        <v>96</v>
+      <c r="E161" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F161" s="12">
-        <v>27851</v>
+        <v>20255</v>
       </c>
       <c r="G161" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H161" t="s">
         <v>204</v>
@@ -7830,7 +7755,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7841,15 +7766,15 @@
       <c r="D162" t="s">
         <v>278</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>152</v>
+      <c r="E162" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F162" s="12">
-        <v>23371</v>
+        <v>27851</v>
       </c>
       <c r="G162" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H162" t="s">
         <v>204</v>
@@ -7867,7 +7792,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7879,14 +7804,14 @@
         <v>278</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="F163" s="12">
-        <v>15302</v>
+        <v>23371</v>
       </c>
       <c r="G163" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H163" t="s">
         <v>204</v>
@@ -7904,7 +7829,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7916,14 +7841,14 @@
         <v>278</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F164" s="12">
-        <v>17116</v>
+        <v>15302</v>
       </c>
       <c r="G164" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H164" t="s">
         <v>204</v>
@@ -7941,7 +7866,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7953,14 +7878,14 @@
         <v>278</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="F165" s="12">
-        <v>26864</v>
+        <v>17116</v>
       </c>
       <c r="G165" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H165" t="s">
         <v>204</v>
@@ -7978,7 +7903,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7990,14 +7915,14 @@
         <v>278</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F166" s="12">
-        <v>27678</v>
+        <v>26864</v>
       </c>
       <c r="G166" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H166" t="s">
         <v>204</v>
@@ -8015,7 +7940,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -8026,21 +7951,21 @@
       <c r="D167" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="11" t="s">
-        <v>78</v>
+      <c r="E167" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="F167" s="12">
-        <v>23332</v>
+        <v>27678</v>
       </c>
       <c r="G167" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J167" s="11">
         <v>0</v>
@@ -8052,7 +7977,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -8064,14 +7989,14 @@
         <v>278</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F168" s="12">
-        <v>24014</v>
+        <v>23332</v>
       </c>
       <c r="G168" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H168" t="s">
         <v>206</v>
@@ -8089,7 +8014,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -8100,15 +8025,15 @@
       <c r="D169" t="s">
         <v>278</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>32</v>
+      <c r="E169" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F169" s="12">
-        <v>25750</v>
+        <v>24014</v>
       </c>
       <c r="G169" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H169" t="s">
         <v>206</v>
@@ -8121,12 +8046,12 @@
       </c>
       <c r="K169"/>
       <c r="L169" s="9"/>
-      <c r="M169" s="8"/>
+      <c r="M169" s="2"/>
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -8137,15 +8062,15 @@
       <c r="D170" t="s">
         <v>278</v>
       </c>
-      <c r="E170" s="11" t="s">
-        <v>145</v>
+      <c r="E170" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F170" s="12">
-        <v>26900</v>
+        <v>25750</v>
       </c>
       <c r="G170" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H170" t="s">
         <v>206</v>
@@ -8158,12 +8083,12 @@
       </c>
       <c r="K170"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="2"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -8175,14 +8100,14 @@
         <v>278</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="F171" s="12">
-        <v>25885</v>
+        <v>26900</v>
       </c>
       <c r="G171" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H171" t="s">
         <v>206</v>
@@ -8200,7 +8125,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -8211,15 +8136,15 @@
       <c r="D172" t="s">
         <v>278</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>61</v>
+      <c r="E172" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F172" s="12">
-        <v>26709</v>
+        <v>25885</v>
       </c>
       <c r="G172" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H172" t="s">
         <v>206</v>
@@ -8237,7 +8162,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -8248,21 +8173,21 @@
       <c r="D173" t="s">
         <v>278</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>117</v>
+      <c r="E173" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F173" s="12">
-        <v>24059</v>
+        <v>26709</v>
       </c>
       <c r="G173" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H173" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J173" s="11">
         <v>0</v>
@@ -8274,7 +8199,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -8285,15 +8210,15 @@
       <c r="D174" t="s">
         <v>278</v>
       </c>
-      <c r="E174" s="11" t="s">
-        <v>132</v>
+      <c r="E174" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="F174" s="12">
-        <v>23006</v>
+        <v>24059</v>
       </c>
       <c r="G174" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H174" t="s">
         <v>213</v>
@@ -8311,7 +8236,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -8322,15 +8247,15 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>81</v>
+      <c r="E175" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="F175" s="12">
-        <v>23226</v>
+        <v>23006</v>
       </c>
       <c r="G175" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H175" t="s">
         <v>213</v>
@@ -8348,7 +8273,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -8359,21 +8284,21 @@
       <c r="D176" t="s">
         <v>278</v>
       </c>
-      <c r="E176" s="11" t="s">
-        <v>22</v>
+      <c r="E176" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F176" s="12">
-        <v>29503</v>
+        <v>23226</v>
       </c>
       <c r="G176" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J176" s="11">
         <v>0</v>
@@ -8381,11 +8306,11 @@
       <c r="K176"/>
       <c r="L176" s="9"/>
       <c r="M176" s="2"/>
-      <c r="N176"/>
+      <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -8396,15 +8321,15 @@
       <c r="D177" t="s">
         <v>278</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>143</v>
+      <c r="E177" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F177" s="12">
-        <v>16390</v>
+        <v>29503</v>
       </c>
       <c r="G177" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H177" t="s">
         <v>201</v>
@@ -8418,11 +8343,11 @@
       <c r="K177"/>
       <c r="L177" s="9"/>
       <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
+      <c r="N177"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8434,14 +8359,14 @@
         <v>278</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="F178" s="12">
-        <v>16997</v>
+        <v>16390</v>
       </c>
       <c r="G178" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H178" t="s">
         <v>201</v>
@@ -8459,7 +8384,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -8470,15 +8395,15 @@
       <c r="D179" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="11" t="s">
-        <v>139</v>
+      <c r="E179" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F179" s="12">
-        <v>30347</v>
+        <v>16997</v>
       </c>
       <c r="G179" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H179" t="s">
         <v>201</v>
@@ -8496,7 +8421,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -8507,15 +8432,15 @@
       <c r="D180" t="s">
         <v>278</v>
       </c>
-      <c r="E180" s="6" t="s">
-        <v>35</v>
+      <c r="E180" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F180" s="12">
-        <v>25970</v>
+        <v>30347</v>
       </c>
       <c r="G180" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H180" t="s">
         <v>201</v>
@@ -8533,7 +8458,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -8545,14 +8470,14 @@
         <v>278</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="F181" s="12">
-        <v>18196</v>
+        <v>25970</v>
       </c>
       <c r="G181" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H181" t="s">
         <v>201</v>
@@ -8570,7 +8495,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -8581,15 +8506,15 @@
       <c r="D182" t="s">
         <v>278</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>106</v>
+      <c r="E182" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F182" s="12">
-        <v>24964</v>
+        <v>18196</v>
       </c>
       <c r="G182" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H182" t="s">
         <v>201</v>
@@ -8607,7 +8532,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -8618,15 +8543,15 @@
       <c r="D183" t="s">
         <v>278</v>
       </c>
-      <c r="E183" s="6" t="s">
-        <v>131</v>
+      <c r="E183" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F183" s="12">
-        <v>23594</v>
+        <v>24964</v>
       </c>
       <c r="G183" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H183" t="s">
         <v>201</v>
@@ -8644,7 +8569,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -8655,15 +8580,15 @@
       <c r="D184" t="s">
         <v>278</v>
       </c>
-      <c r="E184" s="11" t="s">
-        <v>11</v>
+      <c r="E184" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F184" s="12">
-        <v>20885</v>
+        <v>23594</v>
       </c>
       <c r="G184" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H184" t="s">
         <v>201</v>
@@ -8681,7 +8606,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -8693,14 +8618,14 @@
         <v>278</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F185" s="12">
-        <v>31562</v>
+        <v>20885</v>
       </c>
       <c r="G185" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H185" t="s">
         <v>201</v>
@@ -8718,7 +8643,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8729,15 +8654,15 @@
       <c r="D186" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="6" t="s">
-        <v>6</v>
+      <c r="E186" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F186" s="12">
-        <v>21338</v>
+        <v>31562</v>
       </c>
       <c r="G186" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H186" t="s">
         <v>201</v>
@@ -8755,7 +8680,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8767,14 +8692,14 @@
         <v>278</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="F187" s="12">
-        <v>20371</v>
+        <v>21338</v>
       </c>
       <c r="G187" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H187" t="s">
         <v>201</v>
@@ -8788,11 +8713,11 @@
       <c r="K187"/>
       <c r="L187" s="9"/>
       <c r="M187" s="2"/>
-      <c r="N187"/>
+      <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -8803,15 +8728,15 @@
       <c r="D188" t="s">
         <v>278</v>
       </c>
-      <c r="E188" s="11" t="s">
-        <v>9</v>
+      <c r="E188" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F188" s="12">
-        <v>20417</v>
+        <v>20371</v>
       </c>
       <c r="G188" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H188" t="s">
         <v>201</v>
@@ -8825,11 +8750,11 @@
       <c r="K188"/>
       <c r="L188" s="9"/>
       <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
+      <c r="N188"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -8841,14 +8766,14 @@
         <v>278</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F189" s="12">
-        <v>20655</v>
+        <v>20417</v>
       </c>
       <c r="G189" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H189" t="s">
         <v>201</v>
@@ -8866,7 +8791,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -8878,14 +8803,14 @@
         <v>278</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F190" s="12">
-        <v>18677</v>
+        <v>20655</v>
       </c>
       <c r="G190" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H190" t="s">
         <v>201</v>
@@ -8898,11 +8823,12 @@
       </c>
       <c r="K190"/>
       <c r="L190" s="9"/>
-      <c r="N190"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -8914,32 +8840,31 @@
         <v>278</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F191" s="12">
-        <v>18196</v>
+        <v>18677</v>
       </c>
       <c r="G191" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J191" s="11">
         <v>0</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
+      <c r="N191"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -8951,14 +8876,14 @@
         <v>278</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F192" s="12">
-        <v>25691</v>
+        <v>18196</v>
       </c>
       <c r="G192" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H192" t="s">
         <v>210</v>
@@ -8976,7 +8901,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -8987,15 +8912,15 @@
       <c r="D193" t="s">
         <v>278</v>
       </c>
-      <c r="E193" s="6" t="s">
-        <v>130</v>
+      <c r="E193" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F193" s="12">
-        <v>32261</v>
+        <v>25691</v>
       </c>
       <c r="G193" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H193" t="s">
         <v>210</v>
@@ -9013,7 +8938,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -9024,15 +8949,15 @@
       <c r="D194" t="s">
         <v>278</v>
       </c>
-      <c r="E194" s="11" t="s">
-        <v>53</v>
+      <c r="E194" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="F194" s="12">
-        <v>16607</v>
+        <v>32261</v>
       </c>
       <c r="G194" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H194" t="s">
         <v>210</v>
@@ -9050,7 +8975,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B195">
         <v>7</v>
@@ -9062,14 +8987,14 @@
         <v>278</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F195" s="12">
-        <v>25940</v>
+        <v>16607</v>
       </c>
       <c r="G195" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="H195" t="s">
         <v>210</v>
@@ -9087,7 +9012,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -9099,14 +9024,14 @@
         <v>278</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F196" s="12">
-        <v>16008</v>
+        <v>25940</v>
       </c>
       <c r="G196" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H196" t="s">
         <v>210</v>
@@ -9124,7 +9049,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B197">
         <v>7</v>
@@ -9135,15 +9060,15 @@
       <c r="D197" t="s">
         <v>278</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>50</v>
+      <c r="E197" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F197" s="12">
-        <v>22559</v>
+        <v>16008</v>
       </c>
       <c r="G197" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H197" t="s">
         <v>210</v>
@@ -9161,7 +9086,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -9172,15 +9097,15 @@
       <c r="D198" t="s">
         <v>278</v>
       </c>
-      <c r="E198" s="6" t="s">
-        <v>21</v>
+      <c r="E198" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F198" s="12">
-        <v>31868</v>
+        <v>22559</v>
       </c>
       <c r="G198" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H198" t="s">
         <v>210</v>
@@ -9198,7 +9123,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -9209,15 +9134,15 @@
       <c r="D199" t="s">
         <v>278</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>113</v>
+      <c r="E199" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F199" s="12">
-        <v>27508</v>
+        <v>31868</v>
       </c>
       <c r="G199" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H199" t="s">
         <v>210</v>
@@ -9235,7 +9160,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -9247,20 +9172,20 @@
         <v>278</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F200" s="12">
-        <v>26445</v>
+        <v>27508</v>
       </c>
       <c r="G200" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H200" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J200" s="11">
         <v>0</v>
@@ -9272,7 +9197,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -9284,20 +9209,20 @@
         <v>278</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F201" s="12">
-        <v>22250</v>
+        <v>26445</v>
       </c>
       <c r="G201" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H201" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J201" s="11">
         <v>0</v>
@@ -9309,7 +9234,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -9321,14 +9246,14 @@
         <v>278</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="F202" s="12">
-        <v>16725</v>
+        <v>22250</v>
       </c>
       <c r="G202" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H202" t="s">
         <v>208</v>
@@ -9346,7 +9271,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -9358,20 +9283,20 @@
         <v>278</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F203" s="12">
-        <v>28888</v>
+        <v>16725</v>
       </c>
       <c r="G203" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H203" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J203" s="11">
         <v>0</v>
@@ -9383,7 +9308,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -9394,15 +9319,15 @@
       <c r="D204" t="s">
         <v>278</v>
       </c>
-      <c r="E204" s="6" t="s">
-        <v>76</v>
+      <c r="E204" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F204" s="12">
-        <v>31920</v>
+        <v>28888</v>
       </c>
       <c r="G204" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H204" t="s">
         <v>211</v>
@@ -9420,7 +9345,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -9431,21 +9356,21 @@
       <c r="D205" t="s">
         <v>278</v>
       </c>
-      <c r="E205" s="11" t="s">
-        <v>92</v>
+      <c r="E205" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F205" s="12">
-        <v>24717</v>
+        <v>31920</v>
       </c>
       <c r="G205" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H205" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J205" s="11">
         <v>0</v>
@@ -9457,7 +9382,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -9469,14 +9394,14 @@
         <v>278</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F206" s="12">
-        <v>23367</v>
+        <v>24717</v>
       </c>
       <c r="G206" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H206" t="s">
         <v>203</v>
@@ -9494,7 +9419,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -9506,10 +9431,10 @@
         <v>278</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="F207" s="12">
-        <v>22655</v>
+        <v>23367</v>
       </c>
       <c r="G207" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
@@ -9531,7 +9456,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -9542,15 +9467,15 @@
       <c r="D208" t="s">
         <v>278</v>
       </c>
-      <c r="E208" s="6" t="s">
-        <v>23</v>
+      <c r="E208" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F208" s="12">
-        <v>26802</v>
+        <v>22655</v>
       </c>
       <c r="G208" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H208" t="s">
         <v>203</v>
@@ -9568,7 +9493,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -9579,21 +9504,21 @@
       <c r="D209" t="s">
         <v>278</v>
       </c>
-      <c r="E209" s="11" t="s">
-        <v>118</v>
+      <c r="E209" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F209" s="12">
-        <v>25566</v>
+        <v>26802</v>
       </c>
       <c r="G209" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H209" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J209" s="11">
         <v>0</v>
@@ -9605,7 +9530,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -9617,14 +9542,14 @@
         <v>278</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F210" s="12">
-        <v>21970</v>
+        <v>25566</v>
       </c>
       <c r="G210" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H210" t="s">
         <v>209</v>
@@ -9642,7 +9567,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -9653,15 +9578,15 @@
       <c r="D211" t="s">
         <v>278</v>
       </c>
-      <c r="E211" s="6" t="s">
-        <v>97</v>
+      <c r="E211" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F211" s="12">
-        <v>14974</v>
+        <v>21970</v>
       </c>
       <c r="G211" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H211" t="s">
         <v>209</v>
@@ -9679,7 +9604,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -9691,14 +9616,14 @@
         <v>278</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F212" s="12">
-        <v>21958</v>
+        <v>14974</v>
       </c>
       <c r="G212" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s">
         <v>209</v>
@@ -9716,7 +9641,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -9728,20 +9653,20 @@
         <v>278</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F213" s="12">
-        <v>32142</v>
+        <v>21958</v>
       </c>
       <c r="G213" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H213" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J213" s="11">
         <v>0</v>
@@ -9753,7 +9678,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -9764,15 +9689,15 @@
       <c r="D214" t="s">
         <v>278</v>
       </c>
-      <c r="E214" s="11" t="s">
-        <v>87</v>
+      <c r="E214" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F214" s="12">
-        <v>25067</v>
+        <v>32142</v>
       </c>
       <c r="G214" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H214" t="s">
         <v>202</v>
@@ -9790,7 +9715,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -9801,15 +9726,15 @@
       <c r="D215" t="s">
         <v>278</v>
       </c>
-      <c r="E215" s="6" t="s">
-        <v>39</v>
+      <c r="E215" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F215" s="12">
-        <v>25592</v>
+        <v>25067</v>
       </c>
       <c r="G215" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H215" t="s">
         <v>202</v>
@@ -9827,7 +9752,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -9838,15 +9763,15 @@
       <c r="D216" t="s">
         <v>278</v>
       </c>
-      <c r="E216" s="11" t="s">
-        <v>154</v>
+      <c r="E216" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F216" s="12">
-        <v>14047</v>
+        <v>25592</v>
       </c>
       <c r="G216" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="H216" t="s">
         <v>202</v>
@@ -9883,7 +9808,7 @@
       </c>
       <c r="G217" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H217" t="s">
         <v>202</v>
@@ -9920,7 +9845,7 @@
       </c>
       <c r="G218" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H218" t="s">
         <v>202</v>
@@ -9957,7 +9882,7 @@
       </c>
       <c r="G219" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F219))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H219" t="s">
         <v>207</v>
@@ -9994,7 +9919,7 @@
       </c>
       <c r="G220" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F220))</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H220" t="s">
         <v>207</v>
@@ -10031,7 +9956,7 @@
       </c>
       <c r="G221" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F221))</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H221" t="s">
         <v>207</v>
@@ -10068,7 +9993,7 @@
       </c>
       <c r="G222" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F222))</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H222" t="s">
         <v>207</v>
@@ -10105,7 +10030,7 @@
       </c>
       <c r="G223" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F223))</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H223" t="s">
         <v>207</v>
@@ -10142,7 +10067,7 @@
       </c>
       <c r="G224" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F224))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224" t="s">
         <v>207</v>
@@ -10179,7 +10104,7 @@
       </c>
       <c r="G225" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F225))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H225" t="s">
         <v>207</v>
@@ -10216,7 +10141,7 @@
       </c>
       <c r="G226" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F226))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H226" t="s">
         <v>200</v>
@@ -10252,7 +10177,7 @@
       </c>
       <c r="G227" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F227))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H227" t="s">
         <v>200</v>
@@ -10289,7 +10214,7 @@
       </c>
       <c r="G228" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F228))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H228" t="s">
         <v>200</v>
@@ -10326,7 +10251,7 @@
       </c>
       <c r="G229" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F229))</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H229" t="s">
         <v>200</v>
@@ -10362,7 +10287,7 @@
       </c>
       <c r="G230" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F230))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H230" t="s">
         <v>200</v>
@@ -10399,7 +10324,7 @@
       </c>
       <c r="G231" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F231))</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H231" t="s">
         <v>200</v>
@@ -10436,7 +10361,7 @@
       </c>
       <c r="G232" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F232))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H232" t="s">
         <v>200</v>
@@ -10473,7 +10398,7 @@
       </c>
       <c r="G233" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F233))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H233" t="s">
         <v>200</v>
@@ -10509,7 +10434,7 @@
       </c>
       <c r="G234" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F234))</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H234" t="s">
         <v>200</v>
@@ -10546,7 +10471,7 @@
       </c>
       <c r="G235" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F235))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H235" t="s">
         <v>200</v>
@@ -10583,7 +10508,7 @@
       </c>
       <c r="G236" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F236))</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H236" t="s">
         <v>200</v>
@@ -10619,7 +10544,7 @@
       </c>
       <c r="G237" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F237))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H237" t="s">
         <v>200</v>
@@ -10656,7 +10581,7 @@
       </c>
       <c r="G238" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F238))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H238" t="s">
         <v>200</v>
@@ -10693,7 +10618,7 @@
       </c>
       <c r="G239" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F239))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H239" t="s">
         <v>200</v>
@@ -10730,7 +10655,7 @@
       </c>
       <c r="G240" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F240))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H240" t="s">
         <v>205</v>
@@ -10766,7 +10691,7 @@
       </c>
       <c r="G241" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F241))</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H241" t="s">
         <v>205</v>
@@ -10803,7 +10728,7 @@
       </c>
       <c r="G242" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F242))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H242" t="s">
         <v>205</v>
@@ -10840,7 +10765,7 @@
       </c>
       <c r="G243" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F243))</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H243" t="s">
         <v>205</v>
@@ -10876,7 +10801,7 @@
       </c>
       <c r="G244" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F244))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H244" t="s">
         <v>205</v>
@@ -10913,7 +10838,7 @@
       </c>
       <c r="G245" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F245))</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H245" t="s">
         <v>205</v>
@@ -10950,7 +10875,7 @@
       </c>
       <c r="G246" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F246))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H246" t="s">
         <v>205</v>
@@ -10987,7 +10912,7 @@
       </c>
       <c r="G247" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F247))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H247" t="s">
         <v>205</v>
@@ -11023,7 +10948,7 @@
       </c>
       <c r="G248" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F248))</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H248" t="s">
         <v>205</v>
@@ -11059,7 +10984,7 @@
       </c>
       <c r="G249" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F249))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H249" t="s">
         <v>205</v>
@@ -11096,7 +11021,7 @@
       </c>
       <c r="G250" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F250))</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H250" t="s">
         <v>205</v>
@@ -11133,7 +11058,7 @@
       </c>
       <c r="G251" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F251))</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H251" t="s">
         <v>205</v>
@@ -11170,7 +11095,7 @@
       </c>
       <c r="G252" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F252))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H252" t="s">
         <v>205</v>
@@ -11207,7 +11132,7 @@
       </c>
       <c r="G253" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F253))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H253" t="s">
         <v>205</v>
@@ -11244,7 +11169,7 @@
       </c>
       <c r="G254" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F254))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H254" t="s">
         <v>205</v>
@@ -11280,7 +11205,7 @@
       </c>
       <c r="G255" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F255))</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H255" t="s">
         <v>205</v>
@@ -11317,7 +11242,7 @@
       </c>
       <c r="G256" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F256))</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H256" s="11" t="s">
         <v>205</v>
@@ -11353,7 +11278,7 @@
       </c>
       <c r="G257" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F257))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H257" t="s">
         <v>205</v>
@@ -11390,7 +11315,7 @@
       </c>
       <c r="G258" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F258))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H258" t="s">
         <v>205</v>
@@ -11426,7 +11351,7 @@
       </c>
       <c r="G259" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F259))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H259" t="s">
         <v>205</v>
@@ -11462,7 +11387,7 @@
       </c>
       <c r="G260" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F260))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H260" t="s">
         <v>205</v>
@@ -11498,7 +11423,7 @@
       </c>
       <c r="G261" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F261))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H261" t="s">
         <v>205</v>
@@ -11534,7 +11459,7 @@
       </c>
       <c r="G262" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F262))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H262" t="s">
         <v>205</v>
@@ -11570,7 +11495,7 @@
       </c>
       <c r="G263" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F263))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H263" t="s">
         <v>205</v>
@@ -11607,7 +11532,7 @@
       </c>
       <c r="G264" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F264))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H264" t="s">
         <v>205</v>
@@ -11635,14 +11560,12 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M57" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M47" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD0AA5-FD63-472C-91E9-A677BF89627F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7210AC5B-03DF-4B5F-B060-C12EFB85C2A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>REP</t>
+  </si>
+  <si>
+    <t>https://www.theclinic.cl/2021/01/20/diputado-juan-santana-presidente-de-la-js-le-manifestaremos-desde-la-juventud-socialista-nuestro-completo-respaldo-a-paula-narvaez/</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1441,7 @@
   <dimension ref="A1:N264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,44 +3125,44 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="12">
+        <v>32771</v>
       </c>
       <c r="G38" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>65</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>202</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J38" s="11">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L38" s="9">
-        <v>44182</v>
+        <v>44216</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>315</v>
@@ -3167,28 +3170,28 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" s="12">
         <v>44132</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="12">
-        <v>31990</v>
+        <v>274</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="9">
+        <v>20492</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>34</v>
-      </c>
-      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -3212,7 +3215,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3223,15 +3226,15 @@
       <c r="D40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>115</v>
+      <c r="E40" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F40" s="12">
-        <v>31120</v>
+        <v>31990</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
         <v>200</v>
@@ -3246,10 +3249,10 @@
         <v>324</v>
       </c>
       <c r="L40" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>315</v>
@@ -3257,7 +3260,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3269,14 +3272,14 @@
         <v>278</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F41" s="12">
-        <v>26133</v>
+        <v>31120</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
         <v>200</v>
@@ -3302,7 +3305,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3314,14 +3317,14 @@
         <v>278</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F42" s="12">
-        <v>22263</v>
+        <v>26133</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s">
         <v>200</v>
@@ -3347,7 +3350,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3359,14 +3362,14 @@
         <v>278</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F43" s="12">
-        <v>21548</v>
+        <v>22263</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
         <v>200</v>
@@ -3381,10 +3384,10 @@
         <v>324</v>
       </c>
       <c r="L43" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>315</v>
@@ -3392,7 +3395,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3403,17 +3406,17 @@
       <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="E44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="9">
-        <v>31116</v>
+      <c r="E44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="12">
+        <v>21548</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>36</v>
-      </c>
-      <c r="H44" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" t="s">
         <v>200</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -3426,10 +3429,10 @@
         <v>324</v>
       </c>
       <c r="L44" s="9">
-        <v>44135</v>
+        <v>44182</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>315</v>
@@ -3437,7 +3440,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3448,21 +3451,21 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="12">
-        <v>28805</v>
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="9">
+        <v>31116</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>43</v>
-      </c>
-      <c r="H45" t="s">
-        <v>205</v>
+        <v>36</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
@@ -3471,10 +3474,10 @@
         <v>324</v>
       </c>
       <c r="L45" s="9">
-        <v>44182</v>
+        <v>44135</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>315</v>
@@ -3482,7 +3485,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3493,33 +3496,33 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>134</v>
+      <c r="E46" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F46" s="12">
-        <v>19343</v>
+        <v>28805</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L46" s="9">
-        <v>44144</v>
+        <v>44182</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>315</v>
@@ -3527,7 +3530,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3538,15 +3541,15 @@
       <c r="D47" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>119</v>
+      <c r="E47" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="F47" s="12">
-        <v>28018</v>
+        <v>19343</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s">
         <v>204</v>
@@ -3572,7 +3575,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3583,15 +3586,15 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>20</v>
+      <c r="E48" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="F48" s="12">
-        <v>31247</v>
+        <v>28018</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
         <v>204</v>
@@ -3617,80 +3620,88 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C49" s="12">
         <v>44132</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" t="s">
-        <v>223</v>
-      </c>
-      <c r="F49" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="12">
+        <v>31247</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>72</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>201</v>
+        <v>36</v>
+      </c>
+      <c r="H49" t="s">
+        <v>204</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49"/>
-      <c r="L49" s="9"/>
-      <c r="N49"/>
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="12">
         <v>44132</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F50" s="9">
-        <v>15516</v>
+        <v>18233</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J50" s="11">
         <v>0</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3702,20 +3713,20 @@
         <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="F51" s="9">
-        <v>13941</v>
+        <v>15516</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J51" s="11">
         <v>0</v>
@@ -3727,32 +3738,32 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="12">
         <v>44132</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F52" s="9">
-        <v>20120</v>
+        <v>13941</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J52" s="11">
         <v>0</v>
@@ -3764,7 +3775,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -3776,14 +3787,14 @@
         <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="F53" s="9">
-        <v>26645</v>
+        <v>20120</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>206</v>
@@ -3801,7 +3812,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -3813,20 +3824,20 @@
         <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F54" s="9">
-        <v>20671</v>
+        <v>26645</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
@@ -3838,7 +3849,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -3850,14 +3861,14 @@
         <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F55" s="9">
-        <v>25134</v>
+        <v>20671</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>201</v>
@@ -3875,7 +3886,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3887,14 +3898,14 @@
         <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F56" s="9">
-        <v>22460</v>
+        <v>25134</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>201</v>
@@ -3912,7 +3923,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -3924,14 +3935,14 @@
         <v>274</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F57" s="9">
-        <v>24724</v>
+        <v>22460</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>201</v>
@@ -3949,7 +3960,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3961,14 +3972,14 @@
         <v>274</v>
       </c>
       <c r="E58" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="F58" s="9">
-        <v>17815</v>
+        <v>24724</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>201</v>
@@ -3986,7 +3997,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3998,10 +4009,10 @@
         <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="F59" s="9">
-        <v>17779</v>
+        <v>17815</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
@@ -4023,7 +4034,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -4035,14 +4046,14 @@
         <v>274</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="F60" s="9">
-        <v>27681</v>
+        <v>17779</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>201</v>
@@ -4060,7 +4071,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -4072,14 +4083,14 @@
         <v>274</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F61" s="9">
-        <v>28232</v>
+        <v>27681</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>201</v>
@@ -4097,7 +4108,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4109,14 +4120,14 @@
         <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F62" s="9">
-        <v>27653</v>
+        <v>28232</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>201</v>
@@ -4134,7 +4145,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -4146,10 +4157,10 @@
         <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="F63" s="9">
-        <v>27474</v>
+        <v>27653</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
@@ -4171,7 +4182,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -4183,20 +4194,20 @@
         <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F64" s="9">
-        <v>21368</v>
+        <v>27474</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -4208,7 +4219,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4220,14 +4231,14 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F65" s="9">
-        <v>27295</v>
+        <v>21368</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>200</v>
@@ -4245,7 +4256,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4256,17 +4267,17 @@
       <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="12">
-        <v>25126</v>
+      <c r="E66" t="s">
+        <v>307</v>
+      </c>
+      <c r="F66" s="9">
+        <v>27295</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>53</v>
-      </c>
-      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I66" s="11" t="s">
@@ -4282,7 +4293,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4293,21 +4304,21 @@
       <c r="D67" t="s">
         <v>274</v>
       </c>
-      <c r="E67" t="s">
-        <v>309</v>
-      </c>
-      <c r="F67" s="9">
-        <v>26556</v>
+      <c r="E67" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="12">
+        <v>25126</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>49</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>205</v>
+        <v>53</v>
+      </c>
+      <c r="H67" t="s">
+        <v>200</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4319,7 +4330,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4331,14 +4342,14 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>309</v>
       </c>
       <c r="F68" s="9">
-        <v>17431</v>
+        <v>26556</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>205</v>
@@ -4356,7 +4367,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4367,17 +4378,17 @@
       <c r="D69" t="s">
         <v>274</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="12">
-        <v>29554</v>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="9">
+        <v>17431</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>41</v>
-      </c>
-      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I69" s="11" t="s">
@@ -4393,7 +4404,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4404,17 +4415,17 @@
       <c r="D70" t="s">
         <v>274</v>
       </c>
-      <c r="E70" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70" s="9">
-        <v>32557</v>
+      <c r="E70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="12">
+        <v>29554</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>32</v>
-      </c>
-      <c r="H70" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s">
         <v>205</v>
       </c>
       <c r="I70" s="11" t="s">
@@ -4430,7 +4441,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4442,14 +4453,14 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="F71" s="9">
-        <v>27105</v>
+        <v>32557</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>205</v>
@@ -4467,7 +4478,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4479,14 +4490,14 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F72" s="9">
-        <v>22770</v>
+        <v>27105</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>205</v>
@@ -4504,7 +4515,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4516,14 +4527,14 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="F73" s="9">
-        <v>20015</v>
+        <v>22770</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>205</v>
@@ -4541,43 +4552,44 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="12">
         <v>44132</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F74" s="9">
-        <v>25454</v>
+        <v>20015</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="9"/>
-      <c r="N74"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -4589,14 +4601,14 @@
         <v>275</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F75" s="9">
-        <v>30994</v>
+        <v>25454</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>206</v>
@@ -4613,7 +4625,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -4625,18 +4637,20 @@
         <v>275</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="9"/>
+        <v>258</v>
+      </c>
+      <c r="F76" s="9">
+        <v>30994</v>
+      </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
@@ -4647,7 +4661,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -4659,14 +4673,12 @@
         <v>275</v>
       </c>
       <c r="E77" t="s">
-        <v>252</v>
-      </c>
-      <c r="F77" s="9">
-        <v>19642</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F77" s="9"/>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>201</v>
@@ -4683,7 +4695,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -4695,12 +4707,14 @@
         <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
-      </c>
-      <c r="F78" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="F78" s="9">
+        <v>19642</v>
+      </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>201</v>
@@ -4717,7 +4731,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -4729,7 +4743,7 @@
         <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="10">
@@ -4737,10 +4751,10 @@
         <v>121</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J79" s="11">
         <v>0</v>
@@ -4751,7 +4765,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4763,14 +4777,12 @@
         <v>275</v>
       </c>
       <c r="E80" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="9">
-        <v>18048</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F80" s="9"/>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>200</v>
@@ -4787,7 +4799,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -4799,14 +4811,14 @@
         <v>275</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F81" s="9">
-        <v>26622</v>
+        <v>18048</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>200</v>
@@ -4823,7 +4835,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4835,14 +4847,14 @@
         <v>275</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F82" s="9">
-        <v>29935</v>
+        <v>26622</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>200</v>
@@ -4859,7 +4871,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -4871,12 +4883,14 @@
         <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>255</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="F83" s="9">
+        <v>29935</v>
+      </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>200</v>
@@ -4893,7 +4907,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4905,20 +4919,18 @@
         <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
-      </c>
-      <c r="F84" s="9">
-        <v>27655</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
@@ -4929,7 +4941,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -4941,14 +4953,14 @@
         <v>275</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F85" s="9">
-        <v>25492</v>
+        <v>27655</v>
       </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>205</v>
@@ -4965,7 +4977,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4977,14 +4989,14 @@
         <v>275</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F86" s="9">
-        <v>22881</v>
+        <v>25492</v>
       </c>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>205</v>
@@ -5001,7 +5013,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5013,14 +5025,14 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F87" s="9">
-        <v>20806</v>
+        <v>22881</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>205</v>
@@ -5037,7 +5049,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5049,14 +5061,14 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F88" s="9">
-        <v>29105</v>
+        <v>20806</v>
       </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>205</v>
@@ -5073,44 +5085,43 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="12">
         <v>44132</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F89" s="9">
-        <v>28422</v>
+        <v>29105</v>
       </c>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -5122,12 +5133,14 @@
         <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="F90" s="9">
+        <v>28422</v>
+      </c>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>204</v>
@@ -5145,7 +5158,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -5157,20 +5170,18 @@
         <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
-      </c>
-      <c r="F91" s="9">
-        <v>26763</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
@@ -5182,7 +5193,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5194,14 +5205,14 @@
         <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F92" s="9">
-        <v>31131</v>
+        <v>26763</v>
       </c>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>201</v>
@@ -5219,7 +5230,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5231,14 +5242,14 @@
         <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F93" s="9">
-        <v>20899</v>
+        <v>31131</v>
       </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>201</v>
@@ -5251,11 +5262,12 @@
       </c>
       <c r="K93"/>
       <c r="L93" s="9"/>
-      <c r="N93"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5267,14 +5279,14 @@
         <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F94" s="9">
-        <v>25265</v>
+        <v>20899</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>201</v>
@@ -5287,12 +5299,11 @@
       </c>
       <c r="K94"/>
       <c r="L94" s="9"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5304,12 +5315,14 @@
         <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>248</v>
-      </c>
-      <c r="F95" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="F95" s="9">
+        <v>25265</v>
+      </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>201</v>
@@ -5322,11 +5335,12 @@
       </c>
       <c r="K95"/>
       <c r="L95" s="9"/>
-      <c r="N95"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5338,14 +5352,12 @@
         <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
-      </c>
-      <c r="F96" s="9">
-        <v>26090</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>201</v>
@@ -5358,12 +5370,11 @@
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5375,20 +5386,20 @@
         <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F97" s="9">
-        <v>28694</v>
+        <v>26090</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
@@ -5400,7 +5411,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5412,20 +5423,20 @@
         <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F98" s="9">
-        <v>34561</v>
+        <v>28694</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
@@ -5437,7 +5448,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5449,18 +5460,20 @@
         <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>251</v>
-      </c>
-      <c r="F99" s="9"/>
+        <v>266</v>
+      </c>
+      <c r="F99" s="9">
+        <v>34561</v>
+      </c>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
@@ -5472,7 +5485,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5484,7 +5497,7 @@
         <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="10">
@@ -5507,7 +5520,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5519,7 +5532,7 @@
         <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="10">
@@ -5542,7 +5555,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5554,31 +5567,30 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
-      </c>
-      <c r="F102" s="9">
-        <v>27845</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="N102"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5590,14 +5602,14 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="F103" s="9">
-        <v>27116</v>
+        <v>27845</v>
       </c>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>200</v>
@@ -5610,12 +5622,11 @@
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5627,12 +5638,14 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
-      </c>
-      <c r="F104" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="F104" s="9">
+        <v>27116</v>
+      </c>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>200</v>
@@ -5645,11 +5658,12 @@
       </c>
       <c r="K104"/>
       <c r="L104" s="9"/>
-      <c r="N104"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5661,14 +5675,12 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
-      </c>
-      <c r="F105" s="9">
-        <v>22196</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F105" s="9"/>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>200</v>
@@ -5685,7 +5697,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5697,14 +5709,14 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F106" s="9">
-        <v>19005</v>
+        <v>22196</v>
       </c>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>200</v>
@@ -5721,7 +5733,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5733,32 +5745,31 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F107" s="9">
-        <v>19655</v>
+        <v>19005</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="9"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5770,14 +5781,14 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F108" s="9">
-        <v>14442</v>
+        <v>19655</v>
       </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H108" s="11" t="s">
         <v>205</v>
@@ -5795,32 +5806,32 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="12">
         <v>44132</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F109" s="12">
-        <v>25553</v>
+        <v>276</v>
+      </c>
+      <c r="E109" t="s">
+        <v>236</v>
+      </c>
+      <c r="F109" s="9">
+        <v>14442</v>
       </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>52</v>
-      </c>
-      <c r="H109" t="s">
-        <v>204</v>
+        <v>82</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
@@ -5832,7 +5843,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5843,17 +5854,17 @@
       <c r="D110" t="s">
         <v>277</v>
       </c>
-      <c r="E110" t="s">
-        <v>185</v>
+      <c r="E110" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F110" s="12">
-        <v>26653</v>
+        <v>25553</v>
       </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>49</v>
-      </c>
-      <c r="H110" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" t="s">
         <v>204</v>
       </c>
       <c r="I110" s="11" t="s">
@@ -5869,7 +5880,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -5880,17 +5891,17 @@
       <c r="D111" t="s">
         <v>277</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>166</v>
+      <c r="E111" t="s">
+        <v>185</v>
       </c>
       <c r="F111" s="12">
-        <v>16153</v>
+        <v>26653</v>
       </c>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>77</v>
-      </c>
-      <c r="H111" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I111" s="11" t="s">
@@ -5906,7 +5917,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B112">
         <v>6</v>
@@ -5917,17 +5928,17 @@
       <c r="D112" t="s">
         <v>277</v>
       </c>
-      <c r="E112" t="s">
-        <v>194</v>
+      <c r="E112" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F112" s="12">
-        <v>19105</v>
+        <v>16153</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>69</v>
-      </c>
-      <c r="H112" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" t="s">
         <v>204</v>
       </c>
       <c r="I112" s="11" t="s">
@@ -5943,7 +5954,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5954,17 +5965,17 @@
       <c r="D113" t="s">
         <v>277</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>179</v>
+      <c r="E113" t="s">
+        <v>194</v>
       </c>
       <c r="F113" s="12">
-        <v>25024</v>
+        <v>19105</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>53</v>
-      </c>
-      <c r="H113" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="11" t="s">
         <v>204</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -5980,7 +5991,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -5991,33 +6002,33 @@
       <c r="D114" t="s">
         <v>277</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>178</v>
+      <c r="E114" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F114" s="12">
-        <v>28285</v>
+        <v>25024</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -6028,33 +6039,33 @@
       <c r="D115" t="s">
         <v>277</v>
       </c>
-      <c r="E115" t="s">
-        <v>186</v>
+      <c r="E115" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F115" s="12">
-        <v>19423</v>
+        <v>28285</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>68</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>201</v>
+        <v>44</v>
+      </c>
+      <c r="H115" t="s">
+        <v>206</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B116">
         <v>6</v>
@@ -6066,14 +6077,14 @@
         <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F116" s="12">
-        <v>22224</v>
+        <v>19423</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>201</v>
@@ -6087,11 +6098,11 @@
       <c r="K116"/>
       <c r="L116" s="9"/>
       <c r="M116" s="2"/>
-      <c r="N116"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -6103,16 +6114,16 @@
         <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F117" s="12">
-        <v>24478</v>
+        <v>22224</v>
       </c>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>54</v>
-      </c>
-      <c r="H117" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" s="11" t="s">
         <v>201</v>
       </c>
       <c r="I117" s="11" t="s">
@@ -6123,12 +6134,12 @@
       </c>
       <c r="K117"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -6140,14 +6151,14 @@
         <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F118" s="12">
-        <v>21845</v>
+        <v>24478</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H118" t="s">
         <v>201</v>
@@ -6160,12 +6171,12 @@
       </c>
       <c r="K118"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="2"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -6177,16 +6188,16 @@
         <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F119" s="12">
-        <v>27196</v>
+        <v>21845</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>47</v>
-      </c>
-      <c r="H119" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" t="s">
         <v>201</v>
       </c>
       <c r="I119" s="11" t="s">
@@ -6198,11 +6209,11 @@
       <c r="K119"/>
       <c r="L119" s="9"/>
       <c r="M119" s="2"/>
-      <c r="N119"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6214,20 +6225,20 @@
         <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F120" s="12">
-        <v>26500</v>
+        <v>27196</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6235,11 +6246,11 @@
       <c r="K120"/>
       <c r="L120" s="9"/>
       <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+      <c r="N120"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -6250,17 +6261,17 @@
       <c r="D121" t="s">
         <v>277</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>180</v>
+      <c r="E121" t="s">
+        <v>187</v>
       </c>
       <c r="F121" s="12">
-        <v>13455</v>
+        <v>26500</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>85</v>
-      </c>
-      <c r="H121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" s="11" t="s">
         <v>203</v>
       </c>
       <c r="I121" s="11" t="s">
@@ -6276,7 +6287,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6287,15 +6298,15 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" t="s">
-        <v>168</v>
+      <c r="E122" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F122" s="12">
-        <v>22698</v>
+        <v>13455</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H122" t="s">
         <v>203</v>
@@ -6313,7 +6324,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6325,20 +6336,20 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F123" s="12">
-        <v>21509</v>
+        <v>22698</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>63</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>310</v>
+        <v>59</v>
+      </c>
+      <c r="H123" t="s">
+        <v>203</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
@@ -6350,7 +6361,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6362,20 +6373,20 @@
         <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F124" s="12">
-        <v>24173</v>
+        <v>21509</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="J124" s="11">
         <v>0</v>
@@ -6387,7 +6398,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6399,16 +6410,16 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F125" s="12">
-        <v>25491</v>
+        <v>24173</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>52</v>
-      </c>
-      <c r="H125" t="s">
+        <v>55</v>
+      </c>
+      <c r="H125" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I125" s="11" t="s">
@@ -6424,7 +6435,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6435,15 +6446,15 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>167</v>
+      <c r="E126" t="s">
+        <v>163</v>
       </c>
       <c r="F126" s="12">
-        <v>15859</v>
+        <v>25491</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H126" t="s">
         <v>202</v>
@@ -6461,7 +6472,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6472,17 +6483,17 @@
       <c r="D127" t="s">
         <v>277</v>
       </c>
-      <c r="E127" t="s">
-        <v>188</v>
+      <c r="E127" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F127" s="12">
-        <v>22288</v>
+        <v>15859</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>60</v>
-      </c>
-      <c r="H127" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
         <v>202</v>
       </c>
       <c r="I127" s="11" t="s">
@@ -6498,7 +6509,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6510,14 +6521,14 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F128" s="12">
-        <v>16010</v>
+        <v>22288</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>202</v>
@@ -6535,7 +6546,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6547,20 +6558,20 @@
         <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F129" s="12">
-        <v>28573</v>
+        <v>16010</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>43</v>
-      </c>
-      <c r="H129" t="s">
-        <v>207</v>
+        <v>78</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6572,7 +6583,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6583,33 +6594,33 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>160</v>
+      <c r="E130" t="s">
+        <v>169</v>
       </c>
       <c r="F130" s="12">
-        <v>26073</v>
+        <v>28573</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H130" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="8"/>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6620,15 +6631,15 @@
       <c r="D131" t="s">
         <v>277</v>
       </c>
-      <c r="E131" t="s">
-        <v>165</v>
+      <c r="E131" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F131" s="12">
-        <v>20231</v>
+        <v>26073</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H131" t="s">
         <v>200</v>
@@ -6646,7 +6657,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6658,14 +6669,14 @@
         <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F132" s="12">
-        <v>21855</v>
+        <v>20231</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H132" t="s">
         <v>200</v>
@@ -6678,12 +6689,12 @@
       </c>
       <c r="K132"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="2"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6695,16 +6706,16 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F133" s="12">
-        <v>22882</v>
+        <v>21855</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>59</v>
-      </c>
-      <c r="H133" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" t="s">
         <v>200</v>
       </c>
       <c r="I133" s="11" t="s">
@@ -6720,7 +6731,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6731,17 +6742,17 @@
       <c r="D134" t="s">
         <v>277</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>108</v>
+      <c r="E134" t="s">
+        <v>193</v>
       </c>
       <c r="F134" s="12">
-        <v>29680</v>
+        <v>22882</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>40</v>
-      </c>
-      <c r="H134" t="s">
+        <v>59</v>
+      </c>
+      <c r="H134" s="11" t="s">
         <v>200</v>
       </c>
       <c r="I134" s="11" t="s">
@@ -6757,7 +6768,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6768,15 +6779,15 @@
       <c r="D135" t="s">
         <v>277</v>
       </c>
-      <c r="E135" t="s">
-        <v>164</v>
+      <c r="E135" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F135" s="12">
-        <v>24414</v>
+        <v>29680</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H135" t="s">
         <v>200</v>
@@ -6794,7 +6805,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6806,20 +6817,20 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F136" s="12">
-        <v>19103</v>
+        <v>24414</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>69</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>205</v>
+        <v>55</v>
+      </c>
+      <c r="H136" t="s">
+        <v>200</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -6831,7 +6842,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6843,14 +6854,14 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
-      </c>
-      <c r="F137" s="9">
-        <v>21953</v>
+        <v>198</v>
+      </c>
+      <c r="F137" s="12">
+        <v>19103</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>205</v>
@@ -6863,11 +6874,12 @@
       </c>
       <c r="K137"/>
       <c r="L137" s="9"/>
-      <c r="N137"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6879,16 +6891,16 @@
         <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>175</v>
-      </c>
-      <c r="F138" s="12">
-        <v>19287</v>
+        <v>230</v>
+      </c>
+      <c r="F138" s="9">
+        <v>21953</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>69</v>
-      </c>
-      <c r="H138" t="s">
+        <v>61</v>
+      </c>
+      <c r="H138" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I138" s="11" t="s">
@@ -6899,12 +6911,11 @@
       </c>
       <c r="K138"/>
       <c r="L138" s="9"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+      <c r="N138"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6916,16 +6927,16 @@
         <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F139" s="12">
-        <v>27361</v>
+        <v>19287</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>47</v>
-      </c>
-      <c r="H139" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" t="s">
         <v>205</v>
       </c>
       <c r="I139" s="11" t="s">
@@ -6936,12 +6947,12 @@
       </c>
       <c r="K139"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="8"/>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -6953,14 +6964,14 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F140" s="12">
-        <v>20797</v>
+        <v>27361</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>205</v>
@@ -6973,12 +6984,12 @@
       </c>
       <c r="K140"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="2"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -6990,14 +7001,14 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F141" s="12">
-        <v>23776</v>
+        <v>20797</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>205</v>
@@ -7015,7 +7026,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7026,17 +7037,17 @@
       <c r="D142" t="s">
         <v>277</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>161</v>
+      <c r="E142" t="s">
+        <v>199</v>
       </c>
       <c r="F142" s="12">
-        <v>22094</v>
+        <v>23776</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>61</v>
-      </c>
-      <c r="H142" t="s">
+        <v>56</v>
+      </c>
+      <c r="H142" s="11" t="s">
         <v>205</v>
       </c>
       <c r="I142" s="11" t="s">
@@ -7052,7 +7063,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7063,15 +7074,15 @@
       <c r="D143" t="s">
         <v>277</v>
       </c>
-      <c r="E143" t="s">
-        <v>177</v>
+      <c r="E143" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F143" s="12">
-        <v>20651</v>
+        <v>22094</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H143" t="s">
         <v>205</v>
@@ -7089,7 +7100,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7100,15 +7111,15 @@
       <c r="D144" t="s">
         <v>277</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>162</v>
+      <c r="E144" t="s">
+        <v>177</v>
       </c>
       <c r="F144" s="12">
-        <v>23444</v>
+        <v>20651</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H144" t="s">
         <v>205</v>
@@ -7126,32 +7137,32 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" s="12">
         <v>44132</v>
       </c>
       <c r="D145" t="s">
-        <v>278</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>133</v>
+        <v>277</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F145" s="12">
-        <v>21157</v>
+        <v>23444</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H145" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
@@ -7163,7 +7174,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -7175,20 +7186,20 @@
         <v>278</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="F146" s="12">
-        <v>18640</v>
+        <v>21157</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H146" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
@@ -7200,7 +7211,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>7</v>
@@ -7211,15 +7222,15 @@
       <c r="D147" t="s">
         <v>278</v>
       </c>
-      <c r="E147" s="11" t="s">
-        <v>7</v>
+      <c r="E147" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F147" s="12">
-        <v>27118</v>
+        <v>18640</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H147" t="s">
         <v>202</v>
@@ -7237,7 +7248,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B148">
         <v>7</v>
@@ -7248,15 +7259,15 @@
       <c r="D148" t="s">
         <v>278</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>26</v>
+      <c r="E148" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F148" s="12">
-        <v>22024</v>
+        <v>27118</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H148" t="s">
         <v>202</v>
@@ -7274,7 +7285,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B149">
         <v>7</v>
@@ -7285,15 +7296,15 @@
       <c r="D149" t="s">
         <v>278</v>
       </c>
-      <c r="E149" s="11" t="s">
-        <v>112</v>
+      <c r="E149" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F149" s="12">
-        <v>32771</v>
+        <v>22024</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H149" t="s">
         <v>202</v>
@@ -11551,18 +11562,18 @@
   </sheetData>
   <autoFilter ref="A1:N264" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
-      <sortCondition ref="K1:K264"/>
+      <sortCondition descending="1" ref="J1:J264"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
-    <sortCondition ref="K2:K264"/>
-    <sortCondition ref="B2:B264"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N265">
+    <sortCondition ref="K2:K265"/>
+    <sortCondition ref="B2:B265"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M46" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M47" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M47" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="M23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7210AC5B-03DF-4B5F-B060-C12EFB85C2A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C697904-36A6-421C-B22C-9B874D342360}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>https://www.theclinic.cl/2021/01/20/diputado-juan-santana-presidente-de-la-js-le-manifestaremos-desde-la-juventud-socialista-nuestro-completo-respaldo-a-paula-narvaez/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/bancadaPSchile/status/1351593620114186240</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,44 +3173,44 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39" s="12">
         <v>44132</v>
       </c>
       <c r="D39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="12">
+        <v>18640</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>65</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>200</v>
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>202</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L39" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>315</v>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3226,33 +3229,33 @@
       <c r="D40" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>93</v>
+      <c r="E40" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F40" s="12">
-        <v>31990</v>
+        <v>27118</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L40" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>315</v>
@@ -3260,44 +3263,44 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>194</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="F41" s="12">
-        <v>31120</v>
+        <v>22024</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J41" s="11">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L41" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>315</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3316,33 +3319,33 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>68</v>
+      <c r="E42" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F42" s="12">
-        <v>26133</v>
+        <v>24242</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L42" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>315</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3362,32 +3365,32 @@
         <v>278</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F43" s="12">
-        <v>22263</v>
+        <v>18036</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L43" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>315</v>
@@ -3395,7 +3398,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3407,32 +3410,32 @@
         <v>278</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F44" s="12">
-        <v>21548</v>
+        <v>25846</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L44" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>315</v>
@@ -3440,7 +3443,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3451,33 +3454,33 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="9">
-        <v>31116</v>
+      <c r="E45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="12">
+        <v>27112</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>36</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>200</v>
+        <v>47</v>
+      </c>
+      <c r="H45" t="s">
+        <v>202</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L45" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>315</v>
@@ -3485,7 +3488,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3497,32 +3500,32 @@
         <v>278</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F46" s="12">
-        <v>28805</v>
+        <v>32142</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L46" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>315</v>
@@ -3530,7 +3533,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3542,32 +3545,32 @@
         <v>278</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="F47" s="12">
-        <v>19343</v>
+        <v>25067</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J47" s="11">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L47" s="9">
-        <v>44144</v>
+        <v>44215</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>315</v>
@@ -3575,7 +3578,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3587,32 +3590,32 @@
         <v>278</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="F48" s="12">
-        <v>28018</v>
+        <v>25592</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L48" s="9">
-        <v>44144</v>
+        <v>44215</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>315</v>
@@ -3620,7 +3623,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3631,33 +3634,33 @@
       <c r="D49" t="s">
         <v>278</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>20</v>
+      <c r="E49" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="F49" s="12">
-        <v>31247</v>
+        <v>21445</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J49" s="11">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L49" s="9">
-        <v>44144</v>
+        <v>44215</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>315</v>
@@ -3665,469 +3668,566 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C50" s="12">
         <v>44132</v>
       </c>
       <c r="D50" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F50" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="12">
+        <v>18781</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>72</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>201</v>
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>202</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J50" s="11">
-        <v>0</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50" s="9"/>
-      <c r="N50"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>334</v>
+      </c>
+      <c r="L50" s="9">
+        <v>44215</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="12">
         <v>44132</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="F51" s="9">
-        <v>15516</v>
+        <v>20492</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J51" s="11">
-        <v>0</v>
-      </c>
-      <c r="K51"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>324</v>
+      </c>
+      <c r="L51" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C52" s="12">
         <v>44132</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
-      </c>
-      <c r="E52" t="s">
-        <v>297</v>
-      </c>
-      <c r="F52" s="9">
-        <v>13941</v>
+        <v>278</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="12">
+        <v>31990</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>83</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>203</v>
+        <v>34</v>
+      </c>
+      <c r="H52" t="s">
+        <v>200</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J52" s="11">
-        <v>0</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>324</v>
+      </c>
+      <c r="L52" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" s="12">
         <v>44132</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" t="s">
-        <v>298</v>
-      </c>
-      <c r="F53" s="9">
-        <v>20120</v>
+        <v>278</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="12">
+        <v>31120</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>66</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>206</v>
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>200</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J53" s="11">
-        <v>0</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>324</v>
+      </c>
+      <c r="L53" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54" s="12">
         <v>44132</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="9">
-        <v>26645</v>
+        <v>278</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="12">
+        <v>26133</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>49</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>206</v>
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>200</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>324</v>
+      </c>
+      <c r="L54" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C55" s="12">
         <v>44132</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
-      </c>
-      <c r="E55" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="9">
-        <v>20671</v>
+        <v>278</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="12">
+        <v>22263</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>65</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>201</v>
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
+        <v>200</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J55" s="11">
-        <v>0</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>324</v>
+      </c>
+      <c r="L55" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C56" s="12">
         <v>44132</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
-      </c>
-      <c r="E56" t="s">
-        <v>306</v>
-      </c>
-      <c r="F56" s="9">
-        <v>25134</v>
+        <v>278</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="12">
+        <v>21548</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>53</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>201</v>
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>200</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>324</v>
+      </c>
+      <c r="L56" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="F57" s="9">
-        <v>22460</v>
+        <v>31116</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J57" s="11">
-        <v>0</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>324</v>
+      </c>
+      <c r="L57" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
-      </c>
-      <c r="E58" t="s">
-        <v>305</v>
-      </c>
-      <c r="F58" s="9">
-        <v>24724</v>
+        <v>278</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="12">
+        <v>28805</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>54</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J58" s="11">
-        <v>0</v>
-      </c>
-      <c r="K58"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>324</v>
+      </c>
+      <c r="L58" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
-      </c>
-      <c r="E59" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="9">
-        <v>17815</v>
+        <v>278</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="12">
+        <v>19343</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>73</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>201</v>
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>204</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J59" s="11">
-        <v>0</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>323</v>
+      </c>
+      <c r="L59" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" s="12">
         <v>44132</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
-      </c>
-      <c r="E60" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" s="9">
-        <v>17779</v>
+        <v>278</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="12">
+        <v>28018</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>73</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>201</v>
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>204</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J60" s="11">
-        <v>0</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>323</v>
+      </c>
+      <c r="L60" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C61" s="12">
         <v>44132</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" s="9">
-        <v>27681</v>
+        <v>278</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="12">
+        <v>31247</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>46</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>201</v>
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>204</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J61" s="11">
-        <v>0</v>
-      </c>
-      <c r="K61"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>323</v>
+      </c>
+      <c r="L61" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="12">
         <v>44132</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F62" s="9">
-        <v>28232</v>
+        <v>18233</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>201</v>
@@ -4140,37 +4240,36 @@
       </c>
       <c r="K62"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="12">
         <v>44132</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F63" s="9">
-        <v>27653</v>
+        <v>15516</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
@@ -4182,32 +4281,32 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="12">
         <v>44132</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F64" s="9">
-        <v>27474</v>
+        <v>13941</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -4219,7 +4318,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4231,20 +4330,20 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" s="9">
-        <v>21368</v>
+        <v>20120</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
@@ -4256,7 +4355,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4268,20 +4367,20 @@
         <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="F66" s="9">
-        <v>27295</v>
+        <v>26645</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
@@ -4293,7 +4392,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4304,21 +4403,21 @@
       <c r="D67" t="s">
         <v>274</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="12">
-        <v>25126</v>
+      <c r="E67" t="s">
+        <v>303</v>
+      </c>
+      <c r="F67" s="9">
+        <v>20671</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>53</v>
-      </c>
-      <c r="H67" t="s">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4330,7 +4429,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4342,20 +4441,20 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F68" s="9">
-        <v>26556</v>
+        <v>25134</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
@@ -4367,7 +4466,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4379,20 +4478,20 @@
         <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="F69" s="9">
-        <v>17431</v>
+        <v>22460</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4404,7 +4503,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4415,21 +4514,21 @@
       <c r="D70" t="s">
         <v>274</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="12">
-        <v>29554</v>
+      <c r="E70" t="s">
+        <v>305</v>
+      </c>
+      <c r="F70" s="9">
+        <v>24724</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>41</v>
-      </c>
-      <c r="H70" t="s">
-        <v>205</v>
+        <v>54</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4441,7 +4540,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4453,20 +4552,20 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F71" s="9">
-        <v>32557</v>
+        <v>17815</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4478,7 +4577,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4490,20 +4589,20 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F72" s="9">
-        <v>27105</v>
+        <v>17779</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4515,7 +4614,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4527,20 +4626,20 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="F73" s="9">
-        <v>22770</v>
+        <v>27681</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4552,7 +4651,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4564,20 +4663,20 @@
         <v>274</v>
       </c>
       <c r="E74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F74" s="9">
-        <v>20015</v>
+        <v>28232</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
@@ -4589,378 +4688,396 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="12">
         <v>44132</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="F75" s="9">
-        <v>25454</v>
+        <v>27653</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="9"/>
-      <c r="N75"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="12">
         <v>44132</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="F76" s="9">
-        <v>30994</v>
+        <v>27474</v>
       </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J76" s="11">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="9"/>
-      <c r="N76"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="12">
         <v>44132</v>
       </c>
       <c r="D77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="9"/>
+        <v>299</v>
+      </c>
+      <c r="F77" s="9">
+        <v>21368</v>
+      </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J77" s="11">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="9"/>
-      <c r="N77"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="12">
         <v>44132</v>
       </c>
       <c r="D78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="F78" s="9">
-        <v>19642</v>
+        <v>27295</v>
       </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J78" s="11">
         <v>0</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="9"/>
-      <c r="N78"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="12">
         <v>44132</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" t="s">
-        <v>257</v>
-      </c>
-      <c r="F79" s="9"/>
+        <v>274</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="12">
+        <v>25126</v>
+      </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>121</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>201</v>
+        <v>53</v>
+      </c>
+      <c r="H79" t="s">
+        <v>200</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J79" s="11">
         <v>0</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="9"/>
-      <c r="N79"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="12">
         <v>44132</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>263</v>
-      </c>
-      <c r="F80" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="F80" s="9">
+        <v>26556</v>
+      </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="9"/>
-      <c r="N80"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="12">
         <v>44132</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="F81" s="9">
-        <v>18048</v>
+        <v>17431</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="9"/>
-      <c r="N81"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D82" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" s="9">
-        <v>26622</v>
+      <c r="F82" s="12">
+        <v>29554</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>49</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>200</v>
+        <v>41</v>
+      </c>
+      <c r="H82" t="s">
+        <v>205</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="9"/>
-      <c r="N82"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="12">
         <v>44132</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="F83" s="9">
-        <v>29935</v>
+        <v>32557</v>
       </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="9"/>
-      <c r="N83"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="12">
         <v>44132</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
-        <v>255</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>308</v>
+      </c>
+      <c r="F84" s="9">
+        <v>27105</v>
+      </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J84" s="11">
         <v>0</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="9"/>
-      <c r="N84"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="12">
         <v>44132</v>
       </c>
       <c r="D85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E85" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F85" s="9">
-        <v>27655</v>
+        <v>22770</v>
       </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>205</v>
@@ -4973,30 +5090,31 @@
       </c>
       <c r="K85"/>
       <c r="L85" s="9"/>
-      <c r="N85"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="12">
         <v>44132</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="F86" s="9">
-        <v>25492</v>
+        <v>20015</v>
       </c>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>205</v>
@@ -5009,11 +5127,12 @@
       </c>
       <c r="K86"/>
       <c r="L86" s="9"/>
-      <c r="N86"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5025,20 +5144,20 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F87" s="9">
-        <v>22881</v>
+        <v>25454</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
@@ -5049,7 +5168,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5061,20 +5180,20 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F88" s="9">
-        <v>20806</v>
+        <v>30994</v>
       </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -5085,7 +5204,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -5097,20 +5216,18 @@
         <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>256</v>
-      </c>
-      <c r="F89" s="9">
-        <v>29105</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
@@ -5121,56 +5238,55 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="12">
         <v>44132</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F90" s="9">
-        <v>28422</v>
+        <v>19642</v>
       </c>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="12">
         <v>44132</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="10">
@@ -5178,121 +5294,116 @@
         <v>121</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J91" s="11">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="12">
         <v>44132</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
-      </c>
-      <c r="F92" s="9">
-        <v>26763</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="12">
         <v>44132</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="F93" s="9">
-        <v>31131</v>
+        <v>18048</v>
       </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
       </c>
       <c r="K93"/>
       <c r="L93" s="9"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="12">
         <v>44132</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F94" s="9">
-        <v>20899</v>
+        <v>26622</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
@@ -5303,56 +5414,55 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="12">
         <v>44132</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F95" s="9">
-        <v>25265</v>
+        <v>29935</v>
       </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="9"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="N95"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="12">
         <v>44132</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="10">
@@ -5360,10 +5470,10 @@
         <v>121</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J96" s="11">
         <v>0</v>
@@ -5374,188 +5484,187 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="12">
         <v>44132</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="F97" s="9">
-        <v>26090</v>
+        <v>27655</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="12">
         <v>44132</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="F98" s="9">
-        <v>28694</v>
+        <v>25492</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="12">
         <v>44132</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F99" s="9">
-        <v>34561</v>
+        <v>22881</v>
       </c>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="12">
         <v>44132</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>251</v>
-      </c>
-      <c r="F100" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="F100" s="9">
+        <v>20806</v>
+      </c>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
       </c>
       <c r="K100"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="N100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="12">
         <v>44132</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>241</v>
-      </c>
-      <c r="F101" s="9"/>
+        <v>256</v>
+      </c>
+      <c r="F101" s="9">
+        <v>29105</v>
+      </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="N101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5567,7 +5676,7 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="10">
@@ -5590,7 +5699,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5602,31 +5711,30 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>250</v>
-      </c>
-      <c r="F103" s="9">
-        <v>27845</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="9"/>
-      <c r="N103"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5638,20 +5746,18 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
-      </c>
-      <c r="F104" s="9">
-        <v>27116</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F104" s="9"/>
       <c r="G104" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F104))</f>
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
@@ -5663,7 +5769,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5675,29 +5781,32 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>245</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>243</v>
+      </c>
+      <c r="F105" s="9">
+        <v>28422</v>
+      </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="9"/>
-      <c r="N105"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5709,31 +5818,30 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
-      </c>
-      <c r="F106" s="9">
-        <v>22196</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F106" s="9"/>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="9"/>
-      <c r="N106"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5745,31 +5853,32 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F107" s="9">
-        <v>19005</v>
+        <v>26763</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="9"/>
-      <c r="N107"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5781,20 +5890,20 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F108" s="9">
-        <v>19655</v>
+        <v>31131</v>
       </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5806,7 +5915,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5818,57 +5927,56 @@
         <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F109" s="9">
-        <v>14442</v>
+        <v>20899</v>
       </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="N109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" s="12">
         <v>44132</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F110" s="12">
-        <v>25553</v>
+        <v>276</v>
+      </c>
+      <c r="E110" t="s">
+        <v>246</v>
+      </c>
+      <c r="F110" s="9">
+        <v>25265</v>
       </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
         <v>52</v>
       </c>
-      <c r="H110" t="s">
-        <v>204</v>
+      <c r="H110" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -5880,69 +5988,66 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="12">
         <v>44132</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>185</v>
-      </c>
-      <c r="F111" s="12">
-        <v>26653</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F111" s="9"/>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" s="12">
         <v>44132</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F112" s="12">
-        <v>16153</v>
+        <v>276</v>
+      </c>
+      <c r="E112" t="s">
+        <v>235</v>
+      </c>
+      <c r="F112" s="9">
+        <v>26090</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>77</v>
-      </c>
-      <c r="H112" t="s">
-        <v>204</v>
+        <v>50</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J112" s="11">
         <v>0</v>
@@ -5954,32 +6059,32 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="12">
         <v>44132</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
-      </c>
-      <c r="F113" s="12">
-        <v>19105</v>
+        <v>244</v>
+      </c>
+      <c r="F113" s="9">
+        <v>28694</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
@@ -5991,32 +6096,32 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" s="12">
         <v>44132</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F114" s="12">
-        <v>25024</v>
+        <v>276</v>
+      </c>
+      <c r="E114" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" s="9">
+        <v>34561</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>53</v>
-      </c>
-      <c r="H114" t="s">
-        <v>204</v>
+        <v>27</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
@@ -6028,69 +6133,68 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" s="12">
         <v>44132</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F115" s="12">
-        <v>28285</v>
+        <v>276</v>
+      </c>
+      <c r="E115" t="s">
+        <v>250</v>
+      </c>
+      <c r="F115" s="9">
+        <v>27845</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>44</v>
-      </c>
-      <c r="H115" t="s">
-        <v>206</v>
+        <v>45</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
+      <c r="N115"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" s="12">
         <v>44132</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>186</v>
-      </c>
-      <c r="F116" s="12">
-        <v>19423</v>
+        <v>232</v>
+      </c>
+      <c r="F116" s="9">
+        <v>27116</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -6102,143 +6206,138 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" s="12">
         <v>44132</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>182</v>
-      </c>
-      <c r="F117" s="12">
-        <v>22224</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F117" s="9"/>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="2"/>
       <c r="N117"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="12">
         <v>44132</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>158</v>
-      </c>
-      <c r="F118" s="12">
-        <v>24478</v>
+        <v>240</v>
+      </c>
+      <c r="F118" s="9">
+        <v>22196</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>54</v>
-      </c>
-      <c r="H118" t="s">
-        <v>201</v>
+        <v>61</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="2"/>
+      <c r="N118"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" s="12">
         <v>44132</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>173</v>
-      </c>
-      <c r="F119" s="12">
-        <v>21845</v>
+        <v>247</v>
+      </c>
+      <c r="F119" s="9">
+        <v>19005</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>62</v>
-      </c>
-      <c r="H119" t="s">
-        <v>201</v>
+        <v>69</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J119" s="11">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="9"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" s="12">
         <v>44132</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>196</v>
-      </c>
-      <c r="F120" s="12">
-        <v>27196</v>
+        <v>239</v>
+      </c>
+      <c r="F120" s="9">
+        <v>19655</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6246,36 +6345,36 @@
       <c r="K120"/>
       <c r="L120" s="9"/>
       <c r="M120" s="2"/>
-      <c r="N120"/>
+      <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="12">
         <v>44132</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
-      </c>
-      <c r="F121" s="12">
-        <v>26500</v>
+        <v>236</v>
+      </c>
+      <c r="F121" s="9">
+        <v>14442</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
@@ -6287,7 +6386,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6298,33 +6397,33 @@
       <c r="D122" t="s">
         <v>277</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>180</v>
+      <c r="E122" t="s">
+        <v>183</v>
       </c>
       <c r="F122" s="12">
-        <v>13455</v>
+        <v>24173</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>85</v>
-      </c>
-      <c r="H122" t="s">
-        <v>203</v>
+        <v>55</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
       </c>
-      <c r="K122"/>
+      <c r="K122" s="15"/>
       <c r="L122" s="9"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6336,32 +6435,32 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F123" s="12">
-        <v>22698</v>
+        <v>25491</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
       </c>
-      <c r="K123"/>
+      <c r="K123" s="15"/>
       <c r="L123" s="9"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6372,33 +6471,33 @@
       <c r="D124" t="s">
         <v>277</v>
       </c>
-      <c r="E124" t="s">
-        <v>192</v>
+      <c r="E124" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F124" s="12">
-        <v>21509</v>
+        <v>15859</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>63</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>310</v>
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>202</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="J124" s="11">
         <v>0</v>
       </c>
-      <c r="K124"/>
+      <c r="K124" s="15"/>
       <c r="L124" s="9"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6410,14 +6509,14 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F125" s="12">
-        <v>24173</v>
+        <v>22288</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H125" s="11" t="s">
         <v>202</v>
@@ -6428,14 +6527,14 @@
       <c r="J125" s="11">
         <v>0</v>
       </c>
-      <c r="K125"/>
+      <c r="K125" s="15"/>
       <c r="L125" s="9"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6447,16 +6546,16 @@
         <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F126" s="12">
-        <v>25491</v>
+        <v>16010</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
-        <v>52</v>
-      </c>
-      <c r="H126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I126" s="11" t="s">
@@ -6465,14 +6564,14 @@
       <c r="J126" s="11">
         <v>0</v>
       </c>
-      <c r="K126"/>
+      <c r="K126" s="15"/>
       <c r="L126" s="9"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6483,21 +6582,21 @@
       <c r="D127" t="s">
         <v>277</v>
       </c>
-      <c r="E127" s="5" t="s">
-        <v>167</v>
+      <c r="E127" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F127" s="12">
-        <v>15859</v>
+        <v>25553</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H127" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J127" s="11">
         <v>0</v>
@@ -6509,7 +6608,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6521,20 +6620,20 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F128" s="12">
-        <v>22288</v>
+        <v>26653</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6546,7 +6645,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6557,21 +6656,21 @@
       <c r="D129" t="s">
         <v>277</v>
       </c>
-      <c r="E129" t="s">
-        <v>195</v>
+      <c r="E129" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F129" s="12">
-        <v>16010</v>
+        <v>16153</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>78</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>202</v>
+        <v>77</v>
+      </c>
+      <c r="H129" t="s">
+        <v>204</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6583,7 +6682,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6595,20 +6694,20 @@
         <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F130" s="12">
-        <v>28573</v>
+        <v>19105</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>43</v>
-      </c>
-      <c r="H130" t="s">
-        <v>207</v>
+        <v>69</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
@@ -6620,7 +6719,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6631,33 +6730,33 @@
       <c r="D131" t="s">
         <v>277</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>160</v>
+      <c r="E131" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F131" s="12">
-        <v>26073</v>
+        <v>25024</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H131" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="8"/>
+      <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6668,21 +6767,21 @@
       <c r="D132" t="s">
         <v>277</v>
       </c>
-      <c r="E132" t="s">
-        <v>165</v>
+      <c r="E132" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F132" s="12">
-        <v>20231</v>
+        <v>28285</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H132" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J132" s="11">
         <v>0</v>
@@ -6690,11 +6789,11 @@
       <c r="K132"/>
       <c r="L132" s="9"/>
       <c r="M132" s="8"/>
-      <c r="N132" s="2"/>
+      <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6706,20 +6805,20 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="F133" s="12">
-        <v>21855</v>
+        <v>19423</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>62</v>
-      </c>
-      <c r="H133" t="s">
-        <v>200</v>
+        <v>68</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J133" s="11">
         <v>0</v>
@@ -6731,7 +6830,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6743,20 +6842,20 @@
         <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F134" s="12">
-        <v>22882</v>
+        <v>22224</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J134" s="11">
         <v>0</v>
@@ -6764,11 +6863,11 @@
       <c r="K134"/>
       <c r="L134" s="9"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+      <c r="N134"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6779,33 +6878,33 @@
       <c r="D135" t="s">
         <v>277</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>108</v>
+      <c r="E135" t="s">
+        <v>158</v>
       </c>
       <c r="F135" s="12">
-        <v>29680</v>
+        <v>24478</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J135" s="11">
         <v>0</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="9"/>
-      <c r="M135" s="2"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="2"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6817,20 +6916,20 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F136" s="12">
-        <v>24414</v>
+        <v>21845</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H136" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -6842,7 +6941,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6854,20 +6953,20 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F137" s="12">
-        <v>19103</v>
+        <v>27196</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
@@ -6875,11 +6974,11 @@
       <c r="K137"/>
       <c r="L137" s="9"/>
       <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="N137"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6891,31 +6990,32 @@
         <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>230</v>
-      </c>
-      <c r="F138" s="9">
-        <v>21953</v>
+        <v>187</v>
+      </c>
+      <c r="F138" s="12">
+        <v>26500</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="9"/>
-      <c r="N138"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6926,21 +7026,21 @@
       <c r="D139" t="s">
         <v>277</v>
       </c>
-      <c r="E139" t="s">
-        <v>175</v>
+      <c r="E139" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F139" s="12">
-        <v>19287</v>
+        <v>13455</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J139" s="11">
         <v>0</v>
@@ -6952,7 +7052,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -6964,32 +7064,32 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F140" s="12">
-        <v>27361</v>
+        <v>22698</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>47</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>205</v>
+        <v>59</v>
+      </c>
+      <c r="H140" t="s">
+        <v>203</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="9"/>
-      <c r="M140" s="8"/>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -7001,20 +7101,20 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F141" s="12">
-        <v>20797</v>
+        <v>21509</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="J141" s="11">
         <v>0</v>
@@ -7026,7 +7126,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7038,20 +7138,20 @@
         <v>277</v>
       </c>
       <c r="E142" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F142" s="12">
-        <v>23776</v>
+        <v>28573</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>56</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>205</v>
+        <v>43</v>
+      </c>
+      <c r="H142" t="s">
+        <v>207</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J142" s="11">
         <v>0</v>
@@ -7063,7 +7163,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7074,33 +7174,33 @@
       <c r="D143" t="s">
         <v>277</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>161</v>
+      <c r="E143" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F143" s="12">
-        <v>22094</v>
+        <v>26073</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H143" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J143" s="11">
         <v>0</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="9"/>
-      <c r="M143" s="2"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7112,32 +7212,32 @@
         <v>277</v>
       </c>
       <c r="E144" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F144" s="12">
-        <v>20651</v>
+        <v>20231</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H144" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J144" s="11">
         <v>0</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="9"/>
-      <c r="M144" s="2"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -7148,21 +7248,21 @@
       <c r="D145" t="s">
         <v>277</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>162</v>
+      <c r="E145" t="s">
+        <v>159</v>
       </c>
       <c r="F145" s="12">
-        <v>23444</v>
+        <v>21855</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H145" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
@@ -7174,32 +7274,32 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" s="12">
         <v>44132</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>133</v>
+        <v>277</v>
+      </c>
+      <c r="E146" t="s">
+        <v>193</v>
       </c>
       <c r="F146" s="12">
-        <v>21157</v>
+        <v>22882</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>64</v>
-      </c>
-      <c r="H146" t="s">
-        <v>204</v>
+        <v>59</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
@@ -7211,32 +7311,32 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="B147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="12">
         <v>44132</v>
       </c>
       <c r="D147" t="s">
-        <v>278</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>83</v>
+        <v>277</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F147" s="12">
-        <v>18640</v>
+        <v>29680</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H147" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J147" s="11">
         <v>0</v>
@@ -7248,32 +7348,32 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" s="12">
         <v>44132</v>
       </c>
       <c r="D148" t="s">
-        <v>278</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>7</v>
+        <v>277</v>
+      </c>
+      <c r="E148" t="s">
+        <v>164</v>
       </c>
       <c r="F148" s="12">
-        <v>27118</v>
+        <v>24414</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H148" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J148" s="11">
         <v>0</v>
@@ -7285,32 +7385,32 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="12">
         <v>44132</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>26</v>
+        <v>277</v>
+      </c>
+      <c r="E149" t="s">
+        <v>198</v>
       </c>
       <c r="F149" s="12">
-        <v>22024</v>
+        <v>19103</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>61</v>
-      </c>
-      <c r="H149" t="s">
-        <v>202</v>
+        <v>69</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J149" s="11">
         <v>0</v>
@@ -7322,69 +7422,68 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" s="12">
         <v>44132</v>
       </c>
       <c r="D150" t="s">
-        <v>278</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F150" s="12">
-        <v>24242</v>
+        <v>277</v>
+      </c>
+      <c r="E150" t="s">
+        <v>230</v>
+      </c>
+      <c r="F150" s="9">
+        <v>21953</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>55</v>
-      </c>
-      <c r="H150" t="s">
-        <v>202</v>
+        <v>61</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J150" s="11">
         <v>0</v>
       </c>
       <c r="K150"/>
       <c r="L150" s="9"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="N150"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="B151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" s="12">
         <v>44132</v>
       </c>
       <c r="D151" t="s">
-        <v>278</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>116</v>
+        <v>277</v>
+      </c>
+      <c r="E151" t="s">
+        <v>175</v>
       </c>
       <c r="F151" s="12">
-        <v>18036</v>
+        <v>19287</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H151" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J151" s="11">
         <v>0</v>
@@ -7396,69 +7495,69 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>131</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>277</v>
+      </c>
+      <c r="E152" t="s">
         <v>197</v>
       </c>
-      <c r="B152">
-        <v>7</v>
-      </c>
-      <c r="C152" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D152" t="s">
-        <v>278</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="F152" s="12">
-        <v>25846</v>
+        <v>27361</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>51</v>
-      </c>
-      <c r="H152" t="s">
-        <v>202</v>
+        <v>47</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="2"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="2"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" s="12">
         <v>44132</v>
       </c>
       <c r="D153" t="s">
-        <v>278</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>66</v>
+        <v>277</v>
+      </c>
+      <c r="E153" t="s">
+        <v>190</v>
       </c>
       <c r="F153" s="12">
-        <v>27112</v>
+        <v>20797</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>47</v>
-      </c>
-      <c r="H153" t="s">
-        <v>202</v>
+        <v>65</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>
@@ -7470,32 +7569,32 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" s="12">
         <v>44132</v>
       </c>
       <c r="D154" t="s">
-        <v>278</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>105</v>
+        <v>277</v>
+      </c>
+      <c r="E154" t="s">
+        <v>199</v>
       </c>
       <c r="F154" s="12">
-        <v>33308</v>
+        <v>23776</v>
       </c>
       <c r="G154" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>30</v>
-      </c>
-      <c r="H154" t="s">
-        <v>312</v>
+        <v>56</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J154" s="11">
         <v>0</v>
@@ -7507,32 +7606,32 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="12">
         <v>44132</v>
       </c>
       <c r="D155" t="s">
-        <v>278</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>77</v>
+        <v>277</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F155" s="12">
-        <v>25397</v>
+        <v>22094</v>
       </c>
       <c r="G155" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H155" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J155" s="11">
         <v>0</v>
@@ -7544,32 +7643,32 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="12">
         <v>44132</v>
       </c>
       <c r="D156" t="s">
-        <v>278</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>56</v>
+        <v>277</v>
+      </c>
+      <c r="E156" t="s">
+        <v>177</v>
       </c>
       <c r="F156" s="12">
-        <v>32533</v>
+        <v>20651</v>
       </c>
       <c r="G156" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H156" t="s">
-        <v>229</v>
-      </c>
-      <c r="I156" t="s">
-        <v>282</v>
+        <v>205</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J156" s="11">
         <v>0</v>
@@ -7581,32 +7680,32 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="12">
         <v>44132</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>18</v>
+        <v>277</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F157" s="12">
-        <v>31454</v>
+        <v>23444</v>
       </c>
       <c r="G157" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H157" t="s">
-        <v>229</v>
-      </c>
-      <c r="I157" t="s">
-        <v>282</v>
+        <v>205</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J157" s="11">
         <v>0</v>
@@ -7618,7 +7717,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7629,21 +7728,21 @@
       <c r="D158" t="s">
         <v>278</v>
       </c>
-      <c r="E158" s="11" t="s">
-        <v>148</v>
+      <c r="E158" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F158" s="12">
-        <v>32481</v>
+        <v>21157</v>
       </c>
       <c r="G158" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H158" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J158" s="11">
         <v>0</v>
@@ -7655,7 +7754,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B159">
         <v>7</v>
@@ -7667,20 +7766,20 @@
         <v>278</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="F159" s="12">
-        <v>31783</v>
+        <v>33308</v>
       </c>
       <c r="G159" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F159))</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H159" t="s">
-        <v>229</v>
-      </c>
-      <c r="I159" t="s">
-        <v>282</v>
+        <v>312</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="J159" s="11">
         <v>0</v>
@@ -7692,7 +7791,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B160">
         <v>7</v>
@@ -7703,21 +7802,21 @@
       <c r="D160" t="s">
         <v>278</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>10</v>
+      <c r="E160" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F160" s="12">
-        <v>19657</v>
+        <v>25397</v>
       </c>
       <c r="G160" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F160))</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H160" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="J160" s="11">
         <v>0</v>
@@ -7729,7 +7828,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -7740,21 +7839,21 @@
       <c r="D161" t="s">
         <v>278</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>41</v>
+      <c r="E161" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F161" s="12">
-        <v>20255</v>
+        <v>32533</v>
       </c>
       <c r="G161" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F161))</f>
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>204</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>287</v>
+        <v>229</v>
+      </c>
+      <c r="I161" t="s">
+        <v>282</v>
       </c>
       <c r="J161" s="11">
         <v>0</v>
@@ -7766,7 +7865,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -7777,21 +7876,21 @@
       <c r="D162" t="s">
         <v>278</v>
       </c>
-      <c r="E162" s="11" t="s">
-        <v>96</v>
+      <c r="E162" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F162" s="12">
-        <v>27851</v>
+        <v>31454</v>
       </c>
       <c r="G162" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F162))</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H162" t="s">
-        <v>204</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>287</v>
+        <v>229</v>
+      </c>
+      <c r="I162" t="s">
+        <v>282</v>
       </c>
       <c r="J162" s="11">
         <v>0</v>
@@ -7803,7 +7902,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -7814,21 +7913,21 @@
       <c r="D163" t="s">
         <v>278</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>152</v>
+      <c r="E163" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F163" s="12">
-        <v>23371</v>
+        <v>32481</v>
       </c>
       <c r="G163" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F163))</f>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H163" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J163" s="11">
         <v>0</v>
@@ -7840,7 +7939,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -7851,21 +7950,21 @@
       <c r="D164" t="s">
         <v>278</v>
       </c>
-      <c r="E164" s="6" t="s">
-        <v>90</v>
+      <c r="E164" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="F164" s="12">
-        <v>15302</v>
+        <v>31783</v>
       </c>
       <c r="G164" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F164))</f>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H164" t="s">
-        <v>204</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>287</v>
+        <v>229</v>
+      </c>
+      <c r="I164" t="s">
+        <v>282</v>
       </c>
       <c r="J164" s="11">
         <v>0</v>
@@ -7877,7 +7976,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -7889,14 +7988,14 @@
         <v>278</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F165" s="12">
-        <v>17116</v>
+        <v>19657</v>
       </c>
       <c r="G165" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F165))</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H165" t="s">
         <v>204</v>
@@ -7914,7 +8013,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -7926,14 +8025,14 @@
         <v>278</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="F166" s="12">
-        <v>26864</v>
+        <v>20255</v>
       </c>
       <c r="G166" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F166))</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="H166" t="s">
         <v>204</v>
@@ -7951,7 +8050,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -7962,15 +8061,15 @@
       <c r="D167" t="s">
         <v>278</v>
       </c>
-      <c r="E167" s="6" t="s">
-        <v>124</v>
+      <c r="E167" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F167" s="12">
-        <v>27678</v>
+        <v>27851</v>
       </c>
       <c r="G167" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F167))</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167" t="s">
         <v>204</v>
@@ -7988,7 +8087,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -7999,21 +8098,21 @@
       <c r="D168" t="s">
         <v>278</v>
       </c>
-      <c r="E168" s="11" t="s">
-        <v>78</v>
+      <c r="E168" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F168" s="12">
-        <v>23332</v>
+        <v>23371</v>
       </c>
       <c r="G168" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F168))</f>
         <v>58</v>
       </c>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J168" s="11">
         <v>0</v>
@@ -8025,7 +8124,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -8036,21 +8135,21 @@
       <c r="D169" t="s">
         <v>278</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>127</v>
+      <c r="E169" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F169" s="12">
-        <v>24014</v>
+        <v>15302</v>
       </c>
       <c r="G169" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F169))</f>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J169" s="11">
         <v>0</v>
@@ -8062,7 +8161,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B170">
         <v>7</v>
@@ -8073,33 +8172,33 @@
       <c r="D170" t="s">
         <v>278</v>
       </c>
-      <c r="E170" s="5" t="s">
-        <v>32</v>
+      <c r="E170" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F170" s="12">
-        <v>25750</v>
+        <v>17116</v>
       </c>
       <c r="G170" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F170))</f>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J170" s="11">
         <v>0</v>
       </c>
       <c r="K170"/>
       <c r="L170" s="9"/>
-      <c r="M170" s="8"/>
+      <c r="M170" s="2"/>
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B171">
         <v>7</v>
@@ -8110,21 +8209,21 @@
       <c r="D171" t="s">
         <v>278</v>
       </c>
-      <c r="E171" s="11" t="s">
-        <v>145</v>
+      <c r="E171" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="F171" s="12">
-        <v>26900</v>
+        <v>26864</v>
       </c>
       <c r="G171" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F171))</f>
         <v>48</v>
       </c>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J171" s="11">
         <v>0</v>
@@ -8136,7 +8235,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B172">
         <v>7</v>
@@ -8147,21 +8246,21 @@
       <c r="D172" t="s">
         <v>278</v>
       </c>
-      <c r="E172" s="11" t="s">
-        <v>8</v>
+      <c r="E172" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="F172" s="12">
-        <v>25885</v>
+        <v>27678</v>
       </c>
       <c r="G172" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F172))</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J172" s="11">
         <v>0</v>
@@ -8173,7 +8272,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B173">
         <v>7</v>
@@ -8184,15 +8283,15 @@
       <c r="D173" t="s">
         <v>278</v>
       </c>
-      <c r="E173" s="5" t="s">
-        <v>61</v>
+      <c r="E173" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F173" s="12">
-        <v>26709</v>
+        <v>23332</v>
       </c>
       <c r="G173" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F173))</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H173" t="s">
         <v>206</v>
@@ -8210,7 +8309,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B174">
         <v>7</v>
@@ -8221,21 +8320,21 @@
       <c r="D174" t="s">
         <v>278</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>117</v>
+      <c r="E174" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F174" s="12">
-        <v>24059</v>
+        <v>24014</v>
       </c>
       <c r="G174" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F174))</f>
         <v>56</v>
       </c>
       <c r="H174" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J174" s="11">
         <v>0</v>
@@ -8247,7 +8346,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B175">
         <v>7</v>
@@ -8258,33 +8357,33 @@
       <c r="D175" t="s">
         <v>278</v>
       </c>
-      <c r="E175" s="11" t="s">
-        <v>132</v>
+      <c r="E175" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F175" s="12">
-        <v>23006</v>
+        <v>25750</v>
       </c>
       <c r="G175" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F175))</f>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J175" s="11">
         <v>0</v>
       </c>
       <c r="K175"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="2"/>
+      <c r="M175" s="8"/>
       <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -8295,21 +8394,21 @@
       <c r="D176" t="s">
         <v>278</v>
       </c>
-      <c r="E176" s="6" t="s">
-        <v>81</v>
+      <c r="E176" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="F176" s="12">
-        <v>23226</v>
+        <v>26900</v>
       </c>
       <c r="G176" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F176))</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H176" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J176" s="11">
         <v>0</v>
@@ -8321,7 +8420,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -8333,20 +8432,20 @@
         <v>278</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F177" s="12">
-        <v>29503</v>
+        <v>25885</v>
       </c>
       <c r="G177" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F177))</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J177" s="11">
         <v>0</v>
@@ -8354,11 +8453,11 @@
       <c r="K177"/>
       <c r="L177" s="9"/>
       <c r="M177" s="2"/>
-      <c r="N177"/>
+      <c r="N177" s="2"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -8369,21 +8468,21 @@
       <c r="D178" t="s">
         <v>278</v>
       </c>
-      <c r="E178" s="6" t="s">
-        <v>143</v>
+      <c r="E178" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F178" s="12">
-        <v>16390</v>
+        <v>26709</v>
       </c>
       <c r="G178" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F178))</f>
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J178" s="11">
         <v>0</v>
@@ -8395,7 +8494,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B179">
         <v>7</v>
@@ -8407,20 +8506,20 @@
         <v>278</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="F179" s="12">
-        <v>16997</v>
+        <v>24059</v>
       </c>
       <c r="G179" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F179))</f>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J179" s="11">
         <v>0</v>
@@ -8432,7 +8531,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -8444,20 +8543,20 @@
         <v>278</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F180" s="12">
-        <v>30347</v>
+        <v>23006</v>
       </c>
       <c r="G180" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F180))</f>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J180" s="11">
         <v>0</v>
@@ -8469,7 +8568,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -8481,20 +8580,20 @@
         <v>278</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F181" s="12">
-        <v>25970</v>
+        <v>23226</v>
       </c>
       <c r="G181" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F181))</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H181" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J181" s="11">
         <v>0</v>
@@ -8506,7 +8605,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="B182">
         <v>7</v>
@@ -8517,15 +8616,15 @@
       <c r="D182" t="s">
         <v>278</v>
       </c>
-      <c r="E182" s="6" t="s">
-        <v>149</v>
+      <c r="E182" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F182" s="12">
-        <v>18196</v>
+        <v>29503</v>
       </c>
       <c r="G182" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F182))</f>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="H182" t="s">
         <v>201</v>
@@ -8539,11 +8638,11 @@
       <c r="K182"/>
       <c r="L182" s="9"/>
       <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
+      <c r="N182"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -8554,15 +8653,15 @@
       <c r="D183" t="s">
         <v>278</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>106</v>
+      <c r="E183" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="F183" s="12">
-        <v>24964</v>
+        <v>16390</v>
       </c>
       <c r="G183" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F183))</f>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H183" t="s">
         <v>201</v>
@@ -8580,7 +8679,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="B184">
         <v>7</v>
@@ -8592,14 +8691,14 @@
         <v>278</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="F184" s="12">
-        <v>23594</v>
+        <v>16997</v>
       </c>
       <c r="G184" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F184))</f>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H184" t="s">
         <v>201</v>
@@ -8617,7 +8716,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -8629,14 +8728,14 @@
         <v>278</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F185" s="12">
-        <v>20885</v>
+        <v>30347</v>
       </c>
       <c r="G185" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F185))</f>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H185" t="s">
         <v>201</v>
@@ -8654,7 +8753,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B186">
         <v>7</v>
@@ -8665,15 +8764,15 @@
       <c r="D186" t="s">
         <v>278</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>47</v>
+      <c r="E186" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F186" s="12">
-        <v>31562</v>
+        <v>25970</v>
       </c>
       <c r="G186" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F186))</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H186" t="s">
         <v>201</v>
@@ -8691,7 +8790,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B187">
         <v>7</v>
@@ -8703,14 +8802,14 @@
         <v>278</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="F187" s="12">
-        <v>21338</v>
+        <v>18196</v>
       </c>
       <c r="G187" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F187))</f>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H187" t="s">
         <v>201</v>
@@ -8728,7 +8827,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="B188">
         <v>7</v>
@@ -8739,15 +8838,15 @@
       <c r="D188" t="s">
         <v>278</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>153</v>
+      <c r="E188" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F188" s="12">
-        <v>20371</v>
+        <v>24964</v>
       </c>
       <c r="G188" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F188))</f>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H188" t="s">
         <v>201</v>
@@ -8761,11 +8860,11 @@
       <c r="K188"/>
       <c r="L188" s="9"/>
       <c r="M188" s="2"/>
-      <c r="N188"/>
+      <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="B189">
         <v>7</v>
@@ -8776,15 +8875,15 @@
       <c r="D189" t="s">
         <v>278</v>
       </c>
-      <c r="E189" s="11" t="s">
-        <v>9</v>
+      <c r="E189" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F189" s="12">
-        <v>20417</v>
+        <v>23594</v>
       </c>
       <c r="G189" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F189))</f>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H189" t="s">
         <v>201</v>
@@ -8802,7 +8901,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -8814,14 +8913,14 @@
         <v>278</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F190" s="12">
-        <v>20655</v>
+        <v>20885</v>
       </c>
       <c r="G190" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F190))</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H190" t="s">
         <v>201</v>
@@ -8839,7 +8938,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -8851,14 +8950,14 @@
         <v>278</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F191" s="12">
-        <v>18677</v>
+        <v>31562</v>
       </c>
       <c r="G191" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F191))</f>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H191" t="s">
         <v>201</v>
@@ -8871,11 +8970,12 @@
       </c>
       <c r="K191"/>
       <c r="L191" s="9"/>
-      <c r="N191"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B192">
         <v>7</v>
@@ -8886,21 +8986,21 @@
       <c r="D192" t="s">
         <v>278</v>
       </c>
-      <c r="E192" s="11" t="s">
-        <v>64</v>
+      <c r="E192" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F192" s="12">
-        <v>18196</v>
+        <v>21338</v>
       </c>
       <c r="G192" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F192))</f>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J192" s="11">
         <v>0</v>
@@ -8912,7 +9012,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B193">
         <v>7</v>
@@ -8923,21 +9023,21 @@
       <c r="D193" t="s">
         <v>278</v>
       </c>
-      <c r="E193" s="11" t="s">
-        <v>13</v>
+      <c r="E193" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="F193" s="12">
-        <v>25691</v>
+        <v>20371</v>
       </c>
       <c r="G193" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F193))</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H193" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J193" s="11">
         <v>0</v>
@@ -8945,11 +9045,11 @@
       <c r="K193"/>
       <c r="L193" s="9"/>
       <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
+      <c r="N193"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="B194">
         <v>7</v>
@@ -8960,21 +9060,21 @@
       <c r="D194" t="s">
         <v>278</v>
       </c>
-      <c r="E194" s="6" t="s">
-        <v>130</v>
+      <c r="E194" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="F194" s="12">
-        <v>32261</v>
+        <v>20417</v>
       </c>
       <c r="G194" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F194))</f>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J194" s="11">
         <v>0</v>
@@ -8986,7 +9086,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B195">
         <v>7</v>
@@ -8998,20 +9098,20 @@
         <v>278</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F195" s="12">
-        <v>16607</v>
+        <v>20655</v>
       </c>
       <c r="G195" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F195))</f>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H195" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J195" s="11">
         <v>0</v>
@@ -9023,7 +9123,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B196">
         <v>7</v>
@@ -9035,32 +9135,31 @@
         <v>278</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F196" s="12">
-        <v>25940</v>
+        <v>18677</v>
       </c>
       <c r="G196" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F196))</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H196" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J196" s="11">
         <v>0</v>
       </c>
       <c r="K196"/>
       <c r="L196" s="9"/>
-      <c r="M196" s="2"/>
-      <c r="N196" s="2"/>
+      <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B197">
         <v>7</v>
@@ -9072,14 +9171,14 @@
         <v>278</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="F197" s="12">
-        <v>16008</v>
+        <v>18196</v>
       </c>
       <c r="G197" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F197))</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H197" t="s">
         <v>210</v>
@@ -9097,7 +9196,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B198">
         <v>7</v>
@@ -9108,15 +9207,15 @@
       <c r="D198" t="s">
         <v>278</v>
       </c>
-      <c r="E198" s="5" t="s">
-        <v>50</v>
+      <c r="E198" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F198" s="12">
-        <v>22559</v>
+        <v>25691</v>
       </c>
       <c r="G198" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F198))</f>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H198" t="s">
         <v>210</v>
@@ -9134,7 +9233,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B199">
         <v>7</v>
@@ -9146,14 +9245,14 @@
         <v>278</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="F199" s="12">
-        <v>31868</v>
+        <v>32261</v>
       </c>
       <c r="G199" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F199))</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199" t="s">
         <v>210</v>
@@ -9171,7 +9270,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -9183,14 +9282,14 @@
         <v>278</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F200" s="12">
-        <v>27508</v>
+        <v>16607</v>
       </c>
       <c r="G200" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F200))</f>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H200" t="s">
         <v>210</v>
@@ -9208,7 +9307,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -9220,20 +9319,20 @@
         <v>278</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F201" s="12">
-        <v>26445</v>
+        <v>25940</v>
       </c>
       <c r="G201" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F201))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H201" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J201" s="11">
         <v>0</v>
@@ -9245,7 +9344,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -9257,20 +9356,20 @@
         <v>278</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F202" s="12">
-        <v>22250</v>
+        <v>16008</v>
       </c>
       <c r="G202" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F202))</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H202" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J202" s="11">
         <v>0</v>
@@ -9282,7 +9381,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -9293,21 +9392,21 @@
       <c r="D203" t="s">
         <v>278</v>
       </c>
-      <c r="E203" s="11" t="s">
-        <v>5</v>
+      <c r="E203" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F203" s="12">
-        <v>16725</v>
+        <v>22559</v>
       </c>
       <c r="G203" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F203))</f>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H203" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J203" s="11">
         <v>0</v>
@@ -9319,7 +9418,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -9330,21 +9429,21 @@
       <c r="D204" t="s">
         <v>278</v>
       </c>
-      <c r="E204" s="11" t="s">
-        <v>16</v>
+      <c r="E204" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F204" s="12">
-        <v>28888</v>
+        <v>31868</v>
       </c>
       <c r="G204" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F204))</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H204" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J204" s="11">
         <v>0</v>
@@ -9356,7 +9455,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B205">
         <v>7</v>
@@ -9367,21 +9466,21 @@
       <c r="D205" t="s">
         <v>278</v>
       </c>
-      <c r="E205" s="6" t="s">
-        <v>76</v>
+      <c r="E205" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="F205" s="12">
-        <v>31920</v>
+        <v>27508</v>
       </c>
       <c r="G205" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F205))</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H205" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J205" s="11">
         <v>0</v>
@@ -9393,7 +9492,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -9405,20 +9504,20 @@
         <v>278</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F206" s="12">
-        <v>24717</v>
+        <v>26445</v>
       </c>
       <c r="G206" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F206))</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H206" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J206" s="11">
         <v>0</v>
@@ -9430,7 +9529,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B207">
         <v>7</v>
@@ -9442,20 +9541,20 @@
         <v>278</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F207" s="12">
-        <v>23367</v>
+        <v>22250</v>
       </c>
       <c r="G207" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F207))</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H207" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J207" s="11">
         <v>0</v>
@@ -9467,7 +9566,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -9479,20 +9578,20 @@
         <v>278</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F208" s="12">
-        <v>22655</v>
+        <v>16725</v>
       </c>
       <c r="G208" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F208))</f>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H208" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J208" s="11">
         <v>0</v>
@@ -9504,7 +9603,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -9515,21 +9614,21 @@
       <c r="D209" t="s">
         <v>278</v>
       </c>
-      <c r="E209" s="6" t="s">
-        <v>23</v>
+      <c r="E209" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F209" s="12">
-        <v>26802</v>
+        <v>28888</v>
       </c>
       <c r="G209" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F209))</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H209" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J209" s="11">
         <v>0</v>
@@ -9541,7 +9640,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -9552,21 +9651,21 @@
       <c r="D210" t="s">
         <v>278</v>
       </c>
-      <c r="E210" s="11" t="s">
-        <v>118</v>
+      <c r="E210" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F210" s="12">
-        <v>25566</v>
+        <v>31920</v>
       </c>
       <c r="G210" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F210))</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J210" s="11">
         <v>0</v>
@@ -9578,7 +9677,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -9590,20 +9689,20 @@
         <v>278</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F211" s="12">
-        <v>21970</v>
+        <v>24717</v>
       </c>
       <c r="G211" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F211))</f>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H211" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J211" s="11">
         <v>0</v>
@@ -9615,7 +9714,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B212">
         <v>7</v>
@@ -9626,21 +9725,21 @@
       <c r="D212" t="s">
         <v>278</v>
       </c>
-      <c r="E212" s="6" t="s">
-        <v>97</v>
+      <c r="E212" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F212" s="12">
-        <v>14974</v>
+        <v>23367</v>
       </c>
       <c r="G212" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F212))</f>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H212" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J212" s="11">
         <v>0</v>
@@ -9652,7 +9751,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B213">
         <v>7</v>
@@ -9663,21 +9762,21 @@
       <c r="D213" t="s">
         <v>278</v>
       </c>
-      <c r="E213" s="6" t="s">
-        <v>52</v>
+      <c r="E213" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F213" s="12">
-        <v>21958</v>
+        <v>22655</v>
       </c>
       <c r="G213" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F213))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H213" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J213" s="11">
         <v>0</v>
@@ -9689,7 +9788,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B214">
         <v>7</v>
@@ -9701,20 +9800,20 @@
         <v>278</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F214" s="12">
-        <v>32142</v>
+        <v>26802</v>
       </c>
       <c r="G214" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F214))</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H214" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J214" s="11">
         <v>0</v>
@@ -9726,7 +9825,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B215">
         <v>7</v>
@@ -9738,20 +9837,20 @@
         <v>278</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F215" s="12">
-        <v>25067</v>
+        <v>25566</v>
       </c>
       <c r="G215" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F215))</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H215" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J215" s="11">
         <v>0</v>
@@ -9763,7 +9862,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B216">
         <v>7</v>
@@ -9774,21 +9873,21 @@
       <c r="D216" t="s">
         <v>278</v>
       </c>
-      <c r="E216" s="6" t="s">
-        <v>39</v>
+      <c r="E216" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F216" s="12">
-        <v>25592</v>
+        <v>21970</v>
       </c>
       <c r="G216" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F216))</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H216" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J216" s="11">
         <v>0</v>
@@ -9800,7 +9899,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B217">
         <v>7</v>
@@ -9812,20 +9911,20 @@
         <v>278</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F217" s="12">
-        <v>21445</v>
+        <v>14974</v>
       </c>
       <c r="G217" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F217))</f>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H217" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J217" s="11">
         <v>0</v>
@@ -9837,7 +9936,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B218">
         <v>7</v>
@@ -9849,20 +9948,20 @@
         <v>278</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F218" s="12">
-        <v>18781</v>
+        <v>21958</v>
       </c>
       <c r="G218" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F218))</f>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H218" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J218" s="11">
         <v>0</v>
@@ -11562,7 +11661,7 @@
   </sheetData>
   <autoFilter ref="A1:N264" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N264">
-      <sortCondition descending="1" ref="J1:J264"/>
+      <sortCondition ref="K1:K264"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N265">
@@ -11571,9 +11670,9 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M47" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M49" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M59" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M60" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M61" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="M23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/endoso_pres21.xlsx
+++ b/endoso_pres21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\endosos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FD0AA5-FD63-472C-91E9-A677BF89627F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C697904-36A6-421C-B22C-9B874D342360}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -1051,6 +1051,12 @@
   </si>
   <si>
     <t>REP</t>
+  </si>
+  <si>
+    <t>https://www.theclinic.cl/2021/01/20/diputado-juan-santana-presidente-de-la-js-le-manifestaremos-desde-la-juventud-socialista-nuestro-completo-respaldo-a-paula-narvaez/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/bancadaPSchile/status/1351593620114186240</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,44 +3128,44 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C38" s="12">
         <v>44132</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="9">
-        <v>20492</v>
+        <v>278</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="12">
+        <v>32771</v>
       </c>
       <c r="G38" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F38))</f>
-        <v>65</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>200</v>
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>202</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J38" s="11">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L38" s="9">
-        <v>44182</v>
+        <v>44216</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>315</v>
@@ -3167,7 +3173,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3179,32 +3185,32 @@
         <v>278</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F39" s="12">
-        <v>31990</v>
+        <v>18640</v>
       </c>
       <c r="G39" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F39))</f>
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L39" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>315</v>
@@ -3212,7 +3218,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3224,32 +3230,32 @@
         <v>278</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="F40" s="12">
-        <v>31120</v>
+        <v>27118</v>
       </c>
       <c r="G40" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F40))</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L40" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>315</v>
@@ -3257,7 +3263,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3268,33 +3274,33 @@
       <c r="D41" t="s">
         <v>278</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>68</v>
+      <c r="E41" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F41" s="12">
-        <v>26133</v>
+        <v>22024</v>
       </c>
       <c r="G41" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F41))</f>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J41" s="11">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L41" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>315</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3313,33 +3319,33 @@
       <c r="D42" t="s">
         <v>278</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>91</v>
+      <c r="E42" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F42" s="12">
-        <v>22263</v>
+        <v>24242</v>
       </c>
       <c r="G42" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F42))</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L42" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>315</v>
@@ -3347,7 +3353,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3359,32 +3365,32 @@
         <v>278</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F43" s="12">
-        <v>21548</v>
+        <v>18036</v>
       </c>
       <c r="G43" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F43))</f>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L43" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>315</v>
@@ -3392,7 +3398,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3403,33 +3409,33 @@
       <c r="D44" t="s">
         <v>278</v>
       </c>
-      <c r="E44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="9">
-        <v>31116</v>
+      <c r="E44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="12">
+        <v>25846</v>
       </c>
       <c r="G44" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F44))</f>
-        <v>36</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>200</v>
+        <v>51</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L44" s="9">
-        <v>44135</v>
+        <v>44215</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>315</v>
@@ -3437,7 +3443,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3448,33 +3454,33 @@
       <c r="D45" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>69</v>
+      <c r="E45" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="F45" s="12">
-        <v>28805</v>
+        <v>27112</v>
       </c>
       <c r="G45" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F45))</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L45" s="9">
-        <v>44182</v>
+        <v>44215</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>315</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3493,33 +3499,33 @@
       <c r="D46" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>134</v>
+      <c r="E46" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F46" s="12">
-        <v>19343</v>
+        <v>32142</v>
       </c>
       <c r="G46" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F46))</f>
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J46" s="11">
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L46" s="9">
-        <v>44144</v>
+        <v>44215</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>315</v>
@@ -3527,7 +3533,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3538,33 +3544,33 @@
       <c r="D47" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>119</v>
+      <c r="E47" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F47" s="12">
-        <v>28018</v>
+        <v>25067</v>
       </c>
       <c r="G47" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F47))</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J47" s="11">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L47" s="9">
-        <v>44144</v>
+        <v>44215</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>315</v>
@@ -3572,7 +3578,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3583,33 +3589,33 @@
       <c r="D48" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>20</v>
+      <c r="E48" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F48" s="12">
-        <v>31247</v>
+        <v>25592</v>
       </c>
       <c r="G48" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F48))</f>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="L48" s="9">
-        <v>44144</v>
+        <v>44215</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>315</v>
@@ -3617,506 +3623,611 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C49" s="12">
         <v>44132</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
-      </c>
-      <c r="E49" t="s">
-        <v>223</v>
-      </c>
-      <c r="F49" s="9">
-        <v>18233</v>
+        <v>278</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="12">
+        <v>21445</v>
       </c>
       <c r="G49" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F49))</f>
-        <v>72</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>201</v>
+        <v>63</v>
+      </c>
+      <c r="H49" t="s">
+        <v>202</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49"/>
-      <c r="L49" s="9"/>
-      <c r="N49"/>
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L49" s="9">
+        <v>44215</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50" s="12">
         <v>44132</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" t="s">
-        <v>225</v>
-      </c>
-      <c r="F50" s="9">
-        <v>15516</v>
+        <v>278</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="12">
+        <v>18781</v>
       </c>
       <c r="G50" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F50))</f>
-        <v>79</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>204</v>
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>202</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J50" s="11">
-        <v>0</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>334</v>
+      </c>
+      <c r="L50" s="9">
+        <v>44215</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="12">
         <v>44132</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E51" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="F51" s="9">
-        <v>13941</v>
+        <v>20492</v>
       </c>
       <c r="G51" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F51))</f>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J51" s="11">
-        <v>0</v>
-      </c>
-      <c r="K51"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>324</v>
+      </c>
+      <c r="L51" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C52" s="12">
         <v>44132</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
-      </c>
-      <c r="E52" t="s">
-        <v>298</v>
-      </c>
-      <c r="F52" s="9">
-        <v>20120</v>
+        <v>278</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="12">
+        <v>31990</v>
       </c>
       <c r="G52" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F52))</f>
-        <v>66</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>206</v>
+        <v>34</v>
+      </c>
+      <c r="H52" t="s">
+        <v>200</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J52" s="11">
-        <v>0</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>324</v>
+      </c>
+      <c r="L52" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" s="12">
         <v>44132</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E53" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" s="9">
-        <v>26645</v>
+        <v>278</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="12">
+        <v>31120</v>
       </c>
       <c r="G53" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F53))</f>
-        <v>49</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>206</v>
+        <v>36</v>
+      </c>
+      <c r="H53" t="s">
+        <v>200</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="J53" s="11">
-        <v>0</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>324</v>
+      </c>
+      <c r="L53" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54" s="12">
         <v>44132</v>
       </c>
       <c r="D54" t="s">
-        <v>274</v>
-      </c>
-      <c r="E54" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54" s="9">
-        <v>20671</v>
+        <v>278</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="12">
+        <v>26133</v>
       </c>
       <c r="G54" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F54))</f>
-        <v>65</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>201</v>
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>200</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>324</v>
+      </c>
+      <c r="L54" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C55" s="12">
         <v>44132</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
-      </c>
-      <c r="E55" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="9">
-        <v>25134</v>
+        <v>278</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="12">
+        <v>22263</v>
       </c>
       <c r="G55" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F55))</f>
-        <v>53</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>201</v>
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
+        <v>200</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J55" s="11">
-        <v>0</v>
-      </c>
-      <c r="K55"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>324</v>
+      </c>
+      <c r="L55" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C56" s="12">
         <v>44132</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
-      </c>
-      <c r="E56" t="s">
-        <v>301</v>
-      </c>
-      <c r="F56" s="9">
-        <v>22460</v>
+        <v>278</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="12">
+        <v>21548</v>
       </c>
       <c r="G56" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F56))</f>
-        <v>60</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>201</v>
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>200</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>324</v>
+      </c>
+      <c r="L56" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C57" s="12">
         <v>44132</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="F57" s="9">
-        <v>24724</v>
+        <v>31116</v>
       </c>
       <c r="G57" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F57))</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J57" s="11">
-        <v>0</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>324</v>
+      </c>
+      <c r="L57" s="9">
+        <v>44135</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C58" s="12">
         <v>44132</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
-      </c>
-      <c r="E58" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="9">
-        <v>17815</v>
+        <v>278</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="12">
+        <v>28805</v>
       </c>
       <c r="G58" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F58))</f>
-        <v>73</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>201</v>
+        <v>43</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="J58" s="11">
-        <v>0</v>
-      </c>
-      <c r="K58"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>324</v>
+      </c>
+      <c r="L58" s="9">
+        <v>44182</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C59" s="12">
         <v>44132</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
-      </c>
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-      <c r="F59" s="9">
-        <v>17779</v>
+        <v>278</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="12">
+        <v>19343</v>
       </c>
       <c r="G59" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F59))</f>
-        <v>73</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>201</v>
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>204</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J59" s="11">
-        <v>0</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>323</v>
+      </c>
+      <c r="L59" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C60" s="12">
         <v>44132</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
-      </c>
-      <c r="E60" t="s">
-        <v>221</v>
-      </c>
-      <c r="F60" s="9">
-        <v>27681</v>
+        <v>278</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="12">
+        <v>28018</v>
       </c>
       <c r="G60" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F60))</f>
-        <v>46</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>201</v>
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>204</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J60" s="11">
-        <v>0</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>323</v>
+      </c>
+      <c r="L60" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C61" s="12">
         <v>44132</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F61" s="9">
-        <v>28232</v>
+        <v>278</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="12">
+        <v>31247</v>
       </c>
       <c r="G61" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F61))</f>
-        <v>44</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>201</v>
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>204</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J61" s="11">
-        <v>0</v>
-      </c>
-      <c r="K61"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>323</v>
+      </c>
+      <c r="L61" s="9">
+        <v>44144</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="12">
         <v>44132</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F62" s="9">
-        <v>27653</v>
+        <v>18233</v>
       </c>
       <c r="G62" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F62))</f>
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>201</v>
@@ -4129,37 +4240,36 @@
       </c>
       <c r="K62"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="12">
         <v>44132</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="F63" s="9">
-        <v>27474</v>
+        <v>15516</v>
       </c>
       <c r="G63" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F63))</f>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
@@ -4171,32 +4281,32 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="12">
         <v>44132</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F64" s="9">
-        <v>21368</v>
+        <v>13941</v>
       </c>
       <c r="G64" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F64))</f>
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -4208,7 +4318,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -4220,20 +4330,20 @@
         <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F65" s="9">
-        <v>27295</v>
+        <v>20120</v>
       </c>
       <c r="G65" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F65))</f>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
@@ -4245,7 +4355,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -4256,21 +4366,21 @@
       <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="12">
-        <v>25126</v>
+      <c r="E66" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="9">
+        <v>26645</v>
       </c>
       <c r="G66" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F66))</f>
-        <v>53</v>
-      </c>
-      <c r="H66" t="s">
-        <v>200</v>
+        <v>49</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J66" s="11">
         <v>0</v>
@@ -4282,7 +4392,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -4294,20 +4404,20 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F67" s="9">
-        <v>26556</v>
+        <v>20671</v>
       </c>
       <c r="G67" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F67))</f>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J67" s="11">
         <v>0</v>
@@ -4319,7 +4429,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -4331,20 +4441,20 @@
         <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="F68" s="9">
-        <v>17431</v>
+        <v>25134</v>
       </c>
       <c r="G68" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F68))</f>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
@@ -4356,7 +4466,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -4367,21 +4477,21 @@
       <c r="D69" t="s">
         <v>274</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="12">
-        <v>29554</v>
+      <c r="E69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="9">
+        <v>22460</v>
       </c>
       <c r="G69" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F69))</f>
-        <v>41</v>
-      </c>
-      <c r="H69" t="s">
-        <v>205</v>
+        <v>60</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
@@ -4393,7 +4503,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -4405,20 +4515,20 @@
         <v>274</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="F70" s="9">
-        <v>32557</v>
+        <v>24724</v>
       </c>
       <c r="G70" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F70))</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
@@ -4430,7 +4540,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -4442,20 +4552,20 @@
         <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="F71" s="9">
-        <v>27105</v>
+        <v>17815</v>
       </c>
       <c r="G71" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F71))</f>
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J71" s="11">
         <v>0</v>
@@ -4467,7 +4577,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4479,20 +4589,20 @@
         <v>274</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F72" s="9">
-        <v>22770</v>
+        <v>17779</v>
       </c>
       <c r="G72" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F72))</f>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J72" s="11">
         <v>0</v>
@@ -4504,7 +4614,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4516,20 +4626,20 @@
         <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F73" s="9">
-        <v>20015</v>
+        <v>27681</v>
       </c>
       <c r="G73" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F73))</f>
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J73" s="11">
         <v>0</v>
@@ -4541,96 +4651,100 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="12">
         <v>44132</v>
       </c>
       <c r="D74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F74" s="9">
-        <v>25454</v>
+        <v>28232</v>
       </c>
       <c r="G74" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F74))</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J74" s="11">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="9"/>
-      <c r="N74"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="12">
         <v>44132</v>
       </c>
       <c r="D75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F75" s="9">
-        <v>30994</v>
+        <v>27653</v>
       </c>
       <c r="G75" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F75))</f>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J75" s="11">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="9"/>
-      <c r="N75"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="12">
         <v>44132</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="9"/>
+        <v>302</v>
+      </c>
+      <c r="F76" s="9">
+        <v>27474</v>
+      </c>
       <c r="G76" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F76))</f>
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>201</v>
@@ -4643,100 +4757,107 @@
       </c>
       <c r="K76"/>
       <c r="L76" s="9"/>
-      <c r="N76"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="12">
         <v>44132</v>
       </c>
       <c r="D77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E77" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="F77" s="9">
-        <v>19642</v>
+        <v>21368</v>
       </c>
       <c r="G77" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F77))</f>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J77" s="11">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="9"/>
-      <c r="N77"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="12">
         <v>44132</v>
       </c>
       <c r="D78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s">
-        <v>257</v>
-      </c>
-      <c r="F78" s="9"/>
+        <v>307</v>
+      </c>
+      <c r="F78" s="9">
+        <v>27295</v>
+      </c>
       <c r="G78" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F78))</f>
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J78" s="11">
         <v>0</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="9"/>
-      <c r="N78"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="12">
         <v>44132</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E79" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" s="9"/>
+        <v>274</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="12">
+        <v>25126</v>
+      </c>
       <c r="G79" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F79))</f>
-        <v>121</v>
-      </c>
-      <c r="H79" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" t="s">
         <v>200</v>
       </c>
       <c r="I79" s="11" t="s">
@@ -4747,172 +4868,179 @@
       </c>
       <c r="K79"/>
       <c r="L79" s="9"/>
-      <c r="N79"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="12">
         <v>44132</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="F80" s="9">
-        <v>18048</v>
+        <v>26556</v>
       </c>
       <c r="G80" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F80))</f>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J80" s="11">
         <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="9"/>
-      <c r="N80"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="12">
         <v>44132</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="F81" s="9">
-        <v>26622</v>
+        <v>17431</v>
       </c>
       <c r="G81" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F81))</f>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J81" s="11">
         <v>0</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="9"/>
-      <c r="N81"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D82" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D82" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" t="s">
-        <v>262</v>
-      </c>
-      <c r="F82" s="9">
-        <v>29935</v>
+      <c r="F82" s="12">
+        <v>29554</v>
       </c>
       <c r="G82" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F82))</f>
-        <v>40</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>200</v>
+        <v>41</v>
+      </c>
+      <c r="H82" t="s">
+        <v>205</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J82" s="11">
         <v>0</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="9"/>
-      <c r="N82"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="12">
         <v>44132</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>255</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>220</v>
+      </c>
+      <c r="F83" s="9">
+        <v>32557</v>
+      </c>
       <c r="G83" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F83))</f>
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="9"/>
-      <c r="N83"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="12">
         <v>44132</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="F84" s="9">
-        <v>27655</v>
+        <v>27105</v>
       </c>
       <c r="G84" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F84))</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>205</v>
@@ -4925,30 +5053,31 @@
       </c>
       <c r="K84"/>
       <c r="L84" s="9"/>
-      <c r="N84"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="12">
         <v>44132</v>
       </c>
       <c r="D85" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E85" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="F85" s="9">
-        <v>25492</v>
+        <v>22770</v>
       </c>
       <c r="G85" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F85))</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>205</v>
@@ -4961,30 +5090,31 @@
       </c>
       <c r="K85"/>
       <c r="L85" s="9"/>
-      <c r="N85"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="12">
         <v>44132</v>
       </c>
       <c r="D86" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="F86" s="9">
-        <v>22881</v>
+        <v>20015</v>
       </c>
       <c r="G86" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F86))</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>205</v>
@@ -4997,11 +5127,12 @@
       </c>
       <c r="K86"/>
       <c r="L86" s="9"/>
-      <c r="N86"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -5013,20 +5144,20 @@
         <v>275</v>
       </c>
       <c r="E87" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F87" s="9">
-        <v>20806</v>
+        <v>25454</v>
       </c>
       <c r="G87" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F87))</f>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J87" s="11">
         <v>0</v>
@@ -5037,7 +5168,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B88">
         <v>4</v>
@@ -5049,20 +5180,20 @@
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F88" s="9">
-        <v>29105</v>
+        <v>30994</v>
       </c>
       <c r="G88" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F88))</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J88" s="11">
         <v>0</v>
@@ -5073,98 +5204,94 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="12">
         <v>44132</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
-      </c>
-      <c r="F89" s="9">
-        <v>28422</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F89))</f>
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J89" s="11">
         <v>0</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="9"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="12">
         <v>44132</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
-      </c>
-      <c r="F90" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="F90" s="9">
+        <v>19642</v>
+      </c>
       <c r="G90" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F90))</f>
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J90" s="11">
         <v>0</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="9"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="12">
         <v>44132</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
-      </c>
-      <c r="F91" s="9">
-        <v>26763</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F91))</f>
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>201</v>
@@ -5177,74 +5304,70 @@
       </c>
       <c r="K91"/>
       <c r="L91" s="9"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="12">
         <v>44132</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
-      </c>
-      <c r="F92" s="9">
-        <v>31131</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F92))</f>
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J92" s="11">
         <v>0</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="12">
         <v>44132</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F93" s="9">
-        <v>20899</v>
+        <v>18048</v>
       </c>
       <c r="G93" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F93))</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J93" s="11">
         <v>0</v>
@@ -5255,67 +5378,68 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="12">
         <v>44132</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F94" s="9">
-        <v>25265</v>
+        <v>26622</v>
       </c>
       <c r="G94" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F94))</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J94" s="11">
         <v>0</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="9"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="12">
         <v>44132</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>248</v>
-      </c>
-      <c r="F95" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="F95" s="9">
+        <v>29935</v>
+      </c>
       <c r="G95" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F95))</f>
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J95" s="11">
         <v>0</v>
@@ -5326,223 +5450,221 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="12">
         <v>44132</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
-      </c>
-      <c r="F96" s="9">
-        <v>26090</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F96))</f>
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J96" s="11">
         <v>0</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="12">
         <v>44132</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F97" s="9">
-        <v>28694</v>
+        <v>27655</v>
       </c>
       <c r="G97" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F97))</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J97" s="11">
         <v>0</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="9"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="12">
         <v>44132</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F98" s="9">
-        <v>34561</v>
+        <v>25492</v>
       </c>
       <c r="G98" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F98))</f>
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J98" s="11">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+      <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="12">
         <v>44132</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>251</v>
-      </c>
-      <c r="F99" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="F99" s="9">
+        <v>22881</v>
+      </c>
       <c r="G99" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F99))</f>
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J99" s="11">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="9"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="12">
         <v>44132</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
-      </c>
-      <c r="F100" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="F100" s="9">
+        <v>20806</v>
+      </c>
       <c r="G100" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F100))</f>
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J100" s="11">
         <v>0</v>
       </c>
       <c r="K100"/>
       <c r="L100" s="9"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="N100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="12">
         <v>44132</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
-      </c>
-      <c r="F101" s="9"/>
+        <v>256</v>
+      </c>
+      <c r="F101" s="9">
+        <v>29105</v>
+      </c>
       <c r="G101" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F101))</f>
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J101" s="11">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="9"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="N101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5554,31 +5676,30 @@
         <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
-      </c>
-      <c r="F102" s="9">
-        <v>27845</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F102))</f>
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J102" s="11">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="9"/>
-      <c r="N102"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5590,20 +5711,18 @@
         <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
-      </c>
-      <c r="F103" s="9">
-        <v>27116</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F103))</f>
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J103" s="11">
         <v>0</v>
@@ -5615,7 +5734,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5627,7 +5746,7 @@
         <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="10">
@@ -5635,21 +5754,22 @@
         <v>121</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J104" s="11">
         <v>0</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="9"/>
-      <c r="N104"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5661,31 +5781,32 @@
         <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F105" s="9">
-        <v>22196</v>
+        <v>28422</v>
       </c>
       <c r="G105" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F105))</f>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J105" s="11">
         <v>0</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="9"/>
-      <c r="N105"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5697,31 +5818,30 @@
         <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>247</v>
-      </c>
-      <c r="F106" s="9">
-        <v>19005</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F106" s="9"/>
       <c r="G106" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F106))</f>
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J106" s="11">
         <v>0</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="9"/>
-      <c r="N106"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5733,20 +5853,20 @@
         <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F107" s="9">
-        <v>19655</v>
+        <v>26763</v>
       </c>
       <c r="G107" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F107))</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J107" s="11">
         <v>0</v>
@@ -5758,7 +5878,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5770,20 +5890,20 @@
         <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F108" s="9">
-        <v>14442</v>
+        <v>31131</v>
       </c>
       <c r="G108" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F108))</f>
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J108" s="11">
         <v>0</v>
@@ -5795,69 +5915,68 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="12">
         <v>44132</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F109" s="12">
-        <v>25553</v>
+        <v>276</v>
+      </c>
+      <c r="E109" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109" s="9">
+        <v>20899</v>
       </c>
       <c r="G109" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F109))</f>
-        <v>52</v>
-      </c>
-      <c r="H109" t="s">
-        <v>204</v>
+        <v>64</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J109" s="11">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="N109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" s="12">
         <v>44132</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
-      </c>
-      <c r="F110" s="12">
-        <v>26653</v>
+        <v>246</v>
+      </c>
+      <c r="F110" s="9">
+        <v>25265</v>
       </c>
       <c r="G110" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F110))</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -5869,69 +5988,66 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="12">
         <v>44132</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F111" s="12">
-        <v>16153</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E111" t="s">
+        <v>248</v>
+      </c>
+      <c r="F111" s="9"/>
       <c r="G111" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F111))</f>
-        <v>77</v>
-      </c>
-      <c r="H111" t="s">
-        <v>204</v>
+        <v>121</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J111" s="11">
         <v>0</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="9"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" s="12">
         <v>44132</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
-      </c>
-      <c r="F112" s="12">
-        <v>19105</v>
+        <v>235</v>
+      </c>
+      <c r="F112" s="9">
+        <v>26090</v>
       </c>
       <c r="G112" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F112))</f>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J112" s="11">
         <v>0</v>
@@ -5943,32 +6059,32 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="12">
         <v>44132</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F113" s="12">
-        <v>25024</v>
+        <v>276</v>
+      </c>
+      <c r="E113" t="s">
+        <v>244</v>
+      </c>
+      <c r="F113" s="9">
+        <v>28694</v>
       </c>
       <c r="G113" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F113))</f>
-        <v>53</v>
-      </c>
-      <c r="H113" t="s">
-        <v>204</v>
+        <v>43</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J113" s="11">
         <v>0</v>
@@ -5980,106 +6096,105 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" s="12">
         <v>44132</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F114" s="12">
-        <v>28285</v>
+        <v>276</v>
+      </c>
+      <c r="E114" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" s="9">
+        <v>34561</v>
       </c>
       <c r="G114" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F114))</f>
-        <v>44</v>
-      </c>
-      <c r="H114" t="s">
-        <v>206</v>
+        <v>27</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J114" s="11">
         <v>0</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="9"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" s="12">
         <v>44132</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
-      </c>
-      <c r="F115" s="12">
-        <v>19423</v>
+        <v>250</v>
+      </c>
+      <c r="F115" s="9">
+        <v>27845</v>
       </c>
       <c r="G115" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F115))</f>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J115" s="11">
         <v>0</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="N115"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" s="12">
         <v>44132</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>182</v>
-      </c>
-      <c r="F116" s="12">
-        <v>22224</v>
+        <v>232</v>
+      </c>
+      <c r="F116" s="9">
+        <v>27116</v>
       </c>
       <c r="G116" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F116))</f>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -6087,147 +6202,142 @@
       <c r="K116"/>
       <c r="L116" s="9"/>
       <c r="M116" s="2"/>
-      <c r="N116"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" s="12">
         <v>44132</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
-      </c>
-      <c r="F117" s="12">
-        <v>24478</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F117" s="9"/>
       <c r="G117" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F117))</f>
-        <v>54</v>
-      </c>
-      <c r="H117" t="s">
-        <v>201</v>
+        <v>121</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="9"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="2"/>
+      <c r="N117"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="12">
         <v>44132</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>173</v>
-      </c>
-      <c r="F118" s="12">
-        <v>21845</v>
+        <v>240</v>
+      </c>
+      <c r="F118" s="9">
+        <v>22196</v>
       </c>
       <c r="G118" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F118))</f>
-        <v>62</v>
-      </c>
-      <c r="H118" t="s">
-        <v>201</v>
+        <v>61</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="9"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+      <c r="N118"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" s="12">
         <v>44132</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>196</v>
-      </c>
-      <c r="F119" s="12">
-        <v>27196</v>
+        <v>247</v>
+      </c>
+      <c r="F119" s="9">
+        <v>19005</v>
       </c>
       <c r="G119" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F119))</f>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="J119" s="11">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="9"/>
-      <c r="M119" s="2"/>
       <c r="N119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" s="12">
         <v>44132</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>187</v>
-      </c>
-      <c r="F120" s="12">
-        <v>26500</v>
+        <v>239</v>
+      </c>
+      <c r="F120" s="9">
+        <v>19655</v>
       </c>
       <c r="G120" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F120))</f>
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J120" s="11">
         <v>0</v>
@@ -6239,32 +6349,32 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="12">
         <v>44132</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F121" s="12">
-        <v>13455</v>
+        <v>276</v>
+      </c>
+      <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" s="9">
+        <v>14442</v>
       </c>
       <c r="G121" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F121))</f>
-        <v>85</v>
-      </c>
-      <c r="H121" t="s">
-        <v>203</v>
+        <v>82</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J121" s="11">
         <v>0</v>
@@ -6276,7 +6386,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -6288,32 +6398,32 @@
         <v>277</v>
       </c>
       <c r="E122" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F122" s="12">
-        <v>22698</v>
+        <v>24173</v>
       </c>
       <c r="G122" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F122))</f>
-        <v>59</v>
-      </c>
-      <c r="H122" t="s">
-        <v>203</v>
+        <v>55</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J122" s="11">
         <v>0</v>
       </c>
-      <c r="K122"/>
+      <c r="K122" s="15"/>
       <c r="L122" s="9"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6325,32 +6435,32 @@
         <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="F123" s="12">
-        <v>21509</v>
+        <v>25491</v>
       </c>
       <c r="G123" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F123))</f>
-        <v>63</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>310</v>
+        <v>52</v>
+      </c>
+      <c r="H123" t="s">
+        <v>202</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="J123" s="11">
         <v>0</v>
       </c>
-      <c r="K123"/>
+      <c r="K123" s="15"/>
       <c r="L123" s="9"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6361,17 +6471,17 @@
       <c r="D124" t="s">
         <v>277</v>
       </c>
-      <c r="E124" t="s">
-        <v>183</v>
+      <c r="E124" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F124" s="12">
-        <v>24173</v>
+        <v>15859</v>
       </c>
       <c r="G124" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F124))</f>
-        <v>55</v>
-      </c>
-      <c r="H124" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
         <v>202</v>
       </c>
       <c r="I124" s="11" t="s">
@@ -6380,14 +6490,14 @@
       <c r="J124" s="11">
         <v>0</v>
       </c>
-      <c r="K124"/>
+      <c r="K124" s="15"/>
       <c r="L124" s="9"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6399,16 +6509,16 @@
         <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="F125" s="12">
-        <v>25491</v>
+        <v>22288</v>
       </c>
       <c r="G125" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F125))</f>
-        <v>52</v>
-      </c>
-      <c r="H125" t="s">
+        <v>60</v>
+      </c>
+      <c r="H125" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I125" s="11" t="s">
@@ -6417,14 +6527,14 @@
       <c r="J125" s="11">
         <v>0</v>
       </c>
-      <c r="K125"/>
+      <c r="K125" s="15"/>
       <c r="L125" s="9"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B126">
         <v>6</v>
@@ -6435,17 +6545,17 @@
       <c r="D126" t="s">
         <v>277</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>167</v>
+      <c r="E126" t="s">
+        <v>195</v>
       </c>
       <c r="F126" s="12">
-        <v>15859</v>
+        <v>16010</v>
       </c>
       <c r="G126" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F126))</f>
         <v>78</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="11" t="s">
         <v>202</v>
       </c>
       <c r="I126" s="11" t="s">
@@ -6454,14 +6564,14 @@
       <c r="J126" s="11">
         <v>0</v>
       </c>
-      <c r="K126"/>
+      <c r="K126" s="15"/>
       <c r="L126" s="9"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="B127">
         <v>6</v>
@@ -6472,21 +6582,21 @@
       <c r="D127" t="s">
         <v>277</v>
       </c>
-      <c r="E127" t="s">
-        <v>188</v>
+      <c r="E127" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F127" s="12">
-        <v>22288</v>
+        <v>25553</v>
       </c>
       <c r="G127" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F127))</f>
-        <v>60</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>202</v>
+        <v>52</v>
+      </c>
+      <c r="H127" t="s">
+        <v>204</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J127" s="11">
         <v>0</v>
@@ -6498,7 +6608,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B128">
         <v>6</v>
@@ -6510,20 +6620,20 @@
         <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F128" s="12">
-        <v>16010</v>
+        <v>26653</v>
       </c>
       <c r="G128" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F128))</f>
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J128" s="11">
         <v>0</v>
@@ -6535,7 +6645,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B129">
         <v>6</v>
@@ -6546,21 +6656,21 @@
       <c r="D129" t="s">
         <v>277</v>
       </c>
-      <c r="E129" t="s">
-        <v>169</v>
+      <c r="E129" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="F129" s="12">
-        <v>28573</v>
+        <v>16153</v>
       </c>
       <c r="G129" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F129))</f>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J129" s="11">
         <v>0</v>
@@ -6572,7 +6682,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B130">
         <v>6</v>
@@ -6583,33 +6693,33 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>160</v>
+      <c r="E130" t="s">
+        <v>194</v>
       </c>
       <c r="F130" s="12">
-        <v>26073</v>
+        <v>19105</v>
       </c>
       <c r="G130" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F130))</f>
-        <v>50</v>
-      </c>
-      <c r="H130" t="s">
-        <v>200</v>
+        <v>69</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J130" s="11">
         <v>0</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="8"/>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B131">
         <v>6</v>
@@ -6620,33 +6730,33 @@
       <c r="D131" t="s">
         <v>277</v>
       </c>
-      <c r="E131" t="s">
-        <v>165</v>
+      <c r="E131" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="F131" s="12">
-        <v>20231</v>
+        <v>25024</v>
       </c>
       <c r="G131" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F131))</f>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H131" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J131" s="11">
         <v>0</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="8"/>
+      <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -6657,33 +6767,33 @@
       <c r="D132" t="s">
         <v>277</v>
       </c>
-      <c r="E132" t="s">
-        <v>159</v>
+      <c r="E132" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F132" s="12">
-        <v>21855</v>
+        <v>28285</v>
       </c>
       <c r="G132" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F132))</f>
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H132" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J132" s="11">
         <v>0</v>
       </c>
       <c r="K132"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B133">
         <v>6</v>
@@ -6695,20 +6805,20 @@
         <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F133" s="12">
-        <v>22882</v>
+        <v>19423</v>
       </c>
       <c r="G133" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F133))</f>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J133" s="11">
         <v>0</v>
@@ -6720,7 +6830,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B134">
         <v>6</v>
@@ -6731,21 +6841,21 @@
       <c r="D134" t="s">
         <v>277</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>108</v>
+      <c r="E134" t="s">
+        <v>182</v>
       </c>
       <c r="F134" s="12">
-        <v>29680</v>
+        <v>22224</v>
       </c>
       <c r="G134" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F134))</f>
-        <v>40</v>
-      </c>
-      <c r="H134" t="s">
-        <v>200</v>
+        <v>61</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J134" s="11">
         <v>0</v>
@@ -6753,11 +6863,11 @@
       <c r="K134"/>
       <c r="L134" s="9"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
+      <c r="N134"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B135">
         <v>6</v>
@@ -6769,32 +6879,32 @@
         <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F135" s="12">
-        <v>24414</v>
+        <v>24478</v>
       </c>
       <c r="G135" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F135))</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J135" s="11">
         <v>0</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="9"/>
-      <c r="M135" s="2"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="2"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -6806,20 +6916,20 @@
         <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F136" s="12">
-        <v>19103</v>
+        <v>21845</v>
       </c>
       <c r="G136" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F136))</f>
-        <v>69</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>205</v>
+        <v>62</v>
+      </c>
+      <c r="H136" t="s">
+        <v>201</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J136" s="11">
         <v>0</v>
@@ -6831,7 +6941,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -6843,31 +6953,32 @@
         <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>230</v>
-      </c>
-      <c r="F137" s="9">
-        <v>21953</v>
+        <v>196</v>
+      </c>
+      <c r="F137" s="12">
+        <v>27196</v>
       </c>
       <c r="G137" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F137))</f>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J137" s="11">
         <v>0</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="9"/>
+      <c r="M137" s="2"/>
       <c r="N137"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -6879,20 +6990,20 @@
         <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F138" s="12">
-        <v>19287</v>
+        <v>26500</v>
       </c>
       <c r="G138" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F138))</f>
-        <v>69</v>
-      </c>
-      <c r="H138" t="s">
-        <v>205</v>
+        <v>49</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J138" s="11">
         <v>0</v>
@@ -6904,7 +7015,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B139">
         <v>6</v>
@@ -6915,33 +7026,33 @@
       <c r="D139" t="s">
         <v>277</v>
       </c>
-      <c r="E139" t="s">
-        <v>197</v>
+      <c r="E139" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="F139" s="12">
-        <v>27361</v>
+        <v>13455</v>
       </c>
       <c r="G139" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F139))</f>
-        <v>47</v>
-      </c>
-      <c r="H139" s="11" t="s">
-        <v>205</v>
+        <v>85</v>
+      </c>
+      <c r="H139" t="s">
+        <v>203</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J139" s="11">
         <v>0</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="8"/>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B140">
         <v>6</v>
@@ -6953,20 +7064,20 @@
         <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F140" s="12">
-        <v>20797</v>
+        <v>22698</v>
       </c>
       <c r="G140" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F140))</f>
-        <v>65</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>205</v>
+        <v>59</v>
+      </c>
+      <c r="H140" t="s">
+        <v>203</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J140" s="11">
         <v>0</v>
@@ -6978,7 +7089,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -6990,20 +7101,20 @@
         <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F141" s="12">
-        <v>23776</v>
+        <v>21509</v>
       </c>
       <c r="G141" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F141))</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="J141" s="11">
         <v>0</v>
@@ -7015,7 +7126,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -7026,21 +7137,21 @@
       <c r="D142" t="s">
         <v>277</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>161</v>
+      <c r="E142" t="s">
+        <v>169</v>
       </c>
       <c r="F142" s="12">
-        <v>22094</v>
+        <v>28573</v>
       </c>
       <c r="G142" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F142))</f>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H142" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J142" s="11">
         <v>0</v>
@@ -7052,7 +7163,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -7063,33 +7174,33 @@
       <c r="D143" t="s">
         <v>277</v>
       </c>
-      <c r="E143" t="s">
-        <v>177</v>
+      <c r="E143" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F143" s="12">
-        <v>20651</v>
+        <v>26073</v>
       </c>
       <c r="G143" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F143))</f>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H143" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J143" s="11">
         <v>0</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="9"/>
-      <c r="M143" s="2"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -7100,58 +7211,58 @@
       <c r="D144" t="s">
         <v>277</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>162</v>
+      <c r="E144" t="s">
+        <v>165</v>
       </c>
       <c r="F144" s="12">
-        <v>23444</v>
+        <v>20231</v>
       </c>
       <c r="G144" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F144))</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H144" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J144" s="11">
         <v>0</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="9"/>
-      <c r="M144" s="2"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" s="12">
         <v>44132</v>
       </c>
       <c r="D145" t="s">
-        <v>278</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>133</v>
+        <v>277</v>
+      </c>
+      <c r="E145" t="s">
+        <v>159</v>
       </c>
       <c r="F145" s="12">
-        <v>21157</v>
+        <v>21855</v>
       </c>
       <c r="G145" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F145))</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H145" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J145" s="11">
         <v>0</v>
@@ -7163,32 +7274,32 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" s="12">
         <v>44132</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>83</v>
+        <v>277</v>
+      </c>
+      <c r="E146" t="s">
+        <v>193</v>
       </c>
       <c r="F146" s="12">
-        <v>18640</v>
+        <v>22882</v>
       </c>
       <c r="G146" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F146))</f>
-        <v>70</v>
-      </c>
-      <c r="H146" t="s">
-        <v>202</v>
+        <v>59</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J146" s="11">
         <v>0</v>
@@ -7200,32 +7311,32 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="B147">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="12">
         <v>44132</v>
       </c>
       <c r="D147" t="s">
-        <v>278</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>7</v>
+        <v>277</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F147" s="12">
-        <v>27118</v>
+        <v>29680</v>
       </c>
       <c r="G147" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F147))</f>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H147" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J147" s="11">
         <v>0</v>
@@ -7237,32 +7348,32 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" s="12">
         <v>44132</v>
       </c>
       <c r="D148" t="s">
-        <v>278</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>26</v>
+        <v>277</v>
+      </c>
+      <c r="E148" t="s">
+        <v>164</v>
       </c>
       <c r="F148" s="12">
-        <v>22024</v>
+        <v>24414</v>
       </c>
       <c r="G148" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F148))</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H148" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J148" s="11">
         <v>0</v>
@@ -7274,32 +7385,32 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="B149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="12">
         <v>44132</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>112</v>
+        <v>277</v>
+      </c>
+      <c r="E149" t="s">
+        <v>198</v>
       </c>
       <c r="F149" s="12">
-        <v>32771</v>
+        <v>19103</v>
       </c>
       <c r="G149" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F149))</f>
-        <v>32</v>
-      </c>
-      <c r="H149" t="s">
-        <v>202</v>
+        <v>69</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J149" s="11">
         <v>0</v>
@@ -7311,69 +7422,68 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="B150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" s="12">
         <v>44132</v>
       </c>
       <c r="D150" t="s">
-        <v>278</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F150" s="12">
-        <v>24242</v>
+        <v>277</v>
+      </c>
+      <c r="E150" t="s">
+        <v>230</v>
+      </c>
+      <c r="F150" s="9">
+        <v>21953</v>
       </c>
       <c r="G150" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F150))</f>
-        <v>55</v>
-      </c>
-      <c r="H150" t="s">
-        <v>202</v>
+        <v>61</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J150" s="11">
         <v>0</v>
       </c>
       <c r="K150"/>
       <c r="L150" s="9"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="N150"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="B151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" s="12">
         <v>44132</v>
       </c>
       <c r="D151" t="s">
-        <v>278</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>116</v>
+        <v>277</v>
+      </c>
+      <c r="E151" t="s">
+        <v>175</v>
       </c>
       <c r="F151" s="12">
-        <v>18036</v>
+        <v>19287</v>
       </c>
       <c r="G151" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F151))</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H151" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J151" s="11">
         <v>0</v>
@@ -7385,69 +7495,69 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>131</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" s="12">
+        <v>44132</v>
+      </c>
+      <c r="D152" t="s">
+        <v>277</v>
+      </c>
+      <c r="E152" t="s">
         <v>197</v>
       </c>
-      <c r="B152">
-        <v>7</v>
-      </c>
-      <c r="C152" s="12">
-        <v>44132</v>
-      </c>
-      <c r="D152" t="s">
-        <v>278</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="F152" s="12">
-        <v>25846</v>
+        <v>27361</v>
       </c>
       <c r="G152" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F152))</f>
-        <v>51</v>
-      </c>
-      <c r="H152" t="s">
-        <v>202</v>
+        <v>47</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J152" s="11">
         <v>0</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="9"/>
-      <c r="M152" s="2"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="2"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" s="12">
         <v>44132</v>
       </c>
       <c r="D153" t="s">
-        <v>278</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>66</v>
+        <v>277</v>
+      </c>
+      <c r="E153" t="s">
+        <v>190</v>
       </c>
       <c r="F153" s="12">
-        <v>27112</v>
+        <v>20797</v>
       </c>
       <c r="G153" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F153))</f>
-        <v>47</v>
-      </c>
-      <c r="H153" t="s">
-        <v>202</v>
+        <v>65</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J153" s="11">
         <v>0</v>
@@ -7459,32 +7569,32 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" s="12">
         <v>44132</v>
       </c>
       <c r="D154" t="s">
-        <v>278</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>105</v>
+        <v>277</v>
+      </c>
+      <c r="E154" t="s">
+        <v>199</v>
       </c>
       <c r="F154" s="12">
-        <v>33308</v>
+        <v>23776</v>
       </c>
       <c r="G154" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F154))</f>
-        <v>30</v>
-      </c>
-      <c r="H154" t="s">
-        <v>312</v>
+        <v>56</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J154" s="11">
         <v>0</v>
@@ -7496,32 +7606,32 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B155">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="12">
         <v>44132</v>
       </c>
       <c r="D155" t="s">
-        <v>278</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>77</v>
+        <v>277</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="F155" s="12">
-        <v>25397</v>
+        <v>22094</v>
       </c>
       <c r="G155" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F155))</f>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H155" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J155" s="11">
         <v>0</v>
@@ -7533,32 +7643,32 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="12">
         <v>44132</v>
       </c>
       <c r="D156" t="s">
-        <v>278</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>56</v>
+        <v>277</v>
+      </c>
+      <c r="E156" t="s">
+        <v>177</v>
       </c>
       <c r="F156" s="12">
-        <v>32533</v>
+        <v>20651</v>
       </c>
       <c r="G156" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F156))</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H156" t="s">
-        <v>229</v>
-      </c>
-      <c r="I156" t="s">
-        <v>282</v>
+        <v>205</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J156" s="11">
         <v>0</v>
@@ -7570,32 +7680,32 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="12">
         <v>44132</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>18</v>
+        <v>277</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F157" s="12">
-        <v>31454</v>
+        <v>23444</v>
       </c>
       <c r="G157" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F157))</f>
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H157" t="s">
-        <v>229</v>
-      </c>
-      <c r="I157" t="s">
-        <v>282</v>
+        <v>205</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="J157" s="11">
         <v>0</v>
@@ -7607,7 +7717,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="B158">
         <v>7</v>
@@ -7618,21 +7728,21 @@
       <c r="D158" t="s">
         <v>278</v>
       </c>
-      <c r="E158" s="11" t="s">
-        <v>148</v>
+      <c r="E158" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F158" s="12">
-        <v>32481</v>
+        <v>21157</v>
       </c>
       <c r="G158" s="10">
         <f ca="1">(YEAR(TODAY())-YEAR(F158))</f>
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H158" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
      